--- a/list_p5_added.xlsx
+++ b/list_p5_added.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4881F011-881C-3845-8008-85ECA8117872}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EF3FD3-E6A6-994F-B851-B524D92E764A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="13720" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_p6" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="339">
   <si>
     <t>管理対象ID</t>
   </si>
@@ -1179,10 +1179,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>https://www.city.goto.nagasaki.jp/s094/010/050/080/20200107113913.html</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>http://www.itoigawa-base.com/viewspot/culture_02_01.html</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1199,9 +1195,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>https://tamataregu.or.jp/oniyo</t>
-  </si>
-  <si>
     <t>https://www.city.gojo.lg.jp/kankou/dentou/4032.html</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1223,10 +1216,6 @@
   </si>
   <si>
     <t>https://saga-otakara.jp/search/detail.php?id=5346</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.city.ofunato.iwate.jp/soshiki/syo-gaku/1931.html</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -1621,6 +1610,20 @@
   </si>
   <si>
     <t>2019-12-28</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://goto.nagasaki-tabinet.com/event/51078/</t>
+  </si>
+  <si>
+    <t>https://tamataregu.or.jp/oniyo</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://ofunato.jp/Summary/info/81</t>
+  </si>
+  <si>
+    <t>http://www.yanaicci.or.jp/yanai/event/sinmei-f.html</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2685,9 +2688,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V2" sqref="V2:V35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2761,7 +2764,7 @@
         <v>114</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="409.6">
@@ -2793,7 +2796,7 @@
         <v>101</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K2" t="s">
         <v>214</v>
@@ -2805,19 +2808,19 @@
         <v>97</v>
       </c>
       <c r="Q2" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="R2" t="s">
+        <v>252</v>
+      </c>
+      <c r="S2" t="s">
+        <v>253</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="U2" s="8" t="s">
         <v>254</v>
-      </c>
-      <c r="R2" t="s">
-        <v>255</v>
-      </c>
-      <c r="S2" t="s">
-        <v>256</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>257</v>
       </c>
       <c r="V2" s="9" t="str">
         <f>"ifcp:"&amp;A2&amp;"
@@ -2904,7 +2907,7 @@
         <v>101</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K3" t="s">
         <v>215</v>
@@ -2916,19 +2919,19 @@
         <v>18</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="R3" t="s">
+        <v>255</v>
+      </c>
+      <c r="S3" t="s">
+        <v>257</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="U3" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="S3" t="s">
-        <v>260</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>261</v>
       </c>
       <c r="V3" s="9" t="str">
         <f t="shared" ref="V3:V35" si="0">"ifcp:"&amp;A3&amp;"
@@ -3013,7 +3016,7 @@
         <v>101</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K4" t="s">
         <v>216</v>
@@ -3085,7 +3088,7 @@
         <v>101</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K5" t="s">
         <v>217</v>
@@ -3159,7 +3162,7 @@
         <v>101</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K6">
         <v>203</v>
@@ -3171,19 +3174,19 @@
         <v>21</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="R6" t="s">
+        <v>259</v>
+      </c>
+      <c r="S6" t="s">
+        <v>260</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="U6" s="8" t="s">
         <v>262</v>
-      </c>
-      <c r="S6" t="s">
-        <v>263</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>265</v>
       </c>
       <c r="V6" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3248,7 +3251,7 @@
         <v>101</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K7">
         <v>244</v>
@@ -3263,13 +3266,13 @@
         <v>227</v>
       </c>
       <c r="R7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="S7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="U7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="V7" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3334,7 +3337,7 @@
         <v>101</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K8">
         <v>257</v>
@@ -3399,7 +3402,7 @@
         <v>137</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>229</v>
+        <v>335</v>
       </c>
       <c r="H9" t="s">
         <v>100</v>
@@ -3408,7 +3411,7 @@
         <v>101</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K9">
         <v>267</v>
@@ -3433,7 +3436,7 @@
 　次いで、晒の褌に手拭をつけた男たちは、2組に分かれ、路上で3度綱引きを場所を交替して行い、終了後、全員で大草履などを担ぎ、山の神神社に奉納する。途中、娘たちをつかまえその上に乗せて胴上げなども行われる。
 　この行事は、神仏に加護をもとめて生業の発展・除災招福を祈願するもので、ハゴイタツキ・タマゲリ・綱引きなどに宮相撲などが数多くあり、御幣の捧持役が世襲化であったり、ワッカモンにより行われるなど由来・内容等が典型的なものであり重要である。""" ; 
     crm:P4 "毎年１月１６日" ; 
-    crm:P67 &lt;https://www.city.goto.nagasaki.jp/s094/010/050/080/20200107113913.html&gt; ;
+    crm:P67 &lt;https://goto.nagasaki-tabinet.com/event/51078/&gt; ;
     crm:P141 &lt;http://example.org/ifcp/135/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;&gt; ;
@@ -3446,7 +3449,7 @@
     crm:P2 cate:practice .
 &lt;&gt;
     rdf:type crm:E42 .
-&lt;https://www.city.goto.nagasaki.jp/s094/010/050/080/20200107113913.html&gt;
+&lt;https://goto.nagasaki-tabinet.com/event/51078/&gt;
     rdf:type crm:E42 .   
 &lt;http://example.org/ifcp/135/register&gt;
     rdf:type crm:E5 ;
@@ -3462,7 +3465,7 @@
         <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>139</v>
@@ -3474,7 +3477,7 @@
         <v>140</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H10" t="s">
         <v>100</v>
@@ -3483,7 +3486,7 @@
         <v>101</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K10">
         <v>271</v>
@@ -3549,7 +3552,7 @@
         <v>143</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H11" t="s">
         <v>100</v>
@@ -3558,7 +3561,7 @@
         <v>101</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K11" t="s">
         <v>218</v>
@@ -3624,7 +3627,7 @@
         <v>146</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H12" t="s">
         <v>100</v>
@@ -3633,7 +3636,7 @@
         <v>101</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K12" t="s">
         <v>219</v>
@@ -3645,13 +3648,13 @@
         <v>98</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="R12" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="S12" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="V12" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3707,7 +3710,7 @@
         <v>140</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H13" t="s">
         <v>100</v>
@@ -3716,7 +3719,7 @@
         <v>101</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K13">
         <v>305</v>
@@ -3786,7 +3789,7 @@
         <v>151</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H14" t="s">
         <v>100</v>
@@ -3795,7 +3798,7 @@
         <v>101</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K14" t="s">
         <v>220</v>
@@ -3862,8 +3865,8 @@
       <c r="F15" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G15" t="s">
-        <v>234</v>
+      <c r="G15" s="8" t="s">
+        <v>336</v>
       </c>
       <c r="H15" t="s">
         <v>100</v>
@@ -3872,7 +3875,7 @@
         <v>101</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K15">
         <v>317</v>
@@ -3884,19 +3887,19 @@
         <v>77</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="R15" t="s">
+        <v>264</v>
+      </c>
+      <c r="S15" t="s">
+        <v>266</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="U15" s="8" t="s">
         <v>267</v>
-      </c>
-      <c r="S15" t="s">
-        <v>269</v>
-      </c>
-      <c r="T15" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="U15" s="8" t="s">
-        <v>270</v>
       </c>
       <c r="V15" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3958,7 +3961,7 @@
         <v>157</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H16" t="s">
         <v>100</v>
@@ -3967,7 +3970,7 @@
         <v>101</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K16">
         <v>325</v>
@@ -3979,19 +3982,19 @@
         <v>62</v>
       </c>
       <c r="Q16" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="R16" t="s">
+        <v>269</v>
+      </c>
+      <c r="S16" t="s">
+        <v>270</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="U16" s="8" t="s">
         <v>271</v>
-      </c>
-      <c r="R16" t="s">
-        <v>272</v>
-      </c>
-      <c r="S16" t="s">
-        <v>273</v>
-      </c>
-      <c r="T16" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="U16" s="8" t="s">
-        <v>274</v>
       </c>
       <c r="V16" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4052,7 +4055,7 @@
         <v>160</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H17" t="s">
         <v>100</v>
@@ -4061,7 +4064,7 @@
         <v>101</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K17">
         <v>337</v>
@@ -4130,7 +4133,7 @@
         <v>140</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H18" t="s">
         <v>100</v>
@@ -4139,7 +4142,7 @@
         <v>101</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K18" t="s">
         <v>221</v>
@@ -4209,7 +4212,7 @@
         <v>165</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H19" t="s">
         <v>100</v>
@@ -4218,7 +4221,7 @@
         <v>101</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K19">
         <v>359</v>
@@ -4291,7 +4294,7 @@
         <v>168</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H20" t="s">
         <v>100</v>
@@ -4300,7 +4303,7 @@
         <v>101</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K20">
         <v>374</v>
@@ -4371,7 +4374,7 @@
         <v>171</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H21" t="s">
         <v>100</v>
@@ -4380,7 +4383,7 @@
         <v>101</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K21">
         <v>390</v>
@@ -4448,7 +4451,7 @@
         <v>140</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>241</v>
+        <v>337</v>
       </c>
       <c r="H22" t="s">
         <v>100</v>
@@ -4457,7 +4460,7 @@
         <v>101</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K22">
         <v>392</v>
@@ -4487,7 +4490,7 @@
 　夜になると、各集落ごとにスネカが一軒一軒家々を回って歩く。スネカは、訪問する家の庭先に着くとゴオッ、ゴオッと鼻を鳴らしながら玄関口に向かい、戸をガタガタと揺すったり、爪で引っ掻いたりしてから戸を開けて、腰を屈めた姿勢で家内に入る。そして、上がりかまちに足をかけたり、土間から座敷に上がり込んだりして、キリハを振り上げて威嚇をする。家々では、家族一同がスネカの訪問を待って座敷に集まっており、小さい子どもたちはスネカの恐ろしい姿を見て、泣きわめいたり、逃げ出そうとしたりする。
 　スネカは、家人の近くににじり寄り、「カバネヤミ（怠け者）いねえが」「泣くワラシいねえが、言うこと聞かねワラシいねえが」などと声を張り上げる。家人が「スネカ様、どっから来やした」と聞くと、スネカは、「五葉山から来た」、あるいは「天狗岩から来た」などと答え、しばらく座敷を歩き回りながら、恐ろしい形相で怠け者を捜す素振りをしたり、親に抱かれた幼児や逃げ回る子どもたちを威嚇する。家人は、「カバネヤミも、泣くワラシもいねえがら、餅あげっから帰ってけらっせん」などと言って、スネカの退散を促す。""" ; 
     crm:P4 "毎年１月１５日" ; 
-    crm:P67 &lt;https://www.city.ofunato.iwate.jp/soshiki/syo-gaku/1931.html&gt; ;
+    crm:P67 &lt;https://ofunato.jp/Summary/info/81&gt; ;
     crm:P141 &lt;http://example.org/ifcp/221/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;&gt; ;
@@ -4500,7 +4503,7 @@
     crm:P2 cate:practice .
 &lt;&gt;
     rdf:type crm:E42 .
-&lt;https://www.city.ofunato.iwate.jp/soshiki/syo-gaku/1931.html&gt;
+&lt;https://ofunato.jp/Summary/info/81&gt;
     rdf:type crm:E42 .   
 &lt;http://example.org/ifcp/221/register&gt;
     rdf:type crm:E5 ;
@@ -4528,7 +4531,7 @@
         <v>176</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H23" t="s">
         <v>100</v>
@@ -4537,7 +4540,7 @@
         <v>101</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K23">
         <v>399</v>
@@ -4549,19 +4552,19 @@
         <v>50</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="R23" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="S23" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="U23" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="V23" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4625,7 +4628,7 @@
         <v>179</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H24" t="s">
         <v>100</v>
@@ -4634,7 +4637,7 @@
         <v>101</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K24">
         <v>409</v>
@@ -4705,7 +4708,7 @@
         <v>182</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H25" t="s">
         <v>100</v>
@@ -4714,7 +4717,7 @@
         <v>101</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K25">
         <v>413</v>
@@ -4782,7 +4785,7 @@
         <v>185</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H26" t="s">
         <v>100</v>
@@ -4791,7 +4794,7 @@
         <v>101</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K26">
         <v>418</v>
@@ -4806,16 +4809,16 @@
         <v>57</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="R26" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="S26" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="U26" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="V26" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4877,7 +4880,7 @@
         <v>188</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H27" t="s">
         <v>100</v>
@@ -4886,7 +4889,7 @@
         <v>101</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K27">
         <v>423</v>
@@ -4961,7 +4964,7 @@
         <v>191</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H28" t="s">
         <v>100</v>
@@ -4970,7 +4973,7 @@
         <v>101</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K28">
         <v>426</v>
@@ -4979,7 +4982,7 @@
         <v>23</v>
       </c>
       <c r="N28" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="V28" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5047,7 +5050,7 @@
         <v>194</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>248</v>
+        <v>338</v>
       </c>
       <c r="H29" t="s">
         <v>100</v>
@@ -5056,7 +5059,7 @@
         <v>101</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K29">
         <v>437</v>
@@ -5068,19 +5071,19 @@
         <v>71</v>
       </c>
       <c r="Q29" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="R29" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="S29" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="U29" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="V29" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5105,7 +5108,7 @@
 　また、東西2本のシンメイを立てて東西対抗で行われオコシタテの早さを競ったという伝承もあり、東西対抗の要素もみられた。さらにこの行事が地区の若者の若連からの脱退の儀礼が行われる場ともなっているという特色もある。
 　これまで同種の行事では東北日本や中国地方日本海側の行事が注目され指定されてきたが、本件は中国地方瀬戸内海側における行事として注目されるものである。""" ; 
     crm:P4 "毎年２月11日" ; 
-    crm:P67 &lt;https://www.city-yanai.jp/soshiki/39/atsukishimmei.html&gt; ;
+    crm:P67 &lt;http://www.yanaicci.or.jp/yanai/event/sinmei-f.html&gt; ;
     crm:P141 &lt;http://example.org/ifcp/264/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;https://www.city-yanai.jp/soshiki/39/atsukishimmei.html&gt; ;
@@ -5118,7 +5121,7 @@
     crm:P2 cate:practice .
 &lt;https://www.city-yanai.jp/soshiki/39/atsukishimmei.html&gt;
     rdf:type crm:E42 .
-&lt;https://www.city-yanai.jp/soshiki/39/atsukishimmei.html&gt;
+&lt;http://www.yanaicci.or.jp/yanai/event/sinmei-f.html&gt;
     rdf:type crm:E42 .   
 &lt;http://example.org/ifcp/264/register&gt;
     rdf:type crm:E5 ;
@@ -5146,7 +5149,7 @@
         <v>197</v>
       </c>
       <c r="G30" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H30" t="s">
         <v>100</v>
@@ -5155,7 +5158,7 @@
         <v>101</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K30">
         <v>438</v>
@@ -5167,19 +5170,19 @@
         <v>40</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="R30" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S30" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="U30" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="V30" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5245,7 +5248,7 @@
         <v>200</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H31" t="s">
         <v>100</v>
@@ -5254,7 +5257,7 @@
         <v>101</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K31">
         <v>455</v>
@@ -5330,7 +5333,7 @@
         <v>203</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H32" t="s">
         <v>100</v>
@@ -5339,7 +5342,7 @@
         <v>101</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K32">
         <v>462</v>
@@ -5351,19 +5354,19 @@
         <v>60</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="R32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="S32" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="U32" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="V32" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5426,7 +5429,7 @@
         <v>206</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H33" t="s">
         <v>100</v>
@@ -5435,7 +5438,7 @@
         <v>101</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K33">
         <v>464</v>
@@ -5507,7 +5510,7 @@
         <v>209</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H34" t="s">
         <v>100</v>
@@ -5516,7 +5519,7 @@
         <v>101</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K34">
         <v>494</v>
@@ -5583,7 +5586,7 @@
         <v>212</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H35" t="s">
         <v>100</v>
@@ -5592,7 +5595,7 @@
         <v>101</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K35">
         <v>493</v>
@@ -5604,16 +5607,16 @@
         <v>91</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="R35" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="S35" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="U35" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="V35" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5717,52 +5720,51 @@
     <hyperlink ref="G6" r:id="rId5" xr:uid="{FA5D9292-0783-374D-98FC-9B87AE0BD108}"/>
     <hyperlink ref="G7" r:id="rId6" xr:uid="{2E63FB0F-9BF3-704C-8FE5-FDAFB8B7CABC}"/>
     <hyperlink ref="G8" r:id="rId7" xr:uid="{9F7A45BA-87AA-6541-B540-0CBB894C8C43}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{CAA0E5E7-7016-564F-896E-3EAA0136EE41}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{80EC866A-6ABB-7044-9510-8759907ED9D8}"/>
-    <hyperlink ref="G11" r:id="rId10" xr:uid="{210E54FC-8692-CD48-BA17-64C90C696077}"/>
-    <hyperlink ref="G13" r:id="rId11" xr:uid="{0B7A84CA-048F-2841-A25E-EFC336DEC749}"/>
-    <hyperlink ref="G14" r:id="rId12" xr:uid="{1BBDE8D5-FDC0-CD44-9F2C-E491D760FD9F}"/>
-    <hyperlink ref="G16" r:id="rId13" xr:uid="{6B1975BF-98DE-3F43-9108-44C02BBAA563}"/>
-    <hyperlink ref="G17" r:id="rId14" xr:uid="{B8AA0A69-0472-D947-94F0-EED17B8E2412}"/>
-    <hyperlink ref="G18" r:id="rId15" xr:uid="{16215CA2-4B4A-474E-BDA1-CD19623EC1AF}"/>
-    <hyperlink ref="G19" r:id="rId16" xr:uid="{D14AB3A3-9B2F-2840-B865-472CFF30ACF8}"/>
-    <hyperlink ref="G20" r:id="rId17" xr:uid="{470A4ABD-9133-6649-9B50-660817FF8FE8}"/>
-    <hyperlink ref="G21" r:id="rId18" xr:uid="{8E2CCC32-A62C-E34F-B88D-DF4E6A7AF513}"/>
-    <hyperlink ref="G22" r:id="rId19" xr:uid="{1371179D-2E99-FA40-AAC5-946CCA94F513}"/>
-    <hyperlink ref="G23" r:id="rId20" xr:uid="{DDE40886-D6BC-D448-95E2-538A885397F2}"/>
-    <hyperlink ref="G24" r:id="rId21" xr:uid="{F75A7B11-3743-0149-A31D-292019C86F87}"/>
-    <hyperlink ref="G25" r:id="rId22" xr:uid="{7F371E9E-02C1-624F-BC79-3038F9A398CA}"/>
-    <hyperlink ref="G26" r:id="rId23" xr:uid="{0A9DC238-0718-694D-8318-0DA1F951CA5B}"/>
-    <hyperlink ref="G27" r:id="rId24" xr:uid="{090BCE92-1F91-354A-9759-8C6207891860}"/>
-    <hyperlink ref="G28" r:id="rId25" xr:uid="{1A2421B5-1026-894B-A4CE-620637DD8586}"/>
-    <hyperlink ref="G29" r:id="rId26" xr:uid="{375E1488-A1BE-074C-BE68-D8114E79393C}"/>
-    <hyperlink ref="G31" r:id="rId27" xr:uid="{3DDE7DEC-B245-CC4E-BAA1-C7FA616A288E}"/>
-    <hyperlink ref="G32" r:id="rId28" xr:uid="{F89D1E25-5C05-CB4E-ADEE-AF88C1F541CA}"/>
-    <hyperlink ref="G33" r:id="rId29" xr:uid="{A8DEF372-A445-F145-8149-86B4612A138B}"/>
-    <hyperlink ref="G35" r:id="rId30" xr:uid="{335A437B-6E1A-1449-84FF-C41158752446}"/>
-    <hyperlink ref="Q2" r:id="rId31" location="甑島のトシドン" xr:uid="{8BA8F7C5-3461-8E48-B2F7-8A56FD924A2A}"/>
-    <hyperlink ref="U2" r:id="rId32" tooltip="利用者:そらみみ" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:%E3%81%9D%E3%82%89%E3%81%BF%E3%81%BF" xr:uid="{EB14F67D-430F-D84E-98F3-13D0AE601A03}"/>
-    <hyperlink ref="Q3" r:id="rId33" xr:uid="{ED496423-E41C-5749-B79B-C03E1D2AFA76}"/>
-    <hyperlink ref="U3" r:id="rId34" tooltip="利用者:Urania" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:Urania" xr:uid="{FC31048C-5FA1-9C42-BB55-18EFCB314A48}"/>
-    <hyperlink ref="Q6" r:id="rId35" location="六郷のかまくら" xr:uid="{755D3B4D-8442-4C42-90E9-C640E987C9F4}"/>
-    <hyperlink ref="U6" r:id="rId36" tooltip="特別:投稿記録/221.58.122.88" display="https://ja.wikipedia.org/wiki/%E7%89%B9%E5%88%A5:%E6%8A%95%E7%A8%BF%E8%A8%98%E9%8C%B2/221.58.122.88" xr:uid="{0DF57EAA-8E12-0B40-AEB6-0FD97C64E28D}"/>
-    <hyperlink ref="Q15" r:id="rId37" xr:uid="{8377DD89-5D80-5C4E-850E-96916CD974EE}"/>
-    <hyperlink ref="U15" r:id="rId38" tooltip="利用者:STA3816 (存在しないページ)" display="https://ja.wikipedia.org/w/index.php?title=%E5%88%A9%E7%94%A8%E8%80%85:STA3816&amp;action=edit&amp;redlink=1" xr:uid="{2FAF1D9E-AAF4-D647-9910-9CDBD6F474D0}"/>
-    <hyperlink ref="Q16" r:id="rId39" xr:uid="{3F10920A-B4C0-6C4A-8CE6-31D325E68E98}"/>
-    <hyperlink ref="U16" r:id="rId40" tooltip="利用者:8-hachiro" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:8-hachiro" xr:uid="{F162FAD7-18BC-B446-ABE4-1A833FF51CDD}"/>
-    <hyperlink ref="Q23" r:id="rId41" xr:uid="{B0FC43D6-9B96-1C43-A126-11BA93E9DE8F}"/>
-    <hyperlink ref="U23" r:id="rId42" tooltip="利用者:Urania" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:Urania" xr:uid="{4631943A-DF59-6548-91E7-5DBA97730B23}"/>
-    <hyperlink ref="Q30" r:id="rId43" xr:uid="{AB88C76D-123D-3747-B5A9-541B860D3BF6}"/>
-    <hyperlink ref="U30" r:id="rId44" tooltip="利用者:なびお" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:%E3%81%AA%E3%81%B3%E3%81%8A" xr:uid="{D643AE21-87BD-DA4E-A57A-AEEE3F14D80E}"/>
-    <hyperlink ref="Q32" r:id="rId45" xr:uid="{5523E011-5E49-5E4A-B0CF-2BE483BD09A4}"/>
-    <hyperlink ref="U32" r:id="rId46" tooltip="利用者:8-hachiro" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:8-hachiro" xr:uid="{AC2CDF3B-D57C-6F4F-95E4-7B1A0313D47F}"/>
-    <hyperlink ref="Q7" r:id="rId47" xr:uid="{194C3A70-9566-1144-BDFB-2CDB75DC1EE8}"/>
-    <hyperlink ref="G12" r:id="rId48" xr:uid="{3A97DFCF-D7E2-3242-96A9-9623B0F601C4}"/>
-    <hyperlink ref="Q12" r:id="rId49" xr:uid="{33E70CED-49C4-3045-A743-B944D2AA5E27}"/>
-    <hyperlink ref="Q26" r:id="rId50" xr:uid="{D958F73D-488D-EA41-8B8F-C47B346B65D6}"/>
-    <hyperlink ref="Q29" r:id="rId51" xr:uid="{34C643B2-0E85-1048-B7AA-E5C65CD19260}"/>
-    <hyperlink ref="G34" r:id="rId52" xr:uid="{9D32A981-731A-E144-A357-1E3776FAF67C}"/>
-    <hyperlink ref="Q35" r:id="rId53" xr:uid="{660BBDB3-0A71-3146-B64A-45AB6F9CEE26}"/>
+    <hyperlink ref="G10" r:id="rId8" xr:uid="{80EC866A-6ABB-7044-9510-8759907ED9D8}"/>
+    <hyperlink ref="G11" r:id="rId9" xr:uid="{210E54FC-8692-CD48-BA17-64C90C696077}"/>
+    <hyperlink ref="G13" r:id="rId10" xr:uid="{0B7A84CA-048F-2841-A25E-EFC336DEC749}"/>
+    <hyperlink ref="G14" r:id="rId11" xr:uid="{1BBDE8D5-FDC0-CD44-9F2C-E491D760FD9F}"/>
+    <hyperlink ref="G16" r:id="rId12" xr:uid="{6B1975BF-98DE-3F43-9108-44C02BBAA563}"/>
+    <hyperlink ref="G17" r:id="rId13" xr:uid="{B8AA0A69-0472-D947-94F0-EED17B8E2412}"/>
+    <hyperlink ref="G18" r:id="rId14" xr:uid="{16215CA2-4B4A-474E-BDA1-CD19623EC1AF}"/>
+    <hyperlink ref="G19" r:id="rId15" xr:uid="{D14AB3A3-9B2F-2840-B865-472CFF30ACF8}"/>
+    <hyperlink ref="G20" r:id="rId16" xr:uid="{470A4ABD-9133-6649-9B50-660817FF8FE8}"/>
+    <hyperlink ref="G21" r:id="rId17" xr:uid="{8E2CCC32-A62C-E34F-B88D-DF4E6A7AF513}"/>
+    <hyperlink ref="G23" r:id="rId18" xr:uid="{DDE40886-D6BC-D448-95E2-538A885397F2}"/>
+    <hyperlink ref="G24" r:id="rId19" xr:uid="{F75A7B11-3743-0149-A31D-292019C86F87}"/>
+    <hyperlink ref="G25" r:id="rId20" xr:uid="{7F371E9E-02C1-624F-BC79-3038F9A398CA}"/>
+    <hyperlink ref="G26" r:id="rId21" xr:uid="{0A9DC238-0718-694D-8318-0DA1F951CA5B}"/>
+    <hyperlink ref="G27" r:id="rId22" xr:uid="{090BCE92-1F91-354A-9759-8C6207891860}"/>
+    <hyperlink ref="G28" r:id="rId23" xr:uid="{1A2421B5-1026-894B-A4CE-620637DD8586}"/>
+    <hyperlink ref="G31" r:id="rId24" xr:uid="{3DDE7DEC-B245-CC4E-BAA1-C7FA616A288E}"/>
+    <hyperlink ref="G32" r:id="rId25" xr:uid="{F89D1E25-5C05-CB4E-ADEE-AF88C1F541CA}"/>
+    <hyperlink ref="G33" r:id="rId26" xr:uid="{A8DEF372-A445-F145-8149-86B4612A138B}"/>
+    <hyperlink ref="G35" r:id="rId27" xr:uid="{335A437B-6E1A-1449-84FF-C41158752446}"/>
+    <hyperlink ref="Q2" r:id="rId28" location="甑島のトシドン" xr:uid="{8BA8F7C5-3461-8E48-B2F7-8A56FD924A2A}"/>
+    <hyperlink ref="U2" r:id="rId29" tooltip="利用者:そらみみ" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:%E3%81%9D%E3%82%89%E3%81%BF%E3%81%BF" xr:uid="{EB14F67D-430F-D84E-98F3-13D0AE601A03}"/>
+    <hyperlink ref="Q3" r:id="rId30" xr:uid="{ED496423-E41C-5749-B79B-C03E1D2AFA76}"/>
+    <hyperlink ref="U3" r:id="rId31" tooltip="利用者:Urania" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:Urania" xr:uid="{FC31048C-5FA1-9C42-BB55-18EFCB314A48}"/>
+    <hyperlink ref="Q6" r:id="rId32" location="六郷のかまくら" xr:uid="{755D3B4D-8442-4C42-90E9-C640E987C9F4}"/>
+    <hyperlink ref="U6" r:id="rId33" tooltip="特別:投稿記録/221.58.122.88" display="https://ja.wikipedia.org/wiki/%E7%89%B9%E5%88%A5:%E6%8A%95%E7%A8%BF%E8%A8%98%E9%8C%B2/221.58.122.88" xr:uid="{0DF57EAA-8E12-0B40-AEB6-0FD97C64E28D}"/>
+    <hyperlink ref="Q15" r:id="rId34" xr:uid="{8377DD89-5D80-5C4E-850E-96916CD974EE}"/>
+    <hyperlink ref="U15" r:id="rId35" tooltip="利用者:STA3816 (存在しないページ)" display="https://ja.wikipedia.org/w/index.php?title=%E5%88%A9%E7%94%A8%E8%80%85:STA3816&amp;action=edit&amp;redlink=1" xr:uid="{2FAF1D9E-AAF4-D647-9910-9CDBD6F474D0}"/>
+    <hyperlink ref="Q16" r:id="rId36" xr:uid="{3F10920A-B4C0-6C4A-8CE6-31D325E68E98}"/>
+    <hyperlink ref="U16" r:id="rId37" tooltip="利用者:8-hachiro" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:8-hachiro" xr:uid="{F162FAD7-18BC-B446-ABE4-1A833FF51CDD}"/>
+    <hyperlink ref="Q23" r:id="rId38" xr:uid="{B0FC43D6-9B96-1C43-A126-11BA93E9DE8F}"/>
+    <hyperlink ref="U23" r:id="rId39" tooltip="利用者:Urania" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:Urania" xr:uid="{4631943A-DF59-6548-91E7-5DBA97730B23}"/>
+    <hyperlink ref="Q30" r:id="rId40" xr:uid="{AB88C76D-123D-3747-B5A9-541B860D3BF6}"/>
+    <hyperlink ref="U30" r:id="rId41" tooltip="利用者:なびお" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:%E3%81%AA%E3%81%B3%E3%81%8A" xr:uid="{D643AE21-87BD-DA4E-A57A-AEEE3F14D80E}"/>
+    <hyperlink ref="Q32" r:id="rId42" xr:uid="{5523E011-5E49-5E4A-B0CF-2BE483BD09A4}"/>
+    <hyperlink ref="U32" r:id="rId43" tooltip="利用者:8-hachiro" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:8-hachiro" xr:uid="{AC2CDF3B-D57C-6F4F-95E4-7B1A0313D47F}"/>
+    <hyperlink ref="Q7" r:id="rId44" xr:uid="{194C3A70-9566-1144-BDFB-2CDB75DC1EE8}"/>
+    <hyperlink ref="G12" r:id="rId45" xr:uid="{3A97DFCF-D7E2-3242-96A9-9623B0F601C4}"/>
+    <hyperlink ref="Q12" r:id="rId46" xr:uid="{33E70CED-49C4-3045-A743-B944D2AA5E27}"/>
+    <hyperlink ref="Q26" r:id="rId47" xr:uid="{D958F73D-488D-EA41-8B8F-C47B346B65D6}"/>
+    <hyperlink ref="Q29" r:id="rId48" xr:uid="{34C643B2-0E85-1048-B7AA-E5C65CD19260}"/>
+    <hyperlink ref="G34" r:id="rId49" xr:uid="{9D32A981-731A-E144-A357-1E3776FAF67C}"/>
+    <hyperlink ref="Q35" r:id="rId50" xr:uid="{660BBDB3-0A71-3146-B64A-45AB6F9CEE26}"/>
+    <hyperlink ref="G15" r:id="rId51" xr:uid="{AD99591F-BAB2-AD44-A010-F6D99D1C0264}"/>
+    <hyperlink ref="G29" r:id="rId52" xr:uid="{ECD1C545-5CEA-E44F-8F98-E87AB3811687}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_p5_added.xlsx
+++ b/list_p5_added.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EF3FD3-E6A6-994F-B851-B524D92E764A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F9EDC0-8F1E-1145-A20A-1CB93B53ABBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="13720" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_p6" sheetId="1" r:id="rId1"/>
@@ -2688,9 +2688,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2825,8 +2825,8 @@
       <c r="V2" s="9" t="str">
         <f>"ifcp:"&amp;A2&amp;"
     rdf:type crm:E1 ;
-    rdfs:label """&amp;C2&amp;""" ;
-    rdfs:label """&amp;D2&amp;""" ;
+    rdfs:label """&amp;C2&amp;"""@ja ;
+    rdfs:label """&amp;D2&amp;"""@ja-hrkt ;
     crm:P3 """""""&amp;E2&amp;""""""" ; 
     crm:P4 """&amp;F2&amp;""" ; 
     crm:P67 &lt;"&amp;G2&amp;"&gt; ;
@@ -2847,11 +2847,11 @@
 &lt;http://example.org/ifcp/"&amp;A2&amp;"/register&gt;
     rdf:type crm:E5 ;
     crm:P4 """&amp;J2&amp;""" ;
-    crm:P67 """&amp;K2&amp;""" . "</f>
-        <v xml:space="preserve">ifcp:49
+    crm:P67 """&amp;K2&amp;""" ."</f>
+        <v>ifcp:49
     rdf:type crm:E1 ;
-    rdfs:label "甑島のトシドン" ;
-    rdfs:label "こしきじまのとしどん" ;
+    rdfs:label "甑島のトシドン"@ja ;
+    rdfs:label "こしきじまのとしどん"@ja-hrkt ;
     crm:P3 """　甑島のトシドンは、東シナ海に浮かぶ鹿児島県薩摩川内市の下甑島に伝わる正月の来訪神の行事である。
 　その内容は、伝承するそれぞれの集落で細部において相違が認められるものの、トシドンと呼ばれる神が人里を来訪するとの信仰に支えられており、大晦日（１２月３１日）の夜、トシドンに扮装した男性たちが子どものいる家々を訪れ、悪い子どもを戒める。
 　トシドンの扮装は、長い鼻に大きな口の奇怪な面を被り、藁蓑などの古い装いやシュロ（棕梠）の葉、ソテツ（蘇鉄）の葉などを纏ったもので、戸口で馬のとまる足音をさせて子どものいる家を訪れる。そして、大声で子供を脅かしたり、よい子になるよう諭したりし、子ども本人から勤惰などを問いただした後で、最後にトシモチ（年餅）と呼ばれる大きな餅を子どもに与えて去っていくという形態で共通している。
@@ -2875,7 +2875,7 @@
 &lt;http://example.org/ifcp/49/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1977-05-17" ;
-    crm:P67 "89 - 95" . </v>
+    crm:P67 "89 - 95" .</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="409.6">
@@ -2936,8 +2936,8 @@
       <c r="V3" s="9" t="str">
         <f t="shared" ref="V3:V35" si="0">"ifcp:"&amp;A3&amp;"
     rdf:type crm:E1 ;
-    rdfs:label """&amp;C3&amp;""" ;
-    rdfs:label """&amp;D3&amp;""" ;
+    rdfs:label """&amp;C3&amp;"""@ja ;
+    rdfs:label """&amp;D3&amp;"""@ja-hrkt ;
     crm:P3 """""""&amp;E3&amp;""""""" ; 
     crm:P4 """&amp;F3&amp;""" ; 
     crm:P67 &lt;"&amp;G3&amp;"&gt; ;
@@ -2958,11 +2958,11 @@
 &lt;http://example.org/ifcp/"&amp;A3&amp;"/register&gt;
     rdf:type crm:E5 ;
     crm:P4 """&amp;J3&amp;""" ;
-    crm:P67 """&amp;K3&amp;""" . "</f>
-        <v xml:space="preserve">ifcp:51
+    crm:P67 """&amp;K3&amp;""" ."</f>
+        <v>ifcp:51
     rdf:type crm:E1 ;
-    rdfs:label "男鹿のナマハゲ" ;
-    rdfs:label "おがのなまはげ" ;
+    rdfs:label "男鹿のナマハゲ"@ja ;
+    rdfs:label "おがのなまはげ"@ja-hrkt ;
     crm:P3 """男鹿のナマハゲは、昭和20年代まで小正月に行なわれていた来訪神の行事である。その内容は、各伝承地で細部において相違が認められるものの、集落内の若者たちが面をかぶり、ケデ（藁で編んだ蓑のようなもの）をつけて家々を訪れ、威厳のある所作で人々に接するという形態では共通している。
 　年の折り目（トシコシ）に神が来臨し、人々に祝福を与えるという趣旨の行事は、全国的に分布しているが、男鹿のものはその中でも特によく古態をとどめ、かつ濃密な分布を示しており、我が国古来の民間信仰の形態を示す典型例の一つとして極めて重要である。""" ; 
     crm:P4 "毎年１２月３１日ないしは１月１６日" ; 
@@ -2984,7 +2984,7 @@
 &lt;http://example.org/ifcp/51/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1978-05-22" ;
-    crm:P67 "97 - 99" . </v>
+    crm:P67 "97 - 99" .</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="409.6">
@@ -3029,10 +3029,10 @@
       </c>
       <c r="V4" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:67
+        <v>ifcp:67
     rdf:type crm:E1 ;
-    rdfs:label "能登のアマメハギ" ;
-    rdfs:label "のとのあまめはぎ" ;
+    rdfs:label "能登のアマメハギ"@ja ;
+    rdfs:label "のとのあまめはぎ"@ja-hrkt ;
     crm:P3 """　我が国には年の折り目に神が来臨し、人々に祝福を与えていくという趣旨の行事が全国的に分布している。能登のアマメハギもその一つであり、能登半島に濃密な分布を示し、アマメハギのほか、メンサマなどとも呼ばれている。
 　この行事の内容は、細部において相違が認められるものの、天狗面・鼻ベチャ面・猿面、あるいは男面・女面などと呼ばれる仮面をつけて家々を訪れ、怠惰を戒めたり、災厄を祓って威厳のある所作でむら人に接するという形態では共通している。
 　また、正月６日、正月14日と20日、および節分の日の晩と期日を異にしながらも、その土地その土地に応じた形態で伝えられている点が注目される。
@@ -3056,7 +3056,7 @@
 &lt;http://example.org/ifcp/67/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1979-02-03" ;
-    crm:P67 "124 - 127" . </v>
+    crm:P67 "124 - 127" .</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="409.6">
@@ -3101,10 +3101,10 @@
       </c>
       <c r="V5" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:109
+        <v>ifcp:109
     rdf:type crm:E1 ;
-    rdfs:label "南薩摩の十五夜行事" ;
-    rdfs:label "みなみさつまのじゅうごやぎょうじ" ;
+    rdfs:label "南薩摩の十五夜行事"@ja ;
+    rdfs:label "みなみさつまのじゅうごやぎょうじ"@ja-hrkt ;
     crm:P3 """　旧暦８月の十五夜の月を祭る行事は、我が国で広く行われてきている。南薩摩の十五夜行事は、こうした行事のなかでも、特に薩摩半島南部において行われる網引きなどの特殊な行事で、男の子ども組を中心に集落をあげて盛大に行われる点でも注目されるものである。
 　十五夜の大綱は、長さ100㍍余にわたることが珍しくない。綱は茅で作られるが、その材料集めを茅引きといい、子ども組が何日もかかって山から刈り集めるもので、刈った茅の束を頭からすっぽりかぶって体を覆い、列を組んで下山する姿に特色がある。
 　綱を綯うのも大がかりで、やぐらを組み、集落の人びとが総出で行うが、特に若者が加勢して１日がかりで行われる壮観無比の力の行事である。
@@ -3130,7 +3130,7 @@
 &lt;http://example.org/ifcp/109/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1981-01-21" ;
-    crm:P67 "200 - 202" . </v>
+    crm:P67 "200 - 202" .</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="409.6">
@@ -3190,10 +3190,10 @@
       </c>
       <c r="V6" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:110
+        <v>ifcp:110
     rdf:type crm:E1 ;
-    rdfs:label "六郷のカマクラ行事" ;
-    rdfs:label "ろくごうのかまくらぎょうじ" ;
+    rdfs:label "六郷のカマクラ行事"@ja ;
+    rdfs:label "ろくごうのかまくらぎょうじ"@ja-hrkt ;
     crm:P3 """　我が国各地に伝承されている小正月行事は、地域の年中行事の中で最も主要なものの一つであるが、出羽、越後地方のそれはカマクラなど雪の室をしつらえる点に特色がある。
 　現在、全国的に小正月行事が古い姿で伝承されているものは少なくなっており、カマクラ行事も、年占、鳥追いなどの小正月の特質をよく示すものが失われつつある。
 　六郷のカマクラ行事は、歳神を迎え、害鳥を追う予祝行事を行うもので、あわせて年占をなすなど小正月における各種の要素をよく取り入れている。２月11日当日は、早くから町の子どもたちが各自無病息災などの祈願の天筆を書く。これは五色で長大な短冊形のもので青竹の竿に吊して家々の軒先に飾る。
@@ -3219,7 +3219,7 @@
 &lt;http://example.org/ifcp/110/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1982-01-14" ;
-    crm:P67 "203" . </v>
+    crm:P67 "203" .</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="409.6">
@@ -3276,10 +3276,10 @@
       </c>
       <c r="V7" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:124
+        <v>ifcp:124
     rdf:type crm:E1 ;
-    rdfs:label "秋名のアラセツ行事" ;
-    rdfs:label "あぎなのあらせつぎょうじ" ;
+    rdfs:label "秋名のアラセツ行事"@ja ;
+    rdfs:label "あぎなのあらせつぎょうじ"@ja-hrkt ;
     crm:P3 """　奄美から沖縄にかけては、旧暦８月の収穫の時期に最も盛大な行事が行われる。それは稲の収穫が終わり、その収穫を感謝し、翌年の豊作を祈るもので、アラセツの語はこの意味をよく示している。
 　奄美に伝承されるアラセツ行事は、旧暦８月の最初の丙の日に、グジ（男の神役）が山で、ノロ（女の神役）が海に向かって稲魂を招くものである。
 　なかでも秋名のアラセツ行事で行われるショチュガマとヒラセマンカイは、奄美のアラセツ行事の中でも最も古形を伝えるものである。
@@ -3305,7 +3305,7 @@
 &lt;http://example.org/ifcp/124/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1985-01-12" ;
-    crm:P67 "244" . </v>
+    crm:P67 "244" .</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="409.6">
@@ -3350,10 +3350,10 @@
       </c>
       <c r="V8" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:131
+        <v>ifcp:131
     rdf:type crm:E1 ;
-    rdfs:label "猪俣の百八燈" ;
-    rdfs:label "いのまたのひゃくはっとう" ;
+    rdfs:label "猪俣の百八燈"@ja ;
+    rdfs:label "いのまたのひゃくはっとう"@ja-hrkt ;
     crm:P3 """　我が国の盆行事には、百八燈とか百八松明と称して百八把の松明を焚いて精霊の祭りを行うものがある。これらは新盆の家で行ったり、村共同で山や河原で盛大に行ったりする。
 　猪俣の百八燈は、８月15日（もとは７月15日）に村はずれの堂前山の丘の上に築かれた百八基の塚に百八の灯をともす盛大な行事で、地元では猪俣小平六範綱（鎌倉時代にこの土地を開発した人物）の霊を慰めるとも伝えられている。
 　この行事の主体となるのは、字猪俣の満６歳から満18歳までの子供組・若衆組（約50名）で、後見役（前年の親方）が総指揮を執り、親方（18歳）、次親方（17歳）が幹部となり、行事の企画・指導を行い、15日までの間に灯をともす松根掘りや、小平六の墓掃除、道こさえ、草刈り、塚つき、燈明器づくりを行う。
@@ -3379,7 +3379,7 @@
 &lt;http://example.org/ifcp/131/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1987-01-08" ;
-    crm:P67 "257" . </v>
+    crm:P67 "257" .</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="409.6">
@@ -3424,10 +3424,10 @@
       </c>
       <c r="V9" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:135
+        <v>ifcp:135
     rdf:type crm:E1 ;
-    rdfs:label "下崎山のヘトマト行事" ;
-    rdfs:label "しもざきやまのへとまとぎょうじ" ;
+    rdfs:label "下崎山のヘトマト行事"@ja ;
+    rdfs:label "しもざきやまのへとまとぎょうじ"@ja-hrkt ;
     crm:P3 """　我が国には、年頭において粥の炊け具合や豆の焼け方などにより作柄や天候を占ったり、あるいは綱引き、玉の奪い合いなどにより豊凶を占ったりして生業の発展、除災招福を祈願する趣旨の行事が広く分布していたが、その多くは社会状況、生業基盤の変化などの事情により、形骸化したり消滅しつつある。
 　この行事は、その呼称由来は定かでないものの、『崎山村郷土誌』（大正７年）に記載があり、古老たちの口承によれば明治20年代まで遡ることができる。
 　現在では、当日までに使用する大草履、小草履、玉を作り、大通寺で御祈願してもらってきた御幣などを準備し、町民が役割分担して参加する除災招福的内容の濃厚なものである。
@@ -3454,7 +3454,7 @@
 &lt;http://example.org/ifcp/135/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1987-01-08" ;
-    crm:P67 "267" . </v>
+    crm:P67 "267" .</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="409.6">
@@ -3499,10 +3499,10 @@
       </c>
       <c r="V10" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:138
+        <v>ifcp:138
     rdf:type crm:E1 ;
-    rdfs:label "青海の竹のからかい" ;
-    rdfs:label "おうみのたけのからかい" ;
+    rdfs:label "青海の竹のからかい"@ja ;
+    rdfs:label "おうみのたけのからかい"@ja-hrkt ;
     crm:P3 """　青海の竹のからかいは、この地域の小正月行事の総称である。
 　行事の準備は、年末に行うタケミ（竹見）に始まり、翌年１月７日に正月に使用した門松集め（松取り）、同10日以降に行う竹伐りなどがある。いずれも町内を二分して、門松集めは子どもたちの役割で、その他の諸準備は若者衆が主体となって行う。
 　行事当日、まずは東西各ジンヤ（陣屋：決まりの行事宿）前の路上にカザリタケ（飾り竹）を立てる。これは、長さ約10㍍の葉付きの青竹にオンベロ（八幡幣）、扇、注連縄、御神酒、樽等を取り付けて飾ったものである。
@@ -3529,7 +3529,7 @@
 &lt;http://example.org/ifcp/138/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1987-12-28" ;
-    crm:P67 "271" . </v>
+    crm:P67 "271" .</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="409.6">
@@ -3574,10 +3574,10 @@
       </c>
       <c r="V11" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:140
+        <v>ifcp:140
     rdf:type crm:E1 ;
-    rdfs:label "志摩加茂五郷の盆祭行事" ;
-    rdfs:label "しまかもごごうのぼんまつりぎょうじ" ;
+    rdfs:label "志摩加茂五郷の盆祭行事"@ja ;
+    rdfs:label "しまかもごごうのぼんまつりぎょうじ"@ja-hrkt ;
     crm:P3 """　我が国では、盆は正月とならんで生活の重要な折り目とされ、その際に行われる行事は、精霊（祖霊）を迎え、祭り、送るという趣旨が濃く伝承されている。しかし、一面では地区挙げての盆行事には、社会状況の変化等に伴い形骸化したり消滅したりしたものが少なくない。
 　この盆行事は、８月14日のネンブツイレ（念仏入。大念仏ともいう）と15日のヒバシラマツリ（火柱祭。岡霊祭ともいう）からなる。
   ともに、夕刻以降に、若者組が中心となって行う。明治初年までは、加茂五郷（現船津町・河内町・岩倉町・松尾町・白木町）が共同でヒバシラマツリを行っていたと伝えられ、松尾町・河内町地区では寛政6（1794）年の記録にある旧習を現在に伝承してきている。両地区での盆祭行事には細部において若干の差はあるが、基本的には実態に違いは認められない。
@@ -3604,7 +3604,7 @@
 &lt;http://example.org/ifcp/140/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1987-12-28" ;
-    crm:P67 "273 - 274" . </v>
+    crm:P67 "273 - 274" .</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="409.6">
@@ -3658,10 +3658,10 @@
       </c>
       <c r="V12" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:145
+        <v>ifcp:145
     rdf:type crm:E1 ;
-    rdfs:label "周防祖生の柱松行事" ;
-    rdfs:label "すおうそおのはしらまつぎょうじ" ;
+    rdfs:label "周防祖生の柱松行事"@ja ;
+    rdfs:label "すおうそおのはしらまつぎょうじ"@ja-hrkt ;
     crm:P3 """　祖生の柱松行事は、「祖生の三本松」とも通称され、周防灘に注ぐ島田川の中流域に隣接して位置する３つの地区で個別に行われている。
 　祖生中村では８月15日（昭和22年までは8月16日）、同山田では8月19日、同落合では8月23日と期日が前後しているほか、行事のなされる場所、行事の役割分担などの細部において相違があるものの、往時、疫病の蔓延に伴って農耕用の牛・馬が多数死にいたったことを機に、その慰霊と除災のために行ってきたと伝えている点では共通している。
   祖生中村の新宮神社所蔵の『産土社諸控早採略記』（元治元年〔1864〕）には、享保19年（1734）7月18日の条で、「七月十八日より三日間、牛馬御祈念有之、永々七月十四日に高灯明立願有之、柱松之企相始り候」と記録されているので、それ以来、柱松行事が毎年繰りかえされ伝承されてきたと思われる。
@@ -3687,7 +3687,7 @@
 &lt;http://example.org/ifcp/145/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1989-03-20" ;
-    crm:P67 "285 - 288" . </v>
+    crm:P67 "285 - 288" .</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="409.6">
@@ -3735,10 +3735,10 @@
       </c>
       <c r="V13" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:156
+        <v>ifcp:156
     rdf:type crm:E1 ;
-    rdfs:label "野沢温泉の道祖神祭り" ;
-    rdfs:label "のざわおんせんのどうそじんまつり" ;
+    rdfs:label "野沢温泉の道祖神祭り"@ja ;
+    rdfs:label "のざわおんせんのどうそじんまつり"@ja-hrkt ;
     crm:P3 """　野沢温泉の道祖神祭りは、地区を代表する野沢組惣代が総元締めになり、経験者のなかから選ばれた山棟梁や社殿棟梁などの役員の指揮のもと、サンヤンコウ（三夜講）の男たちが具体的なすべての作業を担って行われる。
 　サンヤンコウは、この祭りに数え年42歳の厄年を迎える男たちを筆頭に40歳までの3つの年齢層のトモダチ衆で編成され、これに数え年25歳の厄年を迎える年齢の青年たちが加わって、3年間にわたって道祖神祭りの中心となるのである。
 　祭りの準備は、前年10月下旬から始まり、村の共有林から「道祖神の社殿」の用材になるブナ材を伐り出す。芯木になるのは直径1尺（約30㎝）・長さ10間（約18㍍）ほどのブナ5本である。1月13日には芯木を集落まで曳き下ろし、14日早朝からは社殿棟梁の指揮のもとに社殿造りが行われる。この巨大な社殿を、近年は15日の昼までに完成させている。
@@ -3766,7 +3766,7 @@
 &lt;http://example.org/ifcp/156/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1993-12-13" ;
-    crm:P67 "305" . </v>
+    crm:P67 "305" .</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="409.6">
@@ -3811,10 +3811,10 @@
       </c>
       <c r="V14" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:158
+        <v>ifcp:158
     rdf:type crm:E1 ;
-    rdfs:label "宮古島のパーントゥ" ;
-    rdfs:label "みやこじのぱーんとぅ" ;
+    rdfs:label "宮古島のパーントゥ"@ja ;
+    rdfs:label "みやこじのぱーんとぅ"@ja-hrkt ;
     crm:P3 """　宮古島のパーントゥは、仮面をつけ、草をまとった異形の神が村落内を巡り歩いて災厄払いをするもので、宮古島の旧平良市島尻と旧上野村野原に伝承されている。
 　パーントゥとは、本来、お化け、鬼神を意味した言葉である。島尻ではこの行事のことをパーントゥ・プナカという。プナカは祈願祭のことであり、パーントゥ神が出現する祭りの意味である。一方、野原では、この行事名をサティパロウ（里払い）ともいい、仮面をつけたパーントゥが登場する。
 　島尻では、陰暦９月上旬の吉日、野原では陰暦12月の最後の丑の日に行われる。
@@ -3843,7 +3843,7 @@
 &lt;http://example.org/ifcp/158/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1993-12-13" ;
-    crm:P67 "307 - 308" . </v>
+    crm:P67 "307 - 308" .</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="409.6">
@@ -3903,10 +3903,10 @@
       </c>
       <c r="V15" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:162
+        <v>ifcp:162
     rdf:type crm:E1 ;
-    rdfs:label "大善寺玉垂宮の鬼夜" ;
-    rdfs:label "だいぜんじたまたれぐうのおによ" ;
+    rdfs:label "大善寺玉垂宮の鬼夜"@ja ;
+    rdfs:label "だいぜんじたまたれぐうのおによ"@ja-hrkt ;
     crm:P3 """　大善寺玉垂宮の鬼夜は、久留米市大善寺玉垂宮に伝承されている行事である。12月31日のオニビトリ（鬼火採り）から始まり、この火が神殿奥にて守られる１月７日まで行われる。
 　鬼夜の大松明は、かつては前日の１月６日に作っていたが、現在は人手の都合などもあって４日に作っている。この松明は大字宮本の６つの字がそれぞれムラヨリといい全戸が参加して作って奉納するもので、一番松明から六番松明の６本となっている。芯に直径20㎝ほどの孟宗竹を３本束ねて入れその周囲に笹竹を寄せて回し、さらにそのうえを直径3～4㎝ほどの真竹で包み込んで化粧竹とする。火をつける頭には枯れた杉葉を入れて切り口を揃え、この上に頭の方から7本・5本・3本と縄を掛けて結び、同様に根元側からも同じく七五三と縄を掛けて男結びにする。
   大松明の胴を縛る縄は、2本回しで1年の日数を表す365ヶ所、閏年の場合には366ヶ所を縛る。大松明の末端はかずらの蔓で縛り尻縄を付ける。
@@ -3938,7 +3938,7 @@
 &lt;http://example.org/ifcp/162/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1994-12-13" ;
-    crm:P67 "317" . </v>
+    crm:P67 "317" .</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="409.6">
@@ -3998,10 +3998,10 @@
       </c>
       <c r="V16" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:167
+        <v>ifcp:167
     rdf:type crm:E1 ;
-    rdfs:label "陀々堂の鬼はしり" ;
-    rdfs:label "だだどうのおにはしり" ;
+    rdfs:label "陀々堂の鬼はしり"@ja ;
+    rdfs:label "だだどうのおにはしり"@ja-hrkt ;
     crm:P3 """　わが国の各地には年頭に当たって鬼を追い除災招福を祈る行事が残っている。鬼祭などとよばれるこの行事は、鬼の逃げ回ることを強調して鬼はしりなどともよばれる。鬼に災厄の一切を仮託しこれを追って厄を払う風習は、追儺や修正会等の行事に伴って行われることが多い。このなかで、鬼が追われる対象ではなく幸いをもたらす役割を担う例もみられる。五條市大津町の念仏寺で行われる陀々堂の鬼はしりもその一つである。
 　念仏寺は、平安時代末期に東大寺領豊井庄の一部として登場する坂合部郷12か村の郷寺といわれ、郷内の諸寺院の本山格を務めていたが、現在は真言宗に属する無住寺院となっている。この地域を支配した土豪坂合部氏は、天正2年（1574）高野山衆徒の攻撃を受けて没落するが、その末裔は代々念仏寺別当を務めてきた。
 　坂合部郷12か村は、近世には中村・大野村・山陰村・田殿村・大深村・黒駒村・表野村・大津村・火打村・犬飼村・上野村・相谷村として独立の村となった。しかし、吉野川を隔てた河北・河南のこれらの村々は、中世後期から坂合部山という広大な共有地を持っており、近世以降も実質的にはこの山を中心に郷という共同体を維持してきたのである。
@@ -4032,7 +4032,7 @@
 &lt;http://example.org/ifcp/167/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1995-12-26" ;
-    crm:P67 "325" . </v>
+    crm:P67 "325" .</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="409.6">
@@ -4077,10 +4077,10 @@
       </c>
       <c r="V17" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:179
+        <v>ifcp:179
     rdf:type crm:E1 ;
-    rdfs:label "大磯の左義長" ;
-    rdfs:label "おおいそのさぎちょう" ;
+    rdfs:label "大磯の左義長"@ja ;
+    rdfs:label "おおいそのさぎちょう"@ja-hrkt ;
     crm:P3 """　大磯では左義長とか、サイト・サイトヤキ・サイトバライと呼ぶ小正月の火祭りが、海岸沿いの南下町の坂下・浜町・大泊・子の神、北下町の中宿・浅間町・大北、山王、長者の計９地区で行われる。
 　大磯の左義長は、前年12月8日の一番息子という行事で始まると考えられている。その日の朝、子どもたちは宮元（塞の神の世話を代々している家）に集まり、塞の神の祠に置かれているゴロ石を縄で縛り、５人ぐらいの組を作って各家を回り、ゴロ石で門口や庭先の地面をドンドンと打って唱え言を唱える。子どもたちは各家から賽銭を受け取り、宮元へ持ち帰る。この賽銭でご馳走を作って食べるが、風邪をひかないように必ず豆腐を食べる風習がある。ゴロ石は蚕の繭形に中央を削った石で、男子が生まれたり７歳になったときに、丈夫に育つようにと奉納するもので、かつては祠近くの土中に埋めていたという。
 　正月11日早朝に大磯の東方に当たる平塚市に行って、竹や松などを買う。オンベ竹は御仮屋の傍らに立てるもので、ヌイゾメ（縫い初め）といって、正月の供え餅に敷いた紙や五色の紙をつなぎ合わせて作った吹き流し・紙テープ・細い竹と縄とで作った弓矢などをつける。
@@ -4110,7 +4110,7 @@
 &lt;http://example.org/ifcp/179/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1997-12-15" ;
-    crm:P67 "337" . </v>
+    crm:P67 "337" .</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="409.6">
@@ -4155,10 +4155,10 @@
       </c>
       <c r="V18" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:188
+        <v>ifcp:188
     rdf:type crm:E1 ;
-    rdfs:label "上郷の小正月行事" ;
-    rdfs:label "かみごうのこしょうがつぎょうじ" ;
+    rdfs:label "上郷の小正月行事"@ja ;
+    rdfs:label "かみごうのこしょうがつぎょうじ"@ja-hrkt ;
     crm:P3 """　にかほ市象潟町横岡は旧上郷村に属する鳥海山西麓の台地上に広がる農村地帯で、６つの地区からなる。南端に位置する横岡地区の大下（下村）・中ノ下・中屋敷・寺地の４か所の組と、北端の大森地区では、正月15日を中心にサエの神小屋焼きなどの小正月行事が行われている。
 　正月8日頃、子どもたちは各家から藁とヌサをもらってまわり、大人たちはサエの神小屋の柱などに用いるホケ伐りをする。各組それぞれにサエの神を祀っており、11日午後にその近くにサエの神小屋を建てる。小屋の入口の上部にヌサを飾る。ヌサは藁製の幣束で、コンブ・干鰯・炭・麻などを結びつけ、正月2日朝に家族の男性の数だけ作り、7日まで屋敷内のアキの方にある樹木に掛けておいたものである。入口の両側にはハネノキ（タニウツギ）の枝を立てる。小屋の床には莚を敷き、その上に藁を敷き詰め、最奥部に古いサエの神（木製男根形）を祀る。中ノ下や寺地では小屋にタラの木を二つ割りにして、「十二月吉日」とか「蘇民将来之子孫門戸也」と書いたゴンギョウを挿す。14日夜は9時頃まで子どもたちがサエの神小屋に籠もる。
 　15日早朝、人びとはサエの神餅を持ってサエの神に参拝し、神前で鉈を用いて年齢分の数だけ削って持ち帰る。また、月々の願い事を祈るために1年間の月数を削る人もいる。
@@ -4189,7 +4189,7 @@
 &lt;http://example.org/ifcp/188/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1998-12-16" ;
-    crm:P67 "352 - 353" . </v>
+    crm:P67 "352 - 353" .</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="409.6">
@@ -4234,10 +4234,10 @@
       </c>
       <c r="V19" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:195
+        <v>ifcp:195
     rdf:type crm:E1 ;
-    rdfs:label "遊佐の小正月行事" ;
-    rdfs:label "ゆざのこしょうがつぎょうじ" ;
+    rdfs:label "遊佐の小正月行事"@ja ;
+    rdfs:label "ゆざのこしょうがつぎょうじ"@ja-hrkt ;
     crm:P3 """　山形県飽海郡遊佐町の女鹿・滝ノ浦・鳥崎地区は、鳥海山西麓の山形県と秋田県の県境に位置し、日本海岸に面した海沿いの半農半漁の集落である。女鹿には水田がない。
 　この地域では正月にアマハゲと呼ぶ行事が行われている。現在は滝ノ浦が１日、女鹿が３日、鳥崎が６日と別々の日に行われているが、昭和12頃までは３集落とも旧暦1月15日に行われていた。期日はその後、1月31日、1月6日と変化し、昭和50年代初めから現在の期日となった。
 　かつて３集落では、アマハゲ行事とともにホンテ焼きの行事と鳥追い行事も行われており、鳥崎では現在も地区の行事として行われている。
@@ -4271,7 +4271,7 @@
 &lt;http://example.org/ifcp/195/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1999-12-21" ;
-    crm:P67 "359" . </v>
+    crm:P67 "359" .</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="409.6">
@@ -4316,10 +4316,10 @@
       </c>
       <c r="V20" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:204
+        <v>ifcp:204
     rdf:type crm:E1 ;
-    rdfs:label "米川の水かぶり" ;
-    rdfs:label "よねかわのみずかぶり" ;
+    rdfs:label "米川の水かぶり"@ja ;
+    rdfs:label "よねかわのみずかぶり"@ja-hrkt ;
     crm:P3 """　旧登米郡東和町は、宮城県北部に位置し、北は岩手県と境を接する北上川左岸の地域である。旧狼河原村と鱒渕村の２か村が明治22年に合併して米川村となり、さらに昭和32年に近接する米谷町、日高村と合併して東和町となった。この旧米川村の中心地が狼河原であり、近世には登米郡から本吉郡へ通じる西郡街道の宿駅であった。狼河原は本町、中町、五日町からなっており、この行事は五日町で行われている。
 　米川の水かぶりは、２月初午の日に行われる。五日町町内在住の若者や厄年の者が集まって行われる行事で、厄払いの要素も併せもつ。この行事には、五日町町内在住の男以外が参加したり、初午の日以外にすると火事が起きるとか、宿を変えてはならないという伝承があり、宿は代々五日町地内の菅原家と決まっている。
 　初午の日の朝、参加者が宿の菅原家に集まって装束作りを始める。宿ではオカメとヒョットコの衣装や面を保管しており、装束を作るのに使う糯種の稲藁も用意しておくことになっている。
@@ -4351,7 +4351,7 @@
 &lt;http://example.org/ifcp/204/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2000-12-27" ;
-    crm:P67 "374" . </v>
+    crm:P67 "374" .</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="409.6">
@@ -4396,10 +4396,10 @@
       </c>
       <c r="V21" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:218
+        <v>ifcp:218
     rdf:type crm:E1 ;
-    rdfs:label "見島のカセドリ" ;
-    rdfs:label "みしまのかせどり" ;
+    rdfs:label "見島のカセドリ"@ja ;
+    rdfs:label "みしまのかせどり"@ja-hrkt ;
     crm:P3 """見島のカセドリは、佐賀県佐賀市蓮池町の見島地区で行われている小正月の行事で、笠を被り、藁蓑をつけたカセドリと呼ばれる青年２人が、夜に地区内の家々を順番に訪れ、手に持った青竹を激しく畳や床に打ち付けて悪霊を祓い、その年の家内安全や五穀豊穣を祈願する行事である。
 　蓮池町は、佐賀市東南部、佐賀江川や城原川などが流れる、日本有数の農業地帯である佐賀平野の中央部に位置する。蓮池町一帯は、かつては有明海の干拓地であったが、寛永16年（1639）に佐賀藩の三支藩の1つである蓮池藩が成立し、初代藩主の鍋島直澄によって蓮池城が整備されたのに伴って開墾が進められ、城下町として栄えるようになった。しかし、当時は井戸水に海水が混じり、夏になると疫病が絶えなかったことから、藩主の直澄が紀州の熊野三所権現を勧請して熊野権現社を建立し、当地の鎮守として祀ったところ疫病が途絶えたという。そして、これを機に、より一層の加護を祈念して始められたのが、このカセドリ行事であると伝えられている。
   毎年旧暦1月14日に行われてきたが、現在は、2月第二土曜日の夜に行われている。
@@ -4428,7 +4428,7 @@
 &lt;http://example.org/ifcp/218/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2002-02-20" ;
-    crm:P67 "390" . </v>
+    crm:P67 "390" .</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="409.6">
@@ -4473,10 +4473,10 @@
       </c>
       <c r="V22" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:221
+        <v>ifcp:221
     rdf:type crm:E1 ;
-    rdfs:label "吉浜のスネカ" ;
-    rdfs:label "よしはまのすねか" ;
+    rdfs:label "吉浜のスネカ"@ja ;
+    rdfs:label "よしはまのすねか"@ja-hrkt ;
     crm:P3 """　吉浜のスネカは、岩手県大船渡市三陸町の吉浜地区に伝承されている来訪神の行事で、奇怪な面を着け、藁蓑などをまとったスネカと呼ばれる異装の者が小正月の夜に地区内の家々を訪れて、怠け者や泣く子を戒める行事である。
 　スネカとは、囲炉裏のそばで怠けている者の脛にできるヒガタ（火班）を剥ぐ行為を指すスネカワタグリ（脛皮たぐり）に由来するといわれている。
 　三陸町は、岩手県の沿岸部、リアス式海岸で有名な三陸海岸の南部に位置する。スネカが伝承されている吉浜地区は、町域の北部にあり、東は吉浜湾に面し、西は山岳が海岸まで迫る地勢で、その間に集落が展開している。生業は半農半漁で、日本屈指のアワビの産地として知られるなど古くから漁業が盛んであり、また、畑作を中心とした農業も行われてきた。
@@ -4508,7 +4508,7 @@
 &lt;http://example.org/ifcp/221/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2004-02-06" ;
-    crm:P67 "392" . </v>
+    crm:P67 "392" .</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="409.6">
@@ -4568,10 +4568,10 @@
       </c>
       <c r="V23" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:228
+        <v>ifcp:228
     rdf:type crm:E1 ;
-    rdfs:label "鳥羽の火祭り" ;
-    rdfs:label "とばのひまつり" ;
+    rdfs:label "鳥羽の火祭り"@ja ;
+    rdfs:label "とばのひまつり"@ja-hrkt ;
     crm:P3 """　鳥羽の火祭りは、幡豆町の鳥羽地区で行われている正月行事で、地区を二分し、燃え盛るスズミと呼ばれる大松明の中から「神木」と「十二縄」を取り出して神前に供える速さを競い、その勝敗や松明の燃え具合などで作柄や一年の吉凶などを占う行事である。
 　行事は旧鳥羽村の村社である神明社の境内で行われ、古くは旧暦１月７日に行われていたが、昭和45年からは２月の第二日曜日に行われることとなった。
 　神明社脇を流れる鳥羽川を境に、東側の九番組、十番組を「乾地」、西側の十一番組、十二番組を「福地」という形で地区を二分する。そして神明社の氏子の中から選ばれた９人の宮係（宮役）とそのうちの１人が務める宮総代が中心となって執行され、行事の参加者は忌みの罹っていない男性に限られる。
@@ -4605,7 +4605,7 @@
 &lt;http://example.org/ifcp/228/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2004-02-06" ;
-    crm:P67 "399" . </v>
+    crm:P67 "399" .</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="409.6">
@@ -4650,10 +4650,10 @@
       </c>
       <c r="V24" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:236
+        <v>ifcp:236
     rdf:type crm:E1 ;
-    rdfs:label "五十猛のグロ" ;
-    rdfs:label "いそだけのぐろ" ;
+    rdfs:label "五十猛のグロ"@ja ;
+    rdfs:label "いそだけのぐろ"@ja-hrkt ;
     crm:P3 """　五十猛のグロは、大田市五十猛町大浦地区に伝承される小正月の行事である。グロと呼ばれる円錐形の大きな仮屋を浜辺に作って歳徳神を迎え、その年の豊漁や無病息災を祈願し、最後に正月飾りとともに仮屋を焼き払う行事で、1月11日から15日までの5日間にわたって行われる。
 　五十猛町は、島根県のほぼ中央にある大田市の北西部に位置する。グロが伝承されている大浦地区は、日本海に面した町域の西端にあり、石見海岸では浜田に次ぐ県内屈指の漁港として栄えてきたところである。この行事は、大浦地区の漁師たちによって伝えられてきたもので、かつては網元を中心に行われていたが、現在は漁業に従事する家々によって構成される大浦グロ保存会を中心に伝承されている。
 　グロとは、行事の名称であるとともに、行事の際に竹を主な材料として作られる独特の小屋をさす呼称でもある。その語源は定かではないが、当地では、グロとは草むらや山中に建つ簡素な小屋のこと、あるいは草が密集している様子を言い表す語として用いられ、こうした関連から仮屋をグロと称するようになったといわれる。
@@ -4685,7 +4685,7 @@
 &lt;http://example.org/ifcp/236/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2005-02-21" ;
-    crm:P67 "409" . </v>
+    crm:P67 "409" .</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="409.6">
@@ -4730,10 +4730,10 @@
       </c>
       <c r="V25" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:240
+        <v>ifcp:240
     rdf:type crm:E1 ;
-    rdfs:label "月浜のえんずのわり" ;
-    rdfs:label "つきはまのえんずのわり" ;
+    rdfs:label "月浜のえんずのわり"@ja ;
+    rdfs:label "つきはまのえんずのわり"@ja-hrkt ;
     crm:P3 """　月浜のえんずのわりは、宮城県東松島市宮戸の月浜地区に伝承される小正月の鳥追いの行事で、子どもたちが岩屋でお籠もりをしてから、集団で家々を回り、害鳥を追い払う唱え言をいって、一年の豊作や無病息災を祈願する。
 　東松島市宮戸は、宮城県の北東部、松島湾の外縁をなす奥松島と呼ばれる島々の１つ、宮戸島に位置する。宮戸島は、松島湾では最大の島であり、えんずのわりが伝承されている月浜地区は、島の南端に位置する４０戸ほどの半農半漁の集落である。　えんずのわりは、この地区の子どもたちによって伝承されてきた行事である。かつては旧暦で行われていたが、昭和３０年代中頃から新暦で行うようになり、現在は１月１４日夜を中心に、６日間にわたって行われている。
 　行事の呼称である「えんずのわり」とは、当地の方言で「意地の悪い」ことを意味するとされ、農作物を荒らす意地の悪い鳥を追い払うのがこの行事であるという。
@@ -4762,7 +4762,7 @@
 &lt;http://example.org/ifcp/240/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2006-03-15" ;
-    crm:P67 "413" . </v>
+    crm:P67 "413" .</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="409.6">
@@ -4822,10 +4822,10 @@
       </c>
       <c r="V26" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:245
+        <v>ifcp:245
     rdf:type crm:E1 ;
-    rdfs:label "東光寺の鬼会" ;
-    rdfs:label "とうこうじのおにえ" ;
+    rdfs:label "東光寺の鬼会"@ja ;
+    rdfs:label "とうこうじのおにえ"@ja-hrkt ;
     crm:P3 """　東光寺の鬼会は、兵庫県加西市上万願寺町の東光寺で行われる年頭の行事で、厄年の男性が扮する赤鬼と青鬼の２匹の鬼が登場し、松明や大きな鉾を振り回しながら堂内を巡って、１年の災厄を払うものである。鬼が登場する前には、田起こしや種蒔きなど稲作の作業過程を模擬的に演じる田遊びが行われ、１年の豊作が祈願される。
 　加西市は、兵庫県の南部、播州平野のほぼ中央に位置する。東光寺は、市域北部の上万願寺町にあり、天台宗比叡山延暦寺の末寺である。かつては有明山満願寺と称していたが、天文７年（1538）に焼失し、同9年に再興し、東光寺と改称している。現在は無住であり、隣町にある同宗派の楊柳寺の住職が兼務している。薬師如来を本尊とすることから、地元では薬師堂と呼ばれ親しまれている。
 　鬼会は、この東光寺で年頭に行われる修正会の行事として伝承されてきたもので、毎年1月8日に行われる。当地に残る文書資料から、室町時代の末期にはすでに鬼会が行われていたであろうことが知られており、また、田遊びについては、享保2年（1717）に再興されたものといわれている。
@@ -4857,7 +4857,7 @@
 &lt;http://example.org/ifcp/245/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2006-03-15" ;
-    crm:P67 "418" . </v>
+    crm:P67 "418" .</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="409.6">
@@ -4902,10 +4902,10 @@
       </c>
       <c r="V27" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:250
+        <v>ifcp:250
     rdf:type crm:E1 ;
-    rdfs:label "酒津のトンドウ" ;
-    rdfs:label "さけのつのとんどう" ;
+    rdfs:label "酒津のトンドウ"@ja ;
+    rdfs:label "さけのつのとんどう"@ja-hrkt ;
     crm:P3 """　酒津のトンドウは、鳥取県鳥取市気高町の酒津に伝承される小正月の火祭りで、トンドウと呼ばれる円錐形の大きな作り物を海岸につくって火を点け、正月に迎えた歳神を送るとともに、一年の無病息災や豊漁を祈願する行事である。
 　トンドウとは、火祭りの行事名称であるとともに、行事のときに松や竹、藁などを材料として作られる円錐形の作り物の呼称ともなっている。
 　気高町は、鳥取県東部に広がる鳥取市の沿岸部に位置する。トンドウが伝承されている酒津地区は、北に日本海を望み、背後の三方を山に囲まれた集落で、イワシ漁やサバ漁を中心とする漁業を生業としてきたところである。昭和20年代に酒津隧道が開通するまでは、他村との行き来もほとんどない漁村であったといわれている。
@@ -4941,7 +4941,7 @@
 &lt;http://example.org/ifcp/250/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2007-03-07" ;
-    crm:P67 "423" . </v>
+    crm:P67 "423" .</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="409.6">
@@ -4986,10 +4986,10 @@
       </c>
       <c r="V28" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:253
+        <v>ifcp:253
     rdf:type crm:E1 ;
-    rdfs:label "三島のサイノカミ" ;
-    rdfs:label "みしまのさいのかみ" ;
+    rdfs:label "三島のサイノカミ"@ja ;
+    rdfs:label "みしまのさいのかみ"@ja-hrkt ;
     crm:P3 """　三島のサイノカミは、福島県大沼郡三島町で毎年1月15日を中心に行われている小正月の火祭りの行事で、五穀豊穣や無病息災などを祈願したり、厄払いのために行われる行事である。
   近隣の山より神木を切り出し、これに稲藁や豆幹などを巻きつけ、オンベあるいはオンペイと呼ばれる御幣や正月飾りなどを吊り下げて、バンバと呼ばれる広い場所に立てて夜になると燃やす。この稲藁や正月飾りで飾り付けられ立てられた神木そのものもサイノカミと呼ばれる。
   三島町は、福島県の西部、只見川沿いの河岸段丘上に集落が形成され、農業のほか山仕事なども盛んに行われてきた町であり、現在、三島町内の宮下、桑原、大登、桧原、滝谷、川井、名入、滝原、西方の9地区がこの行事を行っている。また、このうち西方地区は戸数が多いため、13ケ所に分かれて行事を行っている。
@@ -5027,7 +5027,7 @@
 &lt;http://example.org/ifcp/253/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2008-03-13" ;
-    crm:P67 "426" . </v>
+    crm:P67 "426" .</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="409.6">
@@ -5087,10 +5087,10 @@
       </c>
       <c r="V29" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:264
+        <v>ifcp:264
     rdf:type crm:E1 ;
-    rdfs:label "阿月の神明祭" ;
-    rdfs:label "あつきのしんめいまつり" ;
+    rdfs:label "阿月の神明祭"@ja ;
+    rdfs:label "あつきのしんめいまつり"@ja-hrkt ;
     crm:P3 """　阿月の神明祭は、山口県柳井市大字阿月で2月11日に行われる行事で、本来は小正月に行われていた災厄除けや病気除け、豊作などを祈願する火祭りである。
 　阿月は、山口県東部の柳井市にあり瀬戸内海に面している。近世には毛利氏の家臣浦氏の領地で、天保13（1842）年頃成立したといわれる『防長風土注進案』には、浦氏が阿月に移封された正保元（1644）年に神明祭を行ったと記されている。
   また、『浦慈之助日記』の慶応4（1869）年1月15日には「例年ノ通、神明祭礼の事」と記されており近世末期には神明祭が行われていたことが確認できる。
@@ -5126,7 +5126,7 @@
 &lt;http://example.org/ifcp/264/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2009-03-11" ;
-    crm:P67 "437" . </v>
+    crm:P67 "437" .</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="409.6">
@@ -5186,10 +5186,10 @@
       </c>
       <c r="V30" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:266
+        <v>ifcp:266
     rdf:type crm:E1 ;
-    rdfs:label "邑町のサイノカミ" ;
-    rdfs:label "むらまちのさいのかみ" ;
+    rdfs:label "邑町のサイノカミ"@ja ;
+    rdfs:label "むらまちのさいのかみ"@ja-hrkt ;
     crm:P3 """  邑町のサイノカミは、富山県東部に位置する下新川郡入善町上野の邑町地区で行われている、厄払いや無病息災、五穀豊穣、家内安全を祈願する小正月の火祭りの行事である。
   平成12年までは1月15日に行われていたが、現在は1月15日が日曜日にあたる場合は15日に、それ以外の場合は1月15日の直前の日曜日に行われている。
 　この行事の起源については諸説あり、江戸時代にコレラが流行した際、邑町地区を流れる町川に上流から木製の人形が流れ着いたので同じものを毎年作って燃やすようになった、あるいは上流の地区で疫病除けとして町川に流した人形が邑町地区に流れ着いたので同じものを毎年作って燃やすようになったなどといわれている。それによりコレラの流行は収まり、以来、周辺でコレラがたびたび流行しても邑町地区だけはその難を逃れてきたといわれている。
@@ -5225,7 +5225,7 @@
 &lt;http://example.org/ifcp/266/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2010-03-12" ;
-    crm:P67 "438" . </v>
+    crm:P67 "438" .</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="409.6">
@@ -5273,10 +5273,10 @@
       </c>
       <c r="V31" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:269
+        <v>ifcp:269
     rdf:type crm:E1 ;
-    rdfs:label "三戸のオショロ流し" ;
-    rdfs:label "みとのおしょろながし" ;
+    rdfs:label "三戸のオショロ流し"@ja ;
+    rdfs:label "みとのおしょろながし"@ja-hrkt ;
     crm:P3 """　三戸のオショロ流しは、神奈川県三浦市初声町三戸に伝承される盆の精霊送りの行事で、毎年８月16日早朝に、華やかに飾り付けられたオショロブネ（精霊船）と呼ばれる大きな藁船を海岸で作り、子どもたちが沖まで泳ぎながら船を曳いて行き、先祖の霊を海の彼方に送るものである。
 　三浦市初声町は、三浦半島の南西部に位置し、畑作を中心とする農業と漁業を生業としてきた地域である。オショロ流しが伝承される三戸地区は、相模湾に面した集落で、海岸にそって北から神田、北、上、谷戸の４つの地区がある。自治会組織のうえでは、上と谷戸が１つの単位となって谷戸上として活動しており、オショロ流しは、この３つの地区ごとに藁船を製作して行われる。
 　三戸では、盆は月遅れで行われ、８月13日から16日の期間である。オショロ流しは、13日に各家が盆棚を設えて、オショロサマと呼ばれる一対の円筒形の飾り物を供物とともに供え、迎えた先祖の霊を16日早朝、三戸海岸から集団で送り出すもので、セイトッコと呼ばれる子ども組によって伝えられてきた。現在は、３地区の区長と三戸全体を統括する大区長を中心に保存会が組織され、大人の主導のもと、セイトッコを中心に行事が伝承されている。
@@ -5310,7 +5310,7 @@
 &lt;http://example.org/ifcp/269/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2011-03-09" ;
-    crm:P67 "455" . </v>
+    crm:P67 "455" .</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="409.6">
@@ -5370,10 +5370,10 @@
       </c>
       <c r="V32" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:277
+        <v>ifcp:277
     rdf:type crm:E1 ;
-    rdfs:label "江包・大西の御綱" ;
-    rdfs:label "えつつみ・おおにしのおつな" ;
+    rdfs:label "江包・大西の御綱"@ja ;
+    rdfs:label "えつつみ・おおにしのおつな"@ja-hrkt ;
     crm:P3 """　江包・大西の御綱は、奈良県中部の奈良盆地東南に位置する奈良県桜井市の江包地区と大西地区に伝承される習俗である。年頭に当たって五穀豊穣と子孫繁栄を祈願する行事であり、集落に降りかかる災厄を消除することを目的に行われる行事の一つで、2月11日に両区の合同で行われる。
 　両区は初瀬川をはさんで北と南に向かい合っている。江包区が男綱、大西区が女綱をつくって両区の境付近にある素盞嗚神社に持ち寄って両綱を合体させて吊す行事で、五穀豊穣と子孫繁栄の行事であるといわれている。
 　この行事の起源については、昔、大出水があって神様が上流から流れてきたときに、大西は稲田姫、江包は素盞嗚尊を救い上げて祀り、この二神が年に1度正月に結婚すると伝承されている。この伝承があるため、江包と大西は昔から縁組みをしないといわれている。
@@ -5406,7 +5406,7 @@
 &lt;http://example.org/ifcp/277/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2012-03-08" ;
-    crm:P67 "462" . </v>
+    crm:P67 "462" .</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="409.6">
@@ -5451,10 +5451,10 @@
       </c>
       <c r="V33" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:278
+        <v>ifcp:278
     rdf:type crm:E1 ;
-    rdfs:label "地福のトイトイ" ;
-    rdfs:label "じふくのトイトイ" ;
+    rdfs:label "地福のトイトイ"@ja ;
+    rdfs:label "じふくのトイトイ"@ja-hrkt ;
     crm:P3 """　地福のトイトイは、子どもたちが集落の家々をワラウマ（藁馬）をもって一軒ずつまわって供物と交換し、家内安全や無病息災、五穀豊穣などを祈願する小正月の訪問者の行事で、山口県の北部、中国山地の西端に位置する旧阿武郡阿東町の地福地区に伝承されてきたものである。
 　この行事の起源については、地元にも伝承がなく定かではない。ただ、天保13（1842）年頃に長州藩が編纂したといわれる『風土注進案』には、例えば、「切畑村」の項に「同十五日宵とひと申、膳又は折敷等へ銭差又は藁ニて馬船等を拵へ松竹を添持来り、障子の内に入置候得ハ其膳え代りに餅を置候、取に来り候時水を懸候て戯候事」という記述がみられるように、この種の行事が1月15日頃に行われる行事として「とひ」「とへい」「とへとへ」などの名称でいくつか記述されており、少なくとも江戸時代には山口県内でこの種の小正月行事が行われていたことがわかる。
 　地福地区は、中国山地の西端に位置する標高300ｍほどの高原地帯に位置する。古くから稲作が盛んであり、現在でも山口県内有数の稲作地帯の一つとなっている。気候は、夏は涼しく冬は寒さの厳しい高原性の気候で、行事の実施される1月には積雪が多いときは50㎝近くに達することもある。
@@ -5487,7 +5487,7 @@
 &lt;http://example.org/ifcp/278/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2012-03-08" ;
-    crm:P67 "464" . </v>
+    crm:P67 "464" .</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="409.6">
@@ -5532,10 +5532,10 @@
       </c>
       <c r="V34" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:298
+        <v>ifcp:298
     rdf:type crm:E1 ;
-    rdfs:label "悪石島のボゼ" ;
-    rdfs:label "あくせきじまのぼぜ" ;
+    rdfs:label "悪石島のボゼ"@ja ;
+    rdfs:label "あくせきじまのぼぜ"@ja-hrkt ;
     crm:P3 """悪石島はトカラ列島のほぼ中央に位置するが、ここに来訪神に関する行事が伝えられている。この神は、ボゼと呼ばれ、異様な容姿をもち、畏(かしこ)くも怖ろしいものとされており、盆の最終日となる旧暦七月十六日の夕刻に現れ、人びとの邪気を追い祓う。
 　トカラ列島は、薩南諸島に属する島嶼群で、それらほぼ全島群をもって行政区分としての十島村を構成している。このうち、悪石島は面積約7・49㎢、周囲を約12・64㎞とし、現人口は約70人、世帯数は約40世帯である。およそ断崖絶壁に囲まれ、平坦な土地は少なく、大半は琉球竹で覆われれている。島の伝統的な生業は焼畑と漁業であったが、戦後、昭和27年の本土復帰、続く昭和28年の離島振興法などを契機に、島内の道路整備や港湾施設の改良が進められ、現金収入が進展してくると、従前の農漁業は衰退していった。今日では、肉牛を中心とする畜産業や通船作業が主な収入源となっている。
 　当地の集落は、島の西南にある港近くの浜集落と南部にある上集落の2つがあるが、ボゼが登場するのは後者である。上集落は、トンチと呼ぶ島の開祖の地を中心に家並みが展開する。集落西方には、単にテラあるいはテラ跡と称する広場があって、この奥手にムラの墓地がある。また、墓地のさらに西裏にはスバタケ、シバタテと呼ぶ海を臨む場所があり、ここはかつて出漁時に柴を立て、安全確認の標場としたところだという。一方、トンチの北東には公民館があり、古くは釈迦堂があったと伝え、やはり広場が設けられている。これらトンチ、テラ・墓地、シバタテ、公民館（釈迦堂）広場といった諸所が、島の盆行事が行われる主要な空間となっている。
@@ -5563,7 +5563,7 @@
 &lt;http://example.org/ifcp/298/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2017-03-03" ;
-    crm:P67 "494" . </v>
+    crm:P67 "494" .</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="409.6">
@@ -5620,10 +5620,10 @@
       </c>
       <c r="V35" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:299
+        <v>ifcp:299
     rdf:type crm:E1 ;
-    rdfs:label "薩摩硫黄島のメンドン" ;
-    rdfs:label "さつまいおうじまのめんどん" ;
+    rdfs:label "薩摩硫黄島のメンドン"@ja ;
+    rdfs:label "さつまいおうじまのめんどん"@ja-hrkt ;
     crm:P3 """硫黄島は、種子島・屋久島地方のうちで、薩摩半島南端から南南西およそ40㎞に位置するが、ここに来訪神に関する行事が伝えられている。この神は、メンドンと呼ばれ、奇怪な容姿を有し、畏くも怖ろしいものとされており、八朔の行事日となる旧暦の8月1日・2日に現れ、人びとの邪気を追い祓う。
 　硫黄島は、薩摩硫黄島とも呼ばれ、竹島・黒島とともに三島村をなす。集落は1箇所のみで、現人口は約120人、世帯数は約60世帯である。面積は約11・65㎢、周囲を約19・1㎞とし、島全体が火山島であり、主峰の硫黄岳は常時噴煙を上げている。港内では鉄分を含んだ温泉が湧出し、大気との反応で赤く変色しており、島の周辺海域でも硫黄成分による黄色い変色が多々みられる。かつて、硫黄岳では硫黄や珪石の採掘が盛んに行われ、藩政期には重要な貿易品であったが、昭和39年に硫黄採鉱を閉坑、その後しばらく珪石は採掘されていたが、現在ではすべて閉山となっている。主な生業としては、肉牛を中心とする畜産業のほか、島の大半を占める竹林資源を利用したタケノコ生産、広大な椿林を活用して作る椿油と関連の製品加工などがある。また、島の周囲は好漁場で、イセエビ漁などが盛んである。
 　硫黄島のメンドンは、旧暦の8月1日・2日と2日間にわたって行われる八朔行事に現れ、何やら「恐ろしいもの」とされてきた。事前準備としては面などの仕立てがある。面は、テゴと呼ぶ農作業用の背負籠を本体とし、竹ヒゴを組み込み紙を貼って作るが、これは一四歳になる子が行い、被るものとされており、祖父や父親などに手伝ってもらって1、2ヶ月ほどかけて完成させる。仕上げは、墨を塗って黒の下地とし、そこへ赤で耳・眉は渦巻き模様に、その他には格子模様を入れていく。赤の塗料は、昨今では市販の絵の具を用いることが多いが、以前は赤錆や赤レンガを砕いて作ったという。こうして出来た面は、8月1日の朝、チグサの葉を添えて鎮守の熊野神社に奉納される。なかでも、当日最初に登場するメンは、一番メンといって、14歳のうち最も早く生まれた子が扮することになっており、この面頭にのみ旗が付されている。当地では、行事の担い手の中心となる若者たちのことを二才ともいい、かつては小二才（15～24歳）、二才（25～34歳）、二才頭（35歳）と年齢を基軸とした階梯的な社会集団としていたが、昭和40年代以降の人口減により、今日では一括総称している。つまり、面の作成やメンに扮するのが14歳というのは、これが若者入りを意味する成年戒の1つともなっている。
@@ -5650,7 +5650,7 @@
 &lt;http://example.org/ifcp/299/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2017-03-03" ;
-    crm:P67 "493" . </v>
+    crm:P67 "493" .</v>
       </c>
     </row>
     <row r="36" spans="1:22">

--- a/list_p5_added.xlsx
+++ b/list_p5_added.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F9EDC0-8F1E-1145-A20A-1CB93B53ABBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496B4D5B-4F52-0B49-9610-8878D29457D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="353">
   <si>
     <t>管理対象ID</t>
   </si>
@@ -1625,6 +1625,53 @@
   <si>
     <t>http://www.yanaicci.or.jp/yanai/event/sinmei-f.html</t>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>発祥地URI</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C46215-20041012</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C05206-20050322</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S054340010</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C46222-20091019</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/page/sac/C35325-20060320</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C40203-20080401</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S292070500</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C23213-20110401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S282201260</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C16342-20141201</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C29206-19700401</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S134210040</t>
   </si>
 </sst>
 </file>
@@ -2686,20 +2733,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V1" sqref="V1:V1048576"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="10" max="10" width="11.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="31" customHeight="1">
+    <row r="1" spans="1:23" ht="31" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>102</v>
       </c>
@@ -2757,17 +2805,20 @@
       <c r="S1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="U1" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="409.6">
+    <row r="2" spans="1:23" ht="409.6">
       <c r="A2">
         <v>49</v>
       </c>
@@ -2816,13 +2867,16 @@
       <c r="S2" t="s">
         <v>253</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" t="s">
+        <v>340</v>
+      </c>
+      <c r="U2" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="V2" s="9" t="str">
+      <c r="W2" s="9" t="str">
         <f>"ifcp:"&amp;A2&amp;"
     rdf:type crm:E1 ;
     rdfs:label """&amp;C2&amp;"""@ja ;
@@ -2833,17 +2887,19 @@
     crm:P141 &lt;http://example.org/ifcp/"&amp;A2&amp;"/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;"&amp;Q2&amp;"&gt; ;
-        crm:P4 """&amp;T2&amp;""";
-        crm:P31 """&amp;U2&amp;""";
+        crm:P4 """&amp;U2&amp;""";
+        crm:P31 """&amp;V2&amp;""";
         crm:P81 """&amp;R2&amp;""" ;
-        crm:P107 """&amp;S2&amp;""" 
+        crm:P107 &lt;"&amp;T2&amp;"&gt; 
     ];
     crm:P2 "&amp;I2&amp;" ;
     crm:P2 "&amp;H2&amp;" .
 &lt;"&amp;Q2&amp;"&gt;
     rdf:type crm:E42 .
 &lt;"&amp;G2&amp;"&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;"&amp;T2&amp;"&gt;
+    rdfs:label """&amp;S2&amp;""".  
 &lt;http://example.org/ifcp/"&amp;A2&amp;"/register&gt;
     rdf:type crm:E5 ;
     crm:P4 """&amp;J2&amp;""" ;
@@ -2864,21 +2920,23 @@
         crm:P4 "2018-12-02";
         crm:P31 "そらみみ";
         crm:P81 "江戸時代" ;
-        crm:P107 "鹿児島県薩摩川内市下甑島" 
+        crm:P107 &lt;http://data.e-stat.go.jp/lod/sac/C46215-20041012&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;https://ja.wikipedia.org/wiki/トシドン#甑島のトシドン&gt;
     rdf:type crm:E42 .
 &lt;http://www.pref.kagoshima.jp/ab10/kyoiku-bunka/bunka/museum/shichoson/satumasendai/doshidon.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;http://data.e-stat.go.jp/lod/sac/C46215-20041012&gt;
+    rdfs:label "鹿児島県薩摩川内市下甑島".  
 &lt;http://example.org/ifcp/49/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1977-05-17" ;
     crm:P67 "89 - 95" .</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="409.6">
+    <row r="3" spans="1:23" ht="409.6">
       <c r="A3">
         <v>51</v>
       </c>
@@ -2927,14 +2985,17 @@
       <c r="S3" t="s">
         <v>257</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="U3" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="V3" s="9" t="str">
-        <f t="shared" ref="V3:V35" si="0">"ifcp:"&amp;A3&amp;"
+      <c r="W3" s="9" t="str">
+        <f t="shared" ref="W3:W35" si="0">"ifcp:"&amp;A3&amp;"
     rdf:type crm:E1 ;
     rdfs:label """&amp;C3&amp;"""@ja ;
     rdfs:label """&amp;D3&amp;"""@ja-hrkt ;
@@ -2944,17 +3005,19 @@
     crm:P141 &lt;http://example.org/ifcp/"&amp;A3&amp;"/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;"&amp;Q3&amp;"&gt; ;
-        crm:P4 """&amp;T3&amp;""";
-        crm:P31 """&amp;U3&amp;""";
+        crm:P4 """&amp;U3&amp;""";
+        crm:P31 """&amp;V3&amp;""";
         crm:P81 """&amp;R3&amp;""" ;
-        crm:P107 """&amp;S3&amp;""" 
+        crm:P107 &lt;"&amp;T3&amp;"&gt; 
     ];
     crm:P2 "&amp;I3&amp;" ;
     crm:P2 "&amp;H3&amp;" .
 &lt;"&amp;Q3&amp;"&gt;
     rdf:type crm:E42 .
 &lt;"&amp;G3&amp;"&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;"&amp;T3&amp;"&gt;
+    rdfs:label """&amp;S3&amp;""".  
 &lt;http://example.org/ifcp/"&amp;A3&amp;"/register&gt;
     rdf:type crm:E5 ;
     crm:P4 """&amp;J3&amp;""" ;
@@ -2973,21 +3036,23 @@
         crm:P4 "2019-12-28";
         crm:P31 "Urania";
         crm:P81 "文政5年（1822年）" ;
-        crm:P107 "秋田県男鹿市" 
+        crm:P107 &lt;http://data.e-stat.go.jp/lod/sac/C05206-20050322&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;https://ja.wikipedia.org/wiki/なまはげ&gt;
     rdf:type crm:E42 .
 &lt;https://www.namahage-oga.akita.jp&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;http://data.e-stat.go.jp/lod/sac/C05206-20050322&gt;
+    rdfs:label "秋田県男鹿市".  
 &lt;http://example.org/ifcp/51/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1978-05-22" ;
     crm:P67 "97 - 99" .</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="409.6">
+    <row r="4" spans="1:23" ht="409.6">
       <c r="A4">
         <v>67</v>
       </c>
@@ -3027,7 +3092,7 @@
       <c r="N4" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="9" t="str">
+      <c r="W4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:67
     rdf:type crm:E1 ;
@@ -3045,21 +3110,23 @@
         crm:P4 "";
         crm:P31 "";
         crm:P81 "" ;
-        crm:P107 "" 
+        crm:P107 &lt;&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://www.hot-ishikawa.jp/event/4517&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;&gt;
+    rdfs:label "".  
 &lt;http://example.org/ifcp/67/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1979-02-03" ;
     crm:P67 "124 - 127" .</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="409.6">
+    <row r="5" spans="1:23" ht="409.6">
       <c r="A5">
         <v>109</v>
       </c>
@@ -3099,7 +3166,7 @@
       <c r="N5" t="s">
         <v>93</v>
       </c>
-      <c r="V5" s="9" t="str">
+      <c r="W5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:109
     rdf:type crm:E1 ;
@@ -3119,21 +3186,23 @@
         crm:P4 "";
         crm:P31 "";
         crm:P81 "" ;
-        crm:P107 "" 
+        crm:P107 &lt;&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://www.city.minamikyushu.lg.jp/bunkazai-kanri/bunka/shinko/bunkazai/chiranchiiki/minamisatsuma.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;&gt;
+    rdfs:label "".  
 &lt;http://example.org/ifcp/109/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1981-01-21" ;
     crm:P67 "200 - 202" .</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="409.6">
+    <row r="6" spans="1:23" ht="409.6">
       <c r="A6">
         <v>110</v>
       </c>
@@ -3182,13 +3251,16 @@
       <c r="S6" t="s">
         <v>260</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" t="s">
+        <v>342</v>
+      </c>
+      <c r="U6" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="U6" s="8" t="s">
+      <c r="V6" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="V6" s="9" t="str">
+      <c r="W6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:110
     rdf:type crm:E1 ;
@@ -3208,21 +3280,23 @@
         crm:P4 "2018-12-13";
         crm:P31 "221.58.122.88";
         crm:P81 "延暦21年（802年）" ;
-        crm:P107 "秋田県美郷町六郷地区" 
+        crm:P107 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S054340010&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;https://ja.wikipedia.org/wiki/かまくら#六郷のかまくら&gt;
     rdf:type crm:E42 .
 &lt;https://www.town.misato.akita.jp/kamakura/2574.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S054340010&gt;
+    rdfs:label "秋田県美郷町六郷地区".  
 &lt;http://example.org/ifcp/110/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1982-01-14" ;
     crm:P67 "203" .</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="409.6">
+    <row r="7" spans="1:23" ht="409.6">
       <c r="A7">
         <v>124</v>
       </c>
@@ -3271,10 +3345,13 @@
       <c r="S7" t="s">
         <v>282</v>
       </c>
-      <c r="U7" t="s">
+      <c r="T7" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="V7" t="s">
         <v>283</v>
       </c>
-      <c r="V7" s="9" t="str">
+      <c r="W7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:124
     rdf:type crm:E1 ;
@@ -3294,21 +3371,23 @@
         crm:P4 "";
         crm:P31 "龍郷町役場 教育委員会";
         crm:P81 "那覇世（13～17世紀）" ;
-        crm:P107 "奄美群島" 
+        crm:P107 &lt;http://data.e-stat.go.jp/lod/sac/C46222-20091019&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;https://www.town.tatsugo.lg.jp/edu/event-bunka/rekishi-bunka/arasetsu.html&gt;
     rdf:type crm:E42 .
 &lt;https://www.town.tatsugo.lg.jp/edu/event-bunka/rekishi-bunka/arasetsu.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;http://data.e-stat.go.jp/lod/sac/C46222-20091019&gt;
+    rdfs:label "奄美群島".  
 &lt;http://example.org/ifcp/124/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1985-01-12" ;
     crm:P67 "244" .</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="409.6">
+    <row r="8" spans="1:23" ht="409.6">
       <c r="A8">
         <v>131</v>
       </c>
@@ -3348,7 +3427,7 @@
       <c r="N8" t="s">
         <v>29</v>
       </c>
-      <c r="V8" s="9" t="str">
+      <c r="W8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:131
     rdf:type crm:E1 ;
@@ -3368,21 +3447,23 @@
         crm:P4 "";
         crm:P31 "";
         crm:P81 "" ;
-        crm:P107 "" 
+        crm:P107 &lt;&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;http://www.town.saitama-misato.lg.jp/admini/towninfo/ino108.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;&gt;
+    rdfs:label "".  
 &lt;http://example.org/ifcp/131/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1987-01-08" ;
     crm:P67 "257" .</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="409.6">
+    <row r="9" spans="1:23" ht="409.6">
       <c r="A9">
         <v>135</v>
       </c>
@@ -3422,7 +3503,7 @@
       <c r="N9" t="s">
         <v>83</v>
       </c>
-      <c r="V9" s="9" t="str">
+      <c r="W9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:135
     rdf:type crm:E1 ;
@@ -3443,21 +3524,23 @@
         crm:P4 "";
         crm:P31 "";
         crm:P81 "" ;
-        crm:P107 "" 
+        crm:P107 &lt;&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://goto.nagasaki-tabinet.com/event/51078/&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;&gt;
+    rdfs:label "".  
 &lt;http://example.org/ifcp/135/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1987-01-08" ;
     crm:P67 "267" .</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="409.6">
+    <row r="10" spans="1:23" ht="409.6">
       <c r="A10">
         <v>138</v>
       </c>
@@ -3497,7 +3580,7 @@
       <c r="N10" t="s">
         <v>37</v>
       </c>
-      <c r="V10" s="9" t="str">
+      <c r="W10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:138
     rdf:type crm:E1 ;
@@ -3518,21 +3601,23 @@
         crm:P4 "";
         crm:P31 "";
         crm:P81 "" ;
-        crm:P107 "" 
+        crm:P107 &lt;&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;http://www.itoigawa-base.com/viewspot/culture_02_01.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;&gt;
+    rdfs:label "".  
 &lt;http://example.org/ifcp/138/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1987-12-28" ;
     crm:P67 "271" .</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="409.6">
+    <row r="11" spans="1:23" ht="409.6">
       <c r="A11">
         <v>140</v>
       </c>
@@ -3572,7 +3657,7 @@
       <c r="N11" t="s">
         <v>53</v>
       </c>
-      <c r="V11" s="9" t="str">
+      <c r="W11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:140
     rdf:type crm:E1 ;
@@ -3593,21 +3678,23 @@
         crm:P4 "";
         crm:P31 "";
         crm:P81 "" ;
-        crm:P107 "" 
+        crm:P107 &lt;&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://toba-archive.jp/content/detail.php?no=3991&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;&gt;
+    rdfs:label "".  
 &lt;http://example.org/ifcp/140/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1987-12-28" ;
     crm:P67 "273 - 274" .</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="409.6">
+    <row r="12" spans="1:23" ht="409.6">
       <c r="A12">
         <v>145</v>
       </c>
@@ -3656,7 +3743,10 @@
       <c r="S12" t="s">
         <v>286</v>
       </c>
-      <c r="V12" s="9" t="str">
+      <c r="T12" t="s">
+        <v>344</v>
+      </c>
+      <c r="W12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:145
     rdf:type crm:E1 ;
@@ -3676,21 +3766,23 @@
         crm:P4 "";
         crm:P31 "";
         crm:P81 "享保19年(1734)" ;
-        crm:P107 "山口県周東町" 
+        crm:P107 &lt;http://data.e-stat.go.jp/lod/page/sac/C35325-20060320&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;http://www.sea.icn-tv.ne.jp/~sosym/&gt;
     rdf:type crm:E42 .
 &lt;http://www.sea.icn-tv.ne.jp/~sosym/&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;http://data.e-stat.go.jp/lod/page/sac/C35325-20060320&gt;
+    rdfs:label "山口県周東町".  
 &lt;http://example.org/ifcp/145/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1989-03-20" ;
     crm:P67 "285 - 288" .</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="409.6">
+    <row r="13" spans="1:23" ht="409.6">
       <c r="A13">
         <v>156</v>
       </c>
@@ -3733,7 +3825,7 @@
       <c r="N13" t="s">
         <v>47</v>
       </c>
-      <c r="V13" s="9" t="str">
+      <c r="W13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:156
     rdf:type crm:E1 ;
@@ -3755,21 +3847,23 @@
         crm:P4 "";
         crm:P31 "";
         crm:P81 "" ;
-        crm:P107 "" 
+        crm:P107 &lt;&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://nozawakanko.jp/record/dosojin/&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;&gt;
+    rdfs:label "".  
 &lt;http://example.org/ifcp/156/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1993-12-13" ;
     crm:P67 "305" .</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="409.6">
+    <row r="14" spans="1:23" ht="409.6">
       <c r="A14">
         <v>158</v>
       </c>
@@ -3809,7 +3903,7 @@
       <c r="N14" t="s">
         <v>96</v>
       </c>
-      <c r="V14" s="9" t="str">
+      <c r="W14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:158
     rdf:type crm:E1 ;
@@ -3832,21 +3926,23 @@
         crm:P4 "";
         crm:P31 "";
         crm:P81 "" ;
-        crm:P107 "" 
+        crm:P107 &lt;&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://www.tabirai.net/sightseeing/column/0003469.aspx&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;&gt;
+    rdfs:label "".  
 &lt;http://example.org/ifcp/158/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1993-12-13" ;
     crm:P67 "307 - 308" .</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="409.6">
+    <row r="15" spans="1:23" ht="409.6">
       <c r="A15">
         <v>162</v>
       </c>
@@ -3895,13 +3991,16 @@
       <c r="S15" t="s">
         <v>266</v>
       </c>
-      <c r="T15" s="12" t="s">
+      <c r="T15" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="U15" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="U15" s="8" t="s">
+      <c r="V15" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="V15" s="9" t="str">
+      <c r="W15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:162
     rdf:type crm:E1 ;
@@ -3927,21 +4026,23 @@
         crm:P4 "2018-11-15";
         crm:P31 "STA3816";
         crm:P81 "368年（仁徳天皇56年）" ;
-        crm:P107 "福岡県久留米市大善寺" 
+        crm:P107 &lt;http://data.e-stat.go.jp/lod/sac/C40203-20080401&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;https://ja.wikipedia.org/wiki/鬼夜&gt;
     rdf:type crm:E42 .
 &lt;https://tamataregu.or.jp/oniyo&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;http://data.e-stat.go.jp/lod/sac/C40203-20080401&gt;
+    rdfs:label "福岡県久留米市大善寺".  
 &lt;http://example.org/ifcp/162/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1994-12-13" ;
     crm:P67 "317" .</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="409.6">
+    <row r="16" spans="1:23" ht="409.6">
       <c r="A16">
         <v>167</v>
       </c>
@@ -3990,13 +4091,16 @@
       <c r="S16" t="s">
         <v>270</v>
       </c>
-      <c r="T16" s="12" t="s">
+      <c r="T16" t="s">
+        <v>346</v>
+      </c>
+      <c r="U16" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="U16" s="8" t="s">
+      <c r="V16" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="V16" s="9" t="str">
+      <c r="W16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:167
     rdf:type crm:E1 ;
@@ -4021,21 +4125,23 @@
         crm:P4 "2019-04-13";
         crm:P31 "8-hachiro";
         crm:P81 "室町時代" ;
-        crm:P107 "奈良県五條市大津町念仏寺" 
+        crm:P107 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S292070500&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;https://ja.wikipedia.org/wiki/陀々堂の鬼はしり&gt;
     rdf:type crm:E42 .
 &lt;https://www.city.gojo.lg.jp/kankou/dentou/4032.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S292070500&gt;
+    rdfs:label "奈良県五條市大津町念仏寺".  
 &lt;http://example.org/ifcp/167/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1995-12-26" ;
     crm:P67 "325" .</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="409.6">
+    <row r="17" spans="1:23" ht="409.6">
       <c r="A17">
         <v>179</v>
       </c>
@@ -4075,7 +4181,7 @@
       <c r="N17" t="s">
         <v>32</v>
       </c>
-      <c r="V17" s="9" t="str">
+      <c r="W17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:179
     rdf:type crm:E1 ;
@@ -4099,21 +4205,23 @@
         crm:P4 "";
         crm:P31 "";
         crm:P81 "" ;
-        crm:P107 "" 
+        crm:P107 &lt;&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;http://www.town.oiso.kanagawa.jp/isotabi/matsuri_event/matsuri/sagichou.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;&gt;
+    rdfs:label "".  
 &lt;http://example.org/ifcp/179/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1997-12-15" ;
     crm:P67 "337" .</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="409.6">
+    <row r="18" spans="1:23" ht="409.6">
       <c r="A18">
         <v>188</v>
       </c>
@@ -4153,7 +4261,7 @@
       <c r="N18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="V18" s="9" t="str">
+      <c r="W18" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:188
     rdf:type crm:E1 ;
@@ -4178,21 +4286,23 @@
         crm:P4 "";
         crm:P31 "";
         crm:P81 "" ;
-        crm:P107 "" 
+        crm:P107 &lt;&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://common3.pref.akita.lg.jp/genkimura/village/detail.html?cid=24&amp;vid=4&amp;id=1130&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;&gt;
+    rdfs:label "".  
 &lt;http://example.org/ifcp/188/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1998-12-16" ;
     crm:P67 "352 - 353" .</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="409.6">
+    <row r="19" spans="1:23" ht="409.6">
       <c r="A19">
         <v>195</v>
       </c>
@@ -4232,7 +4342,7 @@
       <c r="N19" t="s">
         <v>26</v>
       </c>
-      <c r="V19" s="9" t="str">
+      <c r="W19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:195
     rdf:type crm:E1 ;
@@ -4260,21 +4370,23 @@
         crm:P4 "";
         crm:P31 "";
         crm:P81 "" ;
-        crm:P107 "" 
+        crm:P107 &lt;&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;&gt;
+    rdfs:label "".  
 &lt;http://example.org/ifcp/195/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1999-12-21" ;
     crm:P67 "359" .</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="409.6">
+    <row r="20" spans="1:23" ht="409.6">
       <c r="A20">
         <v>204</v>
       </c>
@@ -4314,7 +4426,7 @@
       <c r="N20" t="s">
         <v>15</v>
       </c>
-      <c r="V20" s="9" t="str">
+      <c r="W20" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:204
     rdf:type crm:E1 ;
@@ -4340,21 +4452,23 @@
         crm:P4 "";
         crm:P31 "";
         crm:P81 "" ;
-        crm:P107 "" 
+        crm:P107 &lt;&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://www.city.tome.miyagi.jp/syogaigakusyu/shisejoho/bunkazai/raihousin.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;&gt;
+    rdfs:label "".  
 &lt;http://example.org/ifcp/204/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2000-12-27" ;
     crm:P67 "374" .</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="409.6">
+    <row r="21" spans="1:23" ht="409.6">
       <c r="A21">
         <v>218</v>
       </c>
@@ -4394,7 +4508,7 @@
       <c r="N21" t="s">
         <v>80</v>
       </c>
-      <c r="V21" s="9" t="str">
+      <c r="W21" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:218
     rdf:type crm:E1 ;
@@ -4417,21 +4531,23 @@
         crm:P4 "";
         crm:P31 "";
         crm:P81 "" ;
-        crm:P107 "" 
+        crm:P107 &lt;&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://saga-otakara.jp/search/detail.php?id=5346&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;&gt;
+    rdfs:label "".  
 &lt;http://example.org/ifcp/218/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2002-02-20" ;
     crm:P67 "390" .</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="409.6">
+    <row r="22" spans="1:23" ht="409.6">
       <c r="A22">
         <v>221</v>
       </c>
@@ -4471,7 +4587,7 @@
       <c r="N22" t="s">
         <v>10</v>
       </c>
-      <c r="V22" s="9" t="str">
+      <c r="W22" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:221
     rdf:type crm:E1 ;
@@ -4497,21 +4613,23 @@
         crm:P4 "";
         crm:P31 "";
         crm:P81 "" ;
-        crm:P107 "" 
+        crm:P107 &lt;&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://ofunato.jp/Summary/info/81&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;&gt;
+    rdfs:label "".  
 &lt;http://example.org/ifcp/221/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2004-02-06" ;
     crm:P67 "392" .</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="409.6">
+    <row r="23" spans="1:23" ht="409.6">
       <c r="A23">
         <v>228</v>
       </c>
@@ -4560,13 +4678,16 @@
       <c r="S23" t="s">
         <v>274</v>
       </c>
-      <c r="T23" s="12" t="s">
+      <c r="T23" t="s">
+        <v>347</v>
+      </c>
+      <c r="U23" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="U23" s="8" t="s">
+      <c r="V23" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="V23" s="9" t="str">
+      <c r="W23" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:228
     rdf:type crm:E1 ;
@@ -4594,21 +4715,23 @@
         crm:P4 "2019-12-21";
         crm:P31 "Urania";
         crm:P81 "平安時代" ;
-        crm:P107 "愛知県西尾市" 
+        crm:P107 &lt;http://data.e-stat.go.jp/lod/sac/C23213-20110401&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;https://ja.wikipedia.org/wiki/鳥羽の火祭り&gt;
     rdf:type crm:E42 .
 &lt;http://www.katch.ne.jp/~toba-shinmeisha/himatsuri/index.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;http://data.e-stat.go.jp/lod/sac/C23213-20110401&gt;
+    rdfs:label "愛知県西尾市".  
 &lt;http://example.org/ifcp/228/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2004-02-06" ;
     crm:P67 "399" .</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="409.6">
+    <row r="24" spans="1:23" ht="409.6">
       <c r="A24">
         <v>236</v>
       </c>
@@ -4648,7 +4771,7 @@
       <c r="N24" t="s">
         <v>68</v>
       </c>
-      <c r="V24" s="9" t="str">
+      <c r="W24" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:236
     rdf:type crm:E1 ;
@@ -4674,21 +4797,23 @@
         crm:P4 "";
         crm:P31 "";
         crm:P81 "" ;
-        crm:P107 "" 
+        crm:P107 &lt;&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://www.all-iwami.com/spot/detail_1187.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;&gt;
+    rdfs:label "".  
 &lt;http://example.org/ifcp/236/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2005-02-21" ;
     crm:P67 "409" .</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="409.6">
+    <row r="25" spans="1:23" ht="409.6">
       <c r="A25">
         <v>240</v>
       </c>
@@ -4728,7 +4853,7 @@
       <c r="N25" t="s">
         <v>13</v>
       </c>
-      <c r="V25" s="9" t="str">
+      <c r="W25" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:240
     rdf:type crm:E1 ;
@@ -4751,21 +4876,23 @@
         crm:P4 "";
         crm:P31 "";
         crm:P81 "" ;
-        crm:P107 "" 
+        crm:P107 &lt;&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://www.nihon-kankou.or.jp/miyagi/042145/detail/04566be2220112899&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;&gt;
+    rdfs:label "".  
 &lt;http://example.org/ifcp/240/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2006-03-15" ;
     crm:P67 "413" .</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="409.6">
+    <row r="26" spans="1:23" ht="409.6">
       <c r="A26">
         <v>245</v>
       </c>
@@ -4817,10 +4944,13 @@
       <c r="S26" t="s">
         <v>288</v>
       </c>
-      <c r="U26" t="s">
+      <c r="T26" t="s">
+        <v>348</v>
+      </c>
+      <c r="V26" t="s">
         <v>289</v>
       </c>
-      <c r="V26" s="9" t="str">
+      <c r="W26" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:245
     rdf:type crm:E1 ;
@@ -4846,21 +4976,23 @@
         crm:P4 "";
         crm:P31 "加西市ふるさと創造部 文化・観光・スポーツ課";
         crm:P81 "室町末期頃" ;
-        crm:P107 "兵庫県加西市上万願寺町" 
+        crm:P107 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S282201260&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt;
     rdf:type crm:E42 .
 &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S282201260&gt;
+    rdfs:label "兵庫県加西市上万願寺町".  
 &lt;http://example.org/ifcp/245/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2006-03-15" ;
     crm:P67 "418" .</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="409.6">
+    <row r="27" spans="1:23" ht="409.6">
       <c r="A27">
         <v>250</v>
       </c>
@@ -4900,7 +5032,7 @@
       <c r="N27" t="s">
         <v>65</v>
       </c>
-      <c r="V27" s="9" t="str">
+      <c r="W27" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:250
     rdf:type crm:E1 ;
@@ -4930,21 +5062,23 @@
         crm:P4 "";
         crm:P31 "";
         crm:P81 "" ;
-        crm:P107 "" 
+        crm:P107 &lt;&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;http://db.pref.tottori.jp/bunkazainavi.nsf/bunkazai_web_view/ED924928115C630F4925796F0007FF1C?OpenDocument&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;&gt;
+    rdfs:label "".  
 &lt;http://example.org/ifcp/250/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2007-03-07" ;
     crm:P67 "423" .</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="409.6">
+    <row r="28" spans="1:23" ht="409.6">
       <c r="A28">
         <v>253</v>
       </c>
@@ -4984,7 +5118,7 @@
       <c r="N28" t="s">
         <v>290</v>
       </c>
-      <c r="V28" s="9" t="str">
+      <c r="W28" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:253
     rdf:type crm:E1 ;
@@ -5016,21 +5150,23 @@
         crm:P4 "";
         crm:P31 "";
         crm:P81 "" ;
-        crm:P107 "" 
+        crm:P107 &lt;&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;http://www.mishima-kankou.net/20180112/&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;&gt;
+    rdfs:label "".  
 &lt;http://example.org/ifcp/253/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2008-03-13" ;
     crm:P67 "426" .</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="409.6">
+    <row r="29" spans="1:23" ht="409.6">
       <c r="A29">
         <v>264</v>
       </c>
@@ -5079,13 +5215,16 @@
       <c r="S29" t="s">
         <v>292</v>
       </c>
-      <c r="T29" s="12" t="s">
+      <c r="T29" t="s">
+        <v>349</v>
+      </c>
+      <c r="U29" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>293</v>
       </c>
-      <c r="V29" s="9" t="str">
+      <c r="W29" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:264
     rdf:type crm:E1 ;
@@ -5115,21 +5254,23 @@
         crm:P4 "2019-02-11";
         crm:P31 "山口県柳井市";
         crm:P81 "正保元年(1644年)" ;
-        crm:P107 "山口県柳井市阿月" 
+        crm:P107 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;https://www.city-yanai.jp/soshiki/39/atsukishimmei.html&gt;
     rdf:type crm:E42 .
 &lt;http://www.yanaicci.or.jp/yanai/event/sinmei-f.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100&gt;
+    rdfs:label "山口県柳井市阿月".  
 &lt;http://example.org/ifcp/264/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2009-03-11" ;
     crm:P67 "437" .</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="409.6">
+    <row r="30" spans="1:23" ht="409.6">
       <c r="A30">
         <v>266</v>
       </c>
@@ -5178,13 +5319,16 @@
       <c r="S30" t="s">
         <v>276</v>
       </c>
-      <c r="T30" s="12" t="s">
+      <c r="T30" t="s">
+        <v>350</v>
+      </c>
+      <c r="U30" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="U30" s="8" t="s">
+      <c r="V30" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="V30" s="9" t="str">
+      <c r="W30" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:266
     rdf:type crm:E1 ;
@@ -5214,21 +5358,23 @@
         crm:P4 "2019-03-12";
         crm:P31 "なびお ";
         crm:P81 "江戸時代" ;
-        crm:P107 "富山県下新川郡入善町上野邑町" 
+        crm:P107 &lt;http://data.e-stat.go.jp/lod/sac/C16342-20141201&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;https://ja.wikipedia.org/wiki/塞の神まつり&gt;
     rdf:type crm:E42 .
 &lt;https://www.town.nyuzen.toyama.jp/bunka/kyoiku/bunka/bunkazai/mukei/sainokami.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;http://data.e-stat.go.jp/lod/sac/C16342-20141201&gt;
+    rdfs:label "富山県下新川郡入善町上野邑町".  
 &lt;http://example.org/ifcp/266/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2010-03-12" ;
     crm:P67 "438" .</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="409.6">
+    <row r="31" spans="1:23" ht="409.6">
       <c r="A31">
         <v>269</v>
       </c>
@@ -5271,7 +5417,7 @@
       <c r="N31" t="s">
         <v>35</v>
       </c>
-      <c r="V31" s="9" t="str">
+      <c r="W31" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:269
     rdf:type crm:E1 ;
@@ -5299,21 +5445,23 @@
         crm:P4 "";
         crm:P31 "";
         crm:P81 "" ;
-        crm:P107 "" 
+        crm:P107 &lt;&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;http://www.city.miura.kanagawa.jp/shakai/mukeiminzoku/mitonooshouronagasi01.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;&gt;
+    rdfs:label "".  
 &lt;http://example.org/ifcp/269/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2011-03-09" ;
     crm:P67 "455" .</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="409.6">
+    <row r="32" spans="1:23" ht="409.6">
       <c r="A32">
         <v>277</v>
       </c>
@@ -5362,13 +5510,16 @@
       <c r="S32" t="s">
         <v>280</v>
       </c>
-      <c r="T32" s="12" t="s">
+      <c r="T32" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="U32" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="U32" s="8" t="s">
+      <c r="V32" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="V32" s="9" t="str">
+      <c r="W32" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:277
     rdf:type crm:E1 ;
@@ -5395,21 +5546,23 @@
         crm:P4 "2019-02-09";
         crm:P31 "8-hachiro";
         crm:P81 "大同4年（809年）" ;
-        crm:P107 "奈良県桜井市江包、大西" 
+        crm:P107 &lt;http://data.e-stat.go.jp/lod/sac/C29206-19700401&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;https://ja.wikipedia.org/wiki/江包・大西の御綱&gt;
     rdf:type crm:E42 .
 &lt;http://www.sakurai-maibun.nara.jp/yorimichi/yorimiti6.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;http://data.e-stat.go.jp/lod/sac/C29206-19700401&gt;
+    rdfs:label "奈良県桜井市江包、大西".  
 &lt;http://example.org/ifcp/277/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2012-03-08" ;
     crm:P67 "462" .</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="409.6">
+    <row r="33" spans="1:23" ht="409.6">
       <c r="A33">
         <v>278</v>
       </c>
@@ -5449,7 +5602,7 @@
       <c r="N33" t="s">
         <v>73</v>
       </c>
-      <c r="V33" s="9" t="str">
+      <c r="W33" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:278
     rdf:type crm:E1 ;
@@ -5476,21 +5629,23 @@
         crm:P4 "";
         crm:P31 "";
         crm:P81 "" ;
-        crm:P107 "" 
+        crm:P107 &lt;&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://www.city.yamaguchi.lg.jp/site/movie/19833.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;&gt;
+    rdfs:label "".  
 &lt;http://example.org/ifcp/278/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2012-03-08" ;
     crm:P67 "464" .</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="409.6">
+    <row r="34" spans="1:23" ht="409.6">
       <c r="A34">
         <v>298</v>
       </c>
@@ -5530,7 +5685,7 @@
       <c r="N34" t="s">
         <v>88</v>
       </c>
-      <c r="V34" s="9" t="str">
+      <c r="W34" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:298
     rdf:type crm:E1 ;
@@ -5552,21 +5707,23 @@
         crm:P4 "";
         crm:P31 "";
         crm:P81 "" ;
-        crm:P107 "" 
+        crm:P107 &lt;&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://www.pref.kagoshima.jp/ak01/chiiki/kagoshima/takarabako/traditional/akusekijimanoboze.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;&gt;
+    rdfs:label "".  
 &lt;http://example.org/ifcp/298/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2017-03-03" ;
     crm:P67 "494" .</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="409.6">
+    <row r="35" spans="1:23" ht="409.6">
       <c r="A35">
         <v>299</v>
       </c>
@@ -5615,10 +5772,13 @@
       <c r="S35" t="s">
         <v>296</v>
       </c>
-      <c r="U35" t="s">
+      <c r="T35" t="s">
+        <v>352</v>
+      </c>
+      <c r="V35" t="s">
         <v>297</v>
       </c>
-      <c r="V35" s="9" t="str">
+      <c r="W35" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:299
     rdf:type crm:E1 ;
@@ -5639,73 +5799,75 @@
         crm:P4 "";
         crm:P31 "鹿児島県三島村";
         crm:P81 "慶長三年" ;
-        crm:P107 "鹿児島県三島村硫黄島" 
+        crm:P107 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S134210040&gt; 
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
 &lt;http://mishimamura.com/ech/5560/&gt;
     rdf:type crm:E42 .
 &lt;http://mishimamura.com/ech/5560/&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42 . 
+&lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S134210040&gt;
+    rdfs:label "鹿児島県三島村硫黄島".  
 &lt;http://example.org/ifcp/299/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2017-03-03" ;
     crm:P67 "493" .</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
-      <c r="V36" s="9"/>
+    <row r="36" spans="1:23">
+      <c r="W36" s="9"/>
     </row>
-    <row r="37" spans="1:22">
-      <c r="V37" s="9"/>
+    <row r="37" spans="1:23">
+      <c r="W37" s="9"/>
     </row>
-    <row r="38" spans="1:22">
-      <c r="V38" s="9"/>
+    <row r="38" spans="1:23">
+      <c r="W38" s="9"/>
     </row>
-    <row r="39" spans="1:22">
-      <c r="V39" s="9"/>
+    <row r="39" spans="1:23">
+      <c r="W39" s="9"/>
     </row>
-    <row r="40" spans="1:22">
-      <c r="V40" s="9"/>
+    <row r="40" spans="1:23">
+      <c r="W40" s="9"/>
     </row>
-    <row r="41" spans="1:22">
-      <c r="V41" s="9"/>
+    <row r="41" spans="1:23">
+      <c r="W41" s="9"/>
     </row>
-    <row r="42" spans="1:22">
-      <c r="V42" s="9"/>
+    <row r="42" spans="1:23">
+      <c r="W42" s="9"/>
     </row>
-    <row r="43" spans="1:22">
-      <c r="V43" s="9"/>
+    <row r="43" spans="1:23">
+      <c r="W43" s="9"/>
     </row>
-    <row r="44" spans="1:22">
-      <c r="V44" s="9"/>
+    <row r="44" spans="1:23">
+      <c r="W44" s="9"/>
     </row>
-    <row r="45" spans="1:22">
-      <c r="V45" s="9"/>
+    <row r="45" spans="1:23">
+      <c r="W45" s="9"/>
     </row>
-    <row r="46" spans="1:22">
-      <c r="V46" s="9"/>
+    <row r="46" spans="1:23">
+      <c r="W46" s="9"/>
     </row>
-    <row r="47" spans="1:22">
-      <c r="V47" s="9"/>
+    <row r="47" spans="1:23">
+      <c r="W47" s="9"/>
     </row>
-    <row r="48" spans="1:22">
-      <c r="V48" s="9"/>
+    <row r="48" spans="1:23">
+      <c r="W48" s="9"/>
     </row>
-    <row r="49" spans="22:22">
-      <c r="V49" s="9"/>
+    <row r="49" spans="23:23">
+      <c r="W49" s="9"/>
     </row>
-    <row r="50" spans="22:22">
-      <c r="V50" s="9"/>
+    <row r="50" spans="23:23">
+      <c r="W50" s="9"/>
     </row>
-    <row r="51" spans="22:22">
-      <c r="V51" s="9"/>
+    <row r="51" spans="23:23">
+      <c r="W51" s="9"/>
     </row>
-    <row r="52" spans="22:22">
-      <c r="V52" s="9"/>
+    <row r="52" spans="23:23">
+      <c r="W52" s="9"/>
     </row>
-    <row r="53" spans="22:22">
-      <c r="V53" s="9"/>
+    <row r="53" spans="23:23">
+      <c r="W53" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A2:N36">
@@ -5741,21 +5903,21 @@
     <hyperlink ref="G33" r:id="rId26" xr:uid="{A8DEF372-A445-F145-8149-86B4612A138B}"/>
     <hyperlink ref="G35" r:id="rId27" xr:uid="{335A437B-6E1A-1449-84FF-C41158752446}"/>
     <hyperlink ref="Q2" r:id="rId28" location="甑島のトシドン" xr:uid="{8BA8F7C5-3461-8E48-B2F7-8A56FD924A2A}"/>
-    <hyperlink ref="U2" r:id="rId29" tooltip="利用者:そらみみ" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:%E3%81%9D%E3%82%89%E3%81%BF%E3%81%BF" xr:uid="{EB14F67D-430F-D84E-98F3-13D0AE601A03}"/>
+    <hyperlink ref="V2" r:id="rId29" tooltip="利用者:そらみみ" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:%E3%81%9D%E3%82%89%E3%81%BF%E3%81%BF" xr:uid="{EB14F67D-430F-D84E-98F3-13D0AE601A03}"/>
     <hyperlink ref="Q3" r:id="rId30" xr:uid="{ED496423-E41C-5749-B79B-C03E1D2AFA76}"/>
-    <hyperlink ref="U3" r:id="rId31" tooltip="利用者:Urania" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:Urania" xr:uid="{FC31048C-5FA1-9C42-BB55-18EFCB314A48}"/>
+    <hyperlink ref="V3" r:id="rId31" tooltip="利用者:Urania" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:Urania" xr:uid="{FC31048C-5FA1-9C42-BB55-18EFCB314A48}"/>
     <hyperlink ref="Q6" r:id="rId32" location="六郷のかまくら" xr:uid="{755D3B4D-8442-4C42-90E9-C640E987C9F4}"/>
-    <hyperlink ref="U6" r:id="rId33" tooltip="特別:投稿記録/221.58.122.88" display="https://ja.wikipedia.org/wiki/%E7%89%B9%E5%88%A5:%E6%8A%95%E7%A8%BF%E8%A8%98%E9%8C%B2/221.58.122.88" xr:uid="{0DF57EAA-8E12-0B40-AEB6-0FD97C64E28D}"/>
+    <hyperlink ref="V6" r:id="rId33" tooltip="特別:投稿記録/221.58.122.88" display="https://ja.wikipedia.org/wiki/%E7%89%B9%E5%88%A5:%E6%8A%95%E7%A8%BF%E8%A8%98%E9%8C%B2/221.58.122.88" xr:uid="{0DF57EAA-8E12-0B40-AEB6-0FD97C64E28D}"/>
     <hyperlink ref="Q15" r:id="rId34" xr:uid="{8377DD89-5D80-5C4E-850E-96916CD974EE}"/>
-    <hyperlink ref="U15" r:id="rId35" tooltip="利用者:STA3816 (存在しないページ)" display="https://ja.wikipedia.org/w/index.php?title=%E5%88%A9%E7%94%A8%E8%80%85:STA3816&amp;action=edit&amp;redlink=1" xr:uid="{2FAF1D9E-AAF4-D647-9910-9CDBD6F474D0}"/>
+    <hyperlink ref="V15" r:id="rId35" tooltip="利用者:STA3816 (存在しないページ)" display="https://ja.wikipedia.org/w/index.php?title=%E5%88%A9%E7%94%A8%E8%80%85:STA3816&amp;action=edit&amp;redlink=1" xr:uid="{2FAF1D9E-AAF4-D647-9910-9CDBD6F474D0}"/>
     <hyperlink ref="Q16" r:id="rId36" xr:uid="{3F10920A-B4C0-6C4A-8CE6-31D325E68E98}"/>
-    <hyperlink ref="U16" r:id="rId37" tooltip="利用者:8-hachiro" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:8-hachiro" xr:uid="{F162FAD7-18BC-B446-ABE4-1A833FF51CDD}"/>
+    <hyperlink ref="V16" r:id="rId37" tooltip="利用者:8-hachiro" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:8-hachiro" xr:uid="{F162FAD7-18BC-B446-ABE4-1A833FF51CDD}"/>
     <hyperlink ref="Q23" r:id="rId38" xr:uid="{B0FC43D6-9B96-1C43-A126-11BA93E9DE8F}"/>
-    <hyperlink ref="U23" r:id="rId39" tooltip="利用者:Urania" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:Urania" xr:uid="{4631943A-DF59-6548-91E7-5DBA97730B23}"/>
+    <hyperlink ref="V23" r:id="rId39" tooltip="利用者:Urania" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:Urania" xr:uid="{4631943A-DF59-6548-91E7-5DBA97730B23}"/>
     <hyperlink ref="Q30" r:id="rId40" xr:uid="{AB88C76D-123D-3747-B5A9-541B860D3BF6}"/>
-    <hyperlink ref="U30" r:id="rId41" tooltip="利用者:なびお" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:%E3%81%AA%E3%81%B3%E3%81%8A" xr:uid="{D643AE21-87BD-DA4E-A57A-AEEE3F14D80E}"/>
+    <hyperlink ref="V30" r:id="rId41" tooltip="利用者:なびお" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:%E3%81%AA%E3%81%B3%E3%81%8A" xr:uid="{D643AE21-87BD-DA4E-A57A-AEEE3F14D80E}"/>
     <hyperlink ref="Q32" r:id="rId42" xr:uid="{5523E011-5E49-5E4A-B0CF-2BE483BD09A4}"/>
-    <hyperlink ref="U32" r:id="rId43" tooltip="利用者:8-hachiro" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:8-hachiro" xr:uid="{AC2CDF3B-D57C-6F4F-95E4-7B1A0313D47F}"/>
+    <hyperlink ref="V32" r:id="rId43" tooltip="利用者:8-hachiro" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:8-hachiro" xr:uid="{AC2CDF3B-D57C-6F4F-95E4-7B1A0313D47F}"/>
     <hyperlink ref="Q7" r:id="rId44" xr:uid="{194C3A70-9566-1144-BDFB-2CDB75DC1EE8}"/>
     <hyperlink ref="G12" r:id="rId45" xr:uid="{3A97DFCF-D7E2-3242-96A9-9623B0F601C4}"/>
     <hyperlink ref="Q12" r:id="rId46" xr:uid="{33E70CED-49C4-3045-A743-B944D2AA5E27}"/>
@@ -5765,6 +5927,10 @@
     <hyperlink ref="Q35" r:id="rId50" xr:uid="{660BBDB3-0A71-3146-B64A-45AB6F9CEE26}"/>
     <hyperlink ref="G15" r:id="rId51" xr:uid="{AD99591F-BAB2-AD44-A010-F6D99D1C0264}"/>
     <hyperlink ref="G29" r:id="rId52" xr:uid="{ECD1C545-5CEA-E44F-8F98-E87AB3811687}"/>
+    <hyperlink ref="T3" r:id="rId53" xr:uid="{B38C7B73-CDAC-6F48-AD21-B970B377237B}"/>
+    <hyperlink ref="T7" r:id="rId54" xr:uid="{7CCCBC63-D727-6C4B-9BD4-FBDB50C4EE72}"/>
+    <hyperlink ref="T15" r:id="rId55" xr:uid="{4E3B4EC5-7B07-864E-9257-301959D2A9C8}"/>
+    <hyperlink ref="T32" r:id="rId56" xr:uid="{6EED4E97-B8EF-894D-988B-902664285D1D}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_p5_added.xlsx
+++ b/list_p5_added.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496B4D5B-4F52-0B49-9610-8878D29457D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025FAF7E-FC6A-A340-BC2B-7D3A09B23D74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_p6" sheetId="1" r:id="rId1"/>
@@ -1486,7 +1486,185 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>"@base &lt;http://example.org/ifcp/&gt; .
+    <t>1977-05-17</t>
+  </si>
+  <si>
+    <t>1978-05-22</t>
+  </si>
+  <si>
+    <t>1979-02-03</t>
+  </si>
+  <si>
+    <t>1981-01-21</t>
+  </si>
+  <si>
+    <t>1982-01-14</t>
+  </si>
+  <si>
+    <t>1985-01-12</t>
+  </si>
+  <si>
+    <t>1987-01-08</t>
+  </si>
+  <si>
+    <t>1987-12-28</t>
+  </si>
+  <si>
+    <t>1989-03-20</t>
+  </si>
+  <si>
+    <t>1993-12-13</t>
+  </si>
+  <si>
+    <t>1994-12-13</t>
+  </si>
+  <si>
+    <t>1995-12-26</t>
+  </si>
+  <si>
+    <t>1997-12-15</t>
+  </si>
+  <si>
+    <t>1998-12-16</t>
+  </si>
+  <si>
+    <t>1999-12-21</t>
+  </si>
+  <si>
+    <t>2000-12-27</t>
+  </si>
+  <si>
+    <t>2002-02-20</t>
+  </si>
+  <si>
+    <t>2004-02-06</t>
+  </si>
+  <si>
+    <t>2005-02-21</t>
+  </si>
+  <si>
+    <t>2006-03-15</t>
+  </si>
+  <si>
+    <t>2007-03-07</t>
+  </si>
+  <si>
+    <t>2008-03-13</t>
+  </si>
+  <si>
+    <t>2009-03-11</t>
+  </si>
+  <si>
+    <t>2010-03-12</t>
+  </si>
+  <si>
+    <t>2011-03-09</t>
+  </si>
+  <si>
+    <t>2012-03-08</t>
+  </si>
+  <si>
+    <t>2017-03-03</t>
+  </si>
+  <si>
+    <t>2018-12-13</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-11-15</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2019-04-13</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2019-12-21</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2019-02-11</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2019-03-12</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2019-02-09</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018-12-02</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2019-12-28</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://goto.nagasaki-tabinet.com/event/51078/</t>
+  </si>
+  <si>
+    <t>https://tamataregu.or.jp/oniyo</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://ofunato.jp/Summary/info/81</t>
+  </si>
+  <si>
+    <t>http://www.yanaicci.or.jp/yanai/event/sinmei-f.html</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>発祥地URI</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C46215-20041012</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C05206-20050322</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S054340010</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C46222-20091019</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/page/sac/C35325-20060320</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C40203-20080401</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S292070500</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C23213-20110401</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S282201260</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C16342-20141201</t>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/sac/C29206-19700401</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S134210040</t>
+  </si>
+  <si>
+    <t>"@base &lt;http://w3id.org/ifcp/&gt; .
 @prefix rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; .
 @prefix rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; .
 @prefix crm: &lt;http://purl.org/NET/cidoc-crm/core#&gt; .
@@ -1494,184 +1672,6 @@
 @prefix ifcp: &lt;http://example.org/ifcp/&gt; .
 @prefix cate: &lt;http://example.org/ifcp/category/&gt; ."</t>
     <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>1977-05-17</t>
-  </si>
-  <si>
-    <t>1978-05-22</t>
-  </si>
-  <si>
-    <t>1979-02-03</t>
-  </si>
-  <si>
-    <t>1981-01-21</t>
-  </si>
-  <si>
-    <t>1982-01-14</t>
-  </si>
-  <si>
-    <t>1985-01-12</t>
-  </si>
-  <si>
-    <t>1987-01-08</t>
-  </si>
-  <si>
-    <t>1987-12-28</t>
-  </si>
-  <si>
-    <t>1989-03-20</t>
-  </si>
-  <si>
-    <t>1993-12-13</t>
-  </si>
-  <si>
-    <t>1994-12-13</t>
-  </si>
-  <si>
-    <t>1995-12-26</t>
-  </si>
-  <si>
-    <t>1997-12-15</t>
-  </si>
-  <si>
-    <t>1998-12-16</t>
-  </si>
-  <si>
-    <t>1999-12-21</t>
-  </si>
-  <si>
-    <t>2000-12-27</t>
-  </si>
-  <si>
-    <t>2002-02-20</t>
-  </si>
-  <si>
-    <t>2004-02-06</t>
-  </si>
-  <si>
-    <t>2005-02-21</t>
-  </si>
-  <si>
-    <t>2006-03-15</t>
-  </si>
-  <si>
-    <t>2007-03-07</t>
-  </si>
-  <si>
-    <t>2008-03-13</t>
-  </si>
-  <si>
-    <t>2009-03-11</t>
-  </si>
-  <si>
-    <t>2010-03-12</t>
-  </si>
-  <si>
-    <t>2011-03-09</t>
-  </si>
-  <si>
-    <t>2012-03-08</t>
-  </si>
-  <si>
-    <t>2017-03-03</t>
-  </si>
-  <si>
-    <t>2018-12-13</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-11-15</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2019-04-13</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2019-12-21</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2019-02-11</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2019-03-12</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2019-02-09</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2018-12-02</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2019-12-28</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://goto.nagasaki-tabinet.com/event/51078/</t>
-  </si>
-  <si>
-    <t>https://tamataregu.or.jp/oniyo</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://ofunato.jp/Summary/info/81</t>
-  </si>
-  <si>
-    <t>http://www.yanaicci.or.jp/yanai/event/sinmei-f.html</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>発祥地URI</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C46215-20041012</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C05206-20050322</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S054340010</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C46222-20091019</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/page/sac/C35325-20060320</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C40203-20080401</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S292070500</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C23213-20110401</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S282201260</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C16342-20141201</t>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/sac/C29206-19700401</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S134210040</t>
   </si>
 </sst>
 </file>
@@ -2737,7 +2737,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W2" sqref="W2"/>
+      <selection pane="bottomLeft" activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2806,7 +2806,7 @@
         <v>112</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="U1" s="13" t="s">
         <v>113</v>
@@ -2815,7 +2815,7 @@
         <v>114</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="409.6">
@@ -2847,7 +2847,7 @@
         <v>101</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K2" t="s">
         <v>214</v>
@@ -2868,10 +2868,10 @@
         <v>253</v>
       </c>
       <c r="T2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>254</v>
@@ -2965,7 +2965,7 @@
         <v>101</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K3" t="s">
         <v>215</v>
@@ -2986,10 +2986,10 @@
         <v>257</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="V3" s="8" t="s">
         <v>258</v>
@@ -3081,7 +3081,7 @@
         <v>101</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K4" t="s">
         <v>216</v>
@@ -3155,7 +3155,7 @@
         <v>101</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K5" t="s">
         <v>217</v>
@@ -3231,7 +3231,7 @@
         <v>101</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K6">
         <v>203</v>
@@ -3252,10 +3252,10 @@
         <v>260</v>
       </c>
       <c r="T6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="V6" s="8" t="s">
         <v>262</v>
@@ -3325,7 +3325,7 @@
         <v>101</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K7">
         <v>244</v>
@@ -3346,7 +3346,7 @@
         <v>282</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="V7" t="s">
         <v>283</v>
@@ -3416,7 +3416,7 @@
         <v>101</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K8">
         <v>257</v>
@@ -3483,7 +3483,7 @@
         <v>137</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H9" t="s">
         <v>100</v>
@@ -3492,7 +3492,7 @@
         <v>101</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K9">
         <v>267</v>
@@ -3569,7 +3569,7 @@
         <v>101</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K10">
         <v>271</v>
@@ -3646,7 +3646,7 @@
         <v>101</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K11" t="s">
         <v>218</v>
@@ -3723,7 +3723,7 @@
         <v>101</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K12" t="s">
         <v>219</v>
@@ -3744,7 +3744,7 @@
         <v>286</v>
       </c>
       <c r="T12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="W12" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3811,7 +3811,7 @@
         <v>101</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K13">
         <v>305</v>
@@ -3892,7 +3892,7 @@
         <v>101</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K14" t="s">
         <v>220</v>
@@ -3962,7 +3962,7 @@
         <v>154</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H15" t="s">
         <v>100</v>
@@ -3971,7 +3971,7 @@
         <v>101</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K15">
         <v>317</v>
@@ -3992,10 +3992,10 @@
         <v>266</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V15" s="8" t="s">
         <v>267</v>
@@ -4071,7 +4071,7 @@
         <v>101</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K16">
         <v>325</v>
@@ -4092,10 +4092,10 @@
         <v>270</v>
       </c>
       <c r="T16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V16" s="8" t="s">
         <v>271</v>
@@ -4170,7 +4170,7 @@
         <v>101</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K17">
         <v>337</v>
@@ -4250,7 +4250,7 @@
         <v>101</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K18" t="s">
         <v>221</v>
@@ -4331,7 +4331,7 @@
         <v>101</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K19">
         <v>359</v>
@@ -4415,7 +4415,7 @@
         <v>101</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K20">
         <v>374</v>
@@ -4497,7 +4497,7 @@
         <v>101</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K21">
         <v>390</v>
@@ -4567,7 +4567,7 @@
         <v>140</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H22" t="s">
         <v>100</v>
@@ -4576,7 +4576,7 @@
         <v>101</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K22">
         <v>392</v>
@@ -4658,7 +4658,7 @@
         <v>101</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K23">
         <v>399</v>
@@ -4679,10 +4679,10 @@
         <v>274</v>
       </c>
       <c r="T23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V23" s="8" t="s">
         <v>258</v>
@@ -4760,7 +4760,7 @@
         <v>101</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K24">
         <v>409</v>
@@ -4842,7 +4842,7 @@
         <v>101</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K25">
         <v>413</v>
@@ -4921,7 +4921,7 @@
         <v>101</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K26">
         <v>418</v>
@@ -4945,7 +4945,7 @@
         <v>288</v>
       </c>
       <c r="T26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="V26" t="s">
         <v>289</v>
@@ -5021,7 +5021,7 @@
         <v>101</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K27">
         <v>423</v>
@@ -5107,7 +5107,7 @@
         <v>101</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K28">
         <v>426</v>
@@ -5186,7 +5186,7 @@
         <v>194</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H29" t="s">
         <v>100</v>
@@ -5195,7 +5195,7 @@
         <v>101</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K29">
         <v>437</v>
@@ -5216,10 +5216,10 @@
         <v>292</v>
       </c>
       <c r="T29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="U29" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V29" t="s">
         <v>293</v>
@@ -5299,7 +5299,7 @@
         <v>101</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K30">
         <v>438</v>
@@ -5320,10 +5320,10 @@
         <v>276</v>
       </c>
       <c r="T30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="U30" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="V30" s="8" t="s">
         <v>277</v>
@@ -5403,7 +5403,7 @@
         <v>101</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K31">
         <v>455</v>
@@ -5490,7 +5490,7 @@
         <v>101</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K32">
         <v>462</v>
@@ -5511,10 +5511,10 @@
         <v>280</v>
       </c>
       <c r="T32" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U32" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="V32" s="8" t="s">
         <v>271</v>
@@ -5591,7 +5591,7 @@
         <v>101</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K33">
         <v>464</v>
@@ -5674,7 +5674,7 @@
         <v>101</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K34">
         <v>494</v>
@@ -5752,7 +5752,7 @@
         <v>101</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K35">
         <v>493</v>
@@ -5773,7 +5773,7 @@
         <v>296</v>
       </c>
       <c r="T35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="V35" t="s">
         <v>297</v>

--- a/list_p5_added.xlsx
+++ b/list_p5_added.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025FAF7E-FC6A-A340-BC2B-7D3A09B23D74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4D5BC2-72D0-624E-8274-00374B61172B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1664,13 +1664,13 @@
     <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S134210040</t>
   </si>
   <si>
-    <t>"@base &lt;http://w3id.org/ifcp/&gt; .
+    <t>"@base &lt;https://w3id.org/ifcp/&gt; .
 @prefix rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; .
 @prefix rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; .
 @prefix crm: &lt;http://purl.org/NET/cidoc-crm/core#&gt; .
 @prefix skos: &lt;http://www.w3.org/2004/02/skos/core#&gt; .
-@prefix ifcp: &lt;http://example.org/ifcp/&gt; .
-@prefix cate: &lt;http://example.org/ifcp/category/&gt; ."</t>
+@prefix ifcp: &lt;https://w3id.org/ifcp/&gt; .
+@prefix cate: &lt;https://w3id.org/ifcp/category/&gt; ."</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2736,8 +2736,8 @@
   <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W1" sqref="W1"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2884,7 +2884,7 @@
     crm:P3 """""""&amp;E2&amp;""""""" ; 
     crm:P4 """&amp;F2&amp;""" ; 
     crm:P67 &lt;"&amp;G2&amp;"&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/"&amp;A2&amp;"/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/"&amp;A2&amp;"/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;"&amp;Q2&amp;"&gt; ;
         crm:P4 """&amp;U2&amp;""";
@@ -2900,7 +2900,7 @@
     rdf:type crm:E42 . 
 &lt;"&amp;T2&amp;"&gt;
     rdfs:label """&amp;S2&amp;""".  
-&lt;http://example.org/ifcp/"&amp;A2&amp;"/register&gt;
+&lt;https://w3id.org/ifcp/"&amp;A2&amp;"/register&gt;
     rdf:type crm:E5 ;
     crm:P4 """&amp;J2&amp;""" ;
     crm:P67 """&amp;K2&amp;""" ."</f>
@@ -2914,7 +2914,7 @@
 　この行事は、年の初めや季節の変わり目に神々が訪れて、人びとに祝福を与える、あるいは神々が訪れることで年が改まるという趣旨の行事であり、類似の行事は全国的に分布をみるが、なかでも甑島のものは古態をとどめている事例といってよく、我が国古来の民間信仰や神観念の形態をよく示している典型例の１つとして極めて重要である。""" ; 
     crm:P4 "毎年１２月３１日" ; 
     crm:P67 &lt;http://www.pref.kagoshima.jp/ab10/kyoiku-bunka/bunka/museum/shichoson/satumasendai/doshidon.html&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/49/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/49/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;https://ja.wikipedia.org/wiki/トシドン#甑島のトシドン&gt; ;
         crm:P4 "2018-12-02";
@@ -2930,7 +2930,7 @@
     rdf:type crm:E42 . 
 &lt;http://data.e-stat.go.jp/lod/sac/C46215-20041012&gt;
     rdfs:label "鹿児島県薩摩川内市下甑島".  
-&lt;http://example.org/ifcp/49/register&gt;
+&lt;https://w3id.org/ifcp/49/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1977-05-17" ;
     crm:P67 "89 - 95" .</v>
@@ -3002,7 +3002,7 @@
     crm:P3 """""""&amp;E3&amp;""""""" ; 
     crm:P4 """&amp;F3&amp;""" ; 
     crm:P67 &lt;"&amp;G3&amp;"&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/"&amp;A3&amp;"/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/"&amp;A3&amp;"/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;"&amp;Q3&amp;"&gt; ;
         crm:P4 """&amp;U3&amp;""";
@@ -3018,7 +3018,7 @@
     rdf:type crm:E42 . 
 &lt;"&amp;T3&amp;"&gt;
     rdfs:label """&amp;S3&amp;""".  
-&lt;http://example.org/ifcp/"&amp;A3&amp;"/register&gt;
+&lt;https://w3id.org/ifcp/"&amp;A3&amp;"/register&gt;
     rdf:type crm:E5 ;
     crm:P4 """&amp;J3&amp;""" ;
     crm:P67 """&amp;K3&amp;""" ."</f>
@@ -3030,7 +3030,7 @@
 　年の折り目（トシコシ）に神が来臨し、人々に祝福を与えるという趣旨の行事は、全国的に分布しているが、男鹿のものはその中でも特によく古態をとどめ、かつ濃密な分布を示しており、我が国古来の民間信仰の形態を示す典型例の一つとして極めて重要である。""" ; 
     crm:P4 "毎年１２月３１日ないしは１月１６日" ; 
     crm:P67 &lt;https://www.namahage-oga.akita.jp&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/51/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/51/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;https://ja.wikipedia.org/wiki/なまはげ&gt; ;
         crm:P4 "2019-12-28";
@@ -3046,7 +3046,7 @@
     rdf:type crm:E42 . 
 &lt;http://data.e-stat.go.jp/lod/sac/C05206-20050322&gt;
     rdfs:label "秋田県男鹿市".  
-&lt;http://example.org/ifcp/51/register&gt;
+&lt;https://w3id.org/ifcp/51/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1978-05-22" ;
     crm:P67 "97 - 99" .</v>
@@ -3104,7 +3104,7 @@
 　我が国古来の民間信仰の一形態を伝える顕著な例として重要である。""" ; 
     crm:P4 "旧門前町は毎年１月２日（※指定当時は毎年１月６日）、輪島市は毎年１月１４・２０日（※指定当時）、旧内浦町は毎年節分（２月３日）" ; 
     crm:P67 &lt;https://www.hot-ishikawa.jp/event/4517&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/67/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/67/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;&gt; ;
         crm:P4 "";
@@ -3120,7 +3120,7 @@
     rdf:type crm:E42 . 
 &lt;&gt;
     rdfs:label "".  
-&lt;http://example.org/ifcp/67/register&gt;
+&lt;https://w3id.org/ifcp/67/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1979-02-03" ;
     crm:P67 "124 - 127" .</v>
@@ -3180,7 +3180,7 @@
 　この行事は、月を祭る地域的特色の濃厚な盛大な民俗行事であり、男の子ども組が中心になって行なわれている点でも注目されるものである。""" ; 
     crm:P4 "毎年旧暦８月１５日" ; 
     crm:P67 &lt;https://www.city.minamikyushu.lg.jp/bunkazai-kanri/bunka/shinko/bunkazai/chiranchiiki/minamisatsuma.html&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/109/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/109/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;&gt; ;
         crm:P4 "";
@@ -3196,7 +3196,7 @@
     rdf:type crm:E42 . 
 &lt;&gt;
     rdfs:label "".  
-&lt;http://example.org/ifcp/109/register&gt;
+&lt;https://w3id.org/ifcp/109/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1981-01-21" ;
     crm:P67 "200 - 202" .</v>
@@ -3274,7 +3274,7 @@
 　全国的に古い姿で伝承されている小正月行事が少なくなってきているなかで、この行事は古風をよく残しており、我が国の庶民信仰等の風俗慣習を知りうる典型例の１つとして重要である。""" ; 
     crm:P4 "毎年２月１１～１５日" ; 
     crm:P67 &lt;https://www.town.misato.akita.jp/kamakura/2574.html&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/110/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/110/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;https://ja.wikipedia.org/wiki/かまくら#六郷のかまくら&gt; ;
         crm:P4 "2018-12-13";
@@ -3290,7 +3290,7 @@
     rdf:type crm:E42 . 
 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S054340010&gt;
     rdfs:label "秋田県美郷町六郷地区".  
-&lt;http://example.org/ifcp/110/register&gt;
+&lt;https://w3id.org/ifcp/110/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1982-01-14" ;
     crm:P67 "203" .</v>
@@ -3365,7 +3365,7 @@
 　こうした行事は、かつては奄美の各地で行われていたようであるが、現存するのは秋名だけとなっている。南島におけるアラセツを迎える心意をよく伝えている行事として重要であるだけでなく、神を招いて神人交歓の遊びをする我が国の民俗芸能の古い要素をよく残すものとしても注目される。""" ; 
     crm:P4 "毎年旧暦８月の初丙の日" ; 
     crm:P67 &lt;https://www.town.tatsugo.lg.jp/edu/event-bunka/rekishi-bunka/arasetsu.html&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/124/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/124/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;https://www.town.tatsugo.lg.jp/edu/event-bunka/rekishi-bunka/arasetsu.html&gt; ;
         crm:P4 "";
@@ -3381,7 +3381,7 @@
     rdf:type crm:E42 . 
 &lt;http://data.e-stat.go.jp/lod/sac/C46222-20091019&gt;
     rdfs:label "奄美群島".  
-&lt;http://example.org/ifcp/124/register&gt;
+&lt;https://w3id.org/ifcp/124/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1985-01-12" ;
     crm:P67 "244" .</v>
@@ -3441,7 +3441,7 @@
 　猪俣の百八燈は、各地で行われる盆の百八燈の行事の中でも108の塚を築いたその上で盛大に火を焚く点で異色であり、亡魂を慰めるという趣意と相まって塚信仰の様相をよく示している。また、これらの行事が子供組・若衆組によって執行されることなどは注目すべきことで、盆行事の中に祖霊信仰の様相をうかがうことができる典型例として重要である。""" ; 
     crm:P4 "毎年８月15日" ; 
     crm:P67 &lt;http://www.town.saitama-misato.lg.jp/admini/towninfo/ino108.html&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/131/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/131/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;&gt; ;
         crm:P4 "";
@@ -3457,7 +3457,7 @@
     rdf:type crm:E42 . 
 &lt;&gt;
     rdfs:label "".  
-&lt;http://example.org/ifcp/131/register&gt;
+&lt;https://w3id.org/ifcp/131/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1987-01-08" ;
     crm:P67 "257" .</v>
@@ -3518,7 +3518,7 @@
 　この行事は、神仏に加護をもとめて生業の発展・除災招福を祈願するもので、ハゴイタツキ・タマゲリ・綱引きなどに宮相撲などが数多くあり、御幣の捧持役が世襲化であったり、ワッカモンにより行われるなど由来・内容等が典型的なものであり重要である。""" ; 
     crm:P4 "毎年１月１６日" ; 
     crm:P67 &lt;https://goto.nagasaki-tabinet.com/event/51078/&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/135/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/135/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;&gt; ;
         crm:P4 "";
@@ -3534,7 +3534,7 @@
     rdf:type crm:E42 . 
 &lt;&gt;
     rdfs:label "".  
-&lt;http://example.org/ifcp/135/register&gt;
+&lt;https://w3id.org/ifcp/135/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1987-01-08" ;
     crm:P67 "267" .</v>
@@ -3595,7 +3595,7 @@
 　この行事は、歳神の来臨を仰ぎ、その神前において豊作・豊漁の年占を行うとともに、火祭りを通じて新年の再生を願う等、民衆の抱く心意気が顕著に現われている。特に、アワセダケを引き合うことは、この地方だけにみられる特色であり、年齢に応じた行事の役割分担のあり方などとも相まって、我が国民の生活文化の特色を示す正月行事の典型例の1つとして重要である。""" ; 
     crm:P4 "毎年１月１５日" ; 
     crm:P67 &lt;http://www.itoigawa-base.com/viewspot/culture_02_01.html&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/138/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/138/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;&gt; ;
         crm:P4 "";
@@ -3611,7 +3611,7 @@
     rdf:type crm:E42 . 
 &lt;&gt;
     rdfs:label "".  
-&lt;http://example.org/ifcp/138/register&gt;
+&lt;https://w3id.org/ifcp/138/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1987-12-28" ;
     crm:P67 "271" .</v>
@@ -3672,7 +3672,7 @@
 　この盆祭行事には、この地域の人々が共同して一体となって伝統を継承してきており、特に、ネンブツイレやヒバシラマツリには、新精霊を供養し、祭るという祖霊信仰の趣旨が顕著である。行事の運営は公会【くがい】と称されてきた地域の公的組織に支えられ、若者・中老・寄老（耆老）による年齢階梯制に基づき、厳格・整然と実施されてきたことは、中部・近畿地方に濃厚に分布する盆の柱松行事のうちでも類稀なものであり、我が国民の生活文化の特色を示す盆行事の典型例として重要である。""" ; 
     crm:P4 "毎年８月１４・１５日" ; 
     crm:P67 &lt;https://toba-archive.jp/content/detail.php?no=3991&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/140/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/140/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;&gt; ;
         crm:P4 "";
@@ -3688,7 +3688,7 @@
     rdf:type crm:E42 . 
 &lt;&gt;
     rdfs:label "".  
-&lt;http://example.org/ifcp/140/register&gt;
+&lt;https://w3id.org/ifcp/140/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1987-12-28" ;
     crm:P67 "273 - 274" .</v>
@@ -3760,7 +3760,7 @@
 　この行事には、柱松を灯明に見立て、それを高くすることで献灯の心を表現したとの伝承が付着し、平年には12間、閏年には13間の高さに立てたとか、15、6間の高さのために往時炎上させるのに、2、3夜を要したことがあったといわれている。また、柱松の点火に競り勝った者には幸運がもたらされるとも占った。五穀豊穣・家内安全のための除災と年占とを伴う夏の火祭りの典型的なものである。""" ; 
     crm:P4 "毎年８月１５日（祖生中村）、毎年８月１９日（祖生山田）、毎年８月２３日（祖生落合）" ; 
     crm:P67 &lt;http://www.sea.icn-tv.ne.jp/~sosym/&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/145/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/145/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;http://www.sea.icn-tv.ne.jp/~sosym/&gt; ;
         crm:P4 "";
@@ -3776,7 +3776,7 @@
     rdf:type crm:E42 . 
 &lt;http://data.e-stat.go.jp/lod/page/sac/C35325-20060320&gt;
     rdfs:label "山口県周東町".  
-&lt;http://example.org/ifcp/145/register&gt;
+&lt;https://w3id.org/ifcp/145/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1989-03-20" ;
     crm:P67 "285 - 288" .</v>
@@ -3841,7 +3841,7 @@
 　この行事は、長野県北信地方の小正月行事のうち、厄払いの性格や火をめぐる競技的な内容、子どもの成長祝いの性格など地域的特色が豊かである。""" ; 
     crm:P4 "毎年１月１５日" ; 
     crm:P67 &lt;https://nozawakanko.jp/record/dosojin/&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/156/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/156/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;&gt; ;
         crm:P4 "";
@@ -3857,7 +3857,7 @@
     rdf:type crm:E42 . 
 &lt;&gt;
     rdfs:label "".  
-&lt;http://example.org/ifcp/156/register&gt;
+&lt;https://w3id.org/ifcp/156/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1993-12-13" ;
     crm:P67 "305" .</v>
@@ -3920,7 +3920,7 @@
 　パーントゥは、海の彼方からやってくる神の１つと考えられており、南西諸島にいくつかの事例を見ることができるが、我が国の各地に散見する来訪神と同列に据えて眺める必要があり、比較研究の上からも重要な行事である。""" ; 
     crm:P4 "毎年陰暦９月上旬（島尻），毎年陰暦１２月最後の丑の日（野原）（" ; 
     crm:P67 &lt;https://www.tabirai.net/sightseeing/column/0003469.aspx&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/158/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/158/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;&gt; ;
         crm:P4 "";
@@ -3936,7 +3936,7 @@
     rdf:type crm:E42 . 
 &lt;&gt;
     rdfs:label "".  
-&lt;http://example.org/ifcp/158/register&gt;
+&lt;https://w3id.org/ifcp/158/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1993-12-13" ;
     crm:P67 "307 - 308" .</v>
@@ -4020,7 +4020,7 @@
 　この行事は、その規模においても特筆される火祭りである。小正月の火祭りに追儺の儀式が結び付いたもので、周辺の同種の行事の存在から天台修験の影響も推測される。行事は種蒔き神事などの農耕儀札や、鬼役が人目にふれずに行動すること、大松明のシオイガキなどに特色ある形態を残していること、大松明の奉納やタイマツマワシを玉垂宮の氏子が務め、鉾面神事や鬼役・数取り役・ヤクガネ打ちなどの主要な役が特定の世襲の家筋で務められるなど、地域と社寺が一体となって執行していることなど、多様な要素と内容とを具備しており、この地方の年頭の火祭り行事を代表するものである。""" ; 
     crm:P4 "毎年１月７日" ; 
     crm:P67 &lt;https://tamataregu.or.jp/oniyo&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/162/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/162/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;https://ja.wikipedia.org/wiki/鬼夜&gt; ;
         crm:P4 "2018-11-15";
@@ -4036,7 +4036,7 @@
     rdf:type crm:E42 . 
 &lt;http://data.e-stat.go.jp/lod/sac/C40203-20080401&gt;
     rdfs:label "福岡県久留米市大善寺".  
-&lt;http://example.org/ifcp/162/register&gt;
+&lt;https://w3id.org/ifcp/162/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1994-12-13" ;
     crm:P67 "317" .</v>
@@ -4119,7 +4119,7 @@
 　14日午後1時頃より西金寺の住職を導師として旧坂合部郷内の降霊寺・転法輪寺・生蓮寺・吉祥寺の住職と、郷内に檀家をもつ野原の金剛寺の住職が加わり、大般若経600巻の転読が行われる。この間に本尊の裏側で鬼役が衣装を整える。転読が終了すると昼の鬼はしりが行われ、同時に本尊背後の板壁を棒で叩く阿弥陀さんの肩叩きが行われる。""" ; 
     crm:P4 "毎年１月１４日" ; 
     crm:P67 &lt;https://www.city.gojo.lg.jp/kankou/dentou/4032.html&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/167/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/167/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;https://ja.wikipedia.org/wiki/陀々堂の鬼はしり&gt; ;
         crm:P4 "2019-04-13";
@@ -4135,7 +4135,7 @@
     rdf:type crm:E42 . 
 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S292070500&gt;
     rdfs:label "奈良県五條市大津町念仏寺".  
-&lt;http://example.org/ifcp/167/register&gt;
+&lt;https://w3id.org/ifcp/167/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1995-12-26" ;
     crm:P67 "325" .</v>
@@ -4199,7 +4199,7 @@
 　小正月の火祭りは全国に分布するが、関東地方や中部地方のものは塞の神と結びつき、さまざまな展開をみせている。大磯の左義長は、関東地方にあって、とりわけ壮大な規模をもつ代表的な行事であり、一番息子やオカリコの行事が行われたり、豊漁を祈願する予祝儀礼であるヤンナゴッコが行われるなどさまざまな行事を包含し、地域的特徴をよく示している。""" ; 
     crm:P4 "毎年１月第三土曜日" ; 
     crm:P67 &lt;http://www.town.oiso.kanagawa.jp/isotabi/matsuri_event/matsuri/sagichou.html&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/179/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/179/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;&gt; ;
         crm:P4 "";
@@ -4215,7 +4215,7 @@
     rdf:type crm:E42 . 
 &lt;&gt;
     rdfs:label "".  
-&lt;http://example.org/ifcp/179/register&gt;
+&lt;https://w3id.org/ifcp/179/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1997-12-15" ;
     crm:P67 "337" .</v>
@@ -4280,7 +4280,7 @@
 　この行事は、秋田県ではこの地域だけに見られる特色ある小正月行事であり、また全国各地に伝えられてきた小正月行事の典型例の一つとしても重要である。""" ; 
     crm:P4 "毎年１月１５日" ; 
     crm:P67 &lt;https://common3.pref.akita.lg.jp/genkimura/village/detail.html?cid=24&amp;vid=4&amp;id=1130&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/188/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/188/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;&gt; ;
         crm:P4 "";
@@ -4296,7 +4296,7 @@
     rdf:type crm:E42 . 
 &lt;&gt;
     rdfs:label "".  
-&lt;http://example.org/ifcp/188/register&gt;
+&lt;https://w3id.org/ifcp/188/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1998-12-16" ;
     crm:P67 "352 - 353" .</v>
@@ -4364,7 +4364,7 @@
 　遊佐のアマハゲは、男鹿のナマハゲなどと同系統の小正月の来訪神の行事であるが、包丁などは持たず、新年の祝福と豊作を約束して護符の餅をやりとりするなどの特色を有しており、滝ノ浦のように無言で独特の所作を行うなどの地域的特色も有している。また、来訪神と鳥追い・ホンテ焼きなどが組み合わされて伝承されている点でも小正月行事の典型的なものとして重要である。""" ; 
     crm:P4 "毎年１月１日（滝ノ浦）、３日（女鹿）、６日（鳥崎）" ; 
     crm:P67 &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/195/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/195/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;&gt; ;
         crm:P4 "";
@@ -4380,7 +4380,7 @@
     rdf:type crm:E42 . 
 &lt;&gt;
     rdfs:label "".  
-&lt;http://example.org/ifcp/195/register&gt;
+&lt;https://w3id.org/ifcp/195/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1999-12-21" ;
     crm:P67 "359" .</v>
@@ -4446,7 +4446,7 @@
 　この行事は、初午の日に行われる火伏せの行事であるが、同時に参加者が異装をして正体がわからないようにして現れるなど、小正月の異形異装の来訪者の行事の要素も併せもっている。また、町内在住者以外の男性の参加を認めない、水かぶりの一行が家の前を通り過ぎるまで、色のついたものを食べないという禁忌も厳格に守られている。宮城県北部における初午の火伏せ行事の中でも代表的なものであり、地域的特色もみられるものである。""" ; 
     crm:P4 "毎年２月初午" ; 
     crm:P67 &lt;https://www.city.tome.miyagi.jp/syogaigakusyu/shisejoho/bunkazai/raihousin.html&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/204/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/204/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;&gt; ;
         crm:P4 "";
@@ -4462,7 +4462,7 @@
     rdf:type crm:E42 . 
 &lt;&gt;
     rdfs:label "".  
-&lt;http://example.org/ifcp/204/register&gt;
+&lt;https://w3id.org/ifcp/204/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2000-12-27" ;
     crm:P67 "374" .</v>
@@ -4525,7 +4525,7 @@
 　見島地区は、23の戸数があり、1年交替で東回り、西回りとカセドリの一行が家々を巡る順番を決めている。カセドリは、この道中、青竹を地面に引きずって音を立てながら暗い夜道を歩いていき、各家を巡る間は無言で通す。そして、カセドリの一行は、屋敷内に入ると、まず提灯持ちの1人がその家の主人に挨拶に行き、カセドリの到着を伝える。天狗持ち、御幣持ち、籠担いは、屋敷の庭で待機している。その家の者が全員揃い、用意が整うと、提灯持ちが玄関口で合図をし、カセドリ役が雄役、雌役の順で、青竹の先を地面に擦りつけながら家内に勢いよく走り込む。かつては、土間から座敷に上がり込むことが多かったが、近年は玄関口から飛び込んで、上がりかまちで青竹を打ち鳴らすことが多くなっている。しばらく青竹を鳴らすと、ころあいをみてその家の者が酒や茶などをカセドリに振る舞う。カセドリは終始体を屈めたままで応じる（カセドリの顔をみると幸運を授かるという）。最後に青竹を打ち鳴らして外に出ると、提灯持ちが祝儀をもらい、大福帳を渡す。全戸をまわると神社に戻り拝殿で青竹を打ち鳴らして終了する。""" ; 
     crm:P4 "毎年２月第二土曜日" ; 
     crm:P67 &lt;https://saga-otakara.jp/search/detail.php?id=5346&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/218/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/218/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;&gt; ;
         crm:P4 "";
@@ -4541,7 +4541,7 @@
     rdf:type crm:E42 . 
 &lt;&gt;
     rdfs:label "".  
-&lt;http://example.org/ifcp/218/register&gt;
+&lt;https://w3id.org/ifcp/218/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2002-02-20" ;
     crm:P67 "390" .</v>
@@ -4607,7 +4607,7 @@
 　スネカは、家人の近くににじり寄り、「カバネヤミ（怠け者）いねえが」「泣くワラシいねえが、言うこと聞かねワラシいねえが」などと声を張り上げる。家人が「スネカ様、どっから来やした」と聞くと、スネカは、「五葉山から来た」、あるいは「天狗岩から来た」などと答え、しばらく座敷を歩き回りながら、恐ろしい形相で怠け者を捜す素振りをしたり、親に抱かれた幼児や逃げ回る子どもたちを威嚇する。家人は、「カバネヤミも、泣くワラシもいねえがら、餅あげっから帰ってけらっせん」などと言って、スネカの退散を促す。""" ; 
     crm:P4 "毎年１月１５日" ; 
     crm:P67 &lt;https://ofunato.jp/Summary/info/81&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/221/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/221/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;&gt; ;
         crm:P4 "";
@@ -4623,7 +4623,7 @@
     rdf:type crm:E42 . 
 &lt;&gt;
     rdfs:label "".  
-&lt;http://example.org/ifcp/221/register&gt;
+&lt;https://w3id.org/ifcp/221/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2004-02-06" ;
     crm:P67 "392" .</v>
@@ -4709,7 +4709,7 @@
 　年の初めにその年の豊凶を占う年占の行事は、日本各地に地域的特色をもって伝承されており、一部には修正会との関連をうかがわせるものもみられる。本件は、そうした数少ない事例で、「神男」を中心とした塩垢離とりの習俗や、大型の松明の製作と材料の調達などに地域をあげての参加がみられ、伝承の根強さを示している。また、燃えさかる大松明の中から神木や十二縄を取り出す競争は他に類例が少なく、地域的特色も豊かである。""" ; 
     crm:P4 "毎年２月第２日曜日" ; 
     crm:P67 &lt;http://www.katch.ne.jp/~toba-shinmeisha/himatsuri/index.html&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/228/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/228/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;https://ja.wikipedia.org/wiki/鳥羽の火祭り&gt; ;
         crm:P4 "2019-12-21";
@@ -4725,7 +4725,7 @@
     rdf:type crm:E42 . 
 &lt;http://data.e-stat.go.jp/lod/sac/C23213-20110401&gt;
     rdfs:label "愛知県西尾市".  
-&lt;http://example.org/ifcp/228/register&gt;
+&lt;https://w3id.org/ifcp/228/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2004-02-06" ;
     crm:P67 "399" .</v>
@@ -4791,7 +4791,7 @@
 　また、グロと呼ばれる小正月の行事は、島根県中部の沿岸部に伝承されてきたが、現在では大浦地区で行われるのみとなっている。神を迎え・送る一連の儀礼や禁忌などの民俗的要素もよく伝えており、我が国の年中行事や民間信仰の変遷を考える上で重要である。""" ; 
     crm:P4 "毎年１月１１～１５日" ; 
     crm:P67 &lt;https://www.all-iwami.com/spot/detail_1187.html&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/236/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/236/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;&gt; ;
         crm:P4 "";
@@ -4807,7 +4807,7 @@
     rdf:type crm:E42 . 
 &lt;&gt;
     rdfs:label "".  
-&lt;http://example.org/ifcp/236/register&gt;
+&lt;https://w3id.org/ifcp/236/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2005-02-21" ;
     crm:P67 "409" .</v>
@@ -4870,7 +4870,7 @@
 　年頭にあたり農作物を荒らす害鳥駆除を目的として行われる行事は、東北地方や北陸地方などを主として東日本に伝承され、子どもたちを中心に行われてきた。この行事は、年長の一番大将をはじめとする子どもたちによる伝承組織が年齢階梯的な秩序の基づいてよく守られているとともに、害鳥を追い払う唱え言もきちんと伝えられているなど、鳥追い行事の典型例と考えられるものである。また、子どもたちが行事の間、岩屋にお籠もりする儀礼が伴うなど地域的特色も豊かである。我が国の年中行事や民間信仰の変遷を考える上で重要である。""" ; 
     crm:P4 "年1月11～16日" ; 
     crm:P67 &lt;https://www.nihon-kankou.or.jp/miyagi/042145/detail/04566be2220112899&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/240/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/240/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;&gt; ;
         crm:P4 "";
@@ -4886,7 +4886,7 @@
     rdf:type crm:E42 . 
 &lt;&gt;
     rdfs:label "".  
-&lt;http://example.org/ifcp/240/register&gt;
+&lt;https://w3id.org/ifcp/240/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2006-03-15" ;
     crm:P67 "413" .</v>
@@ -4970,7 +4970,7 @@
 　本件は年頭にあたって鬼が人びとの除災をするこの種の行事の典型例の一つで、我が国の民間信仰や年中行事の変遷を考える上で重要である。また兵庫県内では播磨から摂津にかけての地域に鬼の行事が数多く分布するが、田遊びの儀礼が結びついて伝承されている事例は少ない。さらに子どもたちが扮する鬼の子による棒打ちや鬼の花と呼ばれる作り物の奪い合いなど民俗的要素も豊富に伝えていて地域的特色も豊かである。""" ; 
     crm:P4 "毎年1月8日" ; 
     crm:P67 &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/245/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/245/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt; ;
         crm:P4 "";
@@ -4986,7 +4986,7 @@
     rdf:type crm:E42 . 
 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S282201260&gt;
     rdfs:label "兵庫県加西市上万願寺町".  
-&lt;http://example.org/ifcp/245/register&gt;
+&lt;https://w3id.org/ifcp/245/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2006-03-15" ;
     crm:P67 "418" .</v>
@@ -5056,7 +5056,7 @@
 　小正月の火祭りについては、これまで東方地方や関東地方の事例が主に指定されているが、この行事はこれまでに指定例の少ない西日本のうち、山陰地方沿岸部に伝承される特色ある行事として注目されるものであり、伝承状況も良好であることから、我が国の年中行事や民間信仰の変遷を考える上で重要である。""" ; 
     crm:P4 "毎年１月15日に近い土・日曜日" ; 
     crm:P67 &lt;http://db.pref.tottori.jp/bunkazainavi.nsf/bunkazai_web_view/ED924928115C630F4925796F0007FF1C?OpenDocument&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/250/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/250/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;&gt; ;
         crm:P4 "";
@@ -5072,7 +5072,7 @@
     rdf:type crm:E42 . 
 &lt;&gt;
     rdfs:label "".  
-&lt;http://example.org/ifcp/250/register&gt;
+&lt;https://w3id.org/ifcp/250/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2007-03-07" ;
     crm:P67 "423" .</v>
@@ -5144,7 +5144,7 @@
 　東北日本の日本海側にサイノカミの名称で伝承される小正月の火祭りの典型例の一つといえ、子どもや厄年の男性が行事に深く関わり、厄落としや年占の要素が濃厚にみられるという点でも特色があり、我が国の小正月行事を知る上で重要である。""" ; 
     crm:P4 "毎年１月15日前後" ; 
     crm:P67 &lt;http://www.mishima-kankou.net/20180112/&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/253/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/253/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;&gt; ;
         crm:P4 "";
@@ -5160,7 +5160,7 @@
     rdf:type crm:E42 . 
 &lt;&gt;
     rdfs:label "".  
-&lt;http://example.org/ifcp/253/register&gt;
+&lt;https://w3id.org/ifcp/253/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2008-03-13" ;
     crm:P67 "426" .</v>
@@ -5248,7 +5248,7 @@
 　これまで同種の行事では東北日本や中国地方日本海側の行事が注目され指定されてきたが、本件は中国地方瀬戸内海側における行事として注目されるものである。""" ; 
     crm:P4 "毎年２月11日" ; 
     crm:P67 &lt;http://www.yanaicci.or.jp/yanai/event/sinmei-f.html&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/264/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/264/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;https://www.city-yanai.jp/soshiki/39/atsukishimmei.html&gt; ;
         crm:P4 "2019-02-11";
@@ -5264,7 +5264,7 @@
     rdf:type crm:E42 . 
 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100&gt;
     rdfs:label "山口県柳井市阿月".  
-&lt;http://example.org/ifcp/264/register&gt;
+&lt;https://w3id.org/ifcp/264/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2009-03-11" ;
     crm:P67 "437" .</v>
@@ -5352,7 +5352,7 @@
 　この行事のように人形を正月飾りとともに燃やす行事は、サイノカミ、ドウロクジンなどと呼ばれ、中部地方を中心とした地域に濃密にみられることが知られている。いっぽうで富山県を含む北陸地方では、竹を円錐状に組んで正月飾りを燃やして無病息災や家内安全を祈願するサギチョウと呼ばれる行事が濃密にみられ、人形を正月飾りとともに燃やすサイノカミと呼ばれる行事は、本件が現在唯一の伝承例となっている。""" ; 
     crm:P4 "毎年1月15日が日曜日にあたる場合は15日、それ以外の場合は1月15日の直前の日曜日" ; 
     crm:P67 &lt;https://www.town.nyuzen.toyama.jp/bunka/kyoiku/bunka/bunkazai/mukei/sainokami.html&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/266/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/266/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;https://ja.wikipedia.org/wiki/塞の神まつり&gt; ;
         crm:P4 "2019-03-12";
@@ -5368,7 +5368,7 @@
     rdf:type crm:E42 . 
 &lt;http://data.e-stat.go.jp/lod/sac/C16342-20141201&gt;
     rdfs:label "富山県下新川郡入善町上野邑町".  
-&lt;http://example.org/ifcp/266/register&gt;
+&lt;https://w3id.org/ifcp/266/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2010-03-12" ;
     crm:P67 "438" .</v>
@@ -5439,7 +5439,7 @@
 　また、セイトッコと呼ばれる年齢集団によって行事が伝承されてきたことは地域的な特色であり、少子化が進むなかで、年齢階梯的な役割分担や年番制をとるヤドの慣行など伝統的な要素をよく残していて、我が国の年中行事や民間信仰を理解する上で重要である。""" ; 
     crm:P4 "毎年８月16日" ; 
     crm:P67 &lt;http://www.city.miura.kanagawa.jp/shakai/mukeiminzoku/mitonooshouronagasi01.html&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/269/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/269/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;&gt; ;
         crm:P4 "";
@@ -5455,7 +5455,7 @@
     rdf:type crm:E42 . 
 &lt;&gt;
     rdfs:label "".  
-&lt;http://example.org/ifcp/269/register&gt;
+&lt;https://w3id.org/ifcp/269/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2011-03-09" ;
     crm:P67 "455" .</v>
@@ -5540,7 +5540,7 @@
 　我が国の年中行事には、年頭に当たってその年の豊作や安泰を祈願して行われる行事が数多くみられる。本件も年の初めに当たって行われる、一年間の豊穣を祈願し、集落に降りかかる災厄を消除することを目的とした行事である。近畿地方に分布する綱掛け行事の典型例の１つであり、我が国における年頭に当たって行われる行事の特色や地域的分布を考える上で重要である。""" ; 
     crm:P4 "毎年2月11日" ; 
     crm:P67 &lt;http://www.sakurai-maibun.nara.jp/yorimichi/yorimiti6.html&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/277/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/277/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;https://ja.wikipedia.org/wiki/江包・大西の御綱&gt; ;
         crm:P4 "2019-02-09";
@@ -5556,7 +5556,7 @@
     rdf:type crm:E42 . 
 &lt;http://data.e-stat.go.jp/lod/sac/C29206-19700401&gt;
     rdfs:label "奈良県桜井市江包、大西".  
-&lt;http://example.org/ifcp/277/register&gt;
+&lt;https://w3id.org/ifcp/277/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2012-03-08" ;
     crm:P67 "462" .</v>
@@ -5623,7 +5623,7 @@
 　本件は、年頭にあたって訪問者が福や穀物の豊穣を授けるという行事の１つである。山口県を含む中国地方ではこの種の行事がトイトイ、トロヘイ、トヘトヘなどの名称で広く伝承されていたことが知られており、本件は、中国地方に伝承されてきた小正月の訪問者の行事の典型例の１つであり、我が国の小正月の訪問者の行事の特色や変遷を考える上で重要なものである。また、中国地方では、この種の行事のほとんどが、昭和30～40年代に中断している。そうしたなかで山口県内でも、中断せず今日まで伝承されているのは本件のみであり、類例の少ない貴重な事例でもある。""" ; 
     crm:P4 "毎年１月14日" ; 
     crm:P67 &lt;https://www.city.yamaguchi.lg.jp/site/movie/19833.html&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/278/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/278/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;&gt; ;
         crm:P4 "";
@@ -5639,7 +5639,7 @@
     rdf:type crm:E42 . 
 &lt;&gt;
     rdfs:label "".  
-&lt;http://example.org/ifcp/278/register&gt;
+&lt;https://w3id.org/ifcp/278/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2012-03-08" ;
     crm:P67 "464" .</v>
@@ -5701,7 +5701,7 @@
 　ボゼは、呼び太鼓の音に導かれ、盆踊りで人びとが集まる広場に現れる。ボゼは、ボゼマラの先端に付けた赤い泥を擦り付けようと、観衆を追い回すことから、あたりは笑いと叫びで騒然となっていく。この泥を付けられると、悪魔祓いの利益があるとされ、特に女性は子宝に恵まれるなどという。騒ぎがしばらく続いたのち、太鼓の音がゆったりとしたリズムに変わると、ボゼは体を揺するようにして踊りはじめ、再度急変の調子で再び暴れだし、やがてその場を去っていく。こうして、邪気が祓われ、清まった人びとの安堵と笑顔が満ちるなか、最後に盆踊りがもうひと踊りされ、以後は余興と称して夜が更けるまで歌って踊り、皆して飲食に興じる。""" ; 
     crm:P4 "毎年旧暦７月１６" ; 
     crm:P67 &lt;https://www.pref.kagoshima.jp/ak01/chiiki/kagoshima/takarabako/traditional/akusekijimanoboze.html&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/298/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/298/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;&gt; ;
         crm:P4 "";
@@ -5717,7 +5717,7 @@
     rdf:type crm:E42 . 
 &lt;&gt;
     rdfs:label "".  
-&lt;http://example.org/ifcp/298/register&gt;
+&lt;https://w3id.org/ifcp/298/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2017-03-03" ;
     crm:P67 "494" .</v>
@@ -5793,7 +5793,7 @@
 　翌2日は、叩き出しといって、島廻りの太鼓踊りがある。踊り手たちは庄屋跡に集まり、前日と同様にして宮の馬場へと移って踊りを奉納する。暫時休憩ののち、夕暮れを待って所定の道順に従って集落内から外周道へとミッチキしていく。この際もメンドンはうろついており、隊列に付いたり離れたりしている。外周道では所定の場所三箇所にて、海岸から海に向かって島中の悪いものを叩き出し、追い祓うということをする。こうして、最後は神社に戻って締めの踊りをし、前日と同様にして終了とし、あとは花開きと称する直会となって、行事は終了する。""" ; 
     crm:P4 "毎年旧暦8月1日・2日" ; 
     crm:P67 &lt;http://mishimamura.com/ech/5560/&gt; ;
-    crm:P141 &lt;http://example.org/ifcp/299/register&gt; ; 
+    crm:P141 &lt;https://w3id.org/ifcp/299/register&gt; ; 
     crm:P94 [
         crm:P67 &lt;http://mishimamura.com/ech/5560/&gt; ;
         crm:P4 "";
@@ -5809,7 +5809,7 @@
     rdf:type crm:E42 . 
 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S134210040&gt;
     rdfs:label "鹿児島県三島村硫黄島".  
-&lt;http://example.org/ifcp/299/register&gt;
+&lt;https://w3id.org/ifcp/299/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2017-03-03" ;
     crm:P67 "493" .</v>

--- a/list_p5_added.xlsx
+++ b/list_p5_added.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4D5BC2-72D0-624E-8274-00374B61172B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F615617-571C-F748-95AE-C83118DB5D09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2735,7 +2735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
@@ -2886,20 +2886,23 @@
     crm:P67 &lt;"&amp;G2&amp;"&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/"&amp;A2&amp;"/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;"&amp;Q2&amp;"&gt; ;
-        crm:P4 """&amp;U2&amp;""";
-        crm:P31 """&amp;V2&amp;""";
-        crm:P81 """&amp;R2&amp;""" ;
-        crm:P107 &lt;"&amp;T2&amp;"&gt; 
+        crm:P31 _:edit ;
+        crm:P81 """&amp;R2&amp;""" ; 
+        crm:P167 _:place
     ];
     crm:P2 "&amp;I2&amp;" ;
     crm:P2 "&amp;H2&amp;" .
+_:edit
+    crm:P67 &lt;"&amp;Q2&amp;"&gt; ;
+    crm:P4 """&amp;U2&amp;""";
+    crm:P51 """&amp;V2&amp;""".
+_:place
+    rdfs:label """&amp;S2&amp;""";
+    crm:P67 &lt;"&amp;T2&amp;"&gt;.
 &lt;"&amp;Q2&amp;"&gt;
     rdf:type crm:E42 .
 &lt;"&amp;G2&amp;"&gt;
-    rdf:type crm:E42 . 
-&lt;"&amp;T2&amp;"&gt;
-    rdfs:label """&amp;S2&amp;""".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/"&amp;A2&amp;"/register&gt;
     rdf:type crm:E5 ;
     crm:P4 """&amp;J2&amp;""" ;
@@ -2916,20 +2919,23 @@
     crm:P67 &lt;http://www.pref.kagoshima.jp/ab10/kyoiku-bunka/bunka/museum/shichoson/satumasendai/doshidon.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/49/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;https://ja.wikipedia.org/wiki/トシドン#甑島のトシドン&gt; ;
-        crm:P4 "2018-12-02";
-        crm:P31 "そらみみ";
-        crm:P81 "江戸時代" ;
-        crm:P107 &lt;http://data.e-stat.go.jp/lod/sac/C46215-20041012&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "江戸時代" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;https://ja.wikipedia.org/wiki/トシドン#甑島のトシドン&gt; ;
+    crm:P4 "2018-12-02";
+    crm:P51 "そらみみ".
+_:place
+    rdfs:label "鹿児島県薩摩川内市下甑島";
+    crm:P67 &lt;http://data.e-stat.go.jp/lod/sac/C46215-20041012&gt;.
 &lt;https://ja.wikipedia.org/wiki/トシドン#甑島のトシドン&gt;
     rdf:type crm:E42 .
 &lt;http://www.pref.kagoshima.jp/ab10/kyoiku-bunka/bunka/museum/shichoson/satumasendai/doshidon.html&gt;
-    rdf:type crm:E42 . 
-&lt;http://data.e-stat.go.jp/lod/sac/C46215-20041012&gt;
-    rdfs:label "鹿児島県薩摩川内市下甑島".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/49/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1977-05-17" ;
@@ -3004,20 +3010,23 @@
     crm:P67 &lt;"&amp;G3&amp;"&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/"&amp;A3&amp;"/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;"&amp;Q3&amp;"&gt; ;
-        crm:P4 """&amp;U3&amp;""";
-        crm:P31 """&amp;V3&amp;""";
-        crm:P81 """&amp;R3&amp;""" ;
-        crm:P107 &lt;"&amp;T3&amp;"&gt; 
+        crm:P31 _:edit ;
+        crm:P81 """&amp;R3&amp;""" ; 
+        crm:P167 _:place
     ];
     crm:P2 "&amp;I3&amp;" ;
     crm:P2 "&amp;H3&amp;" .
+_:edit
+    crm:P67 &lt;"&amp;Q3&amp;"&gt; ;
+    crm:P4 """&amp;U3&amp;""";
+    crm:P51 """&amp;V3&amp;""".
+_:place
+    rdfs:label """&amp;S3&amp;""";
+    crm:P107 &lt;"&amp;T3&amp;"&gt;.
 &lt;"&amp;Q3&amp;"&gt;
     rdf:type crm:E42 .
 &lt;"&amp;G3&amp;"&gt;
-    rdf:type crm:E42 . 
-&lt;"&amp;T3&amp;"&gt;
-    rdfs:label """&amp;S3&amp;""".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/"&amp;A3&amp;"/register&gt;
     rdf:type crm:E5 ;
     crm:P4 """&amp;J3&amp;""" ;
@@ -3032,20 +3041,23 @@
     crm:P67 &lt;https://www.namahage-oga.akita.jp&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/51/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;https://ja.wikipedia.org/wiki/なまはげ&gt; ;
-        crm:P4 "2019-12-28";
-        crm:P31 "Urania";
-        crm:P81 "文政5年（1822年）" ;
-        crm:P107 &lt;http://data.e-stat.go.jp/lod/sac/C05206-20050322&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "文政5年（1822年）" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;https://ja.wikipedia.org/wiki/なまはげ&gt; ;
+    crm:P4 "2019-12-28";
+    crm:P51 "Urania".
+_:place
+    rdfs:label "秋田県男鹿市";
+    crm:P107 &lt;http://data.e-stat.go.jp/lod/sac/C05206-20050322&gt;.
 &lt;https://ja.wikipedia.org/wiki/なまはげ&gt;
     rdf:type crm:E42 .
 &lt;https://www.namahage-oga.akita.jp&gt;
-    rdf:type crm:E42 . 
-&lt;http://data.e-stat.go.jp/lod/sac/C05206-20050322&gt;
-    rdfs:label "秋田県男鹿市".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/51/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1978-05-22" ;
@@ -3106,20 +3118,23 @@
     crm:P67 &lt;https://www.hot-ishikawa.jp/event/4517&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/67/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;&gt; ;
-        crm:P4 "";
-        crm:P31 "";
-        crm:P81 "" ;
-        crm:P107 &lt;&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;&gt; ;
+    crm:P4 "";
+    crm:P51 "".
+_:place
+    rdfs:label "";
+    crm:P107 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://www.hot-ishikawa.jp/event/4517&gt;
-    rdf:type crm:E42 . 
-&lt;&gt;
-    rdfs:label "".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/67/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1979-02-03" ;
@@ -3182,20 +3197,23 @@
     crm:P67 &lt;https://www.city.minamikyushu.lg.jp/bunkazai-kanri/bunka/shinko/bunkazai/chiranchiiki/minamisatsuma.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/109/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;&gt; ;
-        crm:P4 "";
-        crm:P31 "";
-        crm:P81 "" ;
-        crm:P107 &lt;&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;&gt; ;
+    crm:P4 "";
+    crm:P51 "".
+_:place
+    rdfs:label "";
+    crm:P107 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://www.city.minamikyushu.lg.jp/bunkazai-kanri/bunka/shinko/bunkazai/chiranchiiki/minamisatsuma.html&gt;
-    rdf:type crm:E42 . 
-&lt;&gt;
-    rdfs:label "".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/109/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1981-01-21" ;
@@ -3276,20 +3294,23 @@
     crm:P67 &lt;https://www.town.misato.akita.jp/kamakura/2574.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/110/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;https://ja.wikipedia.org/wiki/かまくら#六郷のかまくら&gt; ;
-        crm:P4 "2018-12-13";
-        crm:P31 "221.58.122.88";
-        crm:P81 "延暦21年（802年）" ;
-        crm:P107 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S054340010&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "延暦21年（802年）" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;https://ja.wikipedia.org/wiki/かまくら#六郷のかまくら&gt; ;
+    crm:P4 "2018-12-13";
+    crm:P51 "221.58.122.88".
+_:place
+    rdfs:label "秋田県美郷町六郷地区";
+    crm:P107 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S054340010&gt;.
 &lt;https://ja.wikipedia.org/wiki/かまくら#六郷のかまくら&gt;
     rdf:type crm:E42 .
 &lt;https://www.town.misato.akita.jp/kamakura/2574.html&gt;
-    rdf:type crm:E42 . 
-&lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S054340010&gt;
-    rdfs:label "秋田県美郷町六郷地区".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/110/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1982-01-14" ;
@@ -3367,20 +3388,23 @@
     crm:P67 &lt;https://www.town.tatsugo.lg.jp/edu/event-bunka/rekishi-bunka/arasetsu.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/124/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;https://www.town.tatsugo.lg.jp/edu/event-bunka/rekishi-bunka/arasetsu.html&gt; ;
-        crm:P4 "";
-        crm:P31 "龍郷町役場 教育委員会";
-        crm:P81 "那覇世（13～17世紀）" ;
-        crm:P107 &lt;http://data.e-stat.go.jp/lod/sac/C46222-20091019&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "那覇世（13～17世紀）" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;https://www.town.tatsugo.lg.jp/edu/event-bunka/rekishi-bunka/arasetsu.html&gt; ;
+    crm:P4 "";
+    crm:P51 "龍郷町役場 教育委員会".
+_:place
+    rdfs:label "奄美群島";
+    crm:P107 &lt;http://data.e-stat.go.jp/lod/sac/C46222-20091019&gt;.
 &lt;https://www.town.tatsugo.lg.jp/edu/event-bunka/rekishi-bunka/arasetsu.html&gt;
     rdf:type crm:E42 .
 &lt;https://www.town.tatsugo.lg.jp/edu/event-bunka/rekishi-bunka/arasetsu.html&gt;
-    rdf:type crm:E42 . 
-&lt;http://data.e-stat.go.jp/lod/sac/C46222-20091019&gt;
-    rdfs:label "奄美群島".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/124/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1985-01-12" ;
@@ -3443,20 +3467,23 @@
     crm:P67 &lt;http://www.town.saitama-misato.lg.jp/admini/towninfo/ino108.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/131/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;&gt; ;
-        crm:P4 "";
-        crm:P31 "";
-        crm:P81 "" ;
-        crm:P107 &lt;&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;&gt; ;
+    crm:P4 "";
+    crm:P51 "".
+_:place
+    rdfs:label "";
+    crm:P107 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;http://www.town.saitama-misato.lg.jp/admini/towninfo/ino108.html&gt;
-    rdf:type crm:E42 . 
-&lt;&gt;
-    rdfs:label "".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/131/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1987-01-08" ;
@@ -3520,20 +3547,23 @@
     crm:P67 &lt;https://goto.nagasaki-tabinet.com/event/51078/&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/135/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;&gt; ;
-        crm:P4 "";
-        crm:P31 "";
-        crm:P81 "" ;
-        crm:P107 &lt;&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;&gt; ;
+    crm:P4 "";
+    crm:P51 "".
+_:place
+    rdfs:label "";
+    crm:P107 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://goto.nagasaki-tabinet.com/event/51078/&gt;
-    rdf:type crm:E42 . 
-&lt;&gt;
-    rdfs:label "".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/135/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1987-01-08" ;
@@ -3597,20 +3627,23 @@
     crm:P67 &lt;http://www.itoigawa-base.com/viewspot/culture_02_01.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/138/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;&gt; ;
-        crm:P4 "";
-        crm:P31 "";
-        crm:P81 "" ;
-        crm:P107 &lt;&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;&gt; ;
+    crm:P4 "";
+    crm:P51 "".
+_:place
+    rdfs:label "";
+    crm:P107 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;http://www.itoigawa-base.com/viewspot/culture_02_01.html&gt;
-    rdf:type crm:E42 . 
-&lt;&gt;
-    rdfs:label "".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/138/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1987-12-28" ;
@@ -3674,20 +3707,23 @@
     crm:P67 &lt;https://toba-archive.jp/content/detail.php?no=3991&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/140/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;&gt; ;
-        crm:P4 "";
-        crm:P31 "";
-        crm:P81 "" ;
-        crm:P107 &lt;&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;&gt; ;
+    crm:P4 "";
+    crm:P51 "".
+_:place
+    rdfs:label "";
+    crm:P107 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://toba-archive.jp/content/detail.php?no=3991&gt;
-    rdf:type crm:E42 . 
-&lt;&gt;
-    rdfs:label "".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/140/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1987-12-28" ;
@@ -3762,20 +3798,23 @@
     crm:P67 &lt;http://www.sea.icn-tv.ne.jp/~sosym/&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/145/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;http://www.sea.icn-tv.ne.jp/~sosym/&gt; ;
-        crm:P4 "";
-        crm:P31 "";
-        crm:P81 "享保19年(1734)" ;
-        crm:P107 &lt;http://data.e-stat.go.jp/lod/page/sac/C35325-20060320&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "享保19年(1734)" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;http://www.sea.icn-tv.ne.jp/~sosym/&gt; ;
+    crm:P4 "";
+    crm:P51 "".
+_:place
+    rdfs:label "山口県周東町";
+    crm:P107 &lt;http://data.e-stat.go.jp/lod/page/sac/C35325-20060320&gt;.
 &lt;http://www.sea.icn-tv.ne.jp/~sosym/&gt;
     rdf:type crm:E42 .
 &lt;http://www.sea.icn-tv.ne.jp/~sosym/&gt;
-    rdf:type crm:E42 . 
-&lt;http://data.e-stat.go.jp/lod/page/sac/C35325-20060320&gt;
-    rdfs:label "山口県周東町".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/145/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1989-03-20" ;
@@ -3843,20 +3882,23 @@
     crm:P67 &lt;https://nozawakanko.jp/record/dosojin/&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/156/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;&gt; ;
-        crm:P4 "";
-        crm:P31 "";
-        crm:P81 "" ;
-        crm:P107 &lt;&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;&gt; ;
+    crm:P4 "";
+    crm:P51 "".
+_:place
+    rdfs:label "";
+    crm:P107 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://nozawakanko.jp/record/dosojin/&gt;
-    rdf:type crm:E42 . 
-&lt;&gt;
-    rdfs:label "".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/156/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1993-12-13" ;
@@ -3922,20 +3964,23 @@
     crm:P67 &lt;https://www.tabirai.net/sightseeing/column/0003469.aspx&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/158/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;&gt; ;
-        crm:P4 "";
-        crm:P31 "";
-        crm:P81 "" ;
-        crm:P107 &lt;&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;&gt; ;
+    crm:P4 "";
+    crm:P51 "".
+_:place
+    rdfs:label "";
+    crm:P107 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://www.tabirai.net/sightseeing/column/0003469.aspx&gt;
-    rdf:type crm:E42 . 
-&lt;&gt;
-    rdfs:label "".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/158/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1993-12-13" ;
@@ -4022,20 +4067,23 @@
     crm:P67 &lt;https://tamataregu.or.jp/oniyo&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/162/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;https://ja.wikipedia.org/wiki/鬼夜&gt; ;
-        crm:P4 "2018-11-15";
-        crm:P31 "STA3816";
-        crm:P81 "368年（仁徳天皇56年）" ;
-        crm:P107 &lt;http://data.e-stat.go.jp/lod/sac/C40203-20080401&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "368年（仁徳天皇56年）" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;https://ja.wikipedia.org/wiki/鬼夜&gt; ;
+    crm:P4 "2018-11-15";
+    crm:P51 "STA3816".
+_:place
+    rdfs:label "福岡県久留米市大善寺";
+    crm:P107 &lt;http://data.e-stat.go.jp/lod/sac/C40203-20080401&gt;.
 &lt;https://ja.wikipedia.org/wiki/鬼夜&gt;
     rdf:type crm:E42 .
 &lt;https://tamataregu.or.jp/oniyo&gt;
-    rdf:type crm:E42 . 
-&lt;http://data.e-stat.go.jp/lod/sac/C40203-20080401&gt;
-    rdfs:label "福岡県久留米市大善寺".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/162/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1994-12-13" ;
@@ -4121,20 +4169,23 @@
     crm:P67 &lt;https://www.city.gojo.lg.jp/kankou/dentou/4032.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/167/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;https://ja.wikipedia.org/wiki/陀々堂の鬼はしり&gt; ;
-        crm:P4 "2019-04-13";
-        crm:P31 "8-hachiro";
-        crm:P81 "室町時代" ;
-        crm:P107 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S292070500&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "室町時代" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;https://ja.wikipedia.org/wiki/陀々堂の鬼はしり&gt; ;
+    crm:P4 "2019-04-13";
+    crm:P51 "8-hachiro".
+_:place
+    rdfs:label "奈良県五條市大津町念仏寺";
+    crm:P107 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S292070500&gt;.
 &lt;https://ja.wikipedia.org/wiki/陀々堂の鬼はしり&gt;
     rdf:type crm:E42 .
 &lt;https://www.city.gojo.lg.jp/kankou/dentou/4032.html&gt;
-    rdf:type crm:E42 . 
-&lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S292070500&gt;
-    rdfs:label "奈良県五條市大津町念仏寺".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/167/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1995-12-26" ;
@@ -4201,20 +4252,23 @@
     crm:P67 &lt;http://www.town.oiso.kanagawa.jp/isotabi/matsuri_event/matsuri/sagichou.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/179/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;&gt; ;
-        crm:P4 "";
-        crm:P31 "";
-        crm:P81 "" ;
-        crm:P107 &lt;&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;&gt; ;
+    crm:P4 "";
+    crm:P51 "".
+_:place
+    rdfs:label "";
+    crm:P107 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;http://www.town.oiso.kanagawa.jp/isotabi/matsuri_event/matsuri/sagichou.html&gt;
-    rdf:type crm:E42 . 
-&lt;&gt;
-    rdfs:label "".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/179/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1997-12-15" ;
@@ -4282,20 +4336,23 @@
     crm:P67 &lt;https://common3.pref.akita.lg.jp/genkimura/village/detail.html?cid=24&amp;vid=4&amp;id=1130&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/188/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;&gt; ;
-        crm:P4 "";
-        crm:P31 "";
-        crm:P81 "" ;
-        crm:P107 &lt;&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;&gt; ;
+    crm:P4 "";
+    crm:P51 "".
+_:place
+    rdfs:label "";
+    crm:P107 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://common3.pref.akita.lg.jp/genkimura/village/detail.html?cid=24&amp;vid=4&amp;id=1130&gt;
-    rdf:type crm:E42 . 
-&lt;&gt;
-    rdfs:label "".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/188/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1998-12-16" ;
@@ -4366,20 +4423,23 @@
     crm:P67 &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/195/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;&gt; ;
-        crm:P4 "";
-        crm:P31 "";
-        crm:P81 "" ;
-        crm:P107 &lt;&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;&gt; ;
+    crm:P4 "";
+    crm:P51 "".
+_:place
+    rdfs:label "";
+    crm:P107 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt;
-    rdf:type crm:E42 . 
-&lt;&gt;
-    rdfs:label "".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/195/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "1999-12-21" ;
@@ -4448,20 +4508,23 @@
     crm:P67 &lt;https://www.city.tome.miyagi.jp/syogaigakusyu/shisejoho/bunkazai/raihousin.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/204/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;&gt; ;
-        crm:P4 "";
-        crm:P31 "";
-        crm:P81 "" ;
-        crm:P107 &lt;&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;&gt; ;
+    crm:P4 "";
+    crm:P51 "".
+_:place
+    rdfs:label "";
+    crm:P107 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://www.city.tome.miyagi.jp/syogaigakusyu/shisejoho/bunkazai/raihousin.html&gt;
-    rdf:type crm:E42 . 
-&lt;&gt;
-    rdfs:label "".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/204/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2000-12-27" ;
@@ -4527,20 +4590,23 @@
     crm:P67 &lt;https://saga-otakara.jp/search/detail.php?id=5346&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/218/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;&gt; ;
-        crm:P4 "";
-        crm:P31 "";
-        crm:P81 "" ;
-        crm:P107 &lt;&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;&gt; ;
+    crm:P4 "";
+    crm:P51 "".
+_:place
+    rdfs:label "";
+    crm:P107 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://saga-otakara.jp/search/detail.php?id=5346&gt;
-    rdf:type crm:E42 . 
-&lt;&gt;
-    rdfs:label "".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/218/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2002-02-20" ;
@@ -4609,20 +4675,23 @@
     crm:P67 &lt;https://ofunato.jp/Summary/info/81&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/221/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;&gt; ;
-        crm:P4 "";
-        crm:P31 "";
-        crm:P81 "" ;
-        crm:P107 &lt;&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;&gt; ;
+    crm:P4 "";
+    crm:P51 "".
+_:place
+    rdfs:label "";
+    crm:P107 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://ofunato.jp/Summary/info/81&gt;
-    rdf:type crm:E42 . 
-&lt;&gt;
-    rdfs:label "".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/221/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2004-02-06" ;
@@ -4711,20 +4780,23 @@
     crm:P67 &lt;http://www.katch.ne.jp/~toba-shinmeisha/himatsuri/index.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/228/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;https://ja.wikipedia.org/wiki/鳥羽の火祭り&gt; ;
-        crm:P4 "2019-12-21";
-        crm:P31 "Urania";
-        crm:P81 "平安時代" ;
-        crm:P107 &lt;http://data.e-stat.go.jp/lod/sac/C23213-20110401&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "平安時代" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;https://ja.wikipedia.org/wiki/鳥羽の火祭り&gt; ;
+    crm:P4 "2019-12-21";
+    crm:P51 "Urania".
+_:place
+    rdfs:label "愛知県西尾市";
+    crm:P107 &lt;http://data.e-stat.go.jp/lod/sac/C23213-20110401&gt;.
 &lt;https://ja.wikipedia.org/wiki/鳥羽の火祭り&gt;
     rdf:type crm:E42 .
 &lt;http://www.katch.ne.jp/~toba-shinmeisha/himatsuri/index.html&gt;
-    rdf:type crm:E42 . 
-&lt;http://data.e-stat.go.jp/lod/sac/C23213-20110401&gt;
-    rdfs:label "愛知県西尾市".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/228/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2004-02-06" ;
@@ -4793,20 +4865,23 @@
     crm:P67 &lt;https://www.all-iwami.com/spot/detail_1187.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/236/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;&gt; ;
-        crm:P4 "";
-        crm:P31 "";
-        crm:P81 "" ;
-        crm:P107 &lt;&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;&gt; ;
+    crm:P4 "";
+    crm:P51 "".
+_:place
+    rdfs:label "";
+    crm:P107 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://www.all-iwami.com/spot/detail_1187.html&gt;
-    rdf:type crm:E42 . 
-&lt;&gt;
-    rdfs:label "".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/236/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2005-02-21" ;
@@ -4872,20 +4947,23 @@
     crm:P67 &lt;https://www.nihon-kankou.or.jp/miyagi/042145/detail/04566be2220112899&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/240/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;&gt; ;
-        crm:P4 "";
-        crm:P31 "";
-        crm:P81 "" ;
-        crm:P107 &lt;&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;&gt; ;
+    crm:P4 "";
+    crm:P51 "".
+_:place
+    rdfs:label "";
+    crm:P107 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://www.nihon-kankou.or.jp/miyagi/042145/detail/04566be2220112899&gt;
-    rdf:type crm:E42 . 
-&lt;&gt;
-    rdfs:label "".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/240/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2006-03-15" ;
@@ -4972,20 +5050,23 @@
     crm:P67 &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/245/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt; ;
-        crm:P4 "";
-        crm:P31 "加西市ふるさと創造部 文化・観光・スポーツ課";
-        crm:P81 "室町末期頃" ;
-        crm:P107 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S282201260&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "室町末期頃" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt; ;
+    crm:P4 "";
+    crm:P51 "加西市ふるさと創造部 文化・観光・スポーツ課".
+_:place
+    rdfs:label "兵庫県加西市上万願寺町";
+    crm:P107 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S282201260&gt;.
 &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt;
     rdf:type crm:E42 .
 &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt;
-    rdf:type crm:E42 . 
-&lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S282201260&gt;
-    rdfs:label "兵庫県加西市上万願寺町".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/245/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2006-03-15" ;
@@ -5058,20 +5139,23 @@
     crm:P67 &lt;http://db.pref.tottori.jp/bunkazainavi.nsf/bunkazai_web_view/ED924928115C630F4925796F0007FF1C?OpenDocument&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/250/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;&gt; ;
-        crm:P4 "";
-        crm:P31 "";
-        crm:P81 "" ;
-        crm:P107 &lt;&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;&gt; ;
+    crm:P4 "";
+    crm:P51 "".
+_:place
+    rdfs:label "";
+    crm:P107 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;http://db.pref.tottori.jp/bunkazainavi.nsf/bunkazai_web_view/ED924928115C630F4925796F0007FF1C?OpenDocument&gt;
-    rdf:type crm:E42 . 
-&lt;&gt;
-    rdfs:label "".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/250/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2007-03-07" ;
@@ -5146,20 +5230,23 @@
     crm:P67 &lt;http://www.mishima-kankou.net/20180112/&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/253/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;&gt; ;
-        crm:P4 "";
-        crm:P31 "";
-        crm:P81 "" ;
-        crm:P107 &lt;&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;&gt; ;
+    crm:P4 "";
+    crm:P51 "".
+_:place
+    rdfs:label "";
+    crm:P107 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;http://www.mishima-kankou.net/20180112/&gt;
-    rdf:type crm:E42 . 
-&lt;&gt;
-    rdfs:label "".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/253/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2008-03-13" ;
@@ -5250,20 +5337,23 @@
     crm:P67 &lt;http://www.yanaicci.or.jp/yanai/event/sinmei-f.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/264/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;https://www.city-yanai.jp/soshiki/39/atsukishimmei.html&gt; ;
-        crm:P4 "2019-02-11";
-        crm:P31 "山口県柳井市";
-        crm:P81 "正保元年(1644年)" ;
-        crm:P107 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "正保元年(1644年)" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;https://www.city-yanai.jp/soshiki/39/atsukishimmei.html&gt; ;
+    crm:P4 "2019-02-11";
+    crm:P51 "山口県柳井市".
+_:place
+    rdfs:label "山口県柳井市阿月";
+    crm:P107 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100&gt;.
 &lt;https://www.city-yanai.jp/soshiki/39/atsukishimmei.html&gt;
     rdf:type crm:E42 .
 &lt;http://www.yanaicci.or.jp/yanai/event/sinmei-f.html&gt;
-    rdf:type crm:E42 . 
-&lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100&gt;
-    rdfs:label "山口県柳井市阿月".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/264/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2009-03-11" ;
@@ -5354,20 +5444,23 @@
     crm:P67 &lt;https://www.town.nyuzen.toyama.jp/bunka/kyoiku/bunka/bunkazai/mukei/sainokami.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/266/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;https://ja.wikipedia.org/wiki/塞の神まつり&gt; ;
-        crm:P4 "2019-03-12";
-        crm:P31 "なびお ";
-        crm:P81 "江戸時代" ;
-        crm:P107 &lt;http://data.e-stat.go.jp/lod/sac/C16342-20141201&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "江戸時代" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;https://ja.wikipedia.org/wiki/塞の神まつり&gt; ;
+    crm:P4 "2019-03-12";
+    crm:P51 "なびお ".
+_:place
+    rdfs:label "富山県下新川郡入善町上野邑町";
+    crm:P107 &lt;http://data.e-stat.go.jp/lod/sac/C16342-20141201&gt;.
 &lt;https://ja.wikipedia.org/wiki/塞の神まつり&gt;
     rdf:type crm:E42 .
 &lt;https://www.town.nyuzen.toyama.jp/bunka/kyoiku/bunka/bunkazai/mukei/sainokami.html&gt;
-    rdf:type crm:E42 . 
-&lt;http://data.e-stat.go.jp/lod/sac/C16342-20141201&gt;
-    rdfs:label "富山県下新川郡入善町上野邑町".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/266/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2010-03-12" ;
@@ -5441,20 +5534,23 @@
     crm:P67 &lt;http://www.city.miura.kanagawa.jp/shakai/mukeiminzoku/mitonooshouronagasi01.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/269/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;&gt; ;
-        crm:P4 "";
-        crm:P31 "";
-        crm:P81 "" ;
-        crm:P107 &lt;&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;&gt; ;
+    crm:P4 "";
+    crm:P51 "".
+_:place
+    rdfs:label "";
+    crm:P107 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;http://www.city.miura.kanagawa.jp/shakai/mukeiminzoku/mitonooshouronagasi01.html&gt;
-    rdf:type crm:E42 . 
-&lt;&gt;
-    rdfs:label "".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/269/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2011-03-09" ;
@@ -5542,20 +5638,23 @@
     crm:P67 &lt;http://www.sakurai-maibun.nara.jp/yorimichi/yorimiti6.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/277/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;https://ja.wikipedia.org/wiki/江包・大西の御綱&gt; ;
-        crm:P4 "2019-02-09";
-        crm:P31 "8-hachiro";
-        crm:P81 "大同4年（809年）" ;
-        crm:P107 &lt;http://data.e-stat.go.jp/lod/sac/C29206-19700401&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "大同4年（809年）" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;https://ja.wikipedia.org/wiki/江包・大西の御綱&gt; ;
+    crm:P4 "2019-02-09";
+    crm:P51 "8-hachiro".
+_:place
+    rdfs:label "奈良県桜井市江包、大西";
+    crm:P107 &lt;http://data.e-stat.go.jp/lod/sac/C29206-19700401&gt;.
 &lt;https://ja.wikipedia.org/wiki/江包・大西の御綱&gt;
     rdf:type crm:E42 .
 &lt;http://www.sakurai-maibun.nara.jp/yorimichi/yorimiti6.html&gt;
-    rdf:type crm:E42 . 
-&lt;http://data.e-stat.go.jp/lod/sac/C29206-19700401&gt;
-    rdfs:label "奈良県桜井市江包、大西".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/277/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2012-03-08" ;
@@ -5625,20 +5724,23 @@
     crm:P67 &lt;https://www.city.yamaguchi.lg.jp/site/movie/19833.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/278/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;&gt; ;
-        crm:P4 "";
-        crm:P31 "";
-        crm:P81 "" ;
-        crm:P107 &lt;&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;&gt; ;
+    crm:P4 "";
+    crm:P51 "".
+_:place
+    rdfs:label "";
+    crm:P107 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://www.city.yamaguchi.lg.jp/site/movie/19833.html&gt;
-    rdf:type crm:E42 . 
-&lt;&gt;
-    rdfs:label "".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/278/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2012-03-08" ;
@@ -5703,20 +5805,23 @@
     crm:P67 &lt;https://www.pref.kagoshima.jp/ak01/chiiki/kagoshima/takarabako/traditional/akusekijimanoboze.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/298/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;&gt; ;
-        crm:P4 "";
-        crm:P31 "";
-        crm:P81 "" ;
-        crm:P107 &lt;&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;&gt; ;
+    crm:P4 "";
+    crm:P51 "".
+_:place
+    rdfs:label "";
+    crm:P107 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://www.pref.kagoshima.jp/ak01/chiiki/kagoshima/takarabako/traditional/akusekijimanoboze.html&gt;
-    rdf:type crm:E42 . 
-&lt;&gt;
-    rdfs:label "".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/298/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2017-03-03" ;
@@ -5795,20 +5900,23 @@
     crm:P67 &lt;http://mishimamura.com/ech/5560/&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/299/register&gt; ; 
     crm:P94 [
-        crm:P67 &lt;http://mishimamura.com/ech/5560/&gt; ;
-        crm:P4 "";
-        crm:P31 "鹿児島県三島村";
-        crm:P81 "慶長三年" ;
-        crm:P107 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S134210040&gt; 
+        crm:P31 _:edit ;
+        crm:P81 "慶長三年" ; 
+        crm:P167 _:place
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
+_:edit
+    crm:P67 &lt;http://mishimamura.com/ech/5560/&gt; ;
+    crm:P4 "";
+    crm:P51 "鹿児島県三島村".
+_:place
+    rdfs:label "鹿児島県三島村硫黄島";
+    crm:P107 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S134210040&gt;.
 &lt;http://mishimamura.com/ech/5560/&gt;
     rdf:type crm:E42 .
 &lt;http://mishimamura.com/ech/5560/&gt;
-    rdf:type crm:E42 . 
-&lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S134210040&gt;
-    rdfs:label "鹿児島県三島村硫黄島".  
+    rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/299/register&gt;
     rdf:type crm:E5 ;
     crm:P4 "2017-03-03" ;

--- a/list_p5_added.xlsx
+++ b/list_p5_added.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F615617-571C-F748-95AE-C83118DB5D09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20FE542-074F-1E4E-B948-F937E39D69D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_p6" sheetId="1" r:id="rId1"/>
@@ -2735,7 +2735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
@@ -2886,17 +2886,17 @@
     crm:P67 &lt;"&amp;G2&amp;"&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/"&amp;A2&amp;"/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit"&amp;A2&amp;" ;
         crm:P81 """&amp;R2&amp;""" ; 
-        crm:P167 _:place
+        crm:P167 _:place"&amp;A2&amp;"
     ];
     crm:P2 "&amp;I2&amp;" ;
     crm:P2 "&amp;H2&amp;" .
-_:edit
+_:edit"&amp;A2&amp;"
     crm:P67 &lt;"&amp;Q2&amp;"&gt; ;
     crm:P4 """&amp;U2&amp;""";
     crm:P51 """&amp;V2&amp;""".
-_:place
+_:place"&amp;A2&amp;"
     rdfs:label """&amp;S2&amp;""";
     crm:P67 &lt;"&amp;T2&amp;"&gt;.
 &lt;"&amp;Q2&amp;"&gt;
@@ -2919,17 +2919,17 @@
     crm:P67 &lt;http://www.pref.kagoshima.jp/ab10/kyoiku-bunka/bunka/museum/shichoson/satumasendai/doshidon.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/49/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit49 ;
         crm:P81 "江戸時代" ; 
-        crm:P167 _:place
+        crm:P167 _:place49
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit49
     crm:P67 &lt;https://ja.wikipedia.org/wiki/トシドン#甑島のトシドン&gt; ;
     crm:P4 "2018-12-02";
     crm:P51 "そらみみ".
-_:place
+_:place49
     rdfs:label "鹿児島県薩摩川内市下甑島";
     crm:P67 &lt;http://data.e-stat.go.jp/lod/sac/C46215-20041012&gt;.
 &lt;https://ja.wikipedia.org/wiki/トシドン#甑島のトシドン&gt;
@@ -3010,19 +3010,19 @@
     crm:P67 &lt;"&amp;G3&amp;"&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/"&amp;A3&amp;"/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit"&amp;A3&amp;" ;
         crm:P81 """&amp;R3&amp;""" ; 
-        crm:P167 _:place
+        crm:P167 _:place"&amp;A3&amp;"
     ];
     crm:P2 "&amp;I3&amp;" ;
     crm:P2 "&amp;H3&amp;" .
-_:edit
+_:edit"&amp;A3&amp;"
     crm:P67 &lt;"&amp;Q3&amp;"&gt; ;
     crm:P4 """&amp;U3&amp;""";
     crm:P51 """&amp;V3&amp;""".
-_:place
+_:place"&amp;A3&amp;"
     rdfs:label """&amp;S3&amp;""";
-    crm:P107 &lt;"&amp;T3&amp;"&gt;.
+    crm:P67 &lt;"&amp;T3&amp;"&gt;.
 &lt;"&amp;Q3&amp;"&gt;
     rdf:type crm:E42 .
 &lt;"&amp;G3&amp;"&gt;
@@ -3041,19 +3041,19 @@
     crm:P67 &lt;https://www.namahage-oga.akita.jp&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/51/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit51 ;
         crm:P81 "文政5年（1822年）" ; 
-        crm:P167 _:place
+        crm:P167 _:place51
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit51
     crm:P67 &lt;https://ja.wikipedia.org/wiki/なまはげ&gt; ;
     crm:P4 "2019-12-28";
     crm:P51 "Urania".
-_:place
+_:place51
     rdfs:label "秋田県男鹿市";
-    crm:P107 &lt;http://data.e-stat.go.jp/lod/sac/C05206-20050322&gt;.
+    crm:P67 &lt;http://data.e-stat.go.jp/lod/sac/C05206-20050322&gt;.
 &lt;https://ja.wikipedia.org/wiki/なまはげ&gt;
     rdf:type crm:E42 .
 &lt;https://www.namahage-oga.akita.jp&gt;
@@ -3118,19 +3118,19 @@
     crm:P67 &lt;https://www.hot-ishikawa.jp/event/4517&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/67/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit67 ;
         crm:P81 "" ; 
-        crm:P167 _:place
+        crm:P167 _:place67
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit67
     crm:P67 &lt;&gt; ;
     crm:P4 "";
     crm:P51 "".
-_:place
+_:place67
     rdfs:label "";
-    crm:P107 &lt;&gt;.
+    crm:P67 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://www.hot-ishikawa.jp/event/4517&gt;
@@ -3197,19 +3197,19 @@
     crm:P67 &lt;https://www.city.minamikyushu.lg.jp/bunkazai-kanri/bunka/shinko/bunkazai/chiranchiiki/minamisatsuma.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/109/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit109 ;
         crm:P81 "" ; 
-        crm:P167 _:place
+        crm:P167 _:place109
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit109
     crm:P67 &lt;&gt; ;
     crm:P4 "";
     crm:P51 "".
-_:place
+_:place109
     rdfs:label "";
-    crm:P107 &lt;&gt;.
+    crm:P67 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://www.city.minamikyushu.lg.jp/bunkazai-kanri/bunka/shinko/bunkazai/chiranchiiki/minamisatsuma.html&gt;
@@ -3294,19 +3294,19 @@
     crm:P67 &lt;https://www.town.misato.akita.jp/kamakura/2574.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/110/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit110 ;
         crm:P81 "延暦21年（802年）" ; 
-        crm:P167 _:place
+        crm:P167 _:place110
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit110
     crm:P67 &lt;https://ja.wikipedia.org/wiki/かまくら#六郷のかまくら&gt; ;
     crm:P4 "2018-12-13";
     crm:P51 "221.58.122.88".
-_:place
+_:place110
     rdfs:label "秋田県美郷町六郷地区";
-    crm:P107 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S054340010&gt;.
+    crm:P67 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S054340010&gt;.
 &lt;https://ja.wikipedia.org/wiki/かまくら#六郷のかまくら&gt;
     rdf:type crm:E42 .
 &lt;https://www.town.misato.akita.jp/kamakura/2574.html&gt;
@@ -3388,19 +3388,19 @@
     crm:P67 &lt;https://www.town.tatsugo.lg.jp/edu/event-bunka/rekishi-bunka/arasetsu.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/124/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit124 ;
         crm:P81 "那覇世（13～17世紀）" ; 
-        crm:P167 _:place
+        crm:P167 _:place124
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit124
     crm:P67 &lt;https://www.town.tatsugo.lg.jp/edu/event-bunka/rekishi-bunka/arasetsu.html&gt; ;
     crm:P4 "";
     crm:P51 "龍郷町役場 教育委員会".
-_:place
+_:place124
     rdfs:label "奄美群島";
-    crm:P107 &lt;http://data.e-stat.go.jp/lod/sac/C46222-20091019&gt;.
+    crm:P67 &lt;http://data.e-stat.go.jp/lod/sac/C46222-20091019&gt;.
 &lt;https://www.town.tatsugo.lg.jp/edu/event-bunka/rekishi-bunka/arasetsu.html&gt;
     rdf:type crm:E42 .
 &lt;https://www.town.tatsugo.lg.jp/edu/event-bunka/rekishi-bunka/arasetsu.html&gt;
@@ -3467,19 +3467,19 @@
     crm:P67 &lt;http://www.town.saitama-misato.lg.jp/admini/towninfo/ino108.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/131/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit131 ;
         crm:P81 "" ; 
-        crm:P167 _:place
+        crm:P167 _:place131
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit131
     crm:P67 &lt;&gt; ;
     crm:P4 "";
     crm:P51 "".
-_:place
+_:place131
     rdfs:label "";
-    crm:P107 &lt;&gt;.
+    crm:P67 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;http://www.town.saitama-misato.lg.jp/admini/towninfo/ino108.html&gt;
@@ -3547,19 +3547,19 @@
     crm:P67 &lt;https://goto.nagasaki-tabinet.com/event/51078/&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/135/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit135 ;
         crm:P81 "" ; 
-        crm:P167 _:place
+        crm:P167 _:place135
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit135
     crm:P67 &lt;&gt; ;
     crm:P4 "";
     crm:P51 "".
-_:place
+_:place135
     rdfs:label "";
-    crm:P107 &lt;&gt;.
+    crm:P67 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://goto.nagasaki-tabinet.com/event/51078/&gt;
@@ -3627,19 +3627,19 @@
     crm:P67 &lt;http://www.itoigawa-base.com/viewspot/culture_02_01.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/138/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit138 ;
         crm:P81 "" ; 
-        crm:P167 _:place
+        crm:P167 _:place138
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit138
     crm:P67 &lt;&gt; ;
     crm:P4 "";
     crm:P51 "".
-_:place
+_:place138
     rdfs:label "";
-    crm:P107 &lt;&gt;.
+    crm:P67 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;http://www.itoigawa-base.com/viewspot/culture_02_01.html&gt;
@@ -3707,19 +3707,19 @@
     crm:P67 &lt;https://toba-archive.jp/content/detail.php?no=3991&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/140/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit140 ;
         crm:P81 "" ; 
-        crm:P167 _:place
+        crm:P167 _:place140
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit140
     crm:P67 &lt;&gt; ;
     crm:P4 "";
     crm:P51 "".
-_:place
+_:place140
     rdfs:label "";
-    crm:P107 &lt;&gt;.
+    crm:P67 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://toba-archive.jp/content/detail.php?no=3991&gt;
@@ -3798,19 +3798,19 @@
     crm:P67 &lt;http://www.sea.icn-tv.ne.jp/~sosym/&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/145/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit145 ;
         crm:P81 "享保19年(1734)" ; 
-        crm:P167 _:place
+        crm:P167 _:place145
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit145
     crm:P67 &lt;http://www.sea.icn-tv.ne.jp/~sosym/&gt; ;
     crm:P4 "";
     crm:P51 "".
-_:place
+_:place145
     rdfs:label "山口県周東町";
-    crm:P107 &lt;http://data.e-stat.go.jp/lod/page/sac/C35325-20060320&gt;.
+    crm:P67 &lt;http://data.e-stat.go.jp/lod/page/sac/C35325-20060320&gt;.
 &lt;http://www.sea.icn-tv.ne.jp/~sosym/&gt;
     rdf:type crm:E42 .
 &lt;http://www.sea.icn-tv.ne.jp/~sosym/&gt;
@@ -3882,19 +3882,19 @@
     crm:P67 &lt;https://nozawakanko.jp/record/dosojin/&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/156/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit156 ;
         crm:P81 "" ; 
-        crm:P167 _:place
+        crm:P167 _:place156
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit156
     crm:P67 &lt;&gt; ;
     crm:P4 "";
     crm:P51 "".
-_:place
+_:place156
     rdfs:label "";
-    crm:P107 &lt;&gt;.
+    crm:P67 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://nozawakanko.jp/record/dosojin/&gt;
@@ -3964,19 +3964,19 @@
     crm:P67 &lt;https://www.tabirai.net/sightseeing/column/0003469.aspx&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/158/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit158 ;
         crm:P81 "" ; 
-        crm:P167 _:place
+        crm:P167 _:place158
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit158
     crm:P67 &lt;&gt; ;
     crm:P4 "";
     crm:P51 "".
-_:place
+_:place158
     rdfs:label "";
-    crm:P107 &lt;&gt;.
+    crm:P67 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://www.tabirai.net/sightseeing/column/0003469.aspx&gt;
@@ -4067,19 +4067,19 @@
     crm:P67 &lt;https://tamataregu.or.jp/oniyo&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/162/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit162 ;
         crm:P81 "368年（仁徳天皇56年）" ; 
-        crm:P167 _:place
+        crm:P167 _:place162
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit162
     crm:P67 &lt;https://ja.wikipedia.org/wiki/鬼夜&gt; ;
     crm:P4 "2018-11-15";
     crm:P51 "STA3816".
-_:place
+_:place162
     rdfs:label "福岡県久留米市大善寺";
-    crm:P107 &lt;http://data.e-stat.go.jp/lod/sac/C40203-20080401&gt;.
+    crm:P67 &lt;http://data.e-stat.go.jp/lod/sac/C40203-20080401&gt;.
 &lt;https://ja.wikipedia.org/wiki/鬼夜&gt;
     rdf:type crm:E42 .
 &lt;https://tamataregu.or.jp/oniyo&gt;
@@ -4169,19 +4169,19 @@
     crm:P67 &lt;https://www.city.gojo.lg.jp/kankou/dentou/4032.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/167/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit167 ;
         crm:P81 "室町時代" ; 
-        crm:P167 _:place
+        crm:P167 _:place167
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit167
     crm:P67 &lt;https://ja.wikipedia.org/wiki/陀々堂の鬼はしり&gt; ;
     crm:P4 "2019-04-13";
     crm:P51 "8-hachiro".
-_:place
+_:place167
     rdfs:label "奈良県五條市大津町念仏寺";
-    crm:P107 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S292070500&gt;.
+    crm:P67 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S292070500&gt;.
 &lt;https://ja.wikipedia.org/wiki/陀々堂の鬼はしり&gt;
     rdf:type crm:E42 .
 &lt;https://www.city.gojo.lg.jp/kankou/dentou/4032.html&gt;
@@ -4252,19 +4252,19 @@
     crm:P67 &lt;http://www.town.oiso.kanagawa.jp/isotabi/matsuri_event/matsuri/sagichou.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/179/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit179 ;
         crm:P81 "" ; 
-        crm:P167 _:place
+        crm:P167 _:place179
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit179
     crm:P67 &lt;&gt; ;
     crm:P4 "";
     crm:P51 "".
-_:place
+_:place179
     rdfs:label "";
-    crm:P107 &lt;&gt;.
+    crm:P67 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;http://www.town.oiso.kanagawa.jp/isotabi/matsuri_event/matsuri/sagichou.html&gt;
@@ -4336,19 +4336,19 @@
     crm:P67 &lt;https://common3.pref.akita.lg.jp/genkimura/village/detail.html?cid=24&amp;vid=4&amp;id=1130&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/188/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit188 ;
         crm:P81 "" ; 
-        crm:P167 _:place
+        crm:P167 _:place188
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit188
     crm:P67 &lt;&gt; ;
     crm:P4 "";
     crm:P51 "".
-_:place
+_:place188
     rdfs:label "";
-    crm:P107 &lt;&gt;.
+    crm:P67 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://common3.pref.akita.lg.jp/genkimura/village/detail.html?cid=24&amp;vid=4&amp;id=1130&gt;
@@ -4423,19 +4423,19 @@
     crm:P67 &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/195/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit195 ;
         crm:P81 "" ; 
-        crm:P167 _:place
+        crm:P167 _:place195
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit195
     crm:P67 &lt;&gt; ;
     crm:P4 "";
     crm:P51 "".
-_:place
+_:place195
     rdfs:label "";
-    crm:P107 &lt;&gt;.
+    crm:P67 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt;
@@ -4508,19 +4508,19 @@
     crm:P67 &lt;https://www.city.tome.miyagi.jp/syogaigakusyu/shisejoho/bunkazai/raihousin.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/204/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit204 ;
         crm:P81 "" ; 
-        crm:P167 _:place
+        crm:P167 _:place204
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit204
     crm:P67 &lt;&gt; ;
     crm:P4 "";
     crm:P51 "".
-_:place
+_:place204
     rdfs:label "";
-    crm:P107 &lt;&gt;.
+    crm:P67 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://www.city.tome.miyagi.jp/syogaigakusyu/shisejoho/bunkazai/raihousin.html&gt;
@@ -4590,19 +4590,19 @@
     crm:P67 &lt;https://saga-otakara.jp/search/detail.php?id=5346&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/218/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit218 ;
         crm:P81 "" ; 
-        crm:P167 _:place
+        crm:P167 _:place218
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit218
     crm:P67 &lt;&gt; ;
     crm:P4 "";
     crm:P51 "".
-_:place
+_:place218
     rdfs:label "";
-    crm:P107 &lt;&gt;.
+    crm:P67 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://saga-otakara.jp/search/detail.php?id=5346&gt;
@@ -4675,19 +4675,19 @@
     crm:P67 &lt;https://ofunato.jp/Summary/info/81&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/221/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit221 ;
         crm:P81 "" ; 
-        crm:P167 _:place
+        crm:P167 _:place221
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit221
     crm:P67 &lt;&gt; ;
     crm:P4 "";
     crm:P51 "".
-_:place
+_:place221
     rdfs:label "";
-    crm:P107 &lt;&gt;.
+    crm:P67 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://ofunato.jp/Summary/info/81&gt;
@@ -4780,19 +4780,19 @@
     crm:P67 &lt;http://www.katch.ne.jp/~toba-shinmeisha/himatsuri/index.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/228/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit228 ;
         crm:P81 "平安時代" ; 
-        crm:P167 _:place
+        crm:P167 _:place228
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit228
     crm:P67 &lt;https://ja.wikipedia.org/wiki/鳥羽の火祭り&gt; ;
     crm:P4 "2019-12-21";
     crm:P51 "Urania".
-_:place
+_:place228
     rdfs:label "愛知県西尾市";
-    crm:P107 &lt;http://data.e-stat.go.jp/lod/sac/C23213-20110401&gt;.
+    crm:P67 &lt;http://data.e-stat.go.jp/lod/sac/C23213-20110401&gt;.
 &lt;https://ja.wikipedia.org/wiki/鳥羽の火祭り&gt;
     rdf:type crm:E42 .
 &lt;http://www.katch.ne.jp/~toba-shinmeisha/himatsuri/index.html&gt;
@@ -4865,19 +4865,19 @@
     crm:P67 &lt;https://www.all-iwami.com/spot/detail_1187.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/236/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit236 ;
         crm:P81 "" ; 
-        crm:P167 _:place
+        crm:P167 _:place236
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit236
     crm:P67 &lt;&gt; ;
     crm:P4 "";
     crm:P51 "".
-_:place
+_:place236
     rdfs:label "";
-    crm:P107 &lt;&gt;.
+    crm:P67 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://www.all-iwami.com/spot/detail_1187.html&gt;
@@ -4947,19 +4947,19 @@
     crm:P67 &lt;https://www.nihon-kankou.or.jp/miyagi/042145/detail/04566be2220112899&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/240/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit240 ;
         crm:P81 "" ; 
-        crm:P167 _:place
+        crm:P167 _:place240
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit240
     crm:P67 &lt;&gt; ;
     crm:P4 "";
     crm:P51 "".
-_:place
+_:place240
     rdfs:label "";
-    crm:P107 &lt;&gt;.
+    crm:P67 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://www.nihon-kankou.or.jp/miyagi/042145/detail/04566be2220112899&gt;
@@ -5050,19 +5050,19 @@
     crm:P67 &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/245/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit245 ;
         crm:P81 "室町末期頃" ; 
-        crm:P167 _:place
+        crm:P167 _:place245
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit245
     crm:P67 &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt; ;
     crm:P4 "";
     crm:P51 "加西市ふるさと創造部 文化・観光・スポーツ課".
-_:place
+_:place245
     rdfs:label "兵庫県加西市上万願寺町";
-    crm:P107 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S282201260&gt;.
+    crm:P67 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S282201260&gt;.
 &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt;
     rdf:type crm:E42 .
 &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt;
@@ -5139,19 +5139,19 @@
     crm:P67 &lt;http://db.pref.tottori.jp/bunkazainavi.nsf/bunkazai_web_view/ED924928115C630F4925796F0007FF1C?OpenDocument&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/250/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit250 ;
         crm:P81 "" ; 
-        crm:P167 _:place
+        crm:P167 _:place250
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit250
     crm:P67 &lt;&gt; ;
     crm:P4 "";
     crm:P51 "".
-_:place
+_:place250
     rdfs:label "";
-    crm:P107 &lt;&gt;.
+    crm:P67 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;http://db.pref.tottori.jp/bunkazainavi.nsf/bunkazai_web_view/ED924928115C630F4925796F0007FF1C?OpenDocument&gt;
@@ -5230,19 +5230,19 @@
     crm:P67 &lt;http://www.mishima-kankou.net/20180112/&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/253/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit253 ;
         crm:P81 "" ; 
-        crm:P167 _:place
+        crm:P167 _:place253
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit253
     crm:P67 &lt;&gt; ;
     crm:P4 "";
     crm:P51 "".
-_:place
+_:place253
     rdfs:label "";
-    crm:P107 &lt;&gt;.
+    crm:P67 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;http://www.mishima-kankou.net/20180112/&gt;
@@ -5337,19 +5337,19 @@
     crm:P67 &lt;http://www.yanaicci.or.jp/yanai/event/sinmei-f.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/264/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit264 ;
         crm:P81 "正保元年(1644年)" ; 
-        crm:P167 _:place
+        crm:P167 _:place264
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit264
     crm:P67 &lt;https://www.city-yanai.jp/soshiki/39/atsukishimmei.html&gt; ;
     crm:P4 "2019-02-11";
     crm:P51 "山口県柳井市".
-_:place
+_:place264
     rdfs:label "山口県柳井市阿月";
-    crm:P107 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100&gt;.
+    crm:P67 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100&gt;.
 &lt;https://www.city-yanai.jp/soshiki/39/atsukishimmei.html&gt;
     rdf:type crm:E42 .
 &lt;http://www.yanaicci.or.jp/yanai/event/sinmei-f.html&gt;
@@ -5444,19 +5444,19 @@
     crm:P67 &lt;https://www.town.nyuzen.toyama.jp/bunka/kyoiku/bunka/bunkazai/mukei/sainokami.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/266/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit266 ;
         crm:P81 "江戸時代" ; 
-        crm:P167 _:place
+        crm:P167 _:place266
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit266
     crm:P67 &lt;https://ja.wikipedia.org/wiki/塞の神まつり&gt; ;
     crm:P4 "2019-03-12";
     crm:P51 "なびお ".
-_:place
+_:place266
     rdfs:label "富山県下新川郡入善町上野邑町";
-    crm:P107 &lt;http://data.e-stat.go.jp/lod/sac/C16342-20141201&gt;.
+    crm:P67 &lt;http://data.e-stat.go.jp/lod/sac/C16342-20141201&gt;.
 &lt;https://ja.wikipedia.org/wiki/塞の神まつり&gt;
     rdf:type crm:E42 .
 &lt;https://www.town.nyuzen.toyama.jp/bunka/kyoiku/bunka/bunkazai/mukei/sainokami.html&gt;
@@ -5534,19 +5534,19 @@
     crm:P67 &lt;http://www.city.miura.kanagawa.jp/shakai/mukeiminzoku/mitonooshouronagasi01.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/269/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit269 ;
         crm:P81 "" ; 
-        crm:P167 _:place
+        crm:P167 _:place269
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit269
     crm:P67 &lt;&gt; ;
     crm:P4 "";
     crm:P51 "".
-_:place
+_:place269
     rdfs:label "";
-    crm:P107 &lt;&gt;.
+    crm:P67 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;http://www.city.miura.kanagawa.jp/shakai/mukeiminzoku/mitonooshouronagasi01.html&gt;
@@ -5638,19 +5638,19 @@
     crm:P67 &lt;http://www.sakurai-maibun.nara.jp/yorimichi/yorimiti6.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/277/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit277 ;
         crm:P81 "大同4年（809年）" ; 
-        crm:P167 _:place
+        crm:P167 _:place277
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit277
     crm:P67 &lt;https://ja.wikipedia.org/wiki/江包・大西の御綱&gt; ;
     crm:P4 "2019-02-09";
     crm:P51 "8-hachiro".
-_:place
+_:place277
     rdfs:label "奈良県桜井市江包、大西";
-    crm:P107 &lt;http://data.e-stat.go.jp/lod/sac/C29206-19700401&gt;.
+    crm:P67 &lt;http://data.e-stat.go.jp/lod/sac/C29206-19700401&gt;.
 &lt;https://ja.wikipedia.org/wiki/江包・大西の御綱&gt;
     rdf:type crm:E42 .
 &lt;http://www.sakurai-maibun.nara.jp/yorimichi/yorimiti6.html&gt;
@@ -5724,19 +5724,19 @@
     crm:P67 &lt;https://www.city.yamaguchi.lg.jp/site/movie/19833.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/278/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit278 ;
         crm:P81 "" ; 
-        crm:P167 _:place
+        crm:P167 _:place278
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit278
     crm:P67 &lt;&gt; ;
     crm:P4 "";
     crm:P51 "".
-_:place
+_:place278
     rdfs:label "";
-    crm:P107 &lt;&gt;.
+    crm:P67 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://www.city.yamaguchi.lg.jp/site/movie/19833.html&gt;
@@ -5805,19 +5805,19 @@
     crm:P67 &lt;https://www.pref.kagoshima.jp/ak01/chiiki/kagoshima/takarabako/traditional/akusekijimanoboze.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/298/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit298 ;
         crm:P81 "" ; 
-        crm:P167 _:place
+        crm:P167 _:place298
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit298
     crm:P67 &lt;&gt; ;
     crm:P4 "";
     crm:P51 "".
-_:place
+_:place298
     rdfs:label "";
-    crm:P107 &lt;&gt;.
+    crm:P67 &lt;&gt;.
 &lt;&gt;
     rdf:type crm:E42 .
 &lt;https://www.pref.kagoshima.jp/ak01/chiiki/kagoshima/takarabako/traditional/akusekijimanoboze.html&gt;
@@ -5900,19 +5900,19 @@
     crm:P67 &lt;http://mishimamura.com/ech/5560/&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/299/register&gt; ; 
     crm:P94 [
-        crm:P31 _:edit ;
+        crm:P31 _:edit299 ;
         crm:P81 "慶長三年" ; 
-        crm:P167 _:place
+        crm:P167 _:place299
     ];
     crm:P2 cate:p5 ;
     crm:P2 cate:practice .
-_:edit
+_:edit299
     crm:P67 &lt;http://mishimamura.com/ech/5560/&gt; ;
     crm:P4 "";
     crm:P51 "鹿児島県三島村".
-_:place
+_:place299
     rdfs:label "鹿児島県三島村硫黄島";
-    crm:P107 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S134210040&gt;.
+    crm:P67 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S134210040&gt;.
 &lt;http://mishimamura.com/ech/5560/&gt;
     rdf:type crm:E42 .
 &lt;http://mishimamura.com/ech/5560/&gt;

--- a/list_p5_added.xlsx
+++ b/list_p5_added.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20FE542-074F-1E4E-B948-F937E39D69D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F4788F-5046-AF48-84D4-2EBA67EC8D1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="361">
   <si>
     <t>管理対象ID</t>
   </si>
@@ -881,9 +881,6 @@
     <t>つきはまのえんずのわり</t>
   </si>
   <si>
-    <t>年1月11～16日</t>
-  </si>
-  <si>
     <t>　月浜のえんずのわりは、宮城県東松島市宮戸の月浜地区に伝承される小正月の鳥追いの行事で、子どもたちが岩屋でお籠もりをしてから、集団で家々を回り、害鳥を追い払う唱え言をいって、一年の豊作や無病息災を祈願する。
 　東松島市宮戸は、宮城県の北東部、松島湾の外縁をなす奥松島と呼ばれる島々の１つ、宮戸島に位置する。宮戸島は、松島湾では最大の島であり、えんずのわりが伝承されている月浜地区は、島の南端に位置する４０戸ほどの半農半漁の集落である。　えんずのわりは、この地区の子どもたちによって伝承されてきた行事である。かつては旧暦で行われていたが、昭和３０年代中頃から新暦で行うようになり、現在は１月１４日夜を中心に、６日間にわたって行われている。
 　行事の呼称である「えんずのわり」とは、当地の方言で「意地の悪い」ことを意味するとされ、農作物を荒らす意地の悪い鳥を追い払うのがこの行事であるという。
@@ -1089,9 +1086,6 @@
     <t>あくせきじまのぼぜ</t>
   </si>
   <si>
-    <t>毎年旧暦７月１６</t>
-  </si>
-  <si>
     <t>悪石島はトカラ列島のほぼ中央に位置するが、ここに来訪神に関する行事が伝えられている。この神は、ボゼと呼ばれ、異様な容姿をもち、畏(かしこ)くも怖ろしいものとされており、盆の最終日となる旧暦七月十六日の夕刻に現れ、人びとの邪気を追い祓う。
 　トカラ列島は、薩南諸島に属する島嶼群で、それらほぼ全島群をもって行政区分としての十島村を構成している。このうち、悪石島は面積約7・49㎢、周囲を約12・64㎞とし、現人口は約70人、世帯数は約40世帯である。およそ断崖絶壁に囲まれ、平坦な土地は少なく、大半は琉球竹で覆われれている。島の伝統的な生業は焼畑と漁業であったが、戦後、昭和27年の本土復帰、続く昭和28年の離島振興法などを契機に、島内の道路整備や港湾施設の改良が進められ、現金収入が進展してくると、従前の農漁業は衰退していった。今日では、肉牛を中心とする畜産業や通船作業が主な収入源となっている。
 　当地の集落は、島の西南にある港近くの浜集落と南部にある上集落の2つがあるが、ボゼが登場するのは後者である。上集落は、トンチと呼ぶ島の開祖の地を中心に家並みが展開する。集落西方には、単にテラあるいはテラ跡と称する広場があって、この奥手にムラの墓地がある。また、墓地のさらに西裏にはスバタケ、シバタテと呼ぶ海を臨む場所があり、ここはかつて出漁時に柴を立て、安全確認の標場としたところだという。一方、トンチの北東には公民館があり、古くは釈迦堂があったと伝え、やはり広場が設けられている。これらトンチ、テラ・墓地、シバタテ、公民館（釈迦堂）広場といった諸所が、島の盆行事が行われる主要な空間となっている。
@@ -1673,12 +1667,115 @@
 @prefix cate: &lt;https://w3id.org/ifcp/category/&gt; ."</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>公開日補足</t>
+    <rPh sb="0" eb="2">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>現</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="-webkit-standard"/>
+      </rPr>
+      <t>12月開催</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>現</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="-webkit-standard"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月開催</t>
+    </r>
+  </si>
+  <si>
+    <t>現1月開催</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>現9月開催</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>現2月開催</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>現8月開催</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>現10月開催</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>毎年1月11～16日</t>
+    <rPh sb="0" eb="1">
+      <t>my</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>毎年旧暦７月１６</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="-webkit-standard"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1872,6 +1969,25 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="-webkit-standard"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Tsukushi A Round Gothic Bold"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -2334,7 +2450,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2375,6 +2491,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2733,21 +2858,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W1" sqref="W1:W1048576"/>
+      <selection pane="bottomLeft" activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="10" max="10" width="11.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="31" customHeight="1">
+    <row r="1" spans="1:24" ht="31" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>102</v>
       </c>
@@ -2767,58 +2892,61 @@
         <v>105</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="T1" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="V1" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>352</v>
+      <c r="X1" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="409.6">
+    <row r="2" spans="1:24" ht="409.6">
       <c r="A2">
         <v>49</v>
       </c>
@@ -2837,76 +2965,82 @@
       <c r="F2" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="I2" t="s">
         <v>100</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="K2" t="s">
-        <v>214</v>
+      <c r="K2" s="11" t="s">
+        <v>296</v>
       </c>
       <c r="L2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M2" t="s">
         <v>85</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="S2" t="s">
+        <v>250</v>
+      </c>
+      <c r="T2" t="s">
         <v>251</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
+        <v>337</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="W2" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="S2" t="s">
-        <v>253</v>
-      </c>
-      <c r="T2" t="s">
-        <v>339</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="W2" s="9" t="str">
+      <c r="X2" s="9" t="str">
         <f>"ifcp:"&amp;A2&amp;"
     rdf:type crm:E1 ;
     rdfs:label """&amp;C2&amp;"""@ja ;
     rdfs:label """&amp;D2&amp;"""@ja-hrkt ;
     crm:P3 """""""&amp;E2&amp;""""""" ; 
-    crm:P4 """&amp;F2&amp;""" ; 
-    crm:P67 &lt;"&amp;G2&amp;"&gt; ;
+    crm:P170 [
+    crm:P164 """&amp;F2&amp;""" ; 
+    crm:P3 """&amp;G2&amp;"""
+    ];
+    crm:P67 &lt;"&amp;H2&amp;"&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/"&amp;A2&amp;"/register&gt; ; 
     crm:P94 [
         crm:P31 _:edit"&amp;A2&amp;" ;
-        crm:P81 """&amp;R2&amp;""" ; 
+        crm:P81 """&amp;S2&amp;""" ; 
         crm:P167 _:place"&amp;A2&amp;"
     ];
-    crm:P2 "&amp;I2&amp;" ;
-    crm:P2 "&amp;H2&amp;" .
+    crm:P2 "&amp;J2&amp;" ;
+    crm:P2 "&amp;I2&amp;" .
 _:edit"&amp;A2&amp;"
-    crm:P67 &lt;"&amp;Q2&amp;"&gt; ;
-    crm:P4 """&amp;U2&amp;""";
-    crm:P51 """&amp;V2&amp;""".
+    crm:P67 &lt;"&amp;R2&amp;"&gt; ;
+    crm:P4 """&amp;V2&amp;""";
+    crm:P51 """&amp;W2&amp;""".
 _:place"&amp;A2&amp;"
-    rdfs:label """&amp;S2&amp;""";
-    crm:P67 &lt;"&amp;T2&amp;"&gt;.
-&lt;"&amp;Q2&amp;"&gt;
+    rdfs:label """&amp;T2&amp;""";
+    crm:P67 &lt;"&amp;U2&amp;"&gt;.
+&lt;"&amp;R2&amp;"&gt;
     rdf:type crm:E42 .
-&lt;"&amp;G2&amp;"&gt;
+&lt;"&amp;H2&amp;"&gt;
     rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/"&amp;A2&amp;"/register&gt;
     rdf:type crm:E5 ;
-    crm:P4 """&amp;J2&amp;""" ;
-    crm:P67 """&amp;K2&amp;""" ."</f>
+    crm:P4 """&amp;K2&amp;""" ;
+    crm:P67 """&amp;L2&amp;""" ."</f>
         <v>ifcp:49
     rdf:type crm:E1 ;
     rdfs:label "甑島のトシドン"@ja ;
@@ -2915,7 +3049,10 @@
 　その内容は、伝承するそれぞれの集落で細部において相違が認められるものの、トシドンと呼ばれる神が人里を来訪するとの信仰に支えられており、大晦日（１２月３１日）の夜、トシドンに扮装した男性たちが子どものいる家々を訪れ、悪い子どもを戒める。
 　トシドンの扮装は、長い鼻に大きな口の奇怪な面を被り、藁蓑などの古い装いやシュロ（棕梠）の葉、ソテツ（蘇鉄）の葉などを纏ったもので、戸口で馬のとまる足音をさせて子どものいる家を訪れる。そして、大声で子供を脅かしたり、よい子になるよう諭したりし、子ども本人から勤惰などを問いただした後で、最後にトシモチ（年餅）と呼ばれる大きな餅を子どもに与えて去っていくという形態で共通している。
 　この行事は、年の初めや季節の変わり目に神々が訪れて、人びとに祝福を与える、あるいは神々が訪れることで年が改まるという趣旨の行事であり、類似の行事は全国的に分布をみるが、なかでも甑島のものは古態をとどめている事例といってよく、我が国古来の民間信仰や神観念の形態をよく示している典型例の１つとして極めて重要である。""" ; 
-    crm:P4 "毎年１２月３１日" ; 
+    crm:P170 [
+    crm:P164 "毎年１２月３１日" ; 
+    crm:P3 "現12月開催"
+    ];
     crm:P67 &lt;http://www.pref.kagoshima.jp/ab10/kyoiku-bunka/bunka/museum/shichoson/satumasendai/doshidon.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/49/register&gt; ; 
     crm:P94 [
@@ -2942,7 +3079,7 @@
     crm:P67 "89 - 95" .</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="409.6">
+    <row r="3" spans="1:24" ht="409.6">
       <c r="A3">
         <v>51</v>
       </c>
@@ -2961,83 +3098,92 @@
       <c r="F3" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G3" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3" t="s">
         <v>100</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>101</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="K3" t="s">
-        <v>215</v>
+      <c r="K3" s="12" t="s">
+        <v>297</v>
       </c>
       <c r="L3" t="s">
+        <v>213</v>
+      </c>
+      <c r="M3" t="s">
         <v>17</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="R3" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="S3" t="s">
+        <v>253</v>
+      </c>
+      <c r="T3" t="s">
+        <v>255</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="W3" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="R3" t="s">
-        <v>255</v>
-      </c>
-      <c r="S3" t="s">
-        <v>257</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="W3" s="9" t="str">
-        <f t="shared" ref="W3:W35" si="0">"ifcp:"&amp;A3&amp;"
+      <c r="X3" s="9" t="str">
+        <f t="shared" ref="X3:X35" si="0">"ifcp:"&amp;A3&amp;"
     rdf:type crm:E1 ;
     rdfs:label """&amp;C3&amp;"""@ja ;
     rdfs:label """&amp;D3&amp;"""@ja-hrkt ;
     crm:P3 """""""&amp;E3&amp;""""""" ; 
-    crm:P4 """&amp;F3&amp;""" ; 
-    crm:P67 &lt;"&amp;G3&amp;"&gt; ;
+    crm:P170 [
+    crm:P164 """&amp;F3&amp;""" ; 
+    crm:P3 """&amp;G3&amp;"""
+    ];
+    crm:P67 &lt;"&amp;H3&amp;"&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/"&amp;A3&amp;"/register&gt; ; 
     crm:P94 [
         crm:P31 _:edit"&amp;A3&amp;" ;
-        crm:P81 """&amp;R3&amp;""" ; 
+        crm:P81 """&amp;S3&amp;""" ; 
         crm:P167 _:place"&amp;A3&amp;"
     ];
-    crm:P2 "&amp;I3&amp;" ;
-    crm:P2 "&amp;H3&amp;" .
+    crm:P2 "&amp;J3&amp;" ;
+    crm:P2 "&amp;I3&amp;" .
 _:edit"&amp;A3&amp;"
-    crm:P67 &lt;"&amp;Q3&amp;"&gt; ;
-    crm:P4 """&amp;U3&amp;""";
-    crm:P51 """&amp;V3&amp;""".
+    crm:P67 &lt;"&amp;R3&amp;"&gt; ;
+    crm:P4 """&amp;V3&amp;""";
+    crm:P51 """&amp;W3&amp;""".
 _:place"&amp;A3&amp;"
-    rdfs:label """&amp;S3&amp;""";
-    crm:P67 &lt;"&amp;T3&amp;"&gt;.
-&lt;"&amp;Q3&amp;"&gt;
+    rdfs:label """&amp;T3&amp;""";
+    crm:P67 &lt;"&amp;U3&amp;"&gt;.
+&lt;"&amp;R3&amp;"&gt;
     rdf:type crm:E42 .
-&lt;"&amp;G3&amp;"&gt;
+&lt;"&amp;H3&amp;"&gt;
     rdf:type crm:E42 .   
 &lt;https://w3id.org/ifcp/"&amp;A3&amp;"/register&gt;
     rdf:type crm:E5 ;
-    crm:P4 """&amp;J3&amp;""" ;
-    crm:P67 """&amp;K3&amp;""" ."</f>
+    crm:P4 """&amp;K3&amp;""" ;
+    crm:P67 """&amp;L3&amp;""" ."</f>
         <v>ifcp:51
     rdf:type crm:E1 ;
     rdfs:label "男鹿のナマハゲ"@ja ;
     rdfs:label "おがのなまはげ"@ja-hrkt ;
     crm:P3 """男鹿のナマハゲは、昭和20年代まで小正月に行なわれていた来訪神の行事である。その内容は、各伝承地で細部において相違が認められるものの、集落内の若者たちが面をかぶり、ケデ（藁で編んだ蓑のようなもの）をつけて家々を訪れ、威厳のある所作で人々に接するという形態では共通している。
 　年の折り目（トシコシ）に神が来臨し、人々に祝福を与えるという趣旨の行事は、全国的に分布しているが、男鹿のものはその中でも特によく古態をとどめ、かつ濃密な分布を示しており、我が国古来の民間信仰の形態を示す典型例の一つとして極めて重要である。""" ; 
-    crm:P4 "毎年１２月３１日ないしは１月１６日" ; 
+    crm:P170 [
+    crm:P164 "毎年１２月３１日ないしは１月１６日" ; 
+    crm:P3 "現12月開催"
+    ];
     crm:P67 &lt;https://www.namahage-oga.akita.jp&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/51/register&gt; ; 
     crm:P94 [
@@ -3064,7 +3210,7 @@
     crm:P67 "97 - 99" .</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="409.6">
+    <row r="4" spans="1:24" ht="409.6">
       <c r="A4">
         <v>67</v>
       </c>
@@ -3083,28 +3229,31 @@
       <c r="F4" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G4" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="I4" t="s">
         <v>100</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>101</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="K4" t="s">
-        <v>216</v>
+      <c r="K4" s="12" t="s">
+        <v>298</v>
       </c>
       <c r="L4" t="s">
+        <v>214</v>
+      </c>
+      <c r="M4" t="s">
         <v>42</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>43</v>
       </c>
-      <c r="W4" s="9" t="str">
+      <c r="X4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:67
     rdf:type crm:E1 ;
@@ -3114,7 +3263,10 @@
 　この行事の内容は、細部において相違が認められるものの、天狗面・鼻ベチャ面・猿面、あるいは男面・女面などと呼ばれる仮面をつけて家々を訪れ、怠惰を戒めたり、災厄を祓って威厳のある所作でむら人に接するという形態では共通している。
 　また、正月６日、正月14日と20日、および節分の日の晩と期日を異にしながらも、その土地その土地に応じた形態で伝えられている点が注目される。
 　我が国古来の民間信仰の一形態を伝える顕著な例として重要である。""" ; 
-    crm:P4 "旧門前町は毎年１月２日（※指定当時は毎年１月６日）、輪島市は毎年１月１４・２０日（※指定当時）、旧内浦町は毎年節分（２月３日）" ; 
+    crm:P170 [
+    crm:P164 "旧門前町は毎年１月２日（※指定当時は毎年１月６日）、輪島市は毎年１月１４・２０日（※指定当時）、旧内浦町は毎年節分（２月３日）" ; 
+    crm:P3 "現1月開催"
+    ];
     crm:P67 &lt;https://www.hot-ishikawa.jp/event/4517&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/67/register&gt; ; 
     crm:P94 [
@@ -3141,7 +3293,7 @@
     crm:P67 "124 - 127" .</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="409.6">
+    <row r="5" spans="1:24" ht="409.6">
       <c r="A5">
         <v>109</v>
       </c>
@@ -3160,28 +3312,31 @@
       <c r="F5" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G5" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="I5" t="s">
         <v>100</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>101</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="K5" t="s">
-        <v>217</v>
+      <c r="K5" s="12" t="s">
+        <v>299</v>
       </c>
       <c r="L5" t="s">
+        <v>215</v>
+      </c>
+      <c r="M5" t="s">
         <v>85</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>93</v>
       </c>
-      <c r="W5" s="9" t="str">
+      <c r="X5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:109
     rdf:type crm:E1 ;
@@ -3193,7 +3348,10 @@
 　夜になると、この聖なる大綱を子ども組が裸で綱引きをする。
 　また、子ども組による十五夜踊りが坊津町や知覧町に伝承されている。特に知覧町のものは、ソラヨイともいい、子ども組が裸の上に、藁製のカサ・ミノ・ハカマをつけて踊る。その中でも知覧町中福良では、ワラコヅミという大きな傘を立て、それを回りながら踊り、最後に傘を引き倒すと、中から年長の子どもが現われるという、極めて特異な行事である。
 　この行事は、月を祭る地域的特色の濃厚な盛大な民俗行事であり、男の子ども組が中心になって行なわれている点でも注目されるものである。""" ; 
-    crm:P4 "毎年旧暦８月１５日" ; 
+    crm:P170 [
+    crm:P164 "毎年旧暦８月１５日" ; 
+    crm:P3 "現9月開催"
+    ];
     crm:P67 &lt;https://www.city.minamikyushu.lg.jp/bunkazai-kanri/bunka/shinko/bunkazai/chiranchiiki/minamisatsuma.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/109/register&gt; ; 
     crm:P94 [
@@ -3220,7 +3378,7 @@
     crm:P67 "200 - 202" .</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="409.6">
+    <row r="6" spans="1:24" ht="409.6">
       <c r="A6">
         <v>110</v>
       </c>
@@ -3239,46 +3397,49 @@
       <c r="F6" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="I6" t="s">
         <v>100</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>101</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="K6">
+      <c r="K6" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="L6">
         <v>203</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>17</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="R6" s="8" t="s">
         <v>259</v>
       </c>
       <c r="S6" t="s">
+        <v>257</v>
+      </c>
+      <c r="T6" t="s">
+        <v>258</v>
+      </c>
+      <c r="U6" t="s">
+        <v>339</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="W6" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="T6" t="s">
-        <v>341</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="V6" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="W6" s="9" t="str">
+      <c r="X6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:110
     rdf:type crm:E1 ;
@@ -3290,7 +3451,10 @@
 　これと相前後して各町内の空地には、ヨシズを天井にかけたカマクラをしつらえ、中に鎌倉大明神が祀られる。その後、中に莚を敷いて御神酒や餅を供え、相互に他のカマクラを訪ねあって交歓し、時折カマクラの前で鳥追い唄を歌って日を過ごす。
 　最終日には正月飾りを決まりの場所に寄せ集めて松ニヨを作り、町の男たちがキボラを吹いて集合する。火祭りの後、男たちは町を南北に二分して威勢のよい竹打ちをなす。
 　全国的に古い姿で伝承されている小正月行事が少なくなってきているなかで、この行事は古風をよく残しており、我が国の庶民信仰等の風俗慣習を知りうる典型例の１つとして重要である。""" ; 
-    crm:P4 "毎年２月１１～１５日" ; 
+    crm:P170 [
+    crm:P164 "毎年２月１１～１５日" ; 
+    crm:P3 "現2月開催"
+    ];
     crm:P67 &lt;https://www.town.misato.akita.jp/kamakura/2574.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/110/register&gt; ; 
     crm:P94 [
@@ -3317,7 +3481,7 @@
     crm:P67 "203" .</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="409.6">
+    <row r="7" spans="1:24" ht="409.6">
       <c r="A7">
         <v>124</v>
       </c>
@@ -3336,43 +3500,46 @@
       <c r="F7" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="I7" t="s">
         <v>100</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="K7">
+      <c r="K7" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="L7">
         <v>244</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>85</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>86</v>
       </c>
-      <c r="Q7" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="R7" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="S7" t="s">
+        <v>279</v>
+      </c>
+      <c r="T7" t="s">
+        <v>280</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="W7" t="s">
         <v>281</v>
       </c>
-      <c r="S7" t="s">
-        <v>282</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="V7" t="s">
-        <v>283</v>
-      </c>
-      <c r="W7" s="9" t="str">
+      <c r="X7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:124
     rdf:type crm:E1 ;
@@ -3384,7 +3551,10 @@
 　ショチュガマは、アラセツの前日までに金久の山腹にあるショチュガマ屋敷に片流れの藁葺き小屋（ショチュガマ）を作り、アラセツの早朝にグジが稲魂を招き、次いで7,80人が藁葺きの小屋の屋根に上り、祝い歌を歌いながらその小屋を揺り倒し、倒れた屋根の上で「八月踊り」を踊る行事である。
   ヒラセマンカイは、アラセツの夕方に神ヒラセ・女童【メーラビ】ヒラセという2つの岩の上でノロたちが中心となって歌い踊り、稲魂を招く行事である。マンカイとは、両手を招くように動かす時の踊りの所作をいう。
 　こうした行事は、かつては奄美の各地で行われていたようであるが、現存するのは秋名だけとなっている。南島におけるアラセツを迎える心意をよく伝えている行事として重要であるだけでなく、神を招いて神人交歓の遊びをする我が国の民俗芸能の古い要素をよく残すものとしても注目される。""" ; 
-    crm:P4 "毎年旧暦８月の初丙の日" ; 
+    crm:P170 [
+    crm:P164 "毎年旧暦８月の初丙の日" ; 
+    crm:P3 "現9月開催"
+    ];
     crm:P67 &lt;https://www.town.tatsugo.lg.jp/edu/event-bunka/rekishi-bunka/arasetsu.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/124/register&gt; ; 
     crm:P94 [
@@ -3411,7 +3581,7 @@
     crm:P67 "244" .</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="409.6">
+    <row r="8" spans="1:24" ht="409.6">
       <c r="A8">
         <v>131</v>
       </c>
@@ -3430,28 +3600,31 @@
       <c r="F8" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G8" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="I8" t="s">
         <v>100</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="K8">
+      <c r="K8" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L8">
         <v>257</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>28</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>29</v>
       </c>
-      <c r="W8" s="9" t="str">
+      <c r="X8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:131
     rdf:type crm:E1 ;
@@ -3463,7 +3636,10 @@
 　塚は村はずれの丘の稜線に沿って108基築かれており、規模は一般に高さ1㍍、直径30～40㎝で、留塚という両端の塚は一段と大きく、中央の2基は五重塚といって高さ2～2.5㍍、直径70㎝で、ほかの塚や留塚よりさらに大きく造られている。
 　行事は、15日未明に芝を切ってきて108の塚を築き直すことから始まり、真綿をよった燈心を取りつけた急須に石油を注ぎ燈明器として各塚に配備する。この際、五重塚と留塚、小平六の墓の側にある御公方塚には松根を置く。15日の夕刻6時、寺の境内で寄せ太鼓をし、一同が集合すると境内の小平六の墓に燈明をともし、笛・太鼓の行列で出発、堂前山の塚の百八燈に点火すると同時に仕掛花火も行われる。
 　猪俣の百八燈は、各地で行われる盆の百八燈の行事の中でも108の塚を築いたその上で盛大に火を焚く点で異色であり、亡魂を慰めるという趣意と相まって塚信仰の様相をよく示している。また、これらの行事が子供組・若衆組によって執行されることなどは注目すべきことで、盆行事の中に祖霊信仰の様相をうかがうことができる典型例として重要である。""" ; 
-    crm:P4 "毎年８月15日" ; 
+    crm:P170 [
+    crm:P164 "毎年８月15日" ; 
+    crm:P3 "現8月開催"
+    ];
     crm:P67 &lt;http://www.town.saitama-misato.lg.jp/admini/towninfo/ino108.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/131/register&gt; ; 
     crm:P94 [
@@ -3490,7 +3666,7 @@
     crm:P67 "257" .</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="409.6">
+    <row r="9" spans="1:24" ht="409.6">
       <c r="A9">
         <v>135</v>
       </c>
@@ -3509,28 +3685,31 @@
       <c r="F9" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="I9" t="s">
         <v>100</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>101</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="K9">
+      <c r="K9" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L9">
         <v>267</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>82</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>83</v>
       </c>
-      <c r="W9" s="9" t="str">
+      <c r="X9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:135
     rdf:type crm:E1 ;
@@ -3543,7 +3722,10 @@
 　ハタモチ巡行に加わるのは、御幣を捧持する役を代々務める家の当主と町内会長（郷長）、隣保班長（組頭）である。鉦を打ち鳴らしながら大草履などを安置してある白浜海岸に近い町の辻まで行き、御幣を大草履の台先に立てる。これが、合図となり、その辻で新嫁2人が各々の樽の上にあがり向き合い羽根突きをする。続いて、白浜海岸に出た青壮年男子が、若者組と壮年組とに分かれて玉の奪い合いを展開する。往時はワッカモン（若者組所属者たち）が大里地区と白浜地区とに分かれて激しく対抗し、玉を奪って背後に広がる麦畑を駈け廻ったと伝えられ、それを海中に投げ入れて一段落する（現在は、家屋が密集し、麦畑を駈け廻れない）。
 　次いで、晒の褌に手拭をつけた男たちは、2組に分かれ、路上で3度綱引きを場所を交替して行い、終了後、全員で大草履などを担ぎ、山の神神社に奉納する。途中、娘たちをつかまえその上に乗せて胴上げなども行われる。
 　この行事は、神仏に加護をもとめて生業の発展・除災招福を祈願するもので、ハゴイタツキ・タマゲリ・綱引きなどに宮相撲などが数多くあり、御幣の捧持役が世襲化であったり、ワッカモンにより行われるなど由来・内容等が典型的なものであり重要である。""" ; 
-    crm:P4 "毎年１月１６日" ; 
+    crm:P170 [
+    crm:P164 "毎年１月１６日" ; 
+    crm:P3 "現1月開催"
+    ];
     crm:P67 &lt;https://goto.nagasaki-tabinet.com/event/51078/&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/135/register&gt; ; 
     crm:P94 [
@@ -3570,7 +3752,7 @@
     crm:P67 "267" .</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="409.6">
+    <row r="10" spans="1:24" ht="409.6">
       <c r="A10">
         <v>138</v>
       </c>
@@ -3578,7 +3760,7 @@
         <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>139</v>
@@ -3589,28 +3771,31 @@
       <c r="F10" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G10" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="I10" t="s">
         <v>100</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>101</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="K10">
+      <c r="K10" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="L10">
         <v>271</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>37</v>
       </c>
-      <c r="W10" s="9" t="str">
+      <c r="X10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:138
     rdf:type crm:E1 ;
@@ -3623,7 +3808,10 @@
 　このような状態を数回繰り返した後、頃合いを見計らって、東西の若者衆がジンヤに用意しておいたアワセダケ（合せ竹）を担いできて、先程の路上地点で対峙し、担いできたアワセダケの根の方を相手方へ差し出し、２本の竹が交錯したところを抱きかかえるようにして引き合う。引き合いは、場所を変えることなく３度繰り返し、相手を自分の陣地に引き込んだ方がその年、豊年・豊漁が約束されると伝えられている。
 　その後、アワセダケ等を担いで東西に分かれて近くの磯浜に出て、各々の地区の若者衆頭の指図にしたがい、山と積まれた門松にイサミタケ・アワセダケなどをとりまとめてから点火する。これをサギチョウヤキと称する。燃えさかる間、一同は手を叩き「チョウチョウサギノチョウ」の唄を繰り返して囃したてる。
 　この行事は、歳神の来臨を仰ぎ、その神前において豊作・豊漁の年占を行うとともに、火祭りを通じて新年の再生を願う等、民衆の抱く心意気が顕著に現われている。特に、アワセダケを引き合うことは、この地方だけにみられる特色であり、年齢に応じた行事の役割分担のあり方などとも相まって、我が国民の生活文化の特色を示す正月行事の典型例の1つとして重要である。""" ; 
-    crm:P4 "毎年１月１５日" ; 
+    crm:P170 [
+    crm:P164 "毎年１月１５日" ; 
+    crm:P3 "現1月開催"
+    ];
     crm:P67 &lt;http://www.itoigawa-base.com/viewspot/culture_02_01.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/138/register&gt; ; 
     crm:P94 [
@@ -3650,7 +3838,7 @@
     crm:P67 "271" .</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="409.6">
+    <row r="11" spans="1:24" ht="409.6">
       <c r="A11">
         <v>140</v>
       </c>
@@ -3669,28 +3857,31 @@
       <c r="F11" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G11" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="I11" t="s">
         <v>100</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>101</v>
       </c>
-      <c r="J11" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="K11" t="s">
-        <v>218</v>
+      <c r="K11" s="12" t="s">
+        <v>303</v>
       </c>
       <c r="L11" t="s">
+        <v>216</v>
+      </c>
+      <c r="M11" t="s">
         <v>52</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>53</v>
       </c>
-      <c r="W11" s="9" t="str">
+      <c r="X11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:140
     rdf:type crm:E1 ;
@@ -3703,7 +3894,10 @@
   翌15日のヒバシラマツリでは、若者頭の指示に従い、若者・中老・寄老が役割分担で諸準備を整えた後、新盆を迎えた家の墓前で「念仏」を繰り返し、その後、場所を近くの祭り場に移した後も一同が輪となって「念仏」を繰り返す。
   深夜になって、祭り場に立てられた高さ10㍍ほどの柱松に点火する。この柱松は、杉の葉、茗荷の茎などをない込んだ3本の藁綱で支えられ、頂にしつらえられたツボキ（壺受け）に百足旗・扇旗・兎旗が挿し込まれている。このツボキをめがけて手松明を投げ上げ点火する慣例で、燃え落ちたところで行事が終わるが、柱松の倒れ方によって吉凶を占うとも伝えられている。
 　この盆祭行事には、この地域の人々が共同して一体となって伝統を継承してきており、特に、ネンブツイレやヒバシラマツリには、新精霊を供養し、祭るという祖霊信仰の趣旨が顕著である。行事の運営は公会【くがい】と称されてきた地域の公的組織に支えられ、若者・中老・寄老（耆老）による年齢階梯制に基づき、厳格・整然と実施されてきたことは、中部・近畿地方に濃厚に分布する盆の柱松行事のうちでも類稀なものであり、我が国民の生活文化の特色を示す盆行事の典型例として重要である。""" ; 
-    crm:P4 "毎年８月１４・１５日" ; 
+    crm:P170 [
+    crm:P164 "毎年８月１４・１５日" ; 
+    crm:P3 "現8月開催"
+    ];
     crm:P67 &lt;https://toba-archive.jp/content/detail.php?no=3991&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/140/register&gt; ; 
     crm:P94 [
@@ -3730,7 +3924,7 @@
     crm:P67 "273 - 274" .</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="409.6">
+    <row r="12" spans="1:24" ht="409.6">
       <c r="A12">
         <v>145</v>
       </c>
@@ -3749,40 +3943,43 @@
       <c r="F12" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="I12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="L12" t="s">
+        <v>217</v>
+      </c>
+      <c r="M12" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="S12" t="s">
+        <v>283</v>
+      </c>
+      <c r="T12" t="s">
         <v>284</v>
       </c>
-      <c r="H12" t="s">
-        <v>100</v>
-      </c>
-      <c r="I12" t="s">
-        <v>101</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="K12" t="s">
-        <v>219</v>
-      </c>
-      <c r="L12" t="s">
-        <v>70</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="R12" t="s">
-        <v>285</v>
-      </c>
-      <c r="S12" t="s">
-        <v>286</v>
-      </c>
-      <c r="T12" t="s">
-        <v>343</v>
-      </c>
-      <c r="W12" s="9" t="str">
+      <c r="U12" t="s">
+        <v>341</v>
+      </c>
+      <c r="X12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:145
     rdf:type crm:E1 ;
@@ -3794,7 +3991,10 @@
 　行事の準備は、地区の初寄り合いからはじまり、事前における桐の葉の採集・乾燥、ハギノコ（萩の木の枝から葉を摘み取り、乾燥させたもの）の用意、かずら（藤蔓）切り、張り綱作りなどが地区民の役割分担で進行される。また、火祭り行事当日の日中には、総出（1戸1人ずつ出役）でハチ（胴木のいただきに取り付けられる鉢状のもの。口径・深さともに1㍍余り）作り、胴木作り（柱松の本体となる松丸太をかずらの皮で結束し、順々に継ぎ足し長くしていく）などした後、柱松にハチ・張り綱などを取り付ける。お祓いの後、宰領の合図により手製の道具を使って立て起こして行く。別に、タイ（投げ上げ用の松明。肥松の細片をかずらで結束し、緒を付けたもの）が各自で用意される。
 　行事は、寄せ太鼓を合図に夜8時頃から開始される。現在は、2、3本の柱松が立つ。このうち大型のものは地上10間以上の高さで、あらかじめ準備されている種火からタイに火を移し、思い思いにハチを目指して火のついたタイを投げ上げて点火を競う。ハチの取り付けが高く、かつその口径が狭いので容易ではないものの、誰かが点火に成功し柱松が炎上する段になると、迎え火と称して全員がタイを投げ上げるとともに、シャギリと呼ばれる撥さばきで太鼓を叩いて囃し締めくくるのである。
 　この行事には、柱松を灯明に見立て、それを高くすることで献灯の心を表現したとの伝承が付着し、平年には12間、閏年には13間の高さに立てたとか、15、6間の高さのために往時炎上させるのに、2、3夜を要したことがあったといわれている。また、柱松の点火に競り勝った者には幸運がもたらされるとも占った。五穀豊穣・家内安全のための除災と年占とを伴う夏の火祭りの典型的なものである。""" ; 
-    crm:P4 "毎年８月１５日（祖生中村）、毎年８月１９日（祖生山田）、毎年８月２３日（祖生落合）" ; 
+    crm:P170 [
+    crm:P164 "毎年８月１５日（祖生中村）、毎年８月１９日（祖生山田）、毎年８月２３日（祖生落合）" ; 
+    crm:P3 "現8月開催"
+    ];
     crm:P67 &lt;http://www.sea.icn-tv.ne.jp/~sosym/&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/145/register&gt; ; 
     crm:P94 [
@@ -3821,7 +4021,7 @@
     crm:P67 "285 - 288" .</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="409.6">
+    <row r="13" spans="1:24" ht="409.6">
       <c r="A13">
         <v>156</v>
       </c>
@@ -3840,31 +4040,34 @@
       <c r="F13" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="G13" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="I13" t="s">
         <v>100</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>101</v>
       </c>
-      <c r="J13" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="K13">
+      <c r="K13" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13">
+        <v>305</v>
+      </c>
+      <c r="M13" t="s">
         <v>45</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>46</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>47</v>
       </c>
-      <c r="W13" s="9" t="str">
+      <c r="X13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:156
     rdf:type crm:E1 ;
@@ -3878,7 +4081,10 @@
 　15日夕方、厄年の世話役6人が使者となり、火元の家に「火元貰い」に行く。火元の主人は白丁に烏帽子の装束に着替え、床の間の正面に据えられた道祖神木像を拝み、その前で火打石で火をおこし、種火を弓張提灯に移し、この火をオンガラの大松明に点火する。
 　午後8時すぎ、松明が道祖神場に到着すると、いよいよ道祖神の火祭りが始まる。厄年以外の村の男たちが火付役で元火の火をオンガラの束に移し、社殿に投げつける。これに対して厄年の男たちは火消役になり、社殿前面に25歳の青年たちが、社殿上には42歳の男たちが陣取って応戦し、松の枝でオンガラの火を叩き消す。激しい攻防戦が社殿棟梁の合図で終結すると手締めが行われて、社殿に火が入れられる。炎に包まれた社殿には、初灯籠が順番に立てかけられ、燃やされる。
 　この行事は、長野県北信地方の小正月行事のうち、厄払いの性格や火をめぐる競技的な内容、子どもの成長祝いの性格など地域的特色が豊かである。""" ; 
-    crm:P4 "毎年１月１５日" ; 
+    crm:P170 [
+    crm:P164 "毎年１月１５日" ; 
+    crm:P3 "現1月開催"
+    ];
     crm:P67 &lt;https://nozawakanko.jp/record/dosojin/&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/156/register&gt; ; 
     crm:P94 [
@@ -3905,7 +4111,7 @@
     crm:P67 "305" .</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="409.6">
+    <row r="14" spans="1:24" ht="409.6">
       <c r="A14">
         <v>158</v>
       </c>
@@ -3924,28 +4130,31 @@
       <c r="F14" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G14" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="I14" t="s">
         <v>100</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>101</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="K14" t="s">
-        <v>220</v>
+      <c r="K14" s="12" t="s">
+        <v>305</v>
       </c>
       <c r="L14" t="s">
+        <v>218</v>
+      </c>
+      <c r="M14" t="s">
         <v>95</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>96</v>
       </c>
-      <c r="W14" s="9" t="str">
+      <c r="X14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:158
     rdf:type crm:E1 ;
@@ -3960,7 +4169,10 @@
 　野原では、全戸から主婦と小学校高学年の男子が参加するが、成人男子と少女は行事に参加しない。１人の少年が仮面を被り、その他の少年は、扮装はせず行列に加わる。そのうちの２人が法螺貝を吹き、１人が小太鼓を打って行列の先導をする。その後に婦人が２列縦隊で続く。
 　行列は大御嶽【ウプウタキ】の近くまで行って礼拝し、そこの広場で円陣をつくって声を出しながら左回りする。四辻でも同様に行い、さらに１年以内に新築した家の周囲を巡って祓い清める儀礼を行う。村の東から西へ行進し、西の村はずれで身にまとった植物の葉を捨てて終了する。
 　パーントゥは、海の彼方からやってくる神の１つと考えられており、南西諸島にいくつかの事例を見ることができるが、我が国の各地に散見する来訪神と同列に据えて眺める必要があり、比較研究の上からも重要な行事である。""" ; 
-    crm:P4 "毎年陰暦９月上旬（島尻），毎年陰暦１２月最後の丑の日（野原）（" ; 
+    crm:P170 [
+    crm:P164 "毎年陰暦９月上旬（島尻），毎年陰暦１２月最後の丑の日（野原）（" ; 
+    crm:P3 "現10月開催"
+    ];
     crm:P67 &lt;https://www.tabirai.net/sightseeing/column/0003469.aspx&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/158/register&gt; ; 
     crm:P94 [
@@ -3987,7 +4199,7 @@
     crm:P67 "307 - 308" .</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="409.6">
+    <row r="15" spans="1:24" ht="409.6">
       <c r="A15">
         <v>162</v>
       </c>
@@ -4006,46 +4218,49 @@
       <c r="F15" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G15" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="I15" t="s">
         <v>100</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>101</v>
       </c>
-      <c r="J15" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="K15">
+      <c r="K15" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="L15">
         <v>317</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>76</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>77</v>
       </c>
-      <c r="Q15" s="8" t="s">
+      <c r="R15" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="S15" t="s">
+        <v>262</v>
+      </c>
+      <c r="T15" t="s">
+        <v>264</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="V15" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="W15" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="R15" t="s">
-        <v>264</v>
-      </c>
-      <c r="S15" t="s">
-        <v>266</v>
-      </c>
-      <c r="T15" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="U15" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="V15" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="W15" s="9" t="str">
+      <c r="X15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:162
     rdf:type crm:E1 ;
@@ -4063,7 +4278,10 @@
 　回り終えた一番松明は境内から総門を潜って霰川の堤防にシオイガキに向かう。
 　大松明のシオイガキとともに鬼のシオイガキが行われる。大松明の明かりを避け建物の陰を縫いながら霰川へと向かい、終了後は本殿に一気に駆け込む。ここで、鐘楼の鐘が七・五・三と打たれる。これをヤクガネといいすべての行事が終了したことを示すもので、勝田氏が務めることとなっている。
 　この行事は、その規模においても特筆される火祭りである。小正月の火祭りに追儺の儀式が結び付いたもので、周辺の同種の行事の存在から天台修験の影響も推測される。行事は種蒔き神事などの農耕儀札や、鬼役が人目にふれずに行動すること、大松明のシオイガキなどに特色ある形態を残していること、大松明の奉納やタイマツマワシを玉垂宮の氏子が務め、鉾面神事や鬼役・数取り役・ヤクガネ打ちなどの主要な役が特定の世襲の家筋で務められるなど、地域と社寺が一体となって執行していることなど、多様な要素と内容とを具備しており、この地方の年頭の火祭り行事を代表するものである。""" ; 
-    crm:P4 "毎年１月７日" ; 
+    crm:P170 [
+    crm:P164 "毎年１月７日" ; 
+    crm:P3 "現1月開催"
+    ];
     crm:P67 &lt;https://tamataregu.or.jp/oniyo&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/162/register&gt; ; 
     crm:P94 [
@@ -4090,7 +4308,7 @@
     crm:P67 "317" .</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="409.6">
+    <row r="16" spans="1:24" ht="409.6">
       <c r="A16">
         <v>167</v>
       </c>
@@ -4109,46 +4327,49 @@
       <c r="F16" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="G16" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="I16" t="s">
         <v>100</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>101</v>
       </c>
-      <c r="J16" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="K16">
+      <c r="K16" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="L16">
         <v>325</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>59</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>62</v>
       </c>
-      <c r="Q16" s="8" t="s">
+      <c r="R16" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="S16" t="s">
+        <v>267</v>
+      </c>
+      <c r="T16" t="s">
         <v>268</v>
       </c>
-      <c r="R16" t="s">
+      <c r="U16" t="s">
+        <v>343</v>
+      </c>
+      <c r="V16" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="W16" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="S16" t="s">
-        <v>270</v>
-      </c>
-      <c r="T16" t="s">
-        <v>345</v>
-      </c>
-      <c r="U16" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="V16" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="W16" s="9" t="str">
+      <c r="X16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:167
     rdf:type crm:E1 ;
@@ -4165,7 +4386,10 @@
   またこの日、鬼役とカッテ役が中心となり、朝から念仏寺に集まって鬼はしりの準備をする。これは、鬼の井戸への道作り、鬼の井戸の井戸替え、松明の製作などである。鬼の井戸は以前は吉野川に近接してあったが、洪水に遭い現在では念仏寺境内の一隅に移されている。松明は鬼役用3本とカッテ役用1本、迎え松明1本の計5本を、それぞれの役に当たった家で作る。松明は長さ60㎝、太さ4.5㎝ほどの松の角板を輪に並べ、底面の直径30㎝、口径50㎝ほどの筒を作り、これに紙を巻いた藁縄を二重にして五か所結んで止め、燃焼部分として小割にした肥松を差し込んだ、総高1.1㍍、重さ約60㎏ほどのものである。この肥松同士はハナワという親指大の太さの紙縒で輪に結ぶ。松明の本体は4年目ごとに作り替え、肥松は毎年新調される。なお、迎え松明は直径15㎝ほどに細く作り、カッテ役用の松明は鬼用の松明よりやや小さめに作られる。
 　この日から西金寺の住職によって念仏寺で修正会の法要が始められる。
 　14日午後1時頃より西金寺の住職を導師として旧坂合部郷内の降霊寺・転法輪寺・生蓮寺・吉祥寺の住職と、郷内に檀家をもつ野原の金剛寺の住職が加わり、大般若経600巻の転読が行われる。この間に本尊の裏側で鬼役が衣装を整える。転読が終了すると昼の鬼はしりが行われ、同時に本尊背後の板壁を棒で叩く阿弥陀さんの肩叩きが行われる。""" ; 
-    crm:P4 "毎年１月１４日" ; 
+    crm:P170 [
+    crm:P164 "毎年１月１４日" ; 
+    crm:P3 "現1月開催"
+    ];
     crm:P67 &lt;https://www.city.gojo.lg.jp/kankou/dentou/4032.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/167/register&gt; ; 
     crm:P94 [
@@ -4192,7 +4416,7 @@
     crm:P67 "325" .</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="409.6">
+    <row r="17" spans="1:24" ht="409.6">
       <c r="A17">
         <v>179</v>
       </c>
@@ -4211,28 +4435,31 @@
       <c r="F17" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="G17" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="I17" t="s">
         <v>100</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>101</v>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="K17">
+      <c r="K17" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="L17">
         <v>337</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>31</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>32</v>
       </c>
-      <c r="W17" s="9" t="str">
+      <c r="X17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:179
     rdf:type crm:E1 ;
@@ -4248,7 +4475,10 @@
 　午後７時頃、サイトに火をつける。昔はアキの方から点火し、その順番は厳しく守られていたというが、現在は山王のサイトを最初に点火し、次々に火をつける。宮総代が「ドゥミドンヤ」と唱えながら点火し、サイトが燃え盛り、倒れそうになると綱を引いてアキの方に倒す。集まった人びとは、木の枝につけた福団子や竹竿の先に吊り下げた福団子をサイトの火であぶって食べる。
 　サイトの残り火が燃え上がっている頃、渚でヤンナゴッコが行われる。褌姿の青年10数人が、ソリを引いて海に飛び込むと、浜に残っている子どもたちに大人が加勢して、海と陸との綱引きが始まる。ヤンナゴッコは陸の幸と海の幸を相手に与えないように競い合う意味で、必ず陸方が勝つことになっている。海方の青年たちは魚であると言い伝えられており、それを引き上げることによって、豊漁が予祝されるのである。人びとはソリを曳いて、それぞれの地区に戻る。隣の地区のソリと出会ったりすると、大きな声で伊勢音頭を歌って気勢をあげ、地区内を一巡して、塞の神に到着すると、さらにここ一番と大声で歌う。
 　小正月の火祭りは全国に分布するが、関東地方や中部地方のものは塞の神と結びつき、さまざまな展開をみせている。大磯の左義長は、関東地方にあって、とりわけ壮大な規模をもつ代表的な行事であり、一番息子やオカリコの行事が行われたり、豊漁を祈願する予祝儀礼であるヤンナゴッコが行われるなどさまざまな行事を包含し、地域的特徴をよく示している。""" ; 
-    crm:P4 "毎年１月第三土曜日" ; 
+    crm:P170 [
+    crm:P164 "毎年１月第三土曜日" ; 
+    crm:P3 "現1月開催"
+    ];
     crm:P67 &lt;http://www.town.oiso.kanagawa.jp/isotabi/matsuri_event/matsuri/sagichou.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/179/register&gt; ; 
     crm:P94 [
@@ -4275,7 +4505,7 @@
     crm:P67 "337" .</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="409.6">
+    <row r="18" spans="1:24" ht="409.6">
       <c r="A18">
         <v>188</v>
       </c>
@@ -4294,28 +4524,31 @@
       <c r="F18" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="G18" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="I18" t="s">
         <v>100</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>101</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="K18" t="s">
-        <v>221</v>
+      <c r="K18" s="12" t="s">
+        <v>309</v>
       </c>
       <c r="L18" t="s">
+        <v>219</v>
+      </c>
+      <c r="M18" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="W18" s="9" t="str">
+      <c r="X18" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:188
     rdf:type crm:E1 ;
@@ -4332,7 +4565,10 @@
 　一番鳥はモチモライともいい、このときだけ各家を訪問する。組頭役の中学生はサエの神小屋に祀られていたマラを持ち、一人が太鼓をたたき、数人が大きな布袋を持ってまわる。他の子どもたちはタラの木で作った長さ80㎝ほどの初嫁棒を持つ。材料となるタラの木は、1月6日のタラ迎えの日に山から伐ってきたもので、一部は初嫁棒に、一部はゴンギョウにした。大森地区では、14日までにゴンギョウを作り、15日朝に玄関・裏口・小屋や蔵の門口にヤナギの枝とユズリハとともに掛けて魔除けにする。
 　初嫁のいる家では、初嫁が晴れ着を着て座敷の中央の座布団に座ると、組頭が初嫁の前にマラを投げ出し、子どもたちは初嫁棒で畳をつつきながら3回初嫁の周りを廻まわり、「初嫁出はた。初嫁出はた。つつくは今だ」と嫁つつき唄を歌う。子どもたちは甘酒を振る舞われ、大きな重ね餅をもらう。子どもたちは鳥追いに用いたマラをサエの神の祠に納め、ヤドで餅と御菓子を分配して行事が終わる。
 　この行事は、秋田県ではこの地域だけに見られる特色ある小正月行事であり、また全国各地に伝えられてきた小正月行事の典型例の一つとしても重要である。""" ; 
-    crm:P4 "毎年１月１５日" ; 
+    crm:P170 [
+    crm:P164 "毎年１月１５日" ; 
+    crm:P3 "現1月開催"
+    ];
     crm:P67 &lt;https://common3.pref.akita.lg.jp/genkimura/village/detail.html?cid=24&amp;vid=4&amp;id=1130&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/188/register&gt; ; 
     crm:P94 [
@@ -4359,7 +4595,7 @@
     crm:P67 "352 - 353" .</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="409.6">
+    <row r="19" spans="1:24" ht="409.6">
       <c r="A19">
         <v>195</v>
       </c>
@@ -4378,28 +4614,31 @@
       <c r="F19" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="G19" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I19" t="s">
         <v>100</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>101</v>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="K19">
+      <c r="K19" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="L19">
         <v>359</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>25</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>26</v>
       </c>
-      <c r="W19" s="9" t="str">
+      <c r="X19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:195
     rdf:type crm:E1 ;
@@ -4419,7 +4658,10 @@
 　鳥追いは、ヨンドリ・ヨナカドリ・ヨアケドリ・アサドリの４回行われる。このうちヨンドリはアマハゲのすぐ後に続いてまわる。滝ノ浦ではヨンドリとヨアケドリは青年が、ヨナカドリとアサドリは子ども組が行ったという。現在行われている鳥崎では子どもたちの行事で、太鼓に合わせて鳥追い唄を歌いながら集落内をまわっている。
 　ホンテ焼きは、女鹿では以前は子どもたち、現在は青年達が門松や注連縄とともにケンダンを焼いている。滝ノ浦では家ごとに行っており、鳥崎では子どもたちが上ノ山のホンテ焼き場で門松・古札類とケンダンを焼いている。
 　遊佐のアマハゲは、男鹿のナマハゲなどと同系統の小正月の来訪神の行事であるが、包丁などは持たず、新年の祝福と豊作を約束して護符の餅をやりとりするなどの特色を有しており、滝ノ浦のように無言で独特の所作を行うなどの地域的特色も有している。また、来訪神と鳥追い・ホンテ焼きなどが組み合わされて伝承されている点でも小正月行事の典型的なものとして重要である。""" ; 
-    crm:P4 "毎年１月１日（滝ノ浦）、３日（女鹿）、６日（鳥崎）" ; 
+    crm:P170 [
+    crm:P164 "毎年１月１日（滝ノ浦）、３日（女鹿）、６日（鳥崎）" ; 
+    crm:P3 "現1月開催"
+    ];
     crm:P67 &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/195/register&gt; ; 
     crm:P94 [
@@ -4446,7 +4688,7 @@
     crm:P67 "359" .</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="409.6">
+    <row r="20" spans="1:24" ht="409.6">
       <c r="A20">
         <v>204</v>
       </c>
@@ -4465,28 +4707,31 @@
       <c r="F20" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="G20" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="I20" t="s">
         <v>100</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>101</v>
       </c>
-      <c r="J20" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="K20">
+      <c r="K20" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="L20">
         <v>374</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>12</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>15</v>
       </c>
-      <c r="W20" s="9" t="str">
+      <c r="X20" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:204
     rdf:type crm:E1 ;
@@ -4504,7 +4749,10 @@
 　参加者は、宿にひきあげると風呂に入ってカサコシに参加する。以前は風呂に入らず、宿の裏側を流れている二俣川に入って禊ぎをしたという。カサコシも宿で行っていたが、平成４年頃から集会所でしている。
 　米川では、初午の日は水かぶりの一行が通り過ぎるまでは、色のついたものを食べることが禁じられており、これを破ると火早くなるといわれ、火災が発生しやすくなるといわれている。
 　この行事は、初午の日に行われる火伏せの行事であるが、同時に参加者が異装をして正体がわからないようにして現れるなど、小正月の異形異装の来訪者の行事の要素も併せもっている。また、町内在住者以外の男性の参加を認めない、水かぶりの一行が家の前を通り過ぎるまで、色のついたものを食べないという禁忌も厳格に守られている。宮城県北部における初午の火伏せ行事の中でも代表的なものであり、地域的特色もみられるものである。""" ; 
-    crm:P4 "毎年２月初午" ; 
+    crm:P170 [
+    crm:P164 "毎年２月初午" ; 
+    crm:P3 "現2月開催"
+    ];
     crm:P67 &lt;https://www.city.tome.miyagi.jp/syogaigakusyu/shisejoho/bunkazai/raihousin.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/204/register&gt; ; 
     crm:P94 [
@@ -4531,7 +4779,7 @@
     crm:P67 "374" .</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="409.6">
+    <row r="21" spans="1:24" ht="409.6">
       <c r="A21">
         <v>218</v>
       </c>
@@ -4550,28 +4798,31 @@
       <c r="F21" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="G21" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="I21" t="s">
         <v>100</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>101</v>
       </c>
-      <c r="J21" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="K21">
+      <c r="K21" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="L21">
         <v>390</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>79</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>80</v>
       </c>
-      <c r="W21" s="9" t="str">
+      <c r="X21" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:218
     rdf:type crm:E1 ;
@@ -4586,7 +4837,10 @@
 　行事の当日は、夕方から、藁蓑や笠などの衣装類や御幣、天狗面などの道具が供え置かれている熊野権現社に一同で参り、それらを受けて身につけた後、行事が始まる。カセドリ役の2人は、熊野権現社の鳥居の外で待機し、拝殿の前にいる提灯持ちの合図で、雄役、次いで雌役の順で、割れた青竹の先を地面に擦りつけながら拝殿内に走り込む。そして、カセドリは顔を伏せて屈んだ姿勢をとると、青竹を拝殿の畳の上に小刻みに激しく打ち付けて鳴らす。これは鳥が飛び立つときの羽音を表現しているとも、またこの音で悪霊を退散させるともいわれている。
 　その後、提灯持ちの合図で拝殿から出たカセドリ役は、青竹の先を地面に擦りながら小走りに熊野権現社の周囲を右回りに3周し、最後に再び拝殿内へ駆け上がって青竹を打ち鳴らす。この熊野権現社での儀礼が終了すると、地区内の各家を訪問するため、提灯持ち、カセドリ、天狗持ち、御幣持ち、籠担いの順で行列をつくって神社を出発する。
 　見島地区は、23の戸数があり、1年交替で東回り、西回りとカセドリの一行が家々を巡る順番を決めている。カセドリは、この道中、青竹を地面に引きずって音を立てながら暗い夜道を歩いていき、各家を巡る間は無言で通す。そして、カセドリの一行は、屋敷内に入ると、まず提灯持ちの1人がその家の主人に挨拶に行き、カセドリの到着を伝える。天狗持ち、御幣持ち、籠担いは、屋敷の庭で待機している。その家の者が全員揃い、用意が整うと、提灯持ちが玄関口で合図をし、カセドリ役が雄役、雌役の順で、青竹の先を地面に擦りつけながら家内に勢いよく走り込む。かつては、土間から座敷に上がり込むことが多かったが、近年は玄関口から飛び込んで、上がりかまちで青竹を打ち鳴らすことが多くなっている。しばらく青竹を鳴らすと、ころあいをみてその家の者が酒や茶などをカセドリに振る舞う。カセドリは終始体を屈めたままで応じる（カセドリの顔をみると幸運を授かるという）。最後に青竹を打ち鳴らして外に出ると、提灯持ちが祝儀をもらい、大福帳を渡す。全戸をまわると神社に戻り拝殿で青竹を打ち鳴らして終了する。""" ; 
-    crm:P4 "毎年２月第二土曜日" ; 
+    crm:P170 [
+    crm:P164 "毎年２月第二土曜日" ; 
+    crm:P3 "現2月開催"
+    ];
     crm:P67 &lt;https://saga-otakara.jp/search/detail.php?id=5346&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/218/register&gt; ; 
     crm:P94 [
@@ -4613,7 +4867,7 @@
     crm:P67 "390" .</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="409.6">
+    <row r="22" spans="1:24" ht="409.6">
       <c r="A22">
         <v>221</v>
       </c>
@@ -4632,28 +4886,31 @@
       <c r="F22" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="G22" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="I22" t="s">
         <v>100</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>101</v>
       </c>
-      <c r="J22" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="K22">
+      <c r="K22" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="L22">
         <v>392</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>9</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>10</v>
       </c>
-      <c r="W22" s="9" t="str">
+      <c r="X22" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:221
     rdf:type crm:E1 ;
@@ -4671,7 +4928,10 @@
 　行事の準備は、1月15日午後から吉浜地区の共同施設で行われる。スネカに扮する男性たちが集合して面や衣装などを身に着け、また、スネカ役の各集落への割り振りなどが決められる。このときにスネカ役を初めて経験する者には、年輩者からスネカの威嚇の仕方や歩き方などの所作が教えられる。こうして準備が整い、日が沈むのを待って行事が始められる。
 　夜になると、各集落ごとにスネカが一軒一軒家々を回って歩く。スネカは、訪問する家の庭先に着くとゴオッ、ゴオッと鼻を鳴らしながら玄関口に向かい、戸をガタガタと揺すったり、爪で引っ掻いたりしてから戸を開けて、腰を屈めた姿勢で家内に入る。そして、上がりかまちに足をかけたり、土間から座敷に上がり込んだりして、キリハを振り上げて威嚇をする。家々では、家族一同がスネカの訪問を待って座敷に集まっており、小さい子どもたちはスネカの恐ろしい姿を見て、泣きわめいたり、逃げ出そうとしたりする。
 　スネカは、家人の近くににじり寄り、「カバネヤミ（怠け者）いねえが」「泣くワラシいねえが、言うこと聞かねワラシいねえが」などと声を張り上げる。家人が「スネカ様、どっから来やした」と聞くと、スネカは、「五葉山から来た」、あるいは「天狗岩から来た」などと答え、しばらく座敷を歩き回りながら、恐ろしい形相で怠け者を捜す素振りをしたり、親に抱かれた幼児や逃げ回る子どもたちを威嚇する。家人は、「カバネヤミも、泣くワラシもいねえがら、餅あげっから帰ってけらっせん」などと言って、スネカの退散を促す。""" ; 
-    crm:P4 "毎年１月１５日" ; 
+    crm:P170 [
+    crm:P164 "毎年１月１５日" ; 
+    crm:P3 "現1月開催"
+    ];
     crm:P67 &lt;https://ofunato.jp/Summary/info/81&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/221/register&gt; ; 
     crm:P94 [
@@ -4698,7 +4958,7 @@
     crm:P67 "392" .</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="409.6">
+    <row r="23" spans="1:24" ht="409.6">
       <c r="A23">
         <v>228</v>
       </c>
@@ -4717,46 +4977,49 @@
       <c r="F23" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="G23" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="I23" t="s">
         <v>100</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>101</v>
       </c>
-      <c r="J23" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="K23">
+      <c r="K23" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="L23">
         <v>399</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>49</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>50</v>
       </c>
-      <c r="Q23" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="R23" t="s">
+      <c r="R23" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="S23" t="s">
+        <v>270</v>
+      </c>
+      <c r="T23" t="s">
         <v>272</v>
       </c>
-      <c r="S23" t="s">
-        <v>274</v>
-      </c>
-      <c r="T23" t="s">
-        <v>346</v>
-      </c>
-      <c r="U23" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="V23" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="W23" s="9" t="str">
+      <c r="U23" t="s">
+        <v>344</v>
+      </c>
+      <c r="V23" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="W23" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="X23" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:228
     rdf:type crm:E1 ;
@@ -4776,7 +5039,10 @@
 　祭り当日、祭り参加者は午後2時頃に社務所に集合し、晒の下帯に白足袋・鉢巻を付けた姿に身を調え、神男を先頭に宮係の先導で隊列を組んで浜に行き、ミソギをする。海中でのミソギは、福地の神男が御幣を付けた竹棹を海に投げ入れ、これを乾地の神男が拾って終わる。その後ミソギの一行は再び隊列を組んで神明社に戻り、境内に祀られてある稲荷大明神に御幣竹を奉じた後、いったん帰宅して夕方の祭りに備える。
 　夕刻、氏子総代がヒツケ役を自宅に迎えに行く。その後、神明社の拝殿にて神男らのお祓いが行われ、拝殿脇に控えているネコ姿の奉仕人を塩で清めた後、ヒツケ役を先頭にスズミに向かう。スズミの前で神官によるお祓いが行われ、最後の塩が撒かれた後、神男がヒツケ役によってきりだされた火を用いて、スズミに点火する。
 　年の初めにその年の豊凶を占う年占の行事は、日本各地に地域的特色をもって伝承されており、一部には修正会との関連をうかがわせるものもみられる。本件は、そうした数少ない事例で、「神男」を中心とした塩垢離とりの習俗や、大型の松明の製作と材料の調達などに地域をあげての参加がみられ、伝承の根強さを示している。また、燃えさかる大松明の中から神木や十二縄を取り出す競争は他に類例が少なく、地域的特色も豊かである。""" ; 
-    crm:P4 "毎年２月第２日曜日" ; 
+    crm:P170 [
+    crm:P164 "毎年２月第２日曜日" ; 
+    crm:P3 "現2月開催"
+    ];
     crm:P67 &lt;http://www.katch.ne.jp/~toba-shinmeisha/himatsuri/index.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/228/register&gt; ; 
     crm:P94 [
@@ -4803,7 +5069,7 @@
     crm:P67 "399" .</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="409.6">
+    <row r="24" spans="1:24" ht="409.6">
       <c r="A24">
         <v>236</v>
       </c>
@@ -4822,28 +5088,31 @@
       <c r="F24" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="G24" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="I24" t="s">
         <v>100</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>101</v>
       </c>
-      <c r="J24" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="K24">
+      <c r="K24" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="L24">
         <v>409</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>67</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>68</v>
       </c>
-      <c r="W24" s="9" t="str">
+      <c r="X24" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:236
     rdf:type crm:E1 ;
@@ -4861,7 +5130,10 @@
 　翌15日は、早朝から当番の組の男性たちが浜辺に集まり、グロの解体が行われる。外されたセンボクサンは縁起物として希望者に売られ、船の防舷材や雨樋などに使用される。かつては競りで売買され、網元が高値を付けたといわれている。取り外された竹や笹など浜辺に高く積まれ、各家が持ち寄った松飾りや注連縄、古い御札とともに燃やされて、行事は終了する。
 　年の始めに仮屋を設けて神を迎え、予祝儀礼や火焚きを行う行事は、日本の各地に地域的特色をもって伝承されており、日本人の神観念や年中行事を理解する上で早くから注目されてきた。このような小正月の行事については、これまでに東北地方や関東地方など東日本の事例が指定されているが、五十猛のグロは、従来この種の行事の指定のなかった西日本地域の中で、特色ある小正月の行事として注目されるものであり、センボクサンを心柱とする円錐形の独特の仮屋を作り、その中で地区の人たちが共同飲食をするなど地域的特色も豊かである。
 　また、グロと呼ばれる小正月の行事は、島根県中部の沿岸部に伝承されてきたが、現在では大浦地区で行われるのみとなっている。神を迎え・送る一連の儀礼や禁忌などの民俗的要素もよく伝えており、我が国の年中行事や民間信仰の変遷を考える上で重要である。""" ; 
-    crm:P4 "毎年１月１１～１５日" ; 
+    crm:P170 [
+    crm:P164 "毎年１月１１～１５日" ; 
+    crm:P3 "現1月開催"
+    ];
     crm:P67 &lt;https://www.all-iwami.com/spot/detail_1187.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/236/register&gt; ; 
     crm:P94 [
@@ -4888,7 +5160,7 @@
     crm:P67 "409" .</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="409.6">
+    <row r="25" spans="1:24" ht="409.6">
       <c r="A25">
         <v>240</v>
       </c>
@@ -4902,33 +5174,36 @@
         <v>181</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="F25" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="I25" t="s">
         <v>100</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>101</v>
       </c>
-      <c r="J25" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="K25">
+      <c r="K25" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="L25">
         <v>413</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>12</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>13</v>
       </c>
-      <c r="W25" s="9" t="str">
+      <c r="X25" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:240
     rdf:type crm:E1 ;
@@ -4943,7 +5218,10 @@
 　岩屋で作る食事は、精進料理といって、厚揚げや大根、人参、牛蒡などを入れた汁とご飯だけで、肉や魚は一切口にしない。食事の支度は皆で協力して行うが、味付けは一番大将の役目であり、また、よく働いた者には一番大将の指示で、料理に豆腐が付いたり、逆に怠けていた者の汁の中には生の野菜が入れられたりする。できあがった料理は神棚に一度供えてから食べる。岩屋に泊まるのは子どもの中でも上級生のみで、下級生は家に戻り、翌日の早朝に再び岩屋に集まる。一同は、起床後、岩屋の内外を掃き清めてから食事を済ませ、登校する。このようにして子どもたちは、大人の手を借りずに、１６日まで岩屋で共同生活を行う。
 　１４日は、地区の人たちが岩屋を訪れる。各自が持参したロウソクを奉納し、一番大将から御神酒をもらって１年の無病息災などを祈願する。子どもたちは、夕方になると食事を作って食べ、ロウソクを岩屋内の神棚や囲炉裏の炉縁などに並べて灯すと、神木を持って岩屋を出発する。子どもたちの一行は、まずはじめに五十鈴神社に参り、社殿の前で害鳥を追い払う唱え言をいい、次いで境内にある小祠、共同井戸の跡と回ってから、家々を一軒一軒歩いて回る。このときには子どもたちよりやや年長の後見と呼ばれる若者が数人付き添い、唱え言の音頭をとったり、必要に応じて指示を出したりする。各家では、神棚に灯明をあげ、縁側や玄関の戸を開けて座し、子どもたちの来訪を待っている。一行は家に着くと家族に向かって２列に並び、神木で地面を突き鳴らして調子を取りながら声を揃えて唱え言をいう。唱え言は、「えーい、えーい、えー。えんずのわり鳥追わば、頭【かずら】割って塩つけで、たーどー紙さ畳み入れで、えんずの島さ流さんし」という文言で、意地の悪い鳥を捕まえて遠い島へ流す、という内容である。子どもたちは、この唱え言を3回繰り返し、次いで、その家の家族構成や職業などに応じて、年寄りの長寿や子どもの無事成長、家業の繁栄などの祝いの言葉を述べ、最後に「陸は万作、海は大漁、銭金孕め」と締めくくる。
 　年頭にあたり農作物を荒らす害鳥駆除を目的として行われる行事は、東北地方や北陸地方などを主として東日本に伝承され、子どもたちを中心に行われてきた。この行事は、年長の一番大将をはじめとする子どもたちによる伝承組織が年齢階梯的な秩序の基づいてよく守られているとともに、害鳥を追い払う唱え言もきちんと伝えられているなど、鳥追い行事の典型例と考えられるものである。また、子どもたちが行事の間、岩屋にお籠もりする儀礼が伴うなど地域的特色も豊かである。我が国の年中行事や民間信仰の変遷を考える上で重要である。""" ; 
-    crm:P4 "年1月11～16日" ; 
+    crm:P170 [
+    crm:P164 "毎年1月11～16日" ; 
+    crm:P3 "現1月開催"
+    ];
     crm:P67 &lt;https://www.nihon-kankou.or.jp/miyagi/042145/detail/04566be2220112899&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/240/register&gt; ; 
     crm:P94 [
@@ -4970,7 +5248,7 @@
     crm:P67 "413" .</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="409.6">
+    <row r="26" spans="1:24" ht="409.6">
       <c r="A26">
         <v>245</v>
       </c>
@@ -4981,54 +5259,55 @@
         <v>54</v>
       </c>
       <c r="D26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="G26" s="7"/>
+      <c r="H26" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="I26" t="s">
         <v>100</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>101</v>
       </c>
-      <c r="J26" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="K26">
+      <c r="K26" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="L26">
         <v>418</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>55</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>56</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>57</v>
       </c>
-      <c r="Q26" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="R26" t="s">
+      <c r="R26" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="S26" t="s">
+        <v>285</v>
+      </c>
+      <c r="T26" t="s">
+        <v>286</v>
+      </c>
+      <c r="U26" t="s">
+        <v>345</v>
+      </c>
+      <c r="W26" t="s">
         <v>287</v>
       </c>
-      <c r="S26" t="s">
-        <v>288</v>
-      </c>
-      <c r="T26" t="s">
-        <v>347</v>
-      </c>
-      <c r="V26" t="s">
-        <v>289</v>
-      </c>
-      <c r="W26" s="9" t="str">
+      <c r="X26" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:245
     rdf:type crm:E1 ;
@@ -5046,7 +5325,10 @@
 　田遊びは、まず福太郎、福次郎が木鍬を担いで、介添人を従えながら鬼部屋から登場する。そして、外陣を一周した後、内陣の前で田起こし、苗代作りの所作をし、次いで、住職が演じる田主から予祝の口上を受ける。福太郎と福次郎は、裃姿に面、烏帽子をつけ、地区内の還暦の男性が務める。介添人は、福太郎、福次郎を補佐する役目で、作務衣姿に手拭いを頭巾被りにし、行事に精通した年配者が務める。田主による予祝の口上が終わると、4人は米の入った半紙のおひねりを懐中から取り出し、種蒔きに見立てて参詣者に向かって投げる。種蒔きの後には、縄綯いの所作が行われ、最後に、苗取りの唱え言をいいながら、一行は再び外陣を一周して鬼部屋に引き上げる。
 　田遊びが終了すると、棒打ちがまた始まり、しばらくすると鬼が登場する。鬼は、赤鬼、青鬼の順で鬼部屋から出る。赤鬼は松明を振りかざし、青鬼は鉾を突き立てながら、東の出、西の出といって内陣の東西からそれぞれ6回ずつ計12回、外陣を回る。鬼の子たちは鬼の後ろについて棒で床を叩き、参詣者たちも「鬼こそ鬼よ」と声をかけて鬼をはやし立てる。
 　本件は年頭にあたって鬼が人びとの除災をするこの種の行事の典型例の一つで、我が国の民間信仰や年中行事の変遷を考える上で重要である。また兵庫県内では播磨から摂津にかけての地域に鬼の行事が数多く分布するが、田遊びの儀礼が結びついて伝承されている事例は少ない。さらに子どもたちが扮する鬼の子による棒打ちや鬼の花と呼ばれる作り物の奪い合いなど民俗的要素も豊富に伝えていて地域的特色も豊かである。""" ; 
-    crm:P4 "毎年1月8日" ; 
+    crm:P170 [
+    crm:P164 "毎年1月8日" ; 
+    crm:P3 ""
+    ];
     crm:P67 &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/245/register&gt; ; 
     crm:P94 [
@@ -5073,7 +5355,7 @@
     crm:P67 "418" .</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="409.6">
+    <row r="27" spans="1:24" ht="409.6">
       <c r="A27">
         <v>250</v>
       </c>
@@ -5084,36 +5366,39 @@
         <v>63</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="G27" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="I27" t="s">
         <v>100</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>101</v>
       </c>
-      <c r="J27" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="K27">
+      <c r="K27" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="L27">
         <v>423</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>64</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>65</v>
       </c>
-      <c r="W27" s="9" t="str">
+      <c r="X27" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:250
     rdf:type crm:E1 ;
@@ -5135,7 +5420,10 @@
 　年頭にあたり、大火を焚いて1年の無事を祈ったり、生業を予祝する行事は、日本各地に地域的特色をもって伝承されているが、この行事は、トンドウと呼ばれる大きな作り物を燃やして歳神を送り、1年の無病息災などを祈願するもので、小正月に行われる火祭りの典型例の一つと考えられる。
 　また、子供たちによるコリトリの儀礼が伴うことや、頭送りや一番頭など伝承組織に年齢階梯的な秩序がよく守られているなど地域的特色も豊かである。
 　小正月の火祭りについては、これまで東方地方や関東地方の事例が主に指定されているが、この行事はこれまでに指定例の少ない西日本のうち、山陰地方沿岸部に伝承される特色ある行事として注目されるものであり、伝承状況も良好であることから、我が国の年中行事や民間信仰の変遷を考える上で重要である。""" ; 
-    crm:P4 "毎年１月15日に近い土・日曜日" ; 
+    crm:P170 [
+    crm:P164 "毎年１月15日に近い土・日曜日" ; 
+    crm:P3 "現1月開催"
+    ];
     crm:P67 &lt;http://db.pref.tottori.jp/bunkazainavi.nsf/bunkazai_web_view/ED924928115C630F4925796F0007FF1C?OpenDocument&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/250/register&gt; ; 
     crm:P94 [
@@ -5162,7 +5450,7 @@
     crm:P67 "423" .</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="409.6">
+    <row r="28" spans="1:24" ht="409.6">
       <c r="A28">
         <v>253</v>
       </c>
@@ -5173,36 +5461,39 @@
         <v>22</v>
       </c>
       <c r="D28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="G28" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="I28" t="s">
         <v>100</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>101</v>
       </c>
-      <c r="J28" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="K28">
+      <c r="K28" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="L28">
         <v>426</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>23</v>
       </c>
-      <c r="N28" t="s">
-        <v>290</v>
-      </c>
-      <c r="W28" s="9" t="str">
+      <c r="O28" t="s">
+        <v>288</v>
+      </c>
+      <c r="X28" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:253
     rdf:type crm:E1 ;
@@ -5226,7 +5517,10 @@
 　この行事は、作り物の形状については、十字型の滝谷地区、高い塔型の川井地区のほか、三角錐の桑原地区、小屋型の宮下地区など多様であるが、近隣の山より神木を切り出し、正月飾りなどをつけて立て、夜に燃やすという次第は共通する。また、子どもが会場づくりをし、正月飾りなどを集めるほか、大人の男性が神木を切り出し、老人がオンペイを製作し、厄年の男性がミカン撒きやサイノカミへの点火などを担当することが多い。
 　なお、桧原地区では、サイノカミの1ヵ月後に、燃え残った神木を利用して子どものサイノカミと称する小型のサイノカミを製作して燃やしている。
 　東北日本の日本海側にサイノカミの名称で伝承される小正月の火祭りの典型例の一つといえ、子どもや厄年の男性が行事に深く関わり、厄落としや年占の要素が濃厚にみられるという点でも特色があり、我が国の小正月行事を知る上で重要である。""" ; 
-    crm:P4 "毎年１月15日前後" ; 
+    crm:P170 [
+    crm:P164 "毎年１月15日前後" ; 
+    crm:P3 "現1月開催"
+    ];
     crm:P67 &lt;http://www.mishima-kankou.net/20180112/&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/253/register&gt; ; 
     crm:P94 [
@@ -5253,7 +5547,7 @@
     crm:P67 "426" .</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="409.6">
+    <row r="29" spans="1:24" ht="409.6">
       <c r="A29">
         <v>264</v>
       </c>
@@ -5264,54 +5558,57 @@
         <v>69</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="G29" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="I29" t="s">
         <v>100</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>101</v>
       </c>
-      <c r="J29" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="K29">
+      <c r="K29" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="L29">
         <v>437</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>70</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>71</v>
       </c>
-      <c r="Q29" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="R29" t="s">
+      <c r="R29" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="S29" t="s">
+        <v>289</v>
+      </c>
+      <c r="T29" t="s">
+        <v>290</v>
+      </c>
+      <c r="U29" t="s">
+        <v>346</v>
+      </c>
+      <c r="V29" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="W29" t="s">
         <v>291</v>
       </c>
-      <c r="S29" t="s">
-        <v>292</v>
-      </c>
-      <c r="T29" t="s">
-        <v>348</v>
-      </c>
-      <c r="U29" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="V29" t="s">
-        <v>293</v>
-      </c>
-      <c r="W29" s="9" t="str">
+      <c r="X29" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:264
     rdf:type crm:E1 ;
@@ -5333,7 +5630,10 @@
 　我が国には、高い柱状の作り物を立てて火を点けて焼くサイノカミとかドンドン焼きなどと称される小正月の行事が各地で行われてきた。この行事もその一つで、現在2月11日に行われているが、かつては1月15日に行われていた。この火で餅を焼いて食べると災厄にあわないとか、灰は田畑の虫除けになるなどといった伝承は、各地に伝わる同種の行事と共通している。
 　また、東西2本のシンメイを立てて東西対抗で行われオコシタテの早さを競ったという伝承もあり、東西対抗の要素もみられた。さらにこの行事が地区の若者の若連からの脱退の儀礼が行われる場ともなっているという特色もある。
 　これまで同種の行事では東北日本や中国地方日本海側の行事が注目され指定されてきたが、本件は中国地方瀬戸内海側における行事として注目されるものである。""" ; 
-    crm:P4 "毎年２月11日" ; 
+    crm:P170 [
+    crm:P164 "毎年２月11日" ; 
+    crm:P3 "現2月開催"
+    ];
     crm:P67 &lt;http://www.yanaicci.or.jp/yanai/event/sinmei-f.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/264/register&gt; ; 
     crm:P94 [
@@ -5360,7 +5660,7 @@
     crm:P67 "437" .</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="409.6">
+    <row r="30" spans="1:24" ht="409.6">
       <c r="A30">
         <v>266</v>
       </c>
@@ -5371,54 +5671,57 @@
         <v>38</v>
       </c>
       <c r="D30" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G30" t="s">
-        <v>246</v>
+      <c r="G30" s="7" t="s">
+        <v>354</v>
       </c>
       <c r="H30" t="s">
+        <v>244</v>
+      </c>
+      <c r="I30" t="s">
         <v>100</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>101</v>
       </c>
-      <c r="J30" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="K30">
+      <c r="K30" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="L30">
         <v>438</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>39</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>40</v>
       </c>
-      <c r="Q30" s="8" t="s">
+      <c r="R30" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="S30" t="s">
+        <v>250</v>
+      </c>
+      <c r="T30" t="s">
+        <v>274</v>
+      </c>
+      <c r="U30" t="s">
+        <v>347</v>
+      </c>
+      <c r="V30" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="W30" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="R30" t="s">
-        <v>252</v>
-      </c>
-      <c r="S30" t="s">
-        <v>276</v>
-      </c>
-      <c r="T30" t="s">
-        <v>349</v>
-      </c>
-      <c r="U30" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="V30" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="W30" s="9" t="str">
+      <c r="X30" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:266
     rdf:type crm:E1 ;
@@ -5440,7 +5743,10 @@
 　やがて火が下火になってくると、サイノカミの唄を止めて、燃え尽きた作り物の中を探り、デクの燃え具合を確認する。このとき、デクが燃え残っていると、作り物の燃え残りや新しい藁などを一箇所に集めて再びデクを燃やす。デクが完全に灰になったことを確認すると行事は終了となる。
 　この行事は、年頭にあたって大火を焚いて災厄を払う小正月の火祭りの行事の典型例の一つである。また、男女一対の人形が地区内をめぐり、最後に地区の境で正月飾りなどとともに完全に灰になるまで燃やされることで災厄が払われるとされ、それを年齢階梯的な子ども集団が中心となって執り行っている点で地域的特色も豊かな行事である。
 　この行事のように人形を正月飾りとともに燃やす行事は、サイノカミ、ドウロクジンなどと呼ばれ、中部地方を中心とした地域に濃密にみられることが知られている。いっぽうで富山県を含む北陸地方では、竹を円錐状に組んで正月飾りを燃やして無病息災や家内安全を祈願するサギチョウと呼ばれる行事が濃密にみられ、人形を正月飾りとともに燃やすサイノカミと呼ばれる行事は、本件が現在唯一の伝承例となっている。""" ; 
-    crm:P4 "毎年1月15日が日曜日にあたる場合は15日、それ以外の場合は1月15日の直前の日曜日" ; 
+    crm:P170 [
+    crm:P164 "毎年1月15日が日曜日にあたる場合は15日、それ以外の場合は1月15日の直前の日曜日" ; 
+    crm:P3 "現1月開催"
+    ];
     crm:P67 &lt;https://www.town.nyuzen.toyama.jp/bunka/kyoiku/bunka/bunkazai/mukei/sainokami.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/266/register&gt; ; 
     crm:P94 [
@@ -5467,7 +5773,7 @@
     crm:P67 "438" .</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="409.6">
+    <row r="31" spans="1:24" ht="409.6">
       <c r="A31">
         <v>269</v>
       </c>
@@ -5478,39 +5784,42 @@
         <v>33</v>
       </c>
       <c r="D31" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="G31" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="I31" t="s">
         <v>100</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>101</v>
       </c>
-      <c r="J31" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="K31">
+      <c r="K31" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="L31">
         <v>455</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>31</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>34</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>35</v>
       </c>
-      <c r="W31" s="9" t="str">
+      <c r="X31" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:269
     rdf:type crm:E1 ;
@@ -5530,7 +5839,10 @@
 　なお、オショロブネを流し終えると、谷戸上では、大将がヤドの神棚に祀られているオミシメサマを風呂に入れる。オミシメサマは、着物を着た小さな木像で、セイトッコが祀る神であり、子どもの守り神とも伝えられている。かつては、大将がオミシメサマを風呂に入れた後、無病息災を祈ってセイトッコが順番に風呂に入ったが、現在は、風呂場でオミシメサマの体を拭くだけになっている。その後、セイトッコはヤドや集会所に集まり、共同飲食をしてから解散となる。このオミシメサマは、オンベ焼きと呼ばれる正月行事が終了すると、次のヤドをつとめる家に御幣とともに引き渡される。
 　盆は、正月とともに、日本の年中行事を考える上で重要な節目にあたり、先祖の霊を迎え、送る行事が各地に伝承されている。そうした中で、この行事は、先祖の霊を船に託して送る、船流しの形態をとる盆行事の典型例と考えられるもので、大きな精霊船を用いた集団的な精霊送りの行事としても注目される事例である。
 　また、セイトッコと呼ばれる年齢集団によって行事が伝承されてきたことは地域的な特色であり、少子化が進むなかで、年齢階梯的な役割分担や年番制をとるヤドの慣行など伝統的な要素をよく残していて、我が国の年中行事や民間信仰を理解する上で重要である。""" ; 
-    crm:P4 "毎年８月16日" ; 
+    crm:P170 [
+    crm:P164 "毎年８月16日" ; 
+    crm:P3 "現8月開催"
+    ];
     crm:P67 &lt;http://www.city.miura.kanagawa.jp/shakai/mukeiminzoku/mitonooshouronagasi01.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/269/register&gt; ; 
     crm:P94 [
@@ -5557,7 +5869,7 @@
     crm:P67 "455" .</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="409.6">
+    <row r="32" spans="1:24" ht="409.6">
       <c r="A32">
         <v>277</v>
       </c>
@@ -5568,54 +5880,57 @@
         <v>58</v>
       </c>
       <c r="D32" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="G32" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="I32" t="s">
         <v>100</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>101</v>
       </c>
-      <c r="J32" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="K32">
+      <c r="K32" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="L32">
         <v>462</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>59</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>60</v>
       </c>
-      <c r="Q32" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="R32" t="s">
+      <c r="R32" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="S32" t="s">
+        <v>276</v>
+      </c>
+      <c r="T32" t="s">
         <v>278</v>
       </c>
-      <c r="S32" t="s">
-        <v>280</v>
-      </c>
-      <c r="T32" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="U32" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="V32" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="W32" s="9" t="str">
+      <c r="U32" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="V32" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="W32" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="X32" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:277
     rdf:type crm:E1 ;
@@ -5634,7 +5949,10 @@
 　七回半の使いを受けると江包では相撲を終わり、男綱をかついで素盞嗚神社に向かう。神社に男綱が着くと舟形部分を広げて待っていた女綱と合体させる入り船の儀式が行われる。男女の綱がしっかりと合体すると、両綱を鳥居近くの榎の木につるし上げる。両方の縄につけられている尾は、両方とも長く伸ばしてしばりつけて両方の綱が落ちないようにする。大西の女綱の尾は初瀬川に架かる橋の欄干を渡り、対岸にある榎の大木にしばりつけられる。
 　これがすむと、江包、大西の双方が手打ちをし、その後大西はナコウドの喜田氏と村役だけ、江包は全員が残って素盞嗚神社社殿で式を行う。式が終了すると、お下がりとして神饌のヒネリゴクにしてある洗米をもらって帰る。現在、江包ではこの洗米を雑煮に炊き込んでいるが、以前は苗代を作るときに、この洗米を水口に播くものであったと伝承されている。
 　我が国の年中行事には、年頭に当たってその年の豊作や安泰を祈願して行われる行事が数多くみられる。本件も年の初めに当たって行われる、一年間の豊穣を祈願し、集落に降りかかる災厄を消除することを目的とした行事である。近畿地方に分布する綱掛け行事の典型例の１つであり、我が国における年頭に当たって行われる行事の特色や地域的分布を考える上で重要である。""" ; 
-    crm:P4 "毎年2月11日" ; 
+    crm:P170 [
+    crm:P164 "毎年2月11日" ; 
+    crm:P3 "現2月開催"
+    ];
     crm:P67 &lt;http://www.sakurai-maibun.nara.jp/yorimichi/yorimiti6.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/277/register&gt; ; 
     crm:P94 [
@@ -5661,7 +5979,7 @@
     crm:P67 "462" .</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="409.6">
+    <row r="33" spans="1:24" ht="409.6">
       <c r="A33">
         <v>278</v>
       </c>
@@ -5672,36 +5990,39 @@
         <v>72</v>
       </c>
       <c r="D33" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="G33" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="I33" t="s">
         <v>100</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>101</v>
       </c>
-      <c r="J33" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="K33">
+      <c r="K33" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="L33">
         <v>464</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>70</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>73</v>
       </c>
-      <c r="W33" s="9" t="str">
+      <c r="X33" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:278
     rdf:type crm:E1 ;
@@ -5720,7 +6041,10 @@
 　ワラウマをもらった家では、このワラウマが福を運び込むものとされていることから、神棚、床の間、玄関などに1年間供えておく。この際には、家に福が舞い込むようにということで、馬の頭を家の内側に向けて供えておく場合が多い。なお、前年より1年間供えられていたワラウマは、翌1月15日に行われているドンド焼きで焼かれる。
 　なお、地福のトイトイは、昭和40年代の一時期、各家に渡すのがワラウマではなく、ウマの絵や「馬」という漢字を書いた紙になるなど大きく変容したが、その後、地区の公民館などが中心となってワラウマの製作を子どもたちに伝承し、子ども会、さらには保存会を中心とした行事としてトイトイを今日まで伝承してきている。
 　本件は、年頭にあたって訪問者が福や穀物の豊穣を授けるという行事の１つである。山口県を含む中国地方ではこの種の行事がトイトイ、トロヘイ、トヘトヘなどの名称で広く伝承されていたことが知られており、本件は、中国地方に伝承されてきた小正月の訪問者の行事の典型例の１つであり、我が国の小正月の訪問者の行事の特色や変遷を考える上で重要なものである。また、中国地方では、この種の行事のほとんどが、昭和30～40年代に中断している。そうしたなかで山口県内でも、中断せず今日まで伝承されているのは本件のみであり、類例の少ない貴重な事例でもある。""" ; 
-    crm:P4 "毎年１月14日" ; 
+    crm:P170 [
+    crm:P164 "毎年１月14日" ; 
+    crm:P3 "現1月開催"
+    ];
     crm:P67 &lt;https://www.city.yamaguchi.lg.jp/site/movie/19833.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/278/register&gt; ; 
     crm:P94 [
@@ -5747,7 +6071,7 @@
     crm:P67 "464" .</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="409.6">
+    <row r="34" spans="1:24" ht="409.6">
       <c r="A34">
         <v>298</v>
       </c>
@@ -5758,36 +6082,39 @@
         <v>87</v>
       </c>
       <c r="D34" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="F34" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="I34" t="s">
         <v>100</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>101</v>
       </c>
-      <c r="J34" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="K34">
+      <c r="K34" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="L34">
         <v>494</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>85</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>88</v>
       </c>
-      <c r="W34" s="9" t="str">
+      <c r="X34" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:298
     rdf:type crm:E1 ;
@@ -5801,7 +6128,10 @@
 　15日は、朝から前日に引き続き面の仕立てで、昼前までに骨組みに紙を貼って乾燥させておく。昼過ぎには近親宅を廻って線香をあげたのち、前日とは逆順に公民館側よりテラに向かって水祭りをする。そして、男たちが出揃ったところでテラにて盆踊りを行うが、この場合に限って、最後は踊りながら墓を通り抜けるということをする。次に、公民館に移って再び盆踊りがあり、終わって一旦解散とし、夜にはトンチに集合、今度は小二才・大二才と呼ぶ二組に分かれ、それぞれで家廻りの盆踊りがはじめられる。最初と最後の家は決まっており、そこでは共に踊るため、男たち全員が当家の庭先で行い、終わると酒肴の接待がある。頃合いを見計らって、小二才、大二才の二手となるが、先々で接待を受けるため、次第に酔いも回って夜半となる。なお、二才とは若衆のことであり、小二才は若年層、大二才は壮年層としていたが、昨今では高齢化が進み、50歳前後が目安ともいうが、極めて不分明である。また、接待を終えた家では提灯を持って墓参し、先祖の霊を送りに行く。
 　16日は、同じく朝から面に取り掛かり、昼前までには塗りあげて完成させる。彩色には、アカシュといって赤土を水で溶いたものを使って地色とし、墨で縞模様を描いていく。また、枝を伐ってボゼマラと称する男根を模した1mほどの杖を3本作り、アカシュを塗っておく。この日は水祭りはないが、前日と同様、夕方前にはテラで盆踊りがあり、終わると人びとは公民館に移動し、暫時休憩したのち再び踊りとなる。この間、テラでは選ばれた心身健全な若者3名が面を被り、体にはビロウの葉を巻き付け、手足にはシュロの皮やツグの葉を当てがうなどしてボゼに扮していく。ただし、この有様は絶対に見てはならないとされており、テラへの立ち入りも厳禁となる。こうして広場での踊りがひと段落すると、不意に太鼓が叩かれはじめ「東西東西、ボゼを出すぞ、遠からん者は音に聞け、近くの者は寄って目にも見ろ」との口上で、ボゼが呼び出される。
 　ボゼは、呼び太鼓の音に導かれ、盆踊りで人びとが集まる広場に現れる。ボゼは、ボゼマラの先端に付けた赤い泥を擦り付けようと、観衆を追い回すことから、あたりは笑いと叫びで騒然となっていく。この泥を付けられると、悪魔祓いの利益があるとされ、特に女性は子宝に恵まれるなどという。騒ぎがしばらく続いたのち、太鼓の音がゆったりとしたリズムに変わると、ボゼは体を揺するようにして踊りはじめ、再度急変の調子で再び暴れだし、やがてその場を去っていく。こうして、邪気が祓われ、清まった人びとの安堵と笑顔が満ちるなか、最後に盆踊りがもうひと踊りされ、以後は余興と称して夜が更けるまで歌って踊り、皆して飲食に興じる。""" ; 
-    crm:P4 "毎年旧暦７月１６" ; 
+    crm:P170 [
+    crm:P164 "毎年旧暦７月１６日" ; 
+    crm:P3 "現8月開催"
+    ];
     crm:P67 &lt;https://www.pref.kagoshima.jp/ak01/chiiki/kagoshima/takarabako/traditional/akusekijimanoboze.html&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/298/register&gt; ; 
     crm:P94 [
@@ -5828,7 +6158,7 @@
     crm:P67 "494" .</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="409.6">
+    <row r="35" spans="1:24" ht="409.6">
       <c r="A35">
         <v>299</v>
       </c>
@@ -5839,51 +6169,54 @@
         <v>90</v>
       </c>
       <c r="D35" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="F35" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="H35" t="s">
+        <v>210</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="I35" t="s">
         <v>100</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>101</v>
       </c>
-      <c r="J35" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="K35">
+      <c r="K35" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="L35">
         <v>493</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>85</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>91</v>
       </c>
-      <c r="Q35" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="R35" t="s">
+      <c r="R35" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="S35" t="s">
+        <v>293</v>
+      </c>
+      <c r="T35" t="s">
+        <v>294</v>
+      </c>
+      <c r="U35" t="s">
+        <v>349</v>
+      </c>
+      <c r="W35" t="s">
         <v>295</v>
       </c>
-      <c r="S35" t="s">
-        <v>296</v>
-      </c>
-      <c r="T35" t="s">
-        <v>351</v>
-      </c>
-      <c r="V35" t="s">
-        <v>297</v>
-      </c>
-      <c r="W35" s="9" t="str">
+      <c r="X35" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:299
     rdf:type crm:E1 ;
@@ -5896,7 +6229,10 @@
 　しばらく踊っていると、突如、メンドンが一体、神社の参道奥から走り込んできて、踊り手の周囲を三周し、特に何もせず再び駆け戻っていく。このメンドンを一番メンという。これが終わると、次第に次々と何体ものメンドンたちが参道奥から走ってきては、踊りの邪魔をしたり、飲食に興じる観客たちの中に分け入るなど、悪戯をはじめ、あたりは笑いと叫びで騒然となっていく。メンドンは人びとを枝葉でしきりに叩くが、叩かれると魔が祓われてよいという。声を掛けたり逆らうことは許されないため、強さのあまり逃げ惑う者もいる。特に、女性は格好の的とされ、よく追い回される。
 　一番メン以外にも、面隠しといって、四角い紙に天下御免と記し、子供たちが思い思いに描いた面があるが、これは小さな子が被るものであり、メンは多数あって、数は決まっていない。また、メンドンも14歳の子のみならず、踊りに出なかった若者や大人が入ることもあって、一様ではない。こうして、踊りは一時間ほどあって暫時休憩に入るが、この間もメンドンらは神社を出たり入ったりしながら、せわしなく駆け廻り続けている。その後、踊り手たちは締めの踊りを納めて再び庄屋跡へとミッチキをして終了、あとはそれぞれ太鼓を叩きながら家路へと向かう。ただし、メンドンは3日未明まで自由に徘徊してよいことになっており、昨今では翌2日の夕方頃までが専らであるが、かつては深夜であっても人家の中に入り込むなどして大暴れした。女の子のいる家では、娘を押し入れに隠すなどしたともいう。
 　翌2日は、叩き出しといって、島廻りの太鼓踊りがある。踊り手たちは庄屋跡に集まり、前日と同様にして宮の馬場へと移って踊りを奉納する。暫時休憩ののち、夕暮れを待って所定の道順に従って集落内から外周道へとミッチキしていく。この際もメンドンはうろついており、隊列に付いたり離れたりしている。外周道では所定の場所三箇所にて、海岸から海に向かって島中の悪いものを叩き出し、追い祓うということをする。こうして、最後は神社に戻って締めの踊りをし、前日と同様にして終了とし、あとは花開きと称する直会となって、行事は終了する。""" ; 
-    crm:P4 "毎年旧暦8月1日・2日" ; 
+    crm:P170 [
+    crm:P164 "毎年旧暦8月1日・2日" ; 
+    crm:P3 "現8月開催"
+    ];
     crm:P67 &lt;http://mishimamura.com/ech/5560/&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/299/register&gt; ; 
     crm:P94 [
@@ -5923,122 +6259,122 @@
     crm:P67 "493" .</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
-      <c r="W36" s="9"/>
+    <row r="36" spans="1:24">
+      <c r="X36" s="9"/>
     </row>
-    <row r="37" spans="1:23">
-      <c r="W37" s="9"/>
+    <row r="37" spans="1:24">
+      <c r="X37" s="9"/>
     </row>
-    <row r="38" spans="1:23">
-      <c r="W38" s="9"/>
+    <row r="38" spans="1:24">
+      <c r="X38" s="9"/>
     </row>
-    <row r="39" spans="1:23">
-      <c r="W39" s="9"/>
+    <row r="39" spans="1:24">
+      <c r="X39" s="9"/>
     </row>
-    <row r="40" spans="1:23">
-      <c r="W40" s="9"/>
+    <row r="40" spans="1:24">
+      <c r="X40" s="9"/>
     </row>
-    <row r="41" spans="1:23">
-      <c r="W41" s="9"/>
+    <row r="41" spans="1:24">
+      <c r="X41" s="9"/>
     </row>
-    <row r="42" spans="1:23">
-      <c r="W42" s="9"/>
+    <row r="42" spans="1:24">
+      <c r="X42" s="9"/>
     </row>
-    <row r="43" spans="1:23">
-      <c r="W43" s="9"/>
+    <row r="43" spans="1:24">
+      <c r="X43" s="9"/>
     </row>
-    <row r="44" spans="1:23">
-      <c r="W44" s="9"/>
+    <row r="44" spans="1:24">
+      <c r="X44" s="9"/>
     </row>
-    <row r="45" spans="1:23">
-      <c r="W45" s="9"/>
+    <row r="45" spans="1:24">
+      <c r="X45" s="9"/>
     </row>
-    <row r="46" spans="1:23">
-      <c r="W46" s="9"/>
+    <row r="46" spans="1:24">
+      <c r="X46" s="9"/>
     </row>
-    <row r="47" spans="1:23">
-      <c r="W47" s="9"/>
+    <row r="47" spans="1:24">
+      <c r="X47" s="9"/>
     </row>
-    <row r="48" spans="1:23">
-      <c r="W48" s="9"/>
+    <row r="48" spans="1:24">
+      <c r="X48" s="9"/>
     </row>
-    <row r="49" spans="23:23">
-      <c r="W49" s="9"/>
+    <row r="49" spans="24:24">
+      <c r="X49" s="9"/>
     </row>
-    <row r="50" spans="23:23">
-      <c r="W50" s="9"/>
+    <row r="50" spans="24:24">
+      <c r="X50" s="9"/>
     </row>
-    <row r="51" spans="23:23">
-      <c r="W51" s="9"/>
+    <row r="51" spans="24:24">
+      <c r="X51" s="9"/>
     </row>
-    <row r="52" spans="23:23">
-      <c r="W52" s="9"/>
+    <row r="52" spans="24:24">
+      <c r="X52" s="9"/>
     </row>
-    <row r="53" spans="23:23">
-      <c r="W53" s="9"/>
+    <row r="53" spans="24:24">
+      <c r="X53" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A2:N36">
-    <sortCondition ref="J1"/>
+  <sortState ref="A2:O36">
+    <sortCondition ref="K1"/>
   </sortState>
   <phoneticPr fontId="18"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{D054D01E-D0A8-7F4A-AB5E-47B69D346915}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{0EB58051-A0A5-2043-9C6B-1B53B71D7EF4}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{B9BA3EC9-1F32-994F-A5E4-B342A7192B14}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{729227BB-3EC9-7147-96A6-F3EF03789D03}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{FA5D9292-0783-374D-98FC-9B87AE0BD108}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{2E63FB0F-9BF3-704C-8FE5-FDAFB8B7CABC}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{9F7A45BA-87AA-6541-B540-0CBB894C8C43}"/>
-    <hyperlink ref="G10" r:id="rId8" xr:uid="{80EC866A-6ABB-7044-9510-8759907ED9D8}"/>
-    <hyperlink ref="G11" r:id="rId9" xr:uid="{210E54FC-8692-CD48-BA17-64C90C696077}"/>
-    <hyperlink ref="G13" r:id="rId10" xr:uid="{0B7A84CA-048F-2841-A25E-EFC336DEC749}"/>
-    <hyperlink ref="G14" r:id="rId11" xr:uid="{1BBDE8D5-FDC0-CD44-9F2C-E491D760FD9F}"/>
-    <hyperlink ref="G16" r:id="rId12" xr:uid="{6B1975BF-98DE-3F43-9108-44C02BBAA563}"/>
-    <hyperlink ref="G17" r:id="rId13" xr:uid="{B8AA0A69-0472-D947-94F0-EED17B8E2412}"/>
-    <hyperlink ref="G18" r:id="rId14" xr:uid="{16215CA2-4B4A-474E-BDA1-CD19623EC1AF}"/>
-    <hyperlink ref="G19" r:id="rId15" xr:uid="{D14AB3A3-9B2F-2840-B865-472CFF30ACF8}"/>
-    <hyperlink ref="G20" r:id="rId16" xr:uid="{470A4ABD-9133-6649-9B50-660817FF8FE8}"/>
-    <hyperlink ref="G21" r:id="rId17" xr:uid="{8E2CCC32-A62C-E34F-B88D-DF4E6A7AF513}"/>
-    <hyperlink ref="G23" r:id="rId18" xr:uid="{DDE40886-D6BC-D448-95E2-538A885397F2}"/>
-    <hyperlink ref="G24" r:id="rId19" xr:uid="{F75A7B11-3743-0149-A31D-292019C86F87}"/>
-    <hyperlink ref="G25" r:id="rId20" xr:uid="{7F371E9E-02C1-624F-BC79-3038F9A398CA}"/>
-    <hyperlink ref="G26" r:id="rId21" xr:uid="{0A9DC238-0718-694D-8318-0DA1F951CA5B}"/>
-    <hyperlink ref="G27" r:id="rId22" xr:uid="{090BCE92-1F91-354A-9759-8C6207891860}"/>
-    <hyperlink ref="G28" r:id="rId23" xr:uid="{1A2421B5-1026-894B-A4CE-620637DD8586}"/>
-    <hyperlink ref="G31" r:id="rId24" xr:uid="{3DDE7DEC-B245-CC4E-BAA1-C7FA616A288E}"/>
-    <hyperlink ref="G32" r:id="rId25" xr:uid="{F89D1E25-5C05-CB4E-ADEE-AF88C1F541CA}"/>
-    <hyperlink ref="G33" r:id="rId26" xr:uid="{A8DEF372-A445-F145-8149-86B4612A138B}"/>
-    <hyperlink ref="G35" r:id="rId27" xr:uid="{335A437B-6E1A-1449-84FF-C41158752446}"/>
-    <hyperlink ref="Q2" r:id="rId28" location="甑島のトシドン" xr:uid="{8BA8F7C5-3461-8E48-B2F7-8A56FD924A2A}"/>
-    <hyperlink ref="V2" r:id="rId29" tooltip="利用者:そらみみ" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:%E3%81%9D%E3%82%89%E3%81%BF%E3%81%BF" xr:uid="{EB14F67D-430F-D84E-98F3-13D0AE601A03}"/>
-    <hyperlink ref="Q3" r:id="rId30" xr:uid="{ED496423-E41C-5749-B79B-C03E1D2AFA76}"/>
-    <hyperlink ref="V3" r:id="rId31" tooltip="利用者:Urania" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:Urania" xr:uid="{FC31048C-5FA1-9C42-BB55-18EFCB314A48}"/>
-    <hyperlink ref="Q6" r:id="rId32" location="六郷のかまくら" xr:uid="{755D3B4D-8442-4C42-90E9-C640E987C9F4}"/>
-    <hyperlink ref="V6" r:id="rId33" tooltip="特別:投稿記録/221.58.122.88" display="https://ja.wikipedia.org/wiki/%E7%89%B9%E5%88%A5:%E6%8A%95%E7%A8%BF%E8%A8%98%E9%8C%B2/221.58.122.88" xr:uid="{0DF57EAA-8E12-0B40-AEB6-0FD97C64E28D}"/>
-    <hyperlink ref="Q15" r:id="rId34" xr:uid="{8377DD89-5D80-5C4E-850E-96916CD974EE}"/>
-    <hyperlink ref="V15" r:id="rId35" tooltip="利用者:STA3816 (存在しないページ)" display="https://ja.wikipedia.org/w/index.php?title=%E5%88%A9%E7%94%A8%E8%80%85:STA3816&amp;action=edit&amp;redlink=1" xr:uid="{2FAF1D9E-AAF4-D647-9910-9CDBD6F474D0}"/>
-    <hyperlink ref="Q16" r:id="rId36" xr:uid="{3F10920A-B4C0-6C4A-8CE6-31D325E68E98}"/>
-    <hyperlink ref="V16" r:id="rId37" tooltip="利用者:8-hachiro" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:8-hachiro" xr:uid="{F162FAD7-18BC-B446-ABE4-1A833FF51CDD}"/>
-    <hyperlink ref="Q23" r:id="rId38" xr:uid="{B0FC43D6-9B96-1C43-A126-11BA93E9DE8F}"/>
-    <hyperlink ref="V23" r:id="rId39" tooltip="利用者:Urania" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:Urania" xr:uid="{4631943A-DF59-6548-91E7-5DBA97730B23}"/>
-    <hyperlink ref="Q30" r:id="rId40" xr:uid="{AB88C76D-123D-3747-B5A9-541B860D3BF6}"/>
-    <hyperlink ref="V30" r:id="rId41" tooltip="利用者:なびお" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:%E3%81%AA%E3%81%B3%E3%81%8A" xr:uid="{D643AE21-87BD-DA4E-A57A-AEEE3F14D80E}"/>
-    <hyperlink ref="Q32" r:id="rId42" xr:uid="{5523E011-5E49-5E4A-B0CF-2BE483BD09A4}"/>
-    <hyperlink ref="V32" r:id="rId43" tooltip="利用者:8-hachiro" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:8-hachiro" xr:uid="{AC2CDF3B-D57C-6F4F-95E4-7B1A0313D47F}"/>
-    <hyperlink ref="Q7" r:id="rId44" xr:uid="{194C3A70-9566-1144-BDFB-2CDB75DC1EE8}"/>
-    <hyperlink ref="G12" r:id="rId45" xr:uid="{3A97DFCF-D7E2-3242-96A9-9623B0F601C4}"/>
-    <hyperlink ref="Q12" r:id="rId46" xr:uid="{33E70CED-49C4-3045-A743-B944D2AA5E27}"/>
-    <hyperlink ref="Q26" r:id="rId47" xr:uid="{D958F73D-488D-EA41-8B8F-C47B346B65D6}"/>
-    <hyperlink ref="Q29" r:id="rId48" xr:uid="{34C643B2-0E85-1048-B7AA-E5C65CD19260}"/>
-    <hyperlink ref="G34" r:id="rId49" xr:uid="{9D32A981-731A-E144-A357-1E3776FAF67C}"/>
-    <hyperlink ref="Q35" r:id="rId50" xr:uid="{660BBDB3-0A71-3146-B64A-45AB6F9CEE26}"/>
-    <hyperlink ref="G15" r:id="rId51" xr:uid="{AD99591F-BAB2-AD44-A010-F6D99D1C0264}"/>
-    <hyperlink ref="G29" r:id="rId52" xr:uid="{ECD1C545-5CEA-E44F-8F98-E87AB3811687}"/>
-    <hyperlink ref="T3" r:id="rId53" xr:uid="{B38C7B73-CDAC-6F48-AD21-B970B377237B}"/>
-    <hyperlink ref="T7" r:id="rId54" xr:uid="{7CCCBC63-D727-6C4B-9BD4-FBDB50C4EE72}"/>
-    <hyperlink ref="T15" r:id="rId55" xr:uid="{4E3B4EC5-7B07-864E-9257-301959D2A9C8}"/>
-    <hyperlink ref="T32" r:id="rId56" xr:uid="{6EED4E97-B8EF-894D-988B-902664285D1D}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{D054D01E-D0A8-7F4A-AB5E-47B69D346915}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{0EB58051-A0A5-2043-9C6B-1B53B71D7EF4}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{B9BA3EC9-1F32-994F-A5E4-B342A7192B14}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{729227BB-3EC9-7147-96A6-F3EF03789D03}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{FA5D9292-0783-374D-98FC-9B87AE0BD108}"/>
+    <hyperlink ref="H7" r:id="rId6" xr:uid="{2E63FB0F-9BF3-704C-8FE5-FDAFB8B7CABC}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{9F7A45BA-87AA-6541-B540-0CBB894C8C43}"/>
+    <hyperlink ref="H10" r:id="rId8" xr:uid="{80EC866A-6ABB-7044-9510-8759907ED9D8}"/>
+    <hyperlink ref="H11" r:id="rId9" xr:uid="{210E54FC-8692-CD48-BA17-64C90C696077}"/>
+    <hyperlink ref="H13" r:id="rId10" xr:uid="{0B7A84CA-048F-2841-A25E-EFC336DEC749}"/>
+    <hyperlink ref="H14" r:id="rId11" xr:uid="{1BBDE8D5-FDC0-CD44-9F2C-E491D760FD9F}"/>
+    <hyperlink ref="H16" r:id="rId12" xr:uid="{6B1975BF-98DE-3F43-9108-44C02BBAA563}"/>
+    <hyperlink ref="H17" r:id="rId13" xr:uid="{B8AA0A69-0472-D947-94F0-EED17B8E2412}"/>
+    <hyperlink ref="H18" r:id="rId14" xr:uid="{16215CA2-4B4A-474E-BDA1-CD19623EC1AF}"/>
+    <hyperlink ref="H19" r:id="rId15" xr:uid="{D14AB3A3-9B2F-2840-B865-472CFF30ACF8}"/>
+    <hyperlink ref="H20" r:id="rId16" xr:uid="{470A4ABD-9133-6649-9B50-660817FF8FE8}"/>
+    <hyperlink ref="H21" r:id="rId17" xr:uid="{8E2CCC32-A62C-E34F-B88D-DF4E6A7AF513}"/>
+    <hyperlink ref="H23" r:id="rId18" xr:uid="{DDE40886-D6BC-D448-95E2-538A885397F2}"/>
+    <hyperlink ref="H24" r:id="rId19" xr:uid="{F75A7B11-3743-0149-A31D-292019C86F87}"/>
+    <hyperlink ref="H25" r:id="rId20" xr:uid="{7F371E9E-02C1-624F-BC79-3038F9A398CA}"/>
+    <hyperlink ref="H26" r:id="rId21" xr:uid="{0A9DC238-0718-694D-8318-0DA1F951CA5B}"/>
+    <hyperlink ref="H27" r:id="rId22" xr:uid="{090BCE92-1F91-354A-9759-8C6207891860}"/>
+    <hyperlink ref="H28" r:id="rId23" xr:uid="{1A2421B5-1026-894B-A4CE-620637DD8586}"/>
+    <hyperlink ref="H31" r:id="rId24" xr:uid="{3DDE7DEC-B245-CC4E-BAA1-C7FA616A288E}"/>
+    <hyperlink ref="H32" r:id="rId25" xr:uid="{F89D1E25-5C05-CB4E-ADEE-AF88C1F541CA}"/>
+    <hyperlink ref="H33" r:id="rId26" xr:uid="{A8DEF372-A445-F145-8149-86B4612A138B}"/>
+    <hyperlink ref="H35" r:id="rId27" xr:uid="{335A437B-6E1A-1449-84FF-C41158752446}"/>
+    <hyperlink ref="R2" r:id="rId28" location="甑島のトシドン" xr:uid="{8BA8F7C5-3461-8E48-B2F7-8A56FD924A2A}"/>
+    <hyperlink ref="W2" r:id="rId29" tooltip="利用者:そらみみ" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:%E3%81%9D%E3%82%89%E3%81%BF%E3%81%BF" xr:uid="{EB14F67D-430F-D84E-98F3-13D0AE601A03}"/>
+    <hyperlink ref="R3" r:id="rId30" xr:uid="{ED496423-E41C-5749-B79B-C03E1D2AFA76}"/>
+    <hyperlink ref="W3" r:id="rId31" tooltip="利用者:Urania" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:Urania" xr:uid="{FC31048C-5FA1-9C42-BB55-18EFCB314A48}"/>
+    <hyperlink ref="R6" r:id="rId32" location="六郷のかまくら" xr:uid="{755D3B4D-8442-4C42-90E9-C640E987C9F4}"/>
+    <hyperlink ref="W6" r:id="rId33" tooltip="特別:投稿記録/221.58.122.88" display="https://ja.wikipedia.org/wiki/%E7%89%B9%E5%88%A5:%E6%8A%95%E7%A8%BF%E8%A8%98%E9%8C%B2/221.58.122.88" xr:uid="{0DF57EAA-8E12-0B40-AEB6-0FD97C64E28D}"/>
+    <hyperlink ref="R15" r:id="rId34" xr:uid="{8377DD89-5D80-5C4E-850E-96916CD974EE}"/>
+    <hyperlink ref="W15" r:id="rId35" tooltip="利用者:STA3816 (存在しないページ)" display="https://ja.wikipedia.org/w/index.php?title=%E5%88%A9%E7%94%A8%E8%80%85:STA3816&amp;action=edit&amp;redlink=1" xr:uid="{2FAF1D9E-AAF4-D647-9910-9CDBD6F474D0}"/>
+    <hyperlink ref="R16" r:id="rId36" xr:uid="{3F10920A-B4C0-6C4A-8CE6-31D325E68E98}"/>
+    <hyperlink ref="W16" r:id="rId37" tooltip="利用者:8-hachiro" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:8-hachiro" xr:uid="{F162FAD7-18BC-B446-ABE4-1A833FF51CDD}"/>
+    <hyperlink ref="R23" r:id="rId38" xr:uid="{B0FC43D6-9B96-1C43-A126-11BA93E9DE8F}"/>
+    <hyperlink ref="W23" r:id="rId39" tooltip="利用者:Urania" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:Urania" xr:uid="{4631943A-DF59-6548-91E7-5DBA97730B23}"/>
+    <hyperlink ref="R30" r:id="rId40" xr:uid="{AB88C76D-123D-3747-B5A9-541B860D3BF6}"/>
+    <hyperlink ref="W30" r:id="rId41" tooltip="利用者:なびお" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:%E3%81%AA%E3%81%B3%E3%81%8A" xr:uid="{D643AE21-87BD-DA4E-A57A-AEEE3F14D80E}"/>
+    <hyperlink ref="R32" r:id="rId42" xr:uid="{5523E011-5E49-5E4A-B0CF-2BE483BD09A4}"/>
+    <hyperlink ref="W32" r:id="rId43" tooltip="利用者:8-hachiro" display="https://ja.wikipedia.org/wiki/%E5%88%A9%E7%94%A8%E8%80%85:8-hachiro" xr:uid="{AC2CDF3B-D57C-6F4F-95E4-7B1A0313D47F}"/>
+    <hyperlink ref="R7" r:id="rId44" xr:uid="{194C3A70-9566-1144-BDFB-2CDB75DC1EE8}"/>
+    <hyperlink ref="H12" r:id="rId45" xr:uid="{3A97DFCF-D7E2-3242-96A9-9623B0F601C4}"/>
+    <hyperlink ref="R12" r:id="rId46" xr:uid="{33E70CED-49C4-3045-A743-B944D2AA5E27}"/>
+    <hyperlink ref="R26" r:id="rId47" xr:uid="{D958F73D-488D-EA41-8B8F-C47B346B65D6}"/>
+    <hyperlink ref="R29" r:id="rId48" xr:uid="{34C643B2-0E85-1048-B7AA-E5C65CD19260}"/>
+    <hyperlink ref="H34" r:id="rId49" xr:uid="{9D32A981-731A-E144-A357-1E3776FAF67C}"/>
+    <hyperlink ref="R35" r:id="rId50" xr:uid="{660BBDB3-0A71-3146-B64A-45AB6F9CEE26}"/>
+    <hyperlink ref="H15" r:id="rId51" xr:uid="{AD99591F-BAB2-AD44-A010-F6D99D1C0264}"/>
+    <hyperlink ref="H29" r:id="rId52" xr:uid="{ECD1C545-5CEA-E44F-8F98-E87AB3811687}"/>
+    <hyperlink ref="U3" r:id="rId53" xr:uid="{B38C7B73-CDAC-6F48-AD21-B970B377237B}"/>
+    <hyperlink ref="U7" r:id="rId54" xr:uid="{7CCCBC63-D727-6C4B-9BD4-FBDB50C4EE72}"/>
+    <hyperlink ref="U15" r:id="rId55" xr:uid="{4E3B4EC5-7B07-864E-9257-301959D2A9C8}"/>
+    <hyperlink ref="U32" r:id="rId56" xr:uid="{6EED4E97-B8EF-894D-988B-902664285D1D}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_p5_added.xlsx
+++ b/list_p5_added.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F4788F-5046-AF48-84D4-2EBA67EC8D1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B31583-B195-8043-94B2-CCDA7E6D013D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_p6" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="361">
   <si>
     <t>管理対象ID</t>
   </si>
@@ -2860,9 +2860,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X1" sqref="X1:X1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5267,7 +5267,9 @@
       <c r="F26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G26" s="7"/>
+      <c r="G26" s="7" t="s">
+        <v>354</v>
+      </c>
       <c r="H26" s="8" t="s">
         <v>240</v>
       </c>
@@ -5327,7 +5329,7 @@
 　本件は年頭にあたって鬼が人びとの除災をするこの種の行事の典型例の一つで、我が国の民間信仰や年中行事の変遷を考える上で重要である。また兵庫県内では播磨から摂津にかけての地域に鬼の行事が数多く分布するが、田遊びの儀礼が結びついて伝承されている事例は少ない。さらに子どもたちが扮する鬼の子による棒打ちや鬼の花と呼ばれる作り物の奪い合いなど民俗的要素も豊富に伝えていて地域的特色も豊かである。""" ; 
     crm:P170 [
     crm:P164 "毎年1月8日" ; 
-    crm:P3 ""
+    crm:P3 "現1月開催"
     ];
     crm:P67 &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt; ;
     crm:P141 &lt;https://w3id.org/ifcp/245/register&gt; ; 

--- a/list_p5_added.xlsx
+++ b/list_p5_added.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B31583-B195-8043-94B2-CCDA7E6D013D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2B78D0-10D0-E14B-8A79-E655DC1B4127}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_p6" sheetId="1" r:id="rId1"/>
@@ -1658,16 +1658,6 @@
     <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S134210040</t>
   </si>
   <si>
-    <t>"@base &lt;https://w3id.org/ifcp/&gt; .
-@prefix rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; .
-@prefix rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; .
-@prefix crm: &lt;http://purl.org/NET/cidoc-crm/core#&gt; .
-@prefix skos: &lt;http://www.w3.org/2004/02/skos/core#&gt; .
-@prefix ifcp: &lt;https://w3id.org/ifcp/&gt; .
-@prefix cate: &lt;https://w3id.org/ifcp/category/&gt; ."</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>公開日補足</t>
     <rPh sb="0" eb="2">
       <t>ホソク</t>
@@ -1768,6 +1758,16 @@
     <rPh sb="0" eb="1">
       <t>ニチ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>"@base &lt;https://w3id.org/ifcp/&gt; .
+@prefix rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; .
+@prefix rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; .
+@prefix crm: &lt;http://www.cidoc-crm.org/cidoc-crm/&gt; .
+@prefix skos: &lt;http://www.w3.org/2004/02/skos/core#&gt; .
+@prefix ifcp: &lt;https://w3id.org/ifcp/&gt; .
+@prefix cate: &lt;https://w3id.org/ifcp/category/&gt; ."</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2860,9 +2860,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y35" sqref="Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2892,7 +2892,7 @@
         <v>105</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>106</v>
@@ -2943,7 +2943,7 @@
         <v>114</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="409.6">
@@ -2966,7 +2966,7 @@
         <v>116</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>220</v>
@@ -3009,74 +3009,74 @@
       </c>
       <c r="X2" s="9" t="str">
         <f>"ifcp:"&amp;A2&amp;"
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label """&amp;C2&amp;"""@ja ;
     rdfs:label """&amp;D2&amp;"""@ja-hrkt ;
-    crm:P3 """""""&amp;E2&amp;""""""" ; 
-    crm:P170 [
-    crm:P164 """&amp;F2&amp;""" ; 
-    crm:P3 """&amp;G2&amp;"""
-    ];
-    crm:P67 &lt;"&amp;H2&amp;"&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/"&amp;A2&amp;"/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit"&amp;A2&amp;" ;
-        crm:P81 """&amp;S2&amp;""" ; 
-        crm:P167 _:place"&amp;A2&amp;"
-    ];
-    crm:P2 "&amp;J2&amp;" ;
-    crm:P2 "&amp;I2&amp;" .
+    crm:P3_has_note """""""&amp;E2&amp;""""""" ; 
+    crm:P170_defines_time [
+    crm:P164_during """&amp;F2&amp;""" ; 
+    crm:P3_has_note """&amp;G2&amp;"""
+    ];
+    crm:P67_refers_to &lt;"&amp;H2&amp;"&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/"&amp;A2&amp;"/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit"&amp;A2&amp;" ;
+        crm:P81_ongoing_throughout """&amp;S2&amp;""" ; 
+        crm:P167_at _:place"&amp;A2&amp;"
+    ];
+    crm:P2_has_type "&amp;J2&amp;" ;
+    crm:P2_has_type "&amp;I2&amp;" .
 _:edit"&amp;A2&amp;"
-    crm:P67 &lt;"&amp;R2&amp;"&gt; ;
-    crm:P4 """&amp;V2&amp;""";
-    crm:P51 """&amp;W2&amp;""".
+    crm:P67_refers_to &lt;"&amp;R2&amp;"&gt; ;
+    crm:P4_has_time-span """&amp;V2&amp;""";
+    crm:P51_has_former_or_current_owner """&amp;W2&amp;""".
 _:place"&amp;A2&amp;"
     rdfs:label """&amp;T2&amp;""";
-    crm:P67 &lt;"&amp;U2&amp;"&gt;.
+    crm:P67_refers_to &lt;"&amp;U2&amp;"&gt;.
 &lt;"&amp;R2&amp;"&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;"&amp;H2&amp;"&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/"&amp;A2&amp;"/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 """&amp;K2&amp;""" ;
-    crm:P67 """&amp;L2&amp;""" ."</f>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span """&amp;K2&amp;""" ;
+    crm:P67_refers_to """&amp;L2&amp;""" ."</f>
         <v>ifcp:49
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "甑島のトシドン"@ja ;
     rdfs:label "こしきじまのとしどん"@ja-hrkt ;
-    crm:P3 """　甑島のトシドンは、東シナ海に浮かぶ鹿児島県薩摩川内市の下甑島に伝わる正月の来訪神の行事である。
+    crm:P3_has_note """　甑島のトシドンは、東シナ海に浮かぶ鹿児島県薩摩川内市の下甑島に伝わる正月の来訪神の行事である。
 　その内容は、伝承するそれぞれの集落で細部において相違が認められるものの、トシドンと呼ばれる神が人里を来訪するとの信仰に支えられており、大晦日（１２月３１日）の夜、トシドンに扮装した男性たちが子どものいる家々を訪れ、悪い子どもを戒める。
 　トシドンの扮装は、長い鼻に大きな口の奇怪な面を被り、藁蓑などの古い装いやシュロ（棕梠）の葉、ソテツ（蘇鉄）の葉などを纏ったもので、戸口で馬のとまる足音をさせて子どものいる家を訪れる。そして、大声で子供を脅かしたり、よい子になるよう諭したりし、子ども本人から勤惰などを問いただした後で、最後にトシモチ（年餅）と呼ばれる大きな餅を子どもに与えて去っていくという形態で共通している。
 　この行事は、年の初めや季節の変わり目に神々が訪れて、人びとに祝福を与える、あるいは神々が訪れることで年が改まるという趣旨の行事であり、類似の行事は全国的に分布をみるが、なかでも甑島のものは古態をとどめている事例といってよく、我が国古来の民間信仰や神観念の形態をよく示している典型例の１つとして極めて重要である。""" ; 
-    crm:P170 [
-    crm:P164 "毎年１２月３１日" ; 
-    crm:P3 "現12月開催"
-    ];
-    crm:P67 &lt;http://www.pref.kagoshima.jp/ab10/kyoiku-bunka/bunka/museum/shichoson/satumasendai/doshidon.html&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/49/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit49 ;
-        crm:P81 "江戸時代" ; 
-        crm:P167 _:place49
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年１２月３１日" ; 
+    crm:P3_has_note "現12月開催"
+    ];
+    crm:P67_refers_to &lt;http://www.pref.kagoshima.jp/ab10/kyoiku-bunka/bunka/museum/shichoson/satumasendai/doshidon.html&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/49/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit49 ;
+        crm:P81_ongoing_throughout "江戸時代" ; 
+        crm:P167_at _:place49
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit49
-    crm:P67 &lt;https://ja.wikipedia.org/wiki/トシドン#甑島のトシドン&gt; ;
-    crm:P4 "2018-12-02";
-    crm:P51 "そらみみ".
+    crm:P67_refers_to &lt;https://ja.wikipedia.org/wiki/トシドン#甑島のトシドン&gt; ;
+    crm:P4_has_time-span "2018-12-02";
+    crm:P51_has_former_or_current_owner "そらみみ".
 _:place49
     rdfs:label "鹿児島県薩摩川内市下甑島";
-    crm:P67 &lt;http://data.e-stat.go.jp/lod/sac/C46215-20041012&gt;.
+    crm:P67_refers_to &lt;http://data.e-stat.go.jp/lod/sac/C46215-20041012&gt;.
 &lt;https://ja.wikipedia.org/wiki/トシドン#甑島のトシドン&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;http://www.pref.kagoshima.jp/ab10/kyoiku-bunka/bunka/museum/shichoson/satumasendai/doshidon.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/49/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "1977-05-17" ;
-    crm:P67 "89 - 95" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "1977-05-17" ;
+    crm:P67_refers_to "89 - 95" .</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="409.6">
@@ -3099,7 +3099,7 @@
         <v>120</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>221</v>
@@ -3142,72 +3142,72 @@
       </c>
       <c r="X3" s="9" t="str">
         <f t="shared" ref="X3:X35" si="0">"ifcp:"&amp;A3&amp;"
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label """&amp;C3&amp;"""@ja ;
     rdfs:label """&amp;D3&amp;"""@ja-hrkt ;
-    crm:P3 """""""&amp;E3&amp;""""""" ; 
-    crm:P170 [
-    crm:P164 """&amp;F3&amp;""" ; 
-    crm:P3 """&amp;G3&amp;"""
-    ];
-    crm:P67 &lt;"&amp;H3&amp;"&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/"&amp;A3&amp;"/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit"&amp;A3&amp;" ;
-        crm:P81 """&amp;S3&amp;""" ; 
-        crm:P167 _:place"&amp;A3&amp;"
-    ];
-    crm:P2 "&amp;J3&amp;" ;
-    crm:P2 "&amp;I3&amp;" .
+    crm:P3_has_note """""""&amp;E3&amp;""""""" ; 
+    crm:P170_defines_time [
+    crm:P164_during """&amp;F3&amp;""" ; 
+    crm:P3_has_note """&amp;G3&amp;"""
+    ];
+    crm:P67_refers_to &lt;"&amp;H3&amp;"&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/"&amp;A3&amp;"/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit"&amp;A3&amp;" ;
+        crm:P81_ongoing_throughout """&amp;S3&amp;""" ; 
+        crm:P167_at _:place"&amp;A3&amp;"
+    ];
+    crm:P2_has_type "&amp;J3&amp;" ;
+    crm:P2_has_type "&amp;I3&amp;" .
 _:edit"&amp;A3&amp;"
-    crm:P67 &lt;"&amp;R3&amp;"&gt; ;
-    crm:P4 """&amp;V3&amp;""";
-    crm:P51 """&amp;W3&amp;""".
+    crm:P67_refers_to &lt;"&amp;R3&amp;"&gt; ;
+    crm:P4_has_time-span """&amp;V3&amp;""";
+    crm:P51_has_former_or_current_owner """&amp;W3&amp;""".
 _:place"&amp;A3&amp;"
     rdfs:label """&amp;T3&amp;""";
-    crm:P67 &lt;"&amp;U3&amp;"&gt;.
+    crm:P67_refers_to &lt;"&amp;U3&amp;"&gt;.
 &lt;"&amp;R3&amp;"&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;"&amp;H3&amp;"&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/"&amp;A3&amp;"/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 """&amp;K3&amp;""" ;
-    crm:P67 """&amp;L3&amp;""" ."</f>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span """&amp;K3&amp;""" ;
+    crm:P67_refers_to """&amp;L3&amp;""" ."</f>
         <v>ifcp:51
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "男鹿のナマハゲ"@ja ;
     rdfs:label "おがのなまはげ"@ja-hrkt ;
-    crm:P3 """男鹿のナマハゲは、昭和20年代まで小正月に行なわれていた来訪神の行事である。その内容は、各伝承地で細部において相違が認められるものの、集落内の若者たちが面をかぶり、ケデ（藁で編んだ蓑のようなもの）をつけて家々を訪れ、威厳のある所作で人々に接するという形態では共通している。
+    crm:P3_has_note """男鹿のナマハゲは、昭和20年代まで小正月に行なわれていた来訪神の行事である。その内容は、各伝承地で細部において相違が認められるものの、集落内の若者たちが面をかぶり、ケデ（藁で編んだ蓑のようなもの）をつけて家々を訪れ、威厳のある所作で人々に接するという形態では共通している。
 　年の折り目（トシコシ）に神が来臨し、人々に祝福を与えるという趣旨の行事は、全国的に分布しているが、男鹿のものはその中でも特によく古態をとどめ、かつ濃密な分布を示しており、我が国古来の民間信仰の形態を示す典型例の一つとして極めて重要である。""" ; 
-    crm:P170 [
-    crm:P164 "毎年１２月３１日ないしは１月１６日" ; 
-    crm:P3 "現12月開催"
-    ];
-    crm:P67 &lt;https://www.namahage-oga.akita.jp&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/51/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit51 ;
-        crm:P81 "文政5年（1822年）" ; 
-        crm:P167 _:place51
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年１２月３１日ないしは１月１６日" ; 
+    crm:P3_has_note "現12月開催"
+    ];
+    crm:P67_refers_to &lt;https://www.namahage-oga.akita.jp&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/51/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit51 ;
+        crm:P81_ongoing_throughout "文政5年（1822年）" ; 
+        crm:P167_at _:place51
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit51
-    crm:P67 &lt;https://ja.wikipedia.org/wiki/なまはげ&gt; ;
-    crm:P4 "2019-12-28";
-    crm:P51 "Urania".
+    crm:P67_refers_to &lt;https://ja.wikipedia.org/wiki/なまはげ&gt; ;
+    crm:P4_has_time-span "2019-12-28";
+    crm:P51_has_former_or_current_owner "Urania".
 _:place51
     rdfs:label "秋田県男鹿市";
-    crm:P67 &lt;http://data.e-stat.go.jp/lod/sac/C05206-20050322&gt;.
+    crm:P67_refers_to &lt;http://data.e-stat.go.jp/lod/sac/C05206-20050322&gt;.
 &lt;https://ja.wikipedia.org/wiki/なまはげ&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;https://www.namahage-oga.akita.jp&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/51/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "1978-05-22" ;
-    crm:P67 "97 - 99" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "1978-05-22" ;
+    crm:P67_refers_to "97 - 99" .</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="409.6">
@@ -3230,7 +3230,7 @@
         <v>122</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>222</v>
@@ -3256,41 +3256,41 @@
       <c r="X4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:67
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "能登のアマメハギ"@ja ;
     rdfs:label "のとのあまめはぎ"@ja-hrkt ;
-    crm:P3 """　我が国には年の折り目に神が来臨し、人々に祝福を与えていくという趣旨の行事が全国的に分布している。能登のアマメハギもその一つであり、能登半島に濃密な分布を示し、アマメハギのほか、メンサマなどとも呼ばれている。
+    crm:P3_has_note """　我が国には年の折り目に神が来臨し、人々に祝福を与えていくという趣旨の行事が全国的に分布している。能登のアマメハギもその一つであり、能登半島に濃密な分布を示し、アマメハギのほか、メンサマなどとも呼ばれている。
 　この行事の内容は、細部において相違が認められるものの、天狗面・鼻ベチャ面・猿面、あるいは男面・女面などと呼ばれる仮面をつけて家々を訪れ、怠惰を戒めたり、災厄を祓って威厳のある所作でむら人に接するという形態では共通している。
 　また、正月６日、正月14日と20日、および節分の日の晩と期日を異にしながらも、その土地その土地に応じた形態で伝えられている点が注目される。
 　我が国古来の民間信仰の一形態を伝える顕著な例として重要である。""" ; 
-    crm:P170 [
-    crm:P164 "旧門前町は毎年１月２日（※指定当時は毎年１月６日）、輪島市は毎年１月１４・２０日（※指定当時）、旧内浦町は毎年節分（２月３日）" ; 
-    crm:P3 "現1月開催"
-    ];
-    crm:P67 &lt;https://www.hot-ishikawa.jp/event/4517&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/67/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit67 ;
-        crm:P81 "" ; 
-        crm:P167 _:place67
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "旧門前町は毎年１月２日（※指定当時は毎年１月６日）、輪島市は毎年１月１４・２０日（※指定当時）、旧内浦町は毎年節分（２月３日）" ; 
+    crm:P3_has_note "現1月開催"
+    ];
+    crm:P67_refers_to &lt;https://www.hot-ishikawa.jp/event/4517&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/67/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit67 ;
+        crm:P81_ongoing_throughout "" ; 
+        crm:P167_at _:place67
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit67
-    crm:P67 &lt;&gt; ;
-    crm:P4 "";
-    crm:P51 "".
+    crm:P67_refers_to &lt;&gt; ;
+    crm:P4_has_time-span "";
+    crm:P51_has_former_or_current_owner "".
 _:place67
     rdfs:label "";
-    crm:P67 &lt;&gt;.
+    crm:P67_refers_to &lt;&gt;.
 &lt;&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;https://www.hot-ishikawa.jp/event/4517&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/67/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "1979-02-03" ;
-    crm:P67 "124 - 127" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "1979-02-03" ;
+    crm:P67_refers_to "124 - 127" .</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="409.6">
@@ -3313,7 +3313,7 @@
         <v>126</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>223</v>
@@ -3339,43 +3339,43 @@
       <c r="X5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:109
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "南薩摩の十五夜行事"@ja ;
     rdfs:label "みなみさつまのじゅうごやぎょうじ"@ja-hrkt ;
-    crm:P3 """　旧暦８月の十五夜の月を祭る行事は、我が国で広く行われてきている。南薩摩の十五夜行事は、こうした行事のなかでも、特に薩摩半島南部において行われる網引きなどの特殊な行事で、男の子ども組を中心に集落をあげて盛大に行われる点でも注目されるものである。
+    crm:P3_has_note """　旧暦８月の十五夜の月を祭る行事は、我が国で広く行われてきている。南薩摩の十五夜行事は、こうした行事のなかでも、特に薩摩半島南部において行われる網引きなどの特殊な行事で、男の子ども組を中心に集落をあげて盛大に行われる点でも注目されるものである。
 　十五夜の大綱は、長さ100㍍余にわたることが珍しくない。綱は茅で作られるが、その材料集めを茅引きといい、子ども組が何日もかかって山から刈り集めるもので、刈った茅の束を頭からすっぽりかぶって体を覆い、列を組んで下山する姿に特色がある。
 　綱を綯うのも大がかりで、やぐらを組み、集落の人びとが総出で行うが、特に若者が加勢して１日がかりで行われる壮観無比の力の行事である。
 　夜になると、この聖なる大綱を子ども組が裸で綱引きをする。
 　また、子ども組による十五夜踊りが坊津町や知覧町に伝承されている。特に知覧町のものは、ソラヨイともいい、子ども組が裸の上に、藁製のカサ・ミノ・ハカマをつけて踊る。その中でも知覧町中福良では、ワラコヅミという大きな傘を立て、それを回りながら踊り、最後に傘を引き倒すと、中から年長の子どもが現われるという、極めて特異な行事である。
 　この行事は、月を祭る地域的特色の濃厚な盛大な民俗行事であり、男の子ども組が中心になって行なわれている点でも注目されるものである。""" ; 
-    crm:P170 [
-    crm:P164 "毎年旧暦８月１５日" ; 
-    crm:P3 "現9月開催"
-    ];
-    crm:P67 &lt;https://www.city.minamikyushu.lg.jp/bunkazai-kanri/bunka/shinko/bunkazai/chiranchiiki/minamisatsuma.html&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/109/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit109 ;
-        crm:P81 "" ; 
-        crm:P167 _:place109
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年旧暦８月１５日" ; 
+    crm:P3_has_note "現9月開催"
+    ];
+    crm:P67_refers_to &lt;https://www.city.minamikyushu.lg.jp/bunkazai-kanri/bunka/shinko/bunkazai/chiranchiiki/minamisatsuma.html&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/109/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit109 ;
+        crm:P81_ongoing_throughout "" ; 
+        crm:P167_at _:place109
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit109
-    crm:P67 &lt;&gt; ;
-    crm:P4 "";
-    crm:P51 "".
+    crm:P67_refers_to &lt;&gt; ;
+    crm:P4_has_time-span "";
+    crm:P51_has_former_or_current_owner "".
 _:place109
     rdfs:label "";
-    crm:P67 &lt;&gt;.
+    crm:P67_refers_to &lt;&gt;.
 &lt;&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;https://www.city.minamikyushu.lg.jp/bunkazai-kanri/bunka/shinko/bunkazai/chiranchiiki/minamisatsuma.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/109/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "1981-01-21" ;
-    crm:P67 "200 - 202" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "1981-01-21" ;
+    crm:P67_refers_to "200 - 202" .</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="409.6">
@@ -3398,7 +3398,7 @@
         <v>128</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>224</v>
@@ -3442,43 +3442,43 @@
       <c r="X6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:110
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "六郷のカマクラ行事"@ja ;
     rdfs:label "ろくごうのかまくらぎょうじ"@ja-hrkt ;
-    crm:P3 """　我が国各地に伝承されている小正月行事は、地域の年中行事の中で最も主要なものの一つであるが、出羽、越後地方のそれはカマクラなど雪の室をしつらえる点に特色がある。
+    crm:P3_has_note """　我が国各地に伝承されている小正月行事は、地域の年中行事の中で最も主要なものの一つであるが、出羽、越後地方のそれはカマクラなど雪の室をしつらえる点に特色がある。
 　現在、全国的に小正月行事が古い姿で伝承されているものは少なくなっており、カマクラ行事も、年占、鳥追いなどの小正月の特質をよく示すものが失われつつある。
 　六郷のカマクラ行事は、歳神を迎え、害鳥を追う予祝行事を行うもので、あわせて年占をなすなど小正月における各種の要素をよく取り入れている。２月11日当日は、早くから町の子どもたちが各自無病息災などの祈願の天筆を書く。これは五色で長大な短冊形のもので青竹の竿に吊して家々の軒先に飾る。
 　これと相前後して各町内の空地には、ヨシズを天井にかけたカマクラをしつらえ、中に鎌倉大明神が祀られる。その後、中に莚を敷いて御神酒や餅を供え、相互に他のカマクラを訪ねあって交歓し、時折カマクラの前で鳥追い唄を歌って日を過ごす。
 　最終日には正月飾りを決まりの場所に寄せ集めて松ニヨを作り、町の男たちがキボラを吹いて集合する。火祭りの後、男たちは町を南北に二分して威勢のよい竹打ちをなす。
 　全国的に古い姿で伝承されている小正月行事が少なくなってきているなかで、この行事は古風をよく残しており、我が国の庶民信仰等の風俗慣習を知りうる典型例の１つとして重要である。""" ; 
-    crm:P170 [
-    crm:P164 "毎年２月１１～１５日" ; 
-    crm:P3 "現2月開催"
-    ];
-    crm:P67 &lt;https://www.town.misato.akita.jp/kamakura/2574.html&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/110/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit110 ;
-        crm:P81 "延暦21年（802年）" ; 
-        crm:P167 _:place110
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年２月１１～１５日" ; 
+    crm:P3_has_note "現2月開催"
+    ];
+    crm:P67_refers_to &lt;https://www.town.misato.akita.jp/kamakura/2574.html&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/110/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit110 ;
+        crm:P81_ongoing_throughout "延暦21年（802年）" ; 
+        crm:P167_at _:place110
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit110
-    crm:P67 &lt;https://ja.wikipedia.org/wiki/かまくら#六郷のかまくら&gt; ;
-    crm:P4 "2018-12-13";
-    crm:P51 "221.58.122.88".
+    crm:P67_refers_to &lt;https://ja.wikipedia.org/wiki/かまくら#六郷のかまくら&gt; ;
+    crm:P4_has_time-span "2018-12-13";
+    crm:P51_has_former_or_current_owner "221.58.122.88".
 _:place110
     rdfs:label "秋田県美郷町六郷地区";
-    crm:P67 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S054340010&gt;.
+    crm:P67_refers_to &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S054340010&gt;.
 &lt;https://ja.wikipedia.org/wiki/かまくら#六郷のかまくら&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;https://www.town.misato.akita.jp/kamakura/2574.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/110/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "1982-01-14" ;
-    crm:P67 "203" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "1982-01-14" ;
+    crm:P67_refers_to "203" .</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="409.6">
@@ -3501,7 +3501,7 @@
         <v>131</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>225</v>
@@ -3542,43 +3542,43 @@
       <c r="X7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:124
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "秋名のアラセツ行事"@ja ;
     rdfs:label "あぎなのあらせつぎょうじ"@ja-hrkt ;
-    crm:P3 """　奄美から沖縄にかけては、旧暦８月の収穫の時期に最も盛大な行事が行われる。それは稲の収穫が終わり、その収穫を感謝し、翌年の豊作を祈るもので、アラセツの語はこの意味をよく示している。
+    crm:P3_has_note """　奄美から沖縄にかけては、旧暦８月の収穫の時期に最も盛大な行事が行われる。それは稲の収穫が終わり、その収穫を感謝し、翌年の豊作を祈るもので、アラセツの語はこの意味をよく示している。
 　奄美に伝承されるアラセツ行事は、旧暦８月の最初の丙の日に、グジ（男の神役）が山で、ノロ（女の神役）が海に向かって稲魂を招くものである。
 　なかでも秋名のアラセツ行事で行われるショチュガマとヒラセマンカイは、奄美のアラセツ行事の中でも最も古形を伝えるものである。
 　ショチュガマは、アラセツの前日までに金久の山腹にあるショチュガマ屋敷に片流れの藁葺き小屋（ショチュガマ）を作り、アラセツの早朝にグジが稲魂を招き、次いで7,80人が藁葺きの小屋の屋根に上り、祝い歌を歌いながらその小屋を揺り倒し、倒れた屋根の上で「八月踊り」を踊る行事である。
   ヒラセマンカイは、アラセツの夕方に神ヒラセ・女童【メーラビ】ヒラセという2つの岩の上でノロたちが中心となって歌い踊り、稲魂を招く行事である。マンカイとは、両手を招くように動かす時の踊りの所作をいう。
 　こうした行事は、かつては奄美の各地で行われていたようであるが、現存するのは秋名だけとなっている。南島におけるアラセツを迎える心意をよく伝えている行事として重要であるだけでなく、神を招いて神人交歓の遊びをする我が国の民俗芸能の古い要素をよく残すものとしても注目される。""" ; 
-    crm:P170 [
-    crm:P164 "毎年旧暦８月の初丙の日" ; 
-    crm:P3 "現9月開催"
-    ];
-    crm:P67 &lt;https://www.town.tatsugo.lg.jp/edu/event-bunka/rekishi-bunka/arasetsu.html&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/124/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit124 ;
-        crm:P81 "那覇世（13～17世紀）" ; 
-        crm:P167 _:place124
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年旧暦８月の初丙の日" ; 
+    crm:P3_has_note "現9月開催"
+    ];
+    crm:P67_refers_to &lt;https://www.town.tatsugo.lg.jp/edu/event-bunka/rekishi-bunka/arasetsu.html&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/124/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit124 ;
+        crm:P81_ongoing_throughout "那覇世（13～17世紀）" ; 
+        crm:P167_at _:place124
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit124
-    crm:P67 &lt;https://www.town.tatsugo.lg.jp/edu/event-bunka/rekishi-bunka/arasetsu.html&gt; ;
-    crm:P4 "";
-    crm:P51 "龍郷町役場 教育委員会".
+    crm:P67_refers_to &lt;https://www.town.tatsugo.lg.jp/edu/event-bunka/rekishi-bunka/arasetsu.html&gt; ;
+    crm:P4_has_time-span "";
+    crm:P51_has_former_or_current_owner "龍郷町役場 教育委員会".
 _:place124
     rdfs:label "奄美群島";
-    crm:P67 &lt;http://data.e-stat.go.jp/lod/sac/C46222-20091019&gt;.
+    crm:P67_refers_to &lt;http://data.e-stat.go.jp/lod/sac/C46222-20091019&gt;.
 &lt;https://www.town.tatsugo.lg.jp/edu/event-bunka/rekishi-bunka/arasetsu.html&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;https://www.town.tatsugo.lg.jp/edu/event-bunka/rekishi-bunka/arasetsu.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/124/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "1985-01-12" ;
-    crm:P67 "244" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "1985-01-12" ;
+    crm:P67_refers_to "244" .</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="409.6">
@@ -3601,7 +3601,7 @@
         <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>226</v>
@@ -3627,43 +3627,43 @@
       <c r="X8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:131
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "猪俣の百八燈"@ja ;
     rdfs:label "いのまたのひゃくはっとう"@ja-hrkt ;
-    crm:P3 """　我が国の盆行事には、百八燈とか百八松明と称して百八把の松明を焚いて精霊の祭りを行うものがある。これらは新盆の家で行ったり、村共同で山や河原で盛大に行ったりする。
+    crm:P3_has_note """　我が国の盆行事には、百八燈とか百八松明と称して百八把の松明を焚いて精霊の祭りを行うものがある。これらは新盆の家で行ったり、村共同で山や河原で盛大に行ったりする。
 　猪俣の百八燈は、８月15日（もとは７月15日）に村はずれの堂前山の丘の上に築かれた百八基の塚に百八の灯をともす盛大な行事で、地元では猪俣小平六範綱（鎌倉時代にこの土地を開発した人物）の霊を慰めるとも伝えられている。
 　この行事の主体となるのは、字猪俣の満６歳から満18歳までの子供組・若衆組（約50名）で、後見役（前年の親方）が総指揮を執り、親方（18歳）、次親方（17歳）が幹部となり、行事の企画・指導を行い、15日までの間に灯をともす松根掘りや、小平六の墓掃除、道こさえ、草刈り、塚つき、燈明器づくりを行う。
 　塚は村はずれの丘の稜線に沿って108基築かれており、規模は一般に高さ1㍍、直径30～40㎝で、留塚という両端の塚は一段と大きく、中央の2基は五重塚といって高さ2～2.5㍍、直径70㎝で、ほかの塚や留塚よりさらに大きく造られている。
 　行事は、15日未明に芝を切ってきて108の塚を築き直すことから始まり、真綿をよった燈心を取りつけた急須に石油を注ぎ燈明器として各塚に配備する。この際、五重塚と留塚、小平六の墓の側にある御公方塚には松根を置く。15日の夕刻6時、寺の境内で寄せ太鼓をし、一同が集合すると境内の小平六の墓に燈明をともし、笛・太鼓の行列で出発、堂前山の塚の百八燈に点火すると同時に仕掛花火も行われる。
 　猪俣の百八燈は、各地で行われる盆の百八燈の行事の中でも108の塚を築いたその上で盛大に火を焚く点で異色であり、亡魂を慰めるという趣意と相まって塚信仰の様相をよく示している。また、これらの行事が子供組・若衆組によって執行されることなどは注目すべきことで、盆行事の中に祖霊信仰の様相をうかがうことができる典型例として重要である。""" ; 
-    crm:P170 [
-    crm:P164 "毎年８月15日" ; 
-    crm:P3 "現8月開催"
-    ];
-    crm:P67 &lt;http://www.town.saitama-misato.lg.jp/admini/towninfo/ino108.html&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/131/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit131 ;
-        crm:P81 "" ; 
-        crm:P167 _:place131
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年８月15日" ; 
+    crm:P3_has_note "現8月開催"
+    ];
+    crm:P67_refers_to &lt;http://www.town.saitama-misato.lg.jp/admini/towninfo/ino108.html&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/131/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit131 ;
+        crm:P81_ongoing_throughout "" ; 
+        crm:P167_at _:place131
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit131
-    crm:P67 &lt;&gt; ;
-    crm:P4 "";
-    crm:P51 "".
+    crm:P67_refers_to &lt;&gt; ;
+    crm:P4_has_time-span "";
+    crm:P51_has_former_or_current_owner "".
 _:place131
     rdfs:label "";
-    crm:P67 &lt;&gt;.
+    crm:P67_refers_to &lt;&gt;.
 &lt;&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;http://www.town.saitama-misato.lg.jp/admini/towninfo/ino108.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/131/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "1987-01-08" ;
-    crm:P67 "257" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "1987-01-08" ;
+    crm:P67_refers_to "257" .</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="409.6">
@@ -3686,7 +3686,7 @@
         <v>137</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>332</v>
@@ -3712,44 +3712,44 @@
       <c r="X9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:135
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "下崎山のヘトマト行事"@ja ;
     rdfs:label "しもざきやまのへとまとぎょうじ"@ja-hrkt ;
-    crm:P3 """　我が国には、年頭において粥の炊け具合や豆の焼け方などにより作柄や天候を占ったり、あるいは綱引き、玉の奪い合いなどにより豊凶を占ったりして生業の発展、除災招福を祈願する趣旨の行事が広く分布していたが、その多くは社会状況、生業基盤の変化などの事情により、形骸化したり消滅しつつある。
+    crm:P3_has_note """　我が国には、年頭において粥の炊け具合や豆の焼け方などにより作柄や天候を占ったり、あるいは綱引き、玉の奪い合いなどにより豊凶を占ったりして生業の発展、除災招福を祈願する趣旨の行事が広く分布していたが、その多くは社会状況、生業基盤の変化などの事情により、形骸化したり消滅しつつある。
 　この行事は、その呼称由来は定かでないものの、『崎山村郷土誌』（大正７年）に記載があり、古老たちの口承によれば明治20年代まで遡ることができる。
 　現在では、当日までに使用する大草履、小草履、玉を作り、大通寺で御祈願してもらってきた御幣などを準備し、町民が役割分担して参加する除災招福的内容の濃厚なものである。
 　この行事は、エンマゴヘイ（閻魔御幣）と呼ばれる御幣を捧持するハタモチ（旗持ち）の巡行から始まり、ハゴイタツキ（羽根突き）、タマゲリ（玉蹴り）、綱引きが順次なされる。ハゴイタツキに先がけ、氏神白浜神社境内で青壮年男子によってなされる相撲は、行事の前座の意味があるものの、従来、正月14日に行われていたのが、昭和30年頃から、この日に統合されたものである。
 　ハタモチ巡行に加わるのは、御幣を捧持する役を代々務める家の当主と町内会長（郷長）、隣保班長（組頭）である。鉦を打ち鳴らしながら大草履などを安置してある白浜海岸に近い町の辻まで行き、御幣を大草履の台先に立てる。これが、合図となり、その辻で新嫁2人が各々の樽の上にあがり向き合い羽根突きをする。続いて、白浜海岸に出た青壮年男子が、若者組と壮年組とに分かれて玉の奪い合いを展開する。往時はワッカモン（若者組所属者たち）が大里地区と白浜地区とに分かれて激しく対抗し、玉を奪って背後に広がる麦畑を駈け廻ったと伝えられ、それを海中に投げ入れて一段落する（現在は、家屋が密集し、麦畑を駈け廻れない）。
 　次いで、晒の褌に手拭をつけた男たちは、2組に分かれ、路上で3度綱引きを場所を交替して行い、終了後、全員で大草履などを担ぎ、山の神神社に奉納する。途中、娘たちをつかまえその上に乗せて胴上げなども行われる。
 　この行事は、神仏に加護をもとめて生業の発展・除災招福を祈願するもので、ハゴイタツキ・タマゲリ・綱引きなどに宮相撲などが数多くあり、御幣の捧持役が世襲化であったり、ワッカモンにより行われるなど由来・内容等が典型的なものであり重要である。""" ; 
-    crm:P170 [
-    crm:P164 "毎年１月１６日" ; 
-    crm:P3 "現1月開催"
-    ];
-    crm:P67 &lt;https://goto.nagasaki-tabinet.com/event/51078/&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/135/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit135 ;
-        crm:P81 "" ; 
-        crm:P167 _:place135
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年１月１６日" ; 
+    crm:P3_has_note "現1月開催"
+    ];
+    crm:P67_refers_to &lt;https://goto.nagasaki-tabinet.com/event/51078/&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/135/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit135 ;
+        crm:P81_ongoing_throughout "" ; 
+        crm:P167_at _:place135
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit135
-    crm:P67 &lt;&gt; ;
-    crm:P4 "";
-    crm:P51 "".
+    crm:P67_refers_to &lt;&gt; ;
+    crm:P4_has_time-span "";
+    crm:P51_has_former_or_current_owner "".
 _:place135
     rdfs:label "";
-    crm:P67 &lt;&gt;.
+    crm:P67_refers_to &lt;&gt;.
 &lt;&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;https://goto.nagasaki-tabinet.com/event/51078/&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/135/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "1987-01-08" ;
-    crm:P67 "267" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "1987-01-08" ;
+    crm:P67_refers_to "267" .</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="409.6">
@@ -3772,7 +3772,7 @@
         <v>140</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>227</v>
@@ -3798,44 +3798,44 @@
       <c r="X10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:138
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "青海の竹のからかい"@ja ;
     rdfs:label "おうみのたけのからかい"@ja-hrkt ;
-    crm:P3 """　青海の竹のからかいは、この地域の小正月行事の総称である。
+    crm:P3_has_note """　青海の竹のからかいは、この地域の小正月行事の総称である。
 　行事の準備は、年末に行うタケミ（竹見）に始まり、翌年１月７日に正月に使用した門松集め（松取り）、同10日以降に行う竹伐りなどがある。いずれも町内を二分して、門松集めは子どもたちの役割で、その他の諸準備は若者衆が主体となって行う。
 　行事当日、まずは東西各ジンヤ（陣屋：決まりの行事宿）前の路上にカザリタケ（飾り竹）を立てる。これは、長さ約10㍍の葉付きの青竹にオンベロ（八幡幣）、扇、注連縄、御神酒、樽等を取り付けて飾ったものである。
 　そして昼過ぎになると、イサミタケ（イサメタケ）と称して、東西から各々若者衆が青竹を担いで東西の境界とされる路上地点近くで向かい合い、青竹を立てて気勢をあげ、互いに相手方に悪口をとばしからかい合う。
 　このような状態を数回繰り返した後、頃合いを見計らって、東西の若者衆がジンヤに用意しておいたアワセダケ（合せ竹）を担いできて、先程の路上地点で対峙し、担いできたアワセダケの根の方を相手方へ差し出し、２本の竹が交錯したところを抱きかかえるようにして引き合う。引き合いは、場所を変えることなく３度繰り返し、相手を自分の陣地に引き込んだ方がその年、豊年・豊漁が約束されると伝えられている。
 　その後、アワセダケ等を担いで東西に分かれて近くの磯浜に出て、各々の地区の若者衆頭の指図にしたがい、山と積まれた門松にイサミタケ・アワセダケなどをとりまとめてから点火する。これをサギチョウヤキと称する。燃えさかる間、一同は手を叩き「チョウチョウサギノチョウ」の唄を繰り返して囃したてる。
 　この行事は、歳神の来臨を仰ぎ、その神前において豊作・豊漁の年占を行うとともに、火祭りを通じて新年の再生を願う等、民衆の抱く心意気が顕著に現われている。特に、アワセダケを引き合うことは、この地方だけにみられる特色であり、年齢に応じた行事の役割分担のあり方などとも相まって、我が国民の生活文化の特色を示す正月行事の典型例の1つとして重要である。""" ; 
-    crm:P170 [
-    crm:P164 "毎年１月１５日" ; 
-    crm:P3 "現1月開催"
-    ];
-    crm:P67 &lt;http://www.itoigawa-base.com/viewspot/culture_02_01.html&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/138/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit138 ;
-        crm:P81 "" ; 
-        crm:P167 _:place138
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年１月１５日" ; 
+    crm:P3_has_note "現1月開催"
+    ];
+    crm:P67_refers_to &lt;http://www.itoigawa-base.com/viewspot/culture_02_01.html&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/138/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit138 ;
+        crm:P81_ongoing_throughout "" ; 
+        crm:P167_at _:place138
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit138
-    crm:P67 &lt;&gt; ;
-    crm:P4 "";
-    crm:P51 "".
+    crm:P67_refers_to &lt;&gt; ;
+    crm:P4_has_time-span "";
+    crm:P51_has_former_or_current_owner "".
 _:place138
     rdfs:label "";
-    crm:P67 &lt;&gt;.
+    crm:P67_refers_to &lt;&gt;.
 &lt;&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;http://www.itoigawa-base.com/viewspot/culture_02_01.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/138/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "1987-12-28" ;
-    crm:P67 "271" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "1987-12-28" ;
+    crm:P67_refers_to "271" .</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="409.6">
@@ -3858,7 +3858,7 @@
         <v>143</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>228</v>
@@ -3884,44 +3884,44 @@
       <c r="X11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:140
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "志摩加茂五郷の盆祭行事"@ja ;
     rdfs:label "しまかもごごうのぼんまつりぎょうじ"@ja-hrkt ;
-    crm:P3 """　我が国では、盆は正月とならんで生活の重要な折り目とされ、その際に行われる行事は、精霊（祖霊）を迎え、祭り、送るという趣旨が濃く伝承されている。しかし、一面では地区挙げての盆行事には、社会状況の変化等に伴い形骸化したり消滅したりしたものが少なくない。
+    crm:P3_has_note """　我が国では、盆は正月とならんで生活の重要な折り目とされ、その際に行われる行事は、精霊（祖霊）を迎え、祭り、送るという趣旨が濃く伝承されている。しかし、一面では地区挙げての盆行事には、社会状況の変化等に伴い形骸化したり消滅したりしたものが少なくない。
 　この盆行事は、８月14日のネンブツイレ（念仏入。大念仏ともいう）と15日のヒバシラマツリ（火柱祭。岡霊祭ともいう）からなる。
   ともに、夕刻以降に、若者組が中心となって行う。明治初年までは、加茂五郷（現船津町・河内町・岩倉町・松尾町・白木町）が共同でヒバシラマツリを行っていたと伝えられ、松尾町・河内町地区では寛政6（1794）年の記録にある旧習を現在に伝承してきている。両地区での盆祭行事には細部において若干の差はあるが、基本的には実態に違いは認められない。
 　14日の行事は、若者組が鉦・楽（太鼓）・羯鼓・法螺貝・横笛を奏し、これに合わせて「念仏」と称する踊りを繰り返し、町内の主要な道筋を一巡する。
   翌15日のヒバシラマツリでは、若者頭の指示に従い、若者・中老・寄老が役割分担で諸準備を整えた後、新盆を迎えた家の墓前で「念仏」を繰り返し、その後、場所を近くの祭り場に移した後も一同が輪となって「念仏」を繰り返す。
   深夜になって、祭り場に立てられた高さ10㍍ほどの柱松に点火する。この柱松は、杉の葉、茗荷の茎などをない込んだ3本の藁綱で支えられ、頂にしつらえられたツボキ（壺受け）に百足旗・扇旗・兎旗が挿し込まれている。このツボキをめがけて手松明を投げ上げ点火する慣例で、燃え落ちたところで行事が終わるが、柱松の倒れ方によって吉凶を占うとも伝えられている。
 　この盆祭行事には、この地域の人々が共同して一体となって伝統を継承してきており、特に、ネンブツイレやヒバシラマツリには、新精霊を供養し、祭るという祖霊信仰の趣旨が顕著である。行事の運営は公会【くがい】と称されてきた地域の公的組織に支えられ、若者・中老・寄老（耆老）による年齢階梯制に基づき、厳格・整然と実施されてきたことは、中部・近畿地方に濃厚に分布する盆の柱松行事のうちでも類稀なものであり、我が国民の生活文化の特色を示す盆行事の典型例として重要である。""" ; 
-    crm:P170 [
-    crm:P164 "毎年８月１４・１５日" ; 
-    crm:P3 "現8月開催"
-    ];
-    crm:P67 &lt;https://toba-archive.jp/content/detail.php?no=3991&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/140/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit140 ;
-        crm:P81 "" ; 
-        crm:P167 _:place140
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年８月１４・１５日" ; 
+    crm:P3_has_note "現8月開催"
+    ];
+    crm:P67_refers_to &lt;https://toba-archive.jp/content/detail.php?no=3991&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/140/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit140 ;
+        crm:P81_ongoing_throughout "" ; 
+        crm:P167_at _:place140
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit140
-    crm:P67 &lt;&gt; ;
-    crm:P4 "";
-    crm:P51 "".
+    crm:P67_refers_to &lt;&gt; ;
+    crm:P4_has_time-span "";
+    crm:P51_has_former_or_current_owner "".
 _:place140
     rdfs:label "";
-    crm:P67 &lt;&gt;.
+    crm:P67_refers_to &lt;&gt;.
 &lt;&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;https://toba-archive.jp/content/detail.php?no=3991&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/140/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "1987-12-28" ;
-    crm:P67 "273 - 274" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "1987-12-28" ;
+    crm:P67_refers_to "273 - 274" .</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="409.6">
@@ -3944,7 +3944,7 @@
         <v>146</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>282</v>
@@ -3982,43 +3982,43 @@
       <c r="X12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:145
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "周防祖生の柱松行事"@ja ;
     rdfs:label "すおうそおのはしらまつぎょうじ"@ja-hrkt ;
-    crm:P3 """　祖生の柱松行事は、「祖生の三本松」とも通称され、周防灘に注ぐ島田川の中流域に隣接して位置する３つの地区で個別に行われている。
+    crm:P3_has_note """　祖生の柱松行事は、「祖生の三本松」とも通称され、周防灘に注ぐ島田川の中流域に隣接して位置する３つの地区で個別に行われている。
 　祖生中村では８月15日（昭和22年までは8月16日）、同山田では8月19日、同落合では8月23日と期日が前後しているほか、行事のなされる場所、行事の役割分担などの細部において相違があるものの、往時、疫病の蔓延に伴って農耕用の牛・馬が多数死にいたったことを機に、その慰霊と除災のために行ってきたと伝えている点では共通している。
   祖生中村の新宮神社所蔵の『産土社諸控早採略記』（元治元年〔1864〕）には、享保19年（1734）7月18日の条で、「七月十八日より三日間、牛馬御祈念有之、永々七月十四日に高灯明立願有之、柱松之企相始り候」と記録されているので、それ以来、柱松行事が毎年繰りかえされ伝承されてきたと思われる。
 　行事の準備は、地区の初寄り合いからはじまり、事前における桐の葉の採集・乾燥、ハギノコ（萩の木の枝から葉を摘み取り、乾燥させたもの）の用意、かずら（藤蔓）切り、張り綱作りなどが地区民の役割分担で進行される。また、火祭り行事当日の日中には、総出（1戸1人ずつ出役）でハチ（胴木のいただきに取り付けられる鉢状のもの。口径・深さともに1㍍余り）作り、胴木作り（柱松の本体となる松丸太をかずらの皮で結束し、順々に継ぎ足し長くしていく）などした後、柱松にハチ・張り綱などを取り付ける。お祓いの後、宰領の合図により手製の道具を使って立て起こして行く。別に、タイ（投げ上げ用の松明。肥松の細片をかずらで結束し、緒を付けたもの）が各自で用意される。
 　行事は、寄せ太鼓を合図に夜8時頃から開始される。現在は、2、3本の柱松が立つ。このうち大型のものは地上10間以上の高さで、あらかじめ準備されている種火からタイに火を移し、思い思いにハチを目指して火のついたタイを投げ上げて点火を競う。ハチの取り付けが高く、かつその口径が狭いので容易ではないものの、誰かが点火に成功し柱松が炎上する段になると、迎え火と称して全員がタイを投げ上げるとともに、シャギリと呼ばれる撥さばきで太鼓を叩いて囃し締めくくるのである。
 　この行事には、柱松を灯明に見立て、それを高くすることで献灯の心を表現したとの伝承が付着し、平年には12間、閏年には13間の高さに立てたとか、15、6間の高さのために往時炎上させるのに、2、3夜を要したことがあったといわれている。また、柱松の点火に競り勝った者には幸運がもたらされるとも占った。五穀豊穣・家内安全のための除災と年占とを伴う夏の火祭りの典型的なものである。""" ; 
-    crm:P170 [
-    crm:P164 "毎年８月１５日（祖生中村）、毎年８月１９日（祖生山田）、毎年８月２３日（祖生落合）" ; 
-    crm:P3 "現8月開催"
-    ];
-    crm:P67 &lt;http://www.sea.icn-tv.ne.jp/~sosym/&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/145/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit145 ;
-        crm:P81 "享保19年(1734)" ; 
-        crm:P167 _:place145
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年８月１５日（祖生中村）、毎年８月１９日（祖生山田）、毎年８月２３日（祖生落合）" ; 
+    crm:P3_has_note "現8月開催"
+    ];
+    crm:P67_refers_to &lt;http://www.sea.icn-tv.ne.jp/~sosym/&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/145/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit145 ;
+        crm:P81_ongoing_throughout "享保19年(1734)" ; 
+        crm:P167_at _:place145
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit145
-    crm:P67 &lt;http://www.sea.icn-tv.ne.jp/~sosym/&gt; ;
-    crm:P4 "";
-    crm:P51 "".
+    crm:P67_refers_to &lt;http://www.sea.icn-tv.ne.jp/~sosym/&gt; ;
+    crm:P4_has_time-span "";
+    crm:P51_has_former_or_current_owner "".
 _:place145
     rdfs:label "山口県周東町";
-    crm:P67 &lt;http://data.e-stat.go.jp/lod/page/sac/C35325-20060320&gt;.
+    crm:P67_refers_to &lt;http://data.e-stat.go.jp/lod/page/sac/C35325-20060320&gt;.
 &lt;http://www.sea.icn-tv.ne.jp/~sosym/&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;http://www.sea.icn-tv.ne.jp/~sosym/&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/145/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "1989-03-20" ;
-    crm:P67 "285 - 288" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "1989-03-20" ;
+    crm:P67_refers_to "285 - 288" .</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="409.6">
@@ -4041,7 +4041,7 @@
         <v>140</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>229</v>
@@ -4070,10 +4070,10 @@
       <c r="X13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:156
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "野沢温泉の道祖神祭り"@ja ;
     rdfs:label "のざわおんせんのどうそじんまつり"@ja-hrkt ;
-    crm:P3 """　野沢温泉の道祖神祭りは、地区を代表する野沢組惣代が総元締めになり、経験者のなかから選ばれた山棟梁や社殿棟梁などの役員の指揮のもと、サンヤンコウ（三夜講）の男たちが具体的なすべての作業を担って行われる。
+    crm:P3_has_note """　野沢温泉の道祖神祭りは、地区を代表する野沢組惣代が総元締めになり、経験者のなかから選ばれた山棟梁や社殿棟梁などの役員の指揮のもと、サンヤンコウ（三夜講）の男たちが具体的なすべての作業を担って行われる。
 　サンヤンコウは、この祭りに数え年42歳の厄年を迎える男たちを筆頭に40歳までの3つの年齢層のトモダチ衆で編成され、これに数え年25歳の厄年を迎える年齢の青年たちが加わって、3年間にわたって道祖神祭りの中心となるのである。
 　祭りの準備は、前年10月下旬から始まり、村の共有林から「道祖神の社殿」の用材になるブナ材を伐り出す。芯木になるのは直径1尺（約30㎝）・長さ10間（約18㍍）ほどのブナ5本である。1月13日には芯木を集落まで曳き下ろし、14日早朝からは社殿棟梁の指揮のもとに社殿造りが行われる。この巨大な社殿を、近年は15日の昼までに完成させている。
 　一方、前年に長男が誕生した家では初灯籠を作る。灯籠作りは七日正月頃から、灯籠棟梁の指揮に従って親戚や友人たちが集まって行われる。11日にはトウロウマルメ（灯籠まるめ）と称して、家の前に灯籠を組み立て完成の祝宴が開かれ、15日夕方には、灯籠送りの練りが関係者によって行われる。タイマツの火に先導されて町内を巡って道祖神場まで道祖神歌を歌いながら送り出す。
@@ -4081,34 +4081,34 @@
 　15日夕方、厄年の世話役6人が使者となり、火元の家に「火元貰い」に行く。火元の主人は白丁に烏帽子の装束に着替え、床の間の正面に据えられた道祖神木像を拝み、その前で火打石で火をおこし、種火を弓張提灯に移し、この火をオンガラの大松明に点火する。
 　午後8時すぎ、松明が道祖神場に到着すると、いよいよ道祖神の火祭りが始まる。厄年以外の村の男たちが火付役で元火の火をオンガラの束に移し、社殿に投げつける。これに対して厄年の男たちは火消役になり、社殿前面に25歳の青年たちが、社殿上には42歳の男たちが陣取って応戦し、松の枝でオンガラの火を叩き消す。激しい攻防戦が社殿棟梁の合図で終結すると手締めが行われて、社殿に火が入れられる。炎に包まれた社殿には、初灯籠が順番に立てかけられ、燃やされる。
 　この行事は、長野県北信地方の小正月行事のうち、厄払いの性格や火をめぐる競技的な内容、子どもの成長祝いの性格など地域的特色が豊かである。""" ; 
-    crm:P170 [
-    crm:P164 "毎年１月１５日" ; 
-    crm:P3 "現1月開催"
-    ];
-    crm:P67 &lt;https://nozawakanko.jp/record/dosojin/&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/156/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit156 ;
-        crm:P81 "" ; 
-        crm:P167 _:place156
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年１月１５日" ; 
+    crm:P3_has_note "現1月開催"
+    ];
+    crm:P67_refers_to &lt;https://nozawakanko.jp/record/dosojin/&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/156/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit156 ;
+        crm:P81_ongoing_throughout "" ; 
+        crm:P167_at _:place156
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit156
-    crm:P67 &lt;&gt; ;
-    crm:P4 "";
-    crm:P51 "".
+    crm:P67_refers_to &lt;&gt; ;
+    crm:P4_has_time-span "";
+    crm:P51_has_former_or_current_owner "".
 _:place156
     rdfs:label "";
-    crm:P67 &lt;&gt;.
+    crm:P67_refers_to &lt;&gt;.
 &lt;&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;https://nozawakanko.jp/record/dosojin/&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/156/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "1993-12-13" ;
-    crm:P67 "305" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "1993-12-13" ;
+    crm:P67_refers_to "305" .</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="409.6">
@@ -4131,7 +4131,7 @@
         <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>230</v>
@@ -4157,10 +4157,10 @@
       <c r="X14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:158
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "宮古島のパーントゥ"@ja ;
     rdfs:label "みやこじのぱーんとぅ"@ja-hrkt ;
-    crm:P3 """　宮古島のパーントゥは、仮面をつけ、草をまとった異形の神が村落内を巡り歩いて災厄払いをするもので、宮古島の旧平良市島尻と旧上野村野原に伝承されている。
+    crm:P3_has_note """　宮古島のパーントゥは、仮面をつけ、草をまとった異形の神が村落内を巡り歩いて災厄払いをするもので、宮古島の旧平良市島尻と旧上野村野原に伝承されている。
 　パーントゥとは、本来、お化け、鬼神を意味した言葉である。島尻ではこの行事のことをパーントゥ・プナカという。プナカは祈願祭のことであり、パーントゥ神が出現する祭りの意味である。一方、野原では、この行事名をサティパロウ（里払い）ともいい、仮面をつけたパーントゥが登場する。
 　島尻では、陰暦９月上旬の吉日、野原では陰暦12月の最後の丑の日に行われる。
 　島尻ではまず悪霊・悪疫払いの行事スマフサラ（ムラを鎖で囲うように注連縄で守る意）が行われる。豚の骨を１片挿した注連縄をムラの数か所の出入口に張る。祭りは、ツカサが２軒のムトゥ(元家)を巡って拝むことから始まる。夕方、村の東のンマリガー(産井)である古井戸に青年が集まり、パーントゥに扮することに決まった３人の全身に蔓草（シイノキカズラ）を巻きつけ、その結束用縄としてスマフサラ行事に張った注連縄を使用する。井戸の底に沈殿した泥を蔓草の上から全身に塗る。
@@ -4169,34 +4169,34 @@
 　野原では、全戸から主婦と小学校高学年の男子が参加するが、成人男子と少女は行事に参加しない。１人の少年が仮面を被り、その他の少年は、扮装はせず行列に加わる。そのうちの２人が法螺貝を吹き、１人が小太鼓を打って行列の先導をする。その後に婦人が２列縦隊で続く。
 　行列は大御嶽【ウプウタキ】の近くまで行って礼拝し、そこの広場で円陣をつくって声を出しながら左回りする。四辻でも同様に行い、さらに１年以内に新築した家の周囲を巡って祓い清める儀礼を行う。村の東から西へ行進し、西の村はずれで身にまとった植物の葉を捨てて終了する。
 　パーントゥは、海の彼方からやってくる神の１つと考えられており、南西諸島にいくつかの事例を見ることができるが、我が国の各地に散見する来訪神と同列に据えて眺める必要があり、比較研究の上からも重要な行事である。""" ; 
-    crm:P170 [
-    crm:P164 "毎年陰暦９月上旬（島尻），毎年陰暦１２月最後の丑の日（野原）（" ; 
-    crm:P3 "現10月開催"
-    ];
-    crm:P67 &lt;https://www.tabirai.net/sightseeing/column/0003469.aspx&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/158/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit158 ;
-        crm:P81 "" ; 
-        crm:P167 _:place158
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年陰暦９月上旬（島尻），毎年陰暦１２月最後の丑の日（野原）（" ; 
+    crm:P3_has_note "現10月開催"
+    ];
+    crm:P67_refers_to &lt;https://www.tabirai.net/sightseeing/column/0003469.aspx&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/158/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit158 ;
+        crm:P81_ongoing_throughout "" ; 
+        crm:P167_at _:place158
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit158
-    crm:P67 &lt;&gt; ;
-    crm:P4 "";
-    crm:P51 "".
+    crm:P67_refers_to &lt;&gt; ;
+    crm:P4_has_time-span "";
+    crm:P51_has_former_or_current_owner "".
 _:place158
     rdfs:label "";
-    crm:P67 &lt;&gt;.
+    crm:P67_refers_to &lt;&gt;.
 &lt;&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;https://www.tabirai.net/sightseeing/column/0003469.aspx&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/158/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "1993-12-13" ;
-    crm:P67 "307 - 308" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "1993-12-13" ;
+    crm:P67_refers_to "307 - 308" .</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="409.6">
@@ -4219,7 +4219,7 @@
         <v>154</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>333</v>
@@ -4263,10 +4263,10 @@
       <c r="X15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:162
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "大善寺玉垂宮の鬼夜"@ja ;
     rdfs:label "だいぜんじたまたれぐうのおによ"@ja-hrkt ;
-    crm:P3 """　大善寺玉垂宮の鬼夜は、久留米市大善寺玉垂宮に伝承されている行事である。12月31日のオニビトリ（鬼火採り）から始まり、この火が神殿奥にて守られる１月７日まで行われる。
+    crm:P3_has_note """　大善寺玉垂宮の鬼夜は、久留米市大善寺玉垂宮に伝承されている行事である。12月31日のオニビトリ（鬼火採り）から始まり、この火が神殿奥にて守られる１月７日まで行われる。
 　鬼夜の大松明は、かつては前日の１月６日に作っていたが、現在は人手の都合などもあって４日に作っている。この松明は大字宮本の６つの字がそれぞれムラヨリといい全戸が参加して作って奉納するもので、一番松明から六番松明の６本となっている。芯に直径20㎝ほどの孟宗竹を３本束ねて入れその周囲に笹竹を寄せて回し、さらにそのうえを直径3～4㎝ほどの真竹で包み込んで化粧竹とする。火をつける頭には枯れた杉葉を入れて切り口を揃え、この上に頭の方から7本・5本・3本と縄を掛けて結び、同様に根元側からも同じく七五三と縄を掛けて男結びにする。
   大松明の胴を縛る縄は、2本回しで1年の日数を表す365ヶ所、閏年の場合には366ヶ所を縛る。大松明の末端はかずらの蔓で縛り尻縄を付ける。
 　祭り当日の７日は、昼の鬼面尊【きめんそん】神事から始まる。神社から迎えを受けた赤司家と川原家の人たちによって鬼面尊の面が本殿から阿弥陀堂へ奉遷される。このなかで種蒔き行事も行われる。これは神前に供えた玄米を用いて行われるが、その玄米は神官によって正月14日のドンドの日に粥に炊かれ、4月11日の御田祭の当日に粥の表面に発生したカビの具合によって五穀の豊凶や風災害の予測などが占われる。これをカビ占いという。
@@ -4278,34 +4278,34 @@
 　回り終えた一番松明は境内から総門を潜って霰川の堤防にシオイガキに向かう。
 　大松明のシオイガキとともに鬼のシオイガキが行われる。大松明の明かりを避け建物の陰を縫いながら霰川へと向かい、終了後は本殿に一気に駆け込む。ここで、鐘楼の鐘が七・五・三と打たれる。これをヤクガネといいすべての行事が終了したことを示すもので、勝田氏が務めることとなっている。
 　この行事は、その規模においても特筆される火祭りである。小正月の火祭りに追儺の儀式が結び付いたもので、周辺の同種の行事の存在から天台修験の影響も推測される。行事は種蒔き神事などの農耕儀札や、鬼役が人目にふれずに行動すること、大松明のシオイガキなどに特色ある形態を残していること、大松明の奉納やタイマツマワシを玉垂宮の氏子が務め、鉾面神事や鬼役・数取り役・ヤクガネ打ちなどの主要な役が特定の世襲の家筋で務められるなど、地域と社寺が一体となって執行していることなど、多様な要素と内容とを具備しており、この地方の年頭の火祭り行事を代表するものである。""" ; 
-    crm:P170 [
-    crm:P164 "毎年１月７日" ; 
-    crm:P3 "現1月開催"
-    ];
-    crm:P67 &lt;https://tamataregu.or.jp/oniyo&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/162/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit162 ;
-        crm:P81 "368年（仁徳天皇56年）" ; 
-        crm:P167 _:place162
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年１月７日" ; 
+    crm:P3_has_note "現1月開催"
+    ];
+    crm:P67_refers_to &lt;https://tamataregu.or.jp/oniyo&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/162/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit162 ;
+        crm:P81_ongoing_throughout "368年（仁徳天皇56年）" ; 
+        crm:P167_at _:place162
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit162
-    crm:P67 &lt;https://ja.wikipedia.org/wiki/鬼夜&gt; ;
-    crm:P4 "2018-11-15";
-    crm:P51 "STA3816".
+    crm:P67_refers_to &lt;https://ja.wikipedia.org/wiki/鬼夜&gt; ;
+    crm:P4_has_time-span "2018-11-15";
+    crm:P51_has_former_or_current_owner "STA3816".
 _:place162
     rdfs:label "福岡県久留米市大善寺";
-    crm:P67 &lt;http://data.e-stat.go.jp/lod/sac/C40203-20080401&gt;.
+    crm:P67_refers_to &lt;http://data.e-stat.go.jp/lod/sac/C40203-20080401&gt;.
 &lt;https://ja.wikipedia.org/wiki/鬼夜&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;https://tamataregu.or.jp/oniyo&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/162/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "1994-12-13" ;
-    crm:P67 "317" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "1994-12-13" ;
+    crm:P67_refers_to "317" .</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="409.6">
@@ -4328,7 +4328,7 @@
         <v>157</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>231</v>
@@ -4372,10 +4372,10 @@
       <c r="X16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:167
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "陀々堂の鬼はしり"@ja ;
     rdfs:label "だだどうのおにはしり"@ja-hrkt ;
-    crm:P3 """　わが国の各地には年頭に当たって鬼を追い除災招福を祈る行事が残っている。鬼祭などとよばれるこの行事は、鬼の逃げ回ることを強調して鬼はしりなどともよばれる。鬼に災厄の一切を仮託しこれを追って厄を払う風習は、追儺や修正会等の行事に伴って行われることが多い。このなかで、鬼が追われる対象ではなく幸いをもたらす役割を担う例もみられる。五條市大津町の念仏寺で行われる陀々堂の鬼はしりもその一つである。
+    crm:P3_has_note """　わが国の各地には年頭に当たって鬼を追い除災招福を祈る行事が残っている。鬼祭などとよばれるこの行事は、鬼の逃げ回ることを強調して鬼はしりなどともよばれる。鬼に災厄の一切を仮託しこれを追って厄を払う風習は、追儺や修正会等の行事に伴って行われることが多い。このなかで、鬼が追われる対象ではなく幸いをもたらす役割を担う例もみられる。五條市大津町の念仏寺で行われる陀々堂の鬼はしりもその一つである。
 　念仏寺は、平安時代末期に東大寺領豊井庄の一部として登場する坂合部郷12か村の郷寺といわれ、郷内の諸寺院の本山格を務めていたが、現在は真言宗に属する無住寺院となっている。この地域を支配した土豪坂合部氏は、天正2年（1574）高野山衆徒の攻撃を受けて没落するが、その末裔は代々念仏寺別当を務めてきた。
 　坂合部郷12か村は、近世には中村・大野村・山陰村・田殿村・大深村・黒駒村・表野村・大津村・火打村・犬飼村・上野村・相谷村として独立の村となった。しかし、吉野川を隔てた河北・河南のこれらの村々は、中世後期から坂合部山という広大な共有地を持っており、近世以降も実質的にはこの山を中心に郷という共同体を維持してきたのである。
   陀々堂の鬼はしりは、この坂合部郷12か村に、明治22年から坂合部新田・樫辻村が加わり、14の地区の約600戸が維持運営する行事である。なお、坂合部郷の共有山林は現在約500町歩あり、昭和32年から（財）坂合部自治会を組織して管理している。
@@ -4386,34 +4386,34 @@
   またこの日、鬼役とカッテ役が中心となり、朝から念仏寺に集まって鬼はしりの準備をする。これは、鬼の井戸への道作り、鬼の井戸の井戸替え、松明の製作などである。鬼の井戸は以前は吉野川に近接してあったが、洪水に遭い現在では念仏寺境内の一隅に移されている。松明は鬼役用3本とカッテ役用1本、迎え松明1本の計5本を、それぞれの役に当たった家で作る。松明は長さ60㎝、太さ4.5㎝ほどの松の角板を輪に並べ、底面の直径30㎝、口径50㎝ほどの筒を作り、これに紙を巻いた藁縄を二重にして五か所結んで止め、燃焼部分として小割にした肥松を差し込んだ、総高1.1㍍、重さ約60㎏ほどのものである。この肥松同士はハナワという親指大の太さの紙縒で輪に結ぶ。松明の本体は4年目ごとに作り替え、肥松は毎年新調される。なお、迎え松明は直径15㎝ほどに細く作り、カッテ役用の松明は鬼用の松明よりやや小さめに作られる。
 　この日から西金寺の住職によって念仏寺で修正会の法要が始められる。
 　14日午後1時頃より西金寺の住職を導師として旧坂合部郷内の降霊寺・転法輪寺・生蓮寺・吉祥寺の住職と、郷内に檀家をもつ野原の金剛寺の住職が加わり、大般若経600巻の転読が行われる。この間に本尊の裏側で鬼役が衣装を整える。転読が終了すると昼の鬼はしりが行われ、同時に本尊背後の板壁を棒で叩く阿弥陀さんの肩叩きが行われる。""" ; 
-    crm:P170 [
-    crm:P164 "毎年１月１４日" ; 
-    crm:P3 "現1月開催"
-    ];
-    crm:P67 &lt;https://www.city.gojo.lg.jp/kankou/dentou/4032.html&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/167/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit167 ;
-        crm:P81 "室町時代" ; 
-        crm:P167 _:place167
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年１月１４日" ; 
+    crm:P3_has_note "現1月開催"
+    ];
+    crm:P67_refers_to &lt;https://www.city.gojo.lg.jp/kankou/dentou/4032.html&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/167/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit167 ;
+        crm:P81_ongoing_throughout "室町時代" ; 
+        crm:P167_at _:place167
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit167
-    crm:P67 &lt;https://ja.wikipedia.org/wiki/陀々堂の鬼はしり&gt; ;
-    crm:P4 "2019-04-13";
-    crm:P51 "8-hachiro".
+    crm:P67_refers_to &lt;https://ja.wikipedia.org/wiki/陀々堂の鬼はしり&gt; ;
+    crm:P4_has_time-span "2019-04-13";
+    crm:P51_has_former_or_current_owner "8-hachiro".
 _:place167
     rdfs:label "奈良県五條市大津町念仏寺";
-    crm:P67 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S292070500&gt;.
+    crm:P67_refers_to &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S292070500&gt;.
 &lt;https://ja.wikipedia.org/wiki/陀々堂の鬼はしり&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;https://www.city.gojo.lg.jp/kankou/dentou/4032.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/167/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "1995-12-26" ;
-    crm:P67 "325" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "1995-12-26" ;
+    crm:P67_refers_to "325" .</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="409.6">
@@ -4436,7 +4436,7 @@
         <v>160</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>232</v>
@@ -4462,10 +4462,10 @@
       <c r="X17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:179
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "大磯の左義長"@ja ;
     rdfs:label "おおいそのさぎちょう"@ja-hrkt ;
-    crm:P3 """　大磯では左義長とか、サイト・サイトヤキ・サイトバライと呼ぶ小正月の火祭りが、海岸沿いの南下町の坂下・浜町・大泊・子の神、北下町の中宿・浅間町・大北、山王、長者の計９地区で行われる。
+    crm:P3_has_note """　大磯では左義長とか、サイト・サイトヤキ・サイトバライと呼ぶ小正月の火祭りが、海岸沿いの南下町の坂下・浜町・大泊・子の神、北下町の中宿・浅間町・大北、山王、長者の計９地区で行われる。
 　大磯の左義長は、前年12月8日の一番息子という行事で始まると考えられている。その日の朝、子どもたちは宮元（塞の神の世話を代々している家）に集まり、塞の神の祠に置かれているゴロ石を縄で縛り、５人ぐらいの組を作って各家を回り、ゴロ石で門口や庭先の地面をドンドンと打って唱え言を唱える。子どもたちは各家から賽銭を受け取り、宮元へ持ち帰る。この賽銭でご馳走を作って食べるが、風邪をひかないように必ず豆腐を食べる風習がある。ゴロ石は蚕の繭形に中央を削った石で、男子が生まれたり７歳になったときに、丈夫に育つようにと奉納するもので、かつては祠近くの土中に埋めていたという。
 　正月11日早朝に大磯の東方に当たる平塚市に行って、竹や松などを買う。オンベ竹は御仮屋の傍らに立てるもので、ヌイゾメ（縫い初め）といって、正月の供え餅に敷いた紙や五色の紙をつなぎ合わせて作った吹き流し・紙テープ・細い竹と縄とで作った弓矢などをつける。
 　11日から3日間、子どもたちはオカリコ（御仮籠）といって木造の組立式の御仮屋に籠もる。これは塞の神の社地に建て、塞の神を正面奥に祀ったもので、入口には賽銭箱、両側に門松と道祖神と書いた提灯を立て、近くにオンベ竹を立てる。御仮屋の中には火鉢などが置かれ、子どもたちが餅を焼いたりミカンなどを食べてお籠りをする。このとき、隣の地区との境の道には、ミチキリ・シメヒキリといって、中央に幣束を挿した注連縄を張り、賽の目に切った大根を錘につける。
@@ -4475,34 +4475,34 @@
 　午後７時頃、サイトに火をつける。昔はアキの方から点火し、その順番は厳しく守られていたというが、現在は山王のサイトを最初に点火し、次々に火をつける。宮総代が「ドゥミドンヤ」と唱えながら点火し、サイトが燃え盛り、倒れそうになると綱を引いてアキの方に倒す。集まった人びとは、木の枝につけた福団子や竹竿の先に吊り下げた福団子をサイトの火であぶって食べる。
 　サイトの残り火が燃え上がっている頃、渚でヤンナゴッコが行われる。褌姿の青年10数人が、ソリを引いて海に飛び込むと、浜に残っている子どもたちに大人が加勢して、海と陸との綱引きが始まる。ヤンナゴッコは陸の幸と海の幸を相手に与えないように競い合う意味で、必ず陸方が勝つことになっている。海方の青年たちは魚であると言い伝えられており、それを引き上げることによって、豊漁が予祝されるのである。人びとはソリを曳いて、それぞれの地区に戻る。隣の地区のソリと出会ったりすると、大きな声で伊勢音頭を歌って気勢をあげ、地区内を一巡して、塞の神に到着すると、さらにここ一番と大声で歌う。
 　小正月の火祭りは全国に分布するが、関東地方や中部地方のものは塞の神と結びつき、さまざまな展開をみせている。大磯の左義長は、関東地方にあって、とりわけ壮大な規模をもつ代表的な行事であり、一番息子やオカリコの行事が行われたり、豊漁を祈願する予祝儀礼であるヤンナゴッコが行われるなどさまざまな行事を包含し、地域的特徴をよく示している。""" ; 
-    crm:P170 [
-    crm:P164 "毎年１月第三土曜日" ; 
-    crm:P3 "現1月開催"
-    ];
-    crm:P67 &lt;http://www.town.oiso.kanagawa.jp/isotabi/matsuri_event/matsuri/sagichou.html&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/179/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit179 ;
-        crm:P81 "" ; 
-        crm:P167 _:place179
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年１月第三土曜日" ; 
+    crm:P3_has_note "現1月開催"
+    ];
+    crm:P67_refers_to &lt;http://www.town.oiso.kanagawa.jp/isotabi/matsuri_event/matsuri/sagichou.html&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/179/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit179 ;
+        crm:P81_ongoing_throughout "" ; 
+        crm:P167_at _:place179
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit179
-    crm:P67 &lt;&gt; ;
-    crm:P4 "";
-    crm:P51 "".
+    crm:P67_refers_to &lt;&gt; ;
+    crm:P4_has_time-span "";
+    crm:P51_has_former_or_current_owner "".
 _:place179
     rdfs:label "";
-    crm:P67 &lt;&gt;.
+    crm:P67_refers_to &lt;&gt;.
 &lt;&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;http://www.town.oiso.kanagawa.jp/isotabi/matsuri_event/matsuri/sagichou.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/179/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "1997-12-15" ;
-    crm:P67 "337" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "1997-12-15" ;
+    crm:P67_refers_to "337" .</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="409.6">
@@ -4525,7 +4525,7 @@
         <v>140</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>233</v>
@@ -4551,10 +4551,10 @@
       <c r="X18" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:188
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "上郷の小正月行事"@ja ;
     rdfs:label "かみごうのこしょうがつぎょうじ"@ja-hrkt ;
-    crm:P3 """　にかほ市象潟町横岡は旧上郷村に属する鳥海山西麓の台地上に広がる農村地帯で、６つの地区からなる。南端に位置する横岡地区の大下（下村）・中ノ下・中屋敷・寺地の４か所の組と、北端の大森地区では、正月15日を中心にサエの神小屋焼きなどの小正月行事が行われている。
+    crm:P3_has_note """　にかほ市象潟町横岡は旧上郷村に属する鳥海山西麓の台地上に広がる農村地帯で、６つの地区からなる。南端に位置する横岡地区の大下（下村）・中ノ下・中屋敷・寺地の４か所の組と、北端の大森地区では、正月15日を中心にサエの神小屋焼きなどの小正月行事が行われている。
 　正月8日頃、子どもたちは各家から藁とヌサをもらってまわり、大人たちはサエの神小屋の柱などに用いるホケ伐りをする。各組それぞれにサエの神を祀っており、11日午後にその近くにサエの神小屋を建てる。小屋の入口の上部にヌサを飾る。ヌサは藁製の幣束で、コンブ・干鰯・炭・麻などを結びつけ、正月2日朝に家族の男性の数だけ作り、7日まで屋敷内のアキの方にある樹木に掛けておいたものである。入口の両側にはハネノキ（タニウツギ）の枝を立てる。小屋の床には莚を敷き、その上に藁を敷き詰め、最奥部に古いサエの神（木製男根形）を祀る。中ノ下や寺地では小屋にタラの木を二つ割りにして、「十二月吉日」とか「蘇民将来之子孫門戸也」と書いたゴンギョウを挿す。14日夜は9時頃まで子どもたちがサエの神小屋に籠もる。
 　15日早朝、人びとはサエの神餅を持ってサエの神に参拝し、神前で鉈を用いて年齢分の数だけ削って持ち帰る。また、月々の願い事を祈るために1年間の月数を削る人もいる。
 　その後、小屋を燃やす。最後まで燃え残った組が豊作になるといわれ、子どもたちは他の組のサエの神小屋を早く燃やそうとする。この煙が東南になびくと豊作、北寄りに流れると凶作などと占い、火のついた小屋の材を家に持ち帰って、いろりで燃やして火災除けにしたりする。
@@ -4565,34 +4565,34 @@
 　一番鳥はモチモライともいい、このときだけ各家を訪問する。組頭役の中学生はサエの神小屋に祀られていたマラを持ち、一人が太鼓をたたき、数人が大きな布袋を持ってまわる。他の子どもたちはタラの木で作った長さ80㎝ほどの初嫁棒を持つ。材料となるタラの木は、1月6日のタラ迎えの日に山から伐ってきたもので、一部は初嫁棒に、一部はゴンギョウにした。大森地区では、14日までにゴンギョウを作り、15日朝に玄関・裏口・小屋や蔵の門口にヤナギの枝とユズリハとともに掛けて魔除けにする。
 　初嫁のいる家では、初嫁が晴れ着を着て座敷の中央の座布団に座ると、組頭が初嫁の前にマラを投げ出し、子どもたちは初嫁棒で畳をつつきながら3回初嫁の周りを廻まわり、「初嫁出はた。初嫁出はた。つつくは今だ」と嫁つつき唄を歌う。子どもたちは甘酒を振る舞われ、大きな重ね餅をもらう。子どもたちは鳥追いに用いたマラをサエの神の祠に納め、ヤドで餅と御菓子を分配して行事が終わる。
 　この行事は、秋田県ではこの地域だけに見られる特色ある小正月行事であり、また全国各地に伝えられてきた小正月行事の典型例の一つとしても重要である。""" ; 
-    crm:P170 [
-    crm:P164 "毎年１月１５日" ; 
-    crm:P3 "現1月開催"
-    ];
-    crm:P67 &lt;https://common3.pref.akita.lg.jp/genkimura/village/detail.html?cid=24&amp;vid=4&amp;id=1130&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/188/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit188 ;
-        crm:P81 "" ; 
-        crm:P167 _:place188
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年１月１５日" ; 
+    crm:P3_has_note "現1月開催"
+    ];
+    crm:P67_refers_to &lt;https://common3.pref.akita.lg.jp/genkimura/village/detail.html?cid=24&amp;vid=4&amp;id=1130&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/188/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit188 ;
+        crm:P81_ongoing_throughout "" ; 
+        crm:P167_at _:place188
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit188
-    crm:P67 &lt;&gt; ;
-    crm:P4 "";
-    crm:P51 "".
+    crm:P67_refers_to &lt;&gt; ;
+    crm:P4_has_time-span "";
+    crm:P51_has_former_or_current_owner "".
 _:place188
     rdfs:label "";
-    crm:P67 &lt;&gt;.
+    crm:P67_refers_to &lt;&gt;.
 &lt;&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;https://common3.pref.akita.lg.jp/genkimura/village/detail.html?cid=24&amp;vid=4&amp;id=1130&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/188/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "1998-12-16" ;
-    crm:P67 "352 - 353" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "1998-12-16" ;
+    crm:P67_refers_to "352 - 353" .</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="409.6">
@@ -4615,7 +4615,7 @@
         <v>165</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>234</v>
@@ -4641,10 +4641,10 @@
       <c r="X19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:195
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "遊佐の小正月行事"@ja ;
     rdfs:label "ゆざのこしょうがつぎょうじ"@ja-hrkt ;
-    crm:P3 """　山形県飽海郡遊佐町の女鹿・滝ノ浦・鳥崎地区は、鳥海山西麓の山形県と秋田県の県境に位置し、日本海岸に面した海沿いの半農半漁の集落である。女鹿には水田がない。
+    crm:P3_has_note """　山形県飽海郡遊佐町の女鹿・滝ノ浦・鳥崎地区は、鳥海山西麓の山形県と秋田県の県境に位置し、日本海岸に面した海沿いの半農半漁の集落である。女鹿には水田がない。
 　この地域では正月にアマハゲと呼ぶ行事が行われている。現在は滝ノ浦が１日、女鹿が３日、鳥崎が６日と別々の日に行われているが、昭和12頃までは３集落とも旧暦1月15日に行われていた。期日はその後、1月31日、1月6日と変化し、昭和50年代初めから現在の期日となった。
 　かつて３集落では、アマハゲ行事とともにホンテ焼きの行事と鳥追い行事も行われており、鳥崎では現在も地区の行事として行われている。
 　アマハゲの役は、かつては若者が務めるものであった。女鹿ではかつてワカゼという若者の組織が、現在では高校生から30歳くらいまでの青年会が務める。滝ノ浦では消防団が主体となり、鳥崎でもかつては15歳から25歳までのワカゼが務めたが、その後、消防団へと主体が移り、現在では集落を挙げての行事となっている。
@@ -4658,34 +4658,34 @@
 　鳥追いは、ヨンドリ・ヨナカドリ・ヨアケドリ・アサドリの４回行われる。このうちヨンドリはアマハゲのすぐ後に続いてまわる。滝ノ浦ではヨンドリとヨアケドリは青年が、ヨナカドリとアサドリは子ども組が行ったという。現在行われている鳥崎では子どもたちの行事で、太鼓に合わせて鳥追い唄を歌いながら集落内をまわっている。
 　ホンテ焼きは、女鹿では以前は子どもたち、現在は青年達が門松や注連縄とともにケンダンを焼いている。滝ノ浦では家ごとに行っており、鳥崎では子どもたちが上ノ山のホンテ焼き場で門松・古札類とケンダンを焼いている。
 　遊佐のアマハゲは、男鹿のナマハゲなどと同系統の小正月の来訪神の行事であるが、包丁などは持たず、新年の祝福と豊作を約束して護符の餅をやりとりするなどの特色を有しており、滝ノ浦のように無言で独特の所作を行うなどの地域的特色も有している。また、来訪神と鳥追い・ホンテ焼きなどが組み合わされて伝承されている点でも小正月行事の典型的なものとして重要である。""" ; 
-    crm:P170 [
-    crm:P164 "毎年１月１日（滝ノ浦）、３日（女鹿）、６日（鳥崎）" ; 
-    crm:P3 "現1月開催"
-    ];
-    crm:P67 &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/195/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit195 ;
-        crm:P81 "" ; 
-        crm:P167 _:place195
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年１月１日（滝ノ浦）、３日（女鹿）、６日（鳥崎）" ; 
+    crm:P3_has_note "現1月開催"
+    ];
+    crm:P67_refers_to &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/195/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit195 ;
+        crm:P81_ongoing_throughout "" ; 
+        crm:P167_at _:place195
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit195
-    crm:P67 &lt;&gt; ;
-    crm:P4 "";
-    crm:P51 "".
+    crm:P67_refers_to &lt;&gt; ;
+    crm:P4_has_time-span "";
+    crm:P51_has_former_or_current_owner "".
 _:place195
     rdfs:label "";
-    crm:P67 &lt;&gt;.
+    crm:P67_refers_to &lt;&gt;.
 &lt;&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/195/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "1999-12-21" ;
-    crm:P67 "359" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "1999-12-21" ;
+    crm:P67_refers_to "359" .</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="409.6">
@@ -4708,7 +4708,7 @@
         <v>168</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>235</v>
@@ -4734,10 +4734,10 @@
       <c r="X20" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:204
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "米川の水かぶり"@ja ;
     rdfs:label "よねかわのみずかぶり"@ja-hrkt ;
-    crm:P3 """　旧登米郡東和町は、宮城県北部に位置し、北は岩手県と境を接する北上川左岸の地域である。旧狼河原村と鱒渕村の２か村が明治22年に合併して米川村となり、さらに昭和32年に近接する米谷町、日高村と合併して東和町となった。この旧米川村の中心地が狼河原であり、近世には登米郡から本吉郡へ通じる西郡街道の宿駅であった。狼河原は本町、中町、五日町からなっており、この行事は五日町で行われている。
+    crm:P3_has_note """　旧登米郡東和町は、宮城県北部に位置し、北は岩手県と境を接する北上川左岸の地域である。旧狼河原村と鱒渕村の２か村が明治22年に合併して米川村となり、さらに昭和32年に近接する米谷町、日高村と合併して東和町となった。この旧米川村の中心地が狼河原であり、近世には登米郡から本吉郡へ通じる西郡街道の宿駅であった。狼河原は本町、中町、五日町からなっており、この行事は五日町で行われている。
 　米川の水かぶりは、２月初午の日に行われる。五日町町内在住の若者や厄年の者が集まって行われる行事で、厄払いの要素も併せもつ。この行事には、五日町町内在住の男以外が参加したり、初午の日以外にすると火事が起きるとか、宿を変えてはならないという伝承があり、宿は代々五日町地内の菅原家と決まっている。
 　初午の日の朝、参加者が宿の菅原家に集まって装束作りを始める。宿ではオカメとヒョットコの衣装や面を保管しており、装束を作るのに使う糯種の稲藁も用意しておくことになっている。
 　宿に集まった参加者たちは、行事で着用する装束を藁で作る。装束はオシメといわれる、腰や上半身にまとう蓑状のものと、その他アタマという頭に被る大きな苞状のものである。アタマは、一束の藁で作り、苞の先端には藁を細工したさまざまな飾りがつけられているが、この飾りは個々人で異なり一様ではない。苞には頭から落ちないように、頸のところで押さえるための輪状のものを作る。
@@ -4749,34 +4749,34 @@
 　参加者は、宿にひきあげると風呂に入ってカサコシに参加する。以前は風呂に入らず、宿の裏側を流れている二俣川に入って禊ぎをしたという。カサコシも宿で行っていたが、平成４年頃から集会所でしている。
 　米川では、初午の日は水かぶりの一行が通り過ぎるまでは、色のついたものを食べることが禁じられており、これを破ると火早くなるといわれ、火災が発生しやすくなるといわれている。
 　この行事は、初午の日に行われる火伏せの行事であるが、同時に参加者が異装をして正体がわからないようにして現れるなど、小正月の異形異装の来訪者の行事の要素も併せもっている。また、町内在住者以外の男性の参加を認めない、水かぶりの一行が家の前を通り過ぎるまで、色のついたものを食べないという禁忌も厳格に守られている。宮城県北部における初午の火伏せ行事の中でも代表的なものであり、地域的特色もみられるものである。""" ; 
-    crm:P170 [
-    crm:P164 "毎年２月初午" ; 
-    crm:P3 "現2月開催"
-    ];
-    crm:P67 &lt;https://www.city.tome.miyagi.jp/syogaigakusyu/shisejoho/bunkazai/raihousin.html&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/204/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit204 ;
-        crm:P81 "" ; 
-        crm:P167 _:place204
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年２月初午" ; 
+    crm:P3_has_note "現2月開催"
+    ];
+    crm:P67_refers_to &lt;https://www.city.tome.miyagi.jp/syogaigakusyu/shisejoho/bunkazai/raihousin.html&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/204/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit204 ;
+        crm:P81_ongoing_throughout "" ; 
+        crm:P167_at _:place204
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit204
-    crm:P67 &lt;&gt; ;
-    crm:P4 "";
-    crm:P51 "".
+    crm:P67_refers_to &lt;&gt; ;
+    crm:P4_has_time-span "";
+    crm:P51_has_former_or_current_owner "".
 _:place204
     rdfs:label "";
-    crm:P67 &lt;&gt;.
+    crm:P67_refers_to &lt;&gt;.
 &lt;&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;https://www.city.tome.miyagi.jp/syogaigakusyu/shisejoho/bunkazai/raihousin.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/204/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "2000-12-27" ;
-    crm:P67 "374" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "2000-12-27" ;
+    crm:P67_refers_to "374" .</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="409.6">
@@ -4799,7 +4799,7 @@
         <v>171</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>236</v>
@@ -4825,10 +4825,10 @@
       <c r="X21" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:218
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "見島のカセドリ"@ja ;
     rdfs:label "みしまのかせどり"@ja-hrkt ;
-    crm:P3 """見島のカセドリは、佐賀県佐賀市蓮池町の見島地区で行われている小正月の行事で、笠を被り、藁蓑をつけたカセドリと呼ばれる青年２人が、夜に地区内の家々を順番に訪れ、手に持った青竹を激しく畳や床に打ち付けて悪霊を祓い、その年の家内安全や五穀豊穣を祈願する行事である。
+    crm:P3_has_note """見島のカセドリは、佐賀県佐賀市蓮池町の見島地区で行われている小正月の行事で、笠を被り、藁蓑をつけたカセドリと呼ばれる青年２人が、夜に地区内の家々を順番に訪れ、手に持った青竹を激しく畳や床に打ち付けて悪霊を祓い、その年の家内安全や五穀豊穣を祈願する行事である。
 　蓮池町は、佐賀市東南部、佐賀江川や城原川などが流れる、日本有数の農業地帯である佐賀平野の中央部に位置する。蓮池町一帯は、かつては有明海の干拓地であったが、寛永16年（1639）に佐賀藩の三支藩の1つである蓮池藩が成立し、初代藩主の鍋島直澄によって蓮池城が整備されたのに伴って開墾が進められ、城下町として栄えるようになった。しかし、当時は井戸水に海水が混じり、夏になると疫病が絶えなかったことから、藩主の直澄が紀州の熊野三所権現を勧請して熊野権現社を建立し、当地の鎮守として祀ったところ疫病が途絶えたという。そして、これを機に、より一層の加護を祈念して始められたのが、このカセドリ行事であると伝えられている。
   毎年旧暦1月14日に行われてきたが、現在は、2月第二土曜日の夜に行われている。
 　カセドリ行事は、見島地区の人たちから構成される加勢鳥保存会によって伝承されている。カセドリは、神の使いとされる雌雄つがいの鳥で、加勢鳥と表記されている。カセドリ役は、雄役と雌役のそれぞれ1名が、地区内に住む20歳前後の未婚の青年から選ばれる。カセドリは、雌雄とも、藁蓑を身につけ、頭には目と鼻と口だけを出して白手拭いを巻き、その上から笠を被った姿をとり、手足には、手甲、脚絆、白足袋をつける。そして、手には、長さ2㍍ほどの青竹を持つ。この青竹は、下半分を縦に細かく割り裂いて、その上部に縄を2か所巻き付けて握る部分を作ったもので、たたきつけるとガシャ、ガシャという音が出るようになっている。
@@ -4837,34 +4837,34 @@
 　行事の当日は、夕方から、藁蓑や笠などの衣装類や御幣、天狗面などの道具が供え置かれている熊野権現社に一同で参り、それらを受けて身につけた後、行事が始まる。カセドリ役の2人は、熊野権現社の鳥居の外で待機し、拝殿の前にいる提灯持ちの合図で、雄役、次いで雌役の順で、割れた青竹の先を地面に擦りつけながら拝殿内に走り込む。そして、カセドリは顔を伏せて屈んだ姿勢をとると、青竹を拝殿の畳の上に小刻みに激しく打ち付けて鳴らす。これは鳥が飛び立つときの羽音を表現しているとも、またこの音で悪霊を退散させるともいわれている。
 　その後、提灯持ちの合図で拝殿から出たカセドリ役は、青竹の先を地面に擦りながら小走りに熊野権現社の周囲を右回りに3周し、最後に再び拝殿内へ駆け上がって青竹を打ち鳴らす。この熊野権現社での儀礼が終了すると、地区内の各家を訪問するため、提灯持ち、カセドリ、天狗持ち、御幣持ち、籠担いの順で行列をつくって神社を出発する。
 　見島地区は、23の戸数があり、1年交替で東回り、西回りとカセドリの一行が家々を巡る順番を決めている。カセドリは、この道中、青竹を地面に引きずって音を立てながら暗い夜道を歩いていき、各家を巡る間は無言で通す。そして、カセドリの一行は、屋敷内に入ると、まず提灯持ちの1人がその家の主人に挨拶に行き、カセドリの到着を伝える。天狗持ち、御幣持ち、籠担いは、屋敷の庭で待機している。その家の者が全員揃い、用意が整うと、提灯持ちが玄関口で合図をし、カセドリ役が雄役、雌役の順で、青竹の先を地面に擦りつけながら家内に勢いよく走り込む。かつては、土間から座敷に上がり込むことが多かったが、近年は玄関口から飛び込んで、上がりかまちで青竹を打ち鳴らすことが多くなっている。しばらく青竹を鳴らすと、ころあいをみてその家の者が酒や茶などをカセドリに振る舞う。カセドリは終始体を屈めたままで応じる（カセドリの顔をみると幸運を授かるという）。最後に青竹を打ち鳴らして外に出ると、提灯持ちが祝儀をもらい、大福帳を渡す。全戸をまわると神社に戻り拝殿で青竹を打ち鳴らして終了する。""" ; 
-    crm:P170 [
-    crm:P164 "毎年２月第二土曜日" ; 
-    crm:P3 "現2月開催"
-    ];
-    crm:P67 &lt;https://saga-otakara.jp/search/detail.php?id=5346&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/218/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit218 ;
-        crm:P81 "" ; 
-        crm:P167 _:place218
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年２月第二土曜日" ; 
+    crm:P3_has_note "現2月開催"
+    ];
+    crm:P67_refers_to &lt;https://saga-otakara.jp/search/detail.php?id=5346&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/218/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit218 ;
+        crm:P81_ongoing_throughout "" ; 
+        crm:P167_at _:place218
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit218
-    crm:P67 &lt;&gt; ;
-    crm:P4 "";
-    crm:P51 "".
+    crm:P67_refers_to &lt;&gt; ;
+    crm:P4_has_time-span "";
+    crm:P51_has_former_or_current_owner "".
 _:place218
     rdfs:label "";
-    crm:P67 &lt;&gt;.
+    crm:P67_refers_to &lt;&gt;.
 &lt;&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;https://saga-otakara.jp/search/detail.php?id=5346&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/218/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "2002-02-20" ;
-    crm:P67 "390" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "2002-02-20" ;
+    crm:P67_refers_to "390" .</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="409.6">
@@ -4887,7 +4887,7 @@
         <v>140</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>334</v>
@@ -4913,10 +4913,10 @@
       <c r="X22" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:221
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "吉浜のスネカ"@ja ;
     rdfs:label "よしはまのすねか"@ja-hrkt ;
-    crm:P3 """　吉浜のスネカは、岩手県大船渡市三陸町の吉浜地区に伝承されている来訪神の行事で、奇怪な面を着け、藁蓑などをまとったスネカと呼ばれる異装の者が小正月の夜に地区内の家々を訪れて、怠け者や泣く子を戒める行事である。
+    crm:P3_has_note """　吉浜のスネカは、岩手県大船渡市三陸町の吉浜地区に伝承されている来訪神の行事で、奇怪な面を着け、藁蓑などをまとったスネカと呼ばれる異装の者が小正月の夜に地区内の家々を訪れて、怠け者や泣く子を戒める行事である。
 　スネカとは、囲炉裏のそばで怠けている者の脛にできるヒガタ（火班）を剥ぐ行為を指すスネカワタグリ（脛皮たぐり）に由来するといわれている。
 　三陸町は、岩手県の沿岸部、リアス式海岸で有名な三陸海岸の南部に位置する。スネカが伝承されている吉浜地区は、町域の北部にあり、東は吉浜湾に面し、西は山岳が海岸まで迫る地勢で、その間に集落が展開している。生業は半農半漁で、日本屈指のアワビの産地として知られるなど古くから漁業が盛んであり、また、畑作を中心とした農業も行われてきた。
 　スネカは、吉浜地区の中でも農業への依存度が高かった本郷と呼ばれる地区の西側に位置する増館、大野、上通、中通、下通、後山の各集落に伝承されてきた行事と伝えられている。現在は、吉浜スネカ保存会を中心に、扇洞、根白東、根白西、千歳の各集落も含めた地区全体の行事として行われている。
@@ -4928,34 +4928,34 @@
 　行事の準備は、1月15日午後から吉浜地区の共同施設で行われる。スネカに扮する男性たちが集合して面や衣装などを身に着け、また、スネカ役の各集落への割り振りなどが決められる。このときにスネカ役を初めて経験する者には、年輩者からスネカの威嚇の仕方や歩き方などの所作が教えられる。こうして準備が整い、日が沈むのを待って行事が始められる。
 　夜になると、各集落ごとにスネカが一軒一軒家々を回って歩く。スネカは、訪問する家の庭先に着くとゴオッ、ゴオッと鼻を鳴らしながら玄関口に向かい、戸をガタガタと揺すったり、爪で引っ掻いたりしてから戸を開けて、腰を屈めた姿勢で家内に入る。そして、上がりかまちに足をかけたり、土間から座敷に上がり込んだりして、キリハを振り上げて威嚇をする。家々では、家族一同がスネカの訪問を待って座敷に集まっており、小さい子どもたちはスネカの恐ろしい姿を見て、泣きわめいたり、逃げ出そうとしたりする。
 　スネカは、家人の近くににじり寄り、「カバネヤミ（怠け者）いねえが」「泣くワラシいねえが、言うこと聞かねワラシいねえが」などと声を張り上げる。家人が「スネカ様、どっから来やした」と聞くと、スネカは、「五葉山から来た」、あるいは「天狗岩から来た」などと答え、しばらく座敷を歩き回りながら、恐ろしい形相で怠け者を捜す素振りをしたり、親に抱かれた幼児や逃げ回る子どもたちを威嚇する。家人は、「カバネヤミも、泣くワラシもいねえがら、餅あげっから帰ってけらっせん」などと言って、スネカの退散を促す。""" ; 
-    crm:P170 [
-    crm:P164 "毎年１月１５日" ; 
-    crm:P3 "現1月開催"
-    ];
-    crm:P67 &lt;https://ofunato.jp/Summary/info/81&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/221/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit221 ;
-        crm:P81 "" ; 
-        crm:P167 _:place221
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年１月１５日" ; 
+    crm:P3_has_note "現1月開催"
+    ];
+    crm:P67_refers_to &lt;https://ofunato.jp/Summary/info/81&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/221/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit221 ;
+        crm:P81_ongoing_throughout "" ; 
+        crm:P167_at _:place221
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit221
-    crm:P67 &lt;&gt; ;
-    crm:P4 "";
-    crm:P51 "".
+    crm:P67_refers_to &lt;&gt; ;
+    crm:P4_has_time-span "";
+    crm:P51_has_former_or_current_owner "".
 _:place221
     rdfs:label "";
-    crm:P67 &lt;&gt;.
+    crm:P67_refers_to &lt;&gt;.
 &lt;&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;https://ofunato.jp/Summary/info/81&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/221/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "2004-02-06" ;
-    crm:P67 "392" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "2004-02-06" ;
+    crm:P67_refers_to "392" .</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="409.6">
@@ -4978,7 +4978,7 @@
         <v>176</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>237</v>
@@ -5022,10 +5022,10 @@
       <c r="X23" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:228
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "鳥羽の火祭り"@ja ;
     rdfs:label "とばのひまつり"@ja-hrkt ;
-    crm:P3 """　鳥羽の火祭りは、幡豆町の鳥羽地区で行われている正月行事で、地区を二分し、燃え盛るスズミと呼ばれる大松明の中から「神木」と「十二縄」を取り出して神前に供える速さを競い、その勝敗や松明の燃え具合などで作柄や一年の吉凶などを占う行事である。
+    crm:P3_has_note """　鳥羽の火祭りは、幡豆町の鳥羽地区で行われている正月行事で、地区を二分し、燃え盛るスズミと呼ばれる大松明の中から「神木」と「十二縄」を取り出して神前に供える速さを競い、その勝敗や松明の燃え具合などで作柄や一年の吉凶などを占う行事である。
 　行事は旧鳥羽村の村社である神明社の境内で行われ、古くは旧暦１月７日に行われていたが、昭和45年からは２月の第二日曜日に行われることとなった。
 　神明社脇を流れる鳥羽川を境に、東側の九番組、十番組を「乾地」、西側の十一番組、十二番組を「福地」という形で地区を二分する。そして神明社の氏子の中から選ばれた９人の宮係（宮役）とそのうちの１人が務める宮総代が中心となって執行され、行事の参加者は忌みの罹っていない男性に限られる。
 　乾地、福地の若者からそれぞれ１人ずつ神男が選ばれ、祭りの中心的な役割を務める。この神男は、前年の祭り当日に決められ、かつては25歳の厄男の中からくじ引きで選ばれていたが、現在では宮総代が依頼するようになり、年齢も原則扱いとなった。神男は、現在では祭り前の3日（かつては7日）神社に籠もり、自分で煮炊きした料理を食べて精進潔斎をする。神男は他に、スズミの材料集めやミソギの先導役を務めたり、祭り当日はスズミの燃え具合を煽る役を務める。
@@ -5039,34 +5039,34 @@
 　祭り当日、祭り参加者は午後2時頃に社務所に集合し、晒の下帯に白足袋・鉢巻を付けた姿に身を調え、神男を先頭に宮係の先導で隊列を組んで浜に行き、ミソギをする。海中でのミソギは、福地の神男が御幣を付けた竹棹を海に投げ入れ、これを乾地の神男が拾って終わる。その後ミソギの一行は再び隊列を組んで神明社に戻り、境内に祀られてある稲荷大明神に御幣竹を奉じた後、いったん帰宅して夕方の祭りに備える。
 　夕刻、氏子総代がヒツケ役を自宅に迎えに行く。その後、神明社の拝殿にて神男らのお祓いが行われ、拝殿脇に控えているネコ姿の奉仕人を塩で清めた後、ヒツケ役を先頭にスズミに向かう。スズミの前で神官によるお祓いが行われ、最後の塩が撒かれた後、神男がヒツケ役によってきりだされた火を用いて、スズミに点火する。
 　年の初めにその年の豊凶を占う年占の行事は、日本各地に地域的特色をもって伝承されており、一部には修正会との関連をうかがわせるものもみられる。本件は、そうした数少ない事例で、「神男」を中心とした塩垢離とりの習俗や、大型の松明の製作と材料の調達などに地域をあげての参加がみられ、伝承の根強さを示している。また、燃えさかる大松明の中から神木や十二縄を取り出す競争は他に類例が少なく、地域的特色も豊かである。""" ; 
-    crm:P170 [
-    crm:P164 "毎年２月第２日曜日" ; 
-    crm:P3 "現2月開催"
-    ];
-    crm:P67 &lt;http://www.katch.ne.jp/~toba-shinmeisha/himatsuri/index.html&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/228/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit228 ;
-        crm:P81 "平安時代" ; 
-        crm:P167 _:place228
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年２月第２日曜日" ; 
+    crm:P3_has_note "現2月開催"
+    ];
+    crm:P67_refers_to &lt;http://www.katch.ne.jp/~toba-shinmeisha/himatsuri/index.html&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/228/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit228 ;
+        crm:P81_ongoing_throughout "平安時代" ; 
+        crm:P167_at _:place228
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit228
-    crm:P67 &lt;https://ja.wikipedia.org/wiki/鳥羽の火祭り&gt; ;
-    crm:P4 "2019-12-21";
-    crm:P51 "Urania".
+    crm:P67_refers_to &lt;https://ja.wikipedia.org/wiki/鳥羽の火祭り&gt; ;
+    crm:P4_has_time-span "2019-12-21";
+    crm:P51_has_former_or_current_owner "Urania".
 _:place228
     rdfs:label "愛知県西尾市";
-    crm:P67 &lt;http://data.e-stat.go.jp/lod/sac/C23213-20110401&gt;.
+    crm:P67_refers_to &lt;http://data.e-stat.go.jp/lod/sac/C23213-20110401&gt;.
 &lt;https://ja.wikipedia.org/wiki/鳥羽の火祭り&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;http://www.katch.ne.jp/~toba-shinmeisha/himatsuri/index.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/228/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "2004-02-06" ;
-    crm:P67 "399" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "2004-02-06" ;
+    crm:P67_refers_to "399" .</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="409.6">
@@ -5089,7 +5089,7 @@
         <v>179</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>238</v>
@@ -5115,10 +5115,10 @@
       <c r="X24" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:236
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "五十猛のグロ"@ja ;
     rdfs:label "いそだけのぐろ"@ja-hrkt ;
-    crm:P3 """　五十猛のグロは、大田市五十猛町大浦地区に伝承される小正月の行事である。グロと呼ばれる円錐形の大きな仮屋を浜辺に作って歳徳神を迎え、その年の豊漁や無病息災を祈願し、最後に正月飾りとともに仮屋を焼き払う行事で、1月11日から15日までの5日間にわたって行われる。
+    crm:P3_has_note """　五十猛のグロは、大田市五十猛町大浦地区に伝承される小正月の行事である。グロと呼ばれる円錐形の大きな仮屋を浜辺に作って歳徳神を迎え、その年の豊漁や無病息災を祈願し、最後に正月飾りとともに仮屋を焼き払う行事で、1月11日から15日までの5日間にわたって行われる。
 　五十猛町は、島根県のほぼ中央にある大田市の北西部に位置する。グロが伝承されている大浦地区は、日本海に面した町域の西端にあり、石見海岸では浜田に次ぐ県内屈指の漁港として栄えてきたところである。この行事は、大浦地区の漁師たちによって伝えられてきたもので、かつては網元を中心に行われていたが、現在は漁業に従事する家々によって構成される大浦グロ保存会を中心に伝承されている。
 　グロとは、行事の名称であるとともに、行事の際に竹を主な材料として作られる独特の小屋をさす呼称でもある。その語源は定かではないが、当地では、グロとは草むらや山中に建つ簡素な小屋のこと、あるいは草が密集している様子を言い表す語として用いられ、こうした関連から仮屋をグロと称するようになったといわれる。
 　行事の準備や運営は、大浦地区の家々を第一組と第二組とに分け、この2つの組が1年交替の当番制で行っている。第一組は、上一、上二、上三、竪町、本町の5つの自治会から、第二組は、柳町、上柳町、明神、朝日、日の出、団地の6つの自治会からなる。当番に当たった組は、その年に5人の世話人を選出する。世話人は、グロの材料集めや組み立てなどの準備作業をはじめ、供物の用意や儀礼に際しての献饌など、数日間にわたる行事の中心的な役割を担う。
@@ -5130,34 +5130,34 @@
 　翌15日は、早朝から当番の組の男性たちが浜辺に集まり、グロの解体が行われる。外されたセンボクサンは縁起物として希望者に売られ、船の防舷材や雨樋などに使用される。かつては競りで売買され、網元が高値を付けたといわれている。取り外された竹や笹など浜辺に高く積まれ、各家が持ち寄った松飾りや注連縄、古い御札とともに燃やされて、行事は終了する。
 　年の始めに仮屋を設けて神を迎え、予祝儀礼や火焚きを行う行事は、日本の各地に地域的特色をもって伝承されており、日本人の神観念や年中行事を理解する上で早くから注目されてきた。このような小正月の行事については、これまでに東北地方や関東地方など東日本の事例が指定されているが、五十猛のグロは、従来この種の行事の指定のなかった西日本地域の中で、特色ある小正月の行事として注目されるものであり、センボクサンを心柱とする円錐形の独特の仮屋を作り、その中で地区の人たちが共同飲食をするなど地域的特色も豊かである。
 　また、グロと呼ばれる小正月の行事は、島根県中部の沿岸部に伝承されてきたが、現在では大浦地区で行われるのみとなっている。神を迎え・送る一連の儀礼や禁忌などの民俗的要素もよく伝えており、我が国の年中行事や民間信仰の変遷を考える上で重要である。""" ; 
-    crm:P170 [
-    crm:P164 "毎年１月１１～１５日" ; 
-    crm:P3 "現1月開催"
-    ];
-    crm:P67 &lt;https://www.all-iwami.com/spot/detail_1187.html&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/236/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit236 ;
-        crm:P81 "" ; 
-        crm:P167 _:place236
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年１月１１～１５日" ; 
+    crm:P3_has_note "現1月開催"
+    ];
+    crm:P67_refers_to &lt;https://www.all-iwami.com/spot/detail_1187.html&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/236/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit236 ;
+        crm:P81_ongoing_throughout "" ; 
+        crm:P167_at _:place236
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit236
-    crm:P67 &lt;&gt; ;
-    crm:P4 "";
-    crm:P51 "".
+    crm:P67_refers_to &lt;&gt; ;
+    crm:P4_has_time-span "";
+    crm:P51_has_former_or_current_owner "".
 _:place236
     rdfs:label "";
-    crm:P67 &lt;&gt;.
+    crm:P67_refers_to &lt;&gt;.
 &lt;&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;https://www.all-iwami.com/spot/detail_1187.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/236/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "2005-02-21" ;
-    crm:P67 "409" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "2005-02-21" ;
+    crm:P67_refers_to "409" .</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="409.6">
@@ -5177,10 +5177,10 @@
         <v>182</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>239</v>
@@ -5206,10 +5206,10 @@
       <c r="X25" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:240
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "月浜のえんずのわり"@ja ;
     rdfs:label "つきはまのえんずのわり"@ja-hrkt ;
-    crm:P3 """　月浜のえんずのわりは、宮城県東松島市宮戸の月浜地区に伝承される小正月の鳥追いの行事で、子どもたちが岩屋でお籠もりをしてから、集団で家々を回り、害鳥を追い払う唱え言をいって、一年の豊作や無病息災を祈願する。
+    crm:P3_has_note """　月浜のえんずのわりは、宮城県東松島市宮戸の月浜地区に伝承される小正月の鳥追いの行事で、子どもたちが岩屋でお籠もりをしてから、集団で家々を回り、害鳥を追い払う唱え言をいって、一年の豊作や無病息災を祈願する。
 　東松島市宮戸は、宮城県の北東部、松島湾の外縁をなす奥松島と呼ばれる島々の１つ、宮戸島に位置する。宮戸島は、松島湾では最大の島であり、えんずのわりが伝承されている月浜地区は、島の南端に位置する４０戸ほどの半農半漁の集落である。　えんずのわりは、この地区の子どもたちによって伝承されてきた行事である。かつては旧暦で行われていたが、昭和３０年代中頃から新暦で行うようになり、現在は１月１４日夜を中心に、６日間にわたって行われている。
 　行事の呼称である「えんずのわり」とは、当地の方言で「意地の悪い」ことを意味するとされ、農作物を荒らす意地の悪い鳥を追い払うのがこの行事であるという。
 　行事の準備や執行は、子どもたちを中心に行う。行事に参加できるのは、月浜地区に住む７～１５歳までの男子で、小学1年生～中学3年生までに当たる。子どもたちの中でも、最上学年で最も早く生まれた男子が一番大将と呼ばれ、以下、年齢順に二番大将、三番大将となり、その年初めて参加する一番下の男子がスッケン大将と呼ばれて雑事を担当する。一番大将が行事の責任者であり、岩屋でのお籠もりをはじめとする行事全体の指揮をとる。
@@ -5218,34 +5218,34 @@
 　岩屋で作る食事は、精進料理といって、厚揚げや大根、人参、牛蒡などを入れた汁とご飯だけで、肉や魚は一切口にしない。食事の支度は皆で協力して行うが、味付けは一番大将の役目であり、また、よく働いた者には一番大将の指示で、料理に豆腐が付いたり、逆に怠けていた者の汁の中には生の野菜が入れられたりする。できあがった料理は神棚に一度供えてから食べる。岩屋に泊まるのは子どもの中でも上級生のみで、下級生は家に戻り、翌日の早朝に再び岩屋に集まる。一同は、起床後、岩屋の内外を掃き清めてから食事を済ませ、登校する。このようにして子どもたちは、大人の手を借りずに、１６日まで岩屋で共同生活を行う。
 　１４日は、地区の人たちが岩屋を訪れる。各自が持参したロウソクを奉納し、一番大将から御神酒をもらって１年の無病息災などを祈願する。子どもたちは、夕方になると食事を作って食べ、ロウソクを岩屋内の神棚や囲炉裏の炉縁などに並べて灯すと、神木を持って岩屋を出発する。子どもたちの一行は、まずはじめに五十鈴神社に参り、社殿の前で害鳥を追い払う唱え言をいい、次いで境内にある小祠、共同井戸の跡と回ってから、家々を一軒一軒歩いて回る。このときには子どもたちよりやや年長の後見と呼ばれる若者が数人付き添い、唱え言の音頭をとったり、必要に応じて指示を出したりする。各家では、神棚に灯明をあげ、縁側や玄関の戸を開けて座し、子どもたちの来訪を待っている。一行は家に着くと家族に向かって２列に並び、神木で地面を突き鳴らして調子を取りながら声を揃えて唱え言をいう。唱え言は、「えーい、えーい、えー。えんずのわり鳥追わば、頭【かずら】割って塩つけで、たーどー紙さ畳み入れで、えんずの島さ流さんし」という文言で、意地の悪い鳥を捕まえて遠い島へ流す、という内容である。子どもたちは、この唱え言を3回繰り返し、次いで、その家の家族構成や職業などに応じて、年寄りの長寿や子どもの無事成長、家業の繁栄などの祝いの言葉を述べ、最後に「陸は万作、海は大漁、銭金孕め」と締めくくる。
 　年頭にあたり農作物を荒らす害鳥駆除を目的として行われる行事は、東北地方や北陸地方などを主として東日本に伝承され、子どもたちを中心に行われてきた。この行事は、年長の一番大将をはじめとする子どもたちによる伝承組織が年齢階梯的な秩序の基づいてよく守られているとともに、害鳥を追い払う唱え言もきちんと伝えられているなど、鳥追い行事の典型例と考えられるものである。また、子どもたちが行事の間、岩屋にお籠もりする儀礼が伴うなど地域的特色も豊かである。我が国の年中行事や民間信仰の変遷を考える上で重要である。""" ; 
-    crm:P170 [
-    crm:P164 "毎年1月11～16日" ; 
-    crm:P3 "現1月開催"
-    ];
-    crm:P67 &lt;https://www.nihon-kankou.or.jp/miyagi/042145/detail/04566be2220112899&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/240/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit240 ;
-        crm:P81 "" ; 
-        crm:P167 _:place240
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年1月11～16日" ; 
+    crm:P3_has_note "現1月開催"
+    ];
+    crm:P67_refers_to &lt;https://www.nihon-kankou.or.jp/miyagi/042145/detail/04566be2220112899&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/240/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit240 ;
+        crm:P81_ongoing_throughout "" ; 
+        crm:P167_at _:place240
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit240
-    crm:P67 &lt;&gt; ;
-    crm:P4 "";
-    crm:P51 "".
+    crm:P67_refers_to &lt;&gt; ;
+    crm:P4_has_time-span "";
+    crm:P51_has_former_or_current_owner "".
 _:place240
     rdfs:label "";
-    crm:P67 &lt;&gt;.
+    crm:P67_refers_to &lt;&gt;.
 &lt;&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;https://www.nihon-kankou.or.jp/miyagi/042145/detail/04566be2220112899&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/240/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "2006-03-15" ;
-    crm:P67 "413" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "2006-03-15" ;
+    crm:P67_refers_to "413" .</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="409.6">
@@ -5268,7 +5268,7 @@
         <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>240</v>
@@ -5312,10 +5312,10 @@
       <c r="X26" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:245
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "東光寺の鬼会"@ja ;
     rdfs:label "とうこうじのおにえ"@ja-hrkt ;
-    crm:P3 """　東光寺の鬼会は、兵庫県加西市上万願寺町の東光寺で行われる年頭の行事で、厄年の男性が扮する赤鬼と青鬼の２匹の鬼が登場し、松明や大きな鉾を振り回しながら堂内を巡って、１年の災厄を払うものである。鬼が登場する前には、田起こしや種蒔きなど稲作の作業過程を模擬的に演じる田遊びが行われ、１年の豊作が祈願される。
+    crm:P3_has_note """　東光寺の鬼会は、兵庫県加西市上万願寺町の東光寺で行われる年頭の行事で、厄年の男性が扮する赤鬼と青鬼の２匹の鬼が登場し、松明や大きな鉾を振り回しながら堂内を巡って、１年の災厄を払うものである。鬼が登場する前には、田起こしや種蒔きなど稲作の作業過程を模擬的に演じる田遊びが行われ、１年の豊作が祈願される。
 　加西市は、兵庫県の南部、播州平野のほぼ中央に位置する。東光寺は、市域北部の上万願寺町にあり、天台宗比叡山延暦寺の末寺である。かつては有明山満願寺と称していたが、天文７年（1538）に焼失し、同9年に再興し、東光寺と改称している。現在は無住であり、隣町にある同宗派の楊柳寺の住職が兼務している。薬師如来を本尊とすることから、地元では薬師堂と呼ばれ親しまれている。
 　鬼会は、この東光寺で年頭に行われる修正会の行事として伝承されてきたもので、毎年1月8日に行われる。当地に残る文書資料から、室町時代の末期にはすでに鬼会が行われていたであろうことが知られており、また、田遊びについては、享保2年（1717）に再興されたものといわれている。
 　行事の準備や運営は、上万願寺と下万願寺の2地区の人たちによって行われる。両地区から3人ずつ選ばれる宮委員と5人ずつ選ばれる世話役が行事運営の中心となる。前年の12月には、地区内の山々から松材を採取し、松明作りに取りかかる。年が明けて1月6日には、東光寺の庫裡や境内で供物にする鏡餅と本堂の内陣・外陣に飾る鬼の花の製作を行う。
@@ -5327,34 +5327,34 @@
 　田遊びは、まず福太郎、福次郎が木鍬を担いで、介添人を従えながら鬼部屋から登場する。そして、外陣を一周した後、内陣の前で田起こし、苗代作りの所作をし、次いで、住職が演じる田主から予祝の口上を受ける。福太郎と福次郎は、裃姿に面、烏帽子をつけ、地区内の還暦の男性が務める。介添人は、福太郎、福次郎を補佐する役目で、作務衣姿に手拭いを頭巾被りにし、行事に精通した年配者が務める。田主による予祝の口上が終わると、4人は米の入った半紙のおひねりを懐中から取り出し、種蒔きに見立てて参詣者に向かって投げる。種蒔きの後には、縄綯いの所作が行われ、最後に、苗取りの唱え言をいいながら、一行は再び外陣を一周して鬼部屋に引き上げる。
 　田遊びが終了すると、棒打ちがまた始まり、しばらくすると鬼が登場する。鬼は、赤鬼、青鬼の順で鬼部屋から出る。赤鬼は松明を振りかざし、青鬼は鉾を突き立てながら、東の出、西の出といって内陣の東西からそれぞれ6回ずつ計12回、外陣を回る。鬼の子たちは鬼の後ろについて棒で床を叩き、参詣者たちも「鬼こそ鬼よ」と声をかけて鬼をはやし立てる。
 　本件は年頭にあたって鬼が人びとの除災をするこの種の行事の典型例の一つで、我が国の民間信仰や年中行事の変遷を考える上で重要である。また兵庫県内では播磨から摂津にかけての地域に鬼の行事が数多く分布するが、田遊びの儀礼が結びついて伝承されている事例は少ない。さらに子どもたちが扮する鬼の子による棒打ちや鬼の花と呼ばれる作り物の奪い合いなど民俗的要素も豊富に伝えていて地域的特色も豊かである。""" ; 
-    crm:P170 [
-    crm:P164 "毎年1月8日" ; 
-    crm:P3 "現1月開催"
-    ];
-    crm:P67 &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/245/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit245 ;
-        crm:P81 "室町末期頃" ; 
-        crm:P167 _:place245
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年1月8日" ; 
+    crm:P3_has_note "現1月開催"
+    ];
+    crm:P67_refers_to &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/245/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit245 ;
+        crm:P81_ongoing_throughout "室町末期頃" ; 
+        crm:P167_at _:place245
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit245
-    crm:P67 &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt; ;
-    crm:P4 "";
-    crm:P51 "加西市ふるさと創造部 文化・観光・スポーツ課".
+    crm:P67_refers_to &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt; ;
+    crm:P4_has_time-span "";
+    crm:P51_has_former_or_current_owner "加西市ふるさと創造部 文化・観光・スポーツ課".
 _:place245
     rdfs:label "兵庫県加西市上万願寺町";
-    crm:P67 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S282201260&gt;.
+    crm:P67_refers_to &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S282201260&gt;.
 &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/245/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "2006-03-15" ;
-    crm:P67 "418" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "2006-03-15" ;
+    crm:P67_refers_to "418" .</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="409.6">
@@ -5377,7 +5377,7 @@
         <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>241</v>
@@ -5403,10 +5403,10 @@
       <c r="X27" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:250
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "酒津のトンドウ"@ja ;
     rdfs:label "さけのつのとんどう"@ja-hrkt ;
-    crm:P3 """　酒津のトンドウは、鳥取県鳥取市気高町の酒津に伝承される小正月の火祭りで、トンドウと呼ばれる円錐形の大きな作り物を海岸につくって火を点け、正月に迎えた歳神を送るとともに、一年の無病息災や豊漁を祈願する行事である。
+    crm:P3_has_note """　酒津のトンドウは、鳥取県鳥取市気高町の酒津に伝承される小正月の火祭りで、トンドウと呼ばれる円錐形の大きな作り物を海岸につくって火を点け、正月に迎えた歳神を送るとともに、一年の無病息災や豊漁を祈願する行事である。
 　トンドウとは、火祭りの行事名称であるとともに、行事のときに松や竹、藁などを材料として作られる円錐形の作り物の呼称ともなっている。
 　気高町は、鳥取県東部に広がる鳥取市の沿岸部に位置する。トンドウが伝承されている酒津地区は、北に日本海を望み、背後の三方を山に囲まれた集落で、イワシ漁やサバ漁を中心とする漁業を生業としてきたところである。昭和20年代に酒津隧道が開通するまでは、他村との行き来もほとんどない漁村であったといわれている。
 　トンドウは、この酒津地区にある東条、大中条、小中条、西条、樽谷の5つの地区の人達によって伝承されてきた行事で、かつては旧暦1月14・15日に行われていたが、昭和30年代に新暦に移行し、近年は1月15日に近い土・日曜日を期日としている。　行事初日には、トンドウの組み立てと子どもたちによるコリトリ（垢離取り）が行われ、翌日の深夜、子どもたちによる火入れの予告の後、早朝にトンドウに火が点けられる。
@@ -5422,34 +5422,34 @@
 　年頭にあたり、大火を焚いて1年の無事を祈ったり、生業を予祝する行事は、日本各地に地域的特色をもって伝承されているが、この行事は、トンドウと呼ばれる大きな作り物を燃やして歳神を送り、1年の無病息災などを祈願するもので、小正月に行われる火祭りの典型例の一つと考えられる。
 　また、子供たちによるコリトリの儀礼が伴うことや、頭送りや一番頭など伝承組織に年齢階梯的な秩序がよく守られているなど地域的特色も豊かである。
 　小正月の火祭りについては、これまで東方地方や関東地方の事例が主に指定されているが、この行事はこれまでに指定例の少ない西日本のうち、山陰地方沿岸部に伝承される特色ある行事として注目されるものであり、伝承状況も良好であることから、我が国の年中行事や民間信仰の変遷を考える上で重要である。""" ; 
-    crm:P170 [
-    crm:P164 "毎年１月15日に近い土・日曜日" ; 
-    crm:P3 "現1月開催"
-    ];
-    crm:P67 &lt;http://db.pref.tottori.jp/bunkazainavi.nsf/bunkazai_web_view/ED924928115C630F4925796F0007FF1C?OpenDocument&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/250/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit250 ;
-        crm:P81 "" ; 
-        crm:P167 _:place250
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年１月15日に近い土・日曜日" ; 
+    crm:P3_has_note "現1月開催"
+    ];
+    crm:P67_refers_to &lt;http://db.pref.tottori.jp/bunkazainavi.nsf/bunkazai_web_view/ED924928115C630F4925796F0007FF1C?OpenDocument&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/250/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit250 ;
+        crm:P81_ongoing_throughout "" ; 
+        crm:P167_at _:place250
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit250
-    crm:P67 &lt;&gt; ;
-    crm:P4 "";
-    crm:P51 "".
+    crm:P67_refers_to &lt;&gt; ;
+    crm:P4_has_time-span "";
+    crm:P51_has_former_or_current_owner "".
 _:place250
     rdfs:label "";
-    crm:P67 &lt;&gt;.
+    crm:P67_refers_to &lt;&gt;.
 &lt;&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;http://db.pref.tottori.jp/bunkazainavi.nsf/bunkazai_web_view/ED924928115C630F4925796F0007FF1C?OpenDocument&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/250/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "2007-03-07" ;
-    crm:P67 "423" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "2007-03-07" ;
+    crm:P67_refers_to "423" .</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="409.6">
@@ -5472,7 +5472,7 @@
         <v>190</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>242</v>
@@ -5498,10 +5498,10 @@
       <c r="X28" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:253
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "三島のサイノカミ"@ja ;
     rdfs:label "みしまのさいのかみ"@ja-hrkt ;
-    crm:P3 """　三島のサイノカミは、福島県大沼郡三島町で毎年1月15日を中心に行われている小正月の火祭りの行事で、五穀豊穣や無病息災などを祈願したり、厄払いのために行われる行事である。
+    crm:P3_has_note """　三島のサイノカミは、福島県大沼郡三島町で毎年1月15日を中心に行われている小正月の火祭りの行事で、五穀豊穣や無病息災などを祈願したり、厄払いのために行われる行事である。
   近隣の山より神木を切り出し、これに稲藁や豆幹などを巻きつけ、オンベあるいはオンペイと呼ばれる御幣や正月飾りなどを吊り下げて、バンバと呼ばれる広い場所に立てて夜になると燃やす。この稲藁や正月飾りで飾り付けられ立てられた神木そのものもサイノカミと呼ばれる。
   三島町は、福島県の西部、只見川沿いの河岸段丘上に集落が形成され、農業のほか山仕事なども盛んに行われてきた町であり、現在、三島町内の宮下、桑原、大登、桧原、滝谷、川井、名入、滝原、西方の9地区がこの行事を行っている。また、このうち西方地区は戸数が多いため、13ケ所に分かれて行事を行っている。
 　滝谷地区を例に行事をみると、1月15日にサイノカミを行う。早朝から氏神の諏訪神社の前の広場に子どもたちが集まってバンバフミと称して雪を踏み固める。これが終わると、子どもたちは、地区をまわってモエグサと呼ばれる稲藁や豆幹、正月飾りなどを集め、バンバにもっていく。それらのうち鏡餅の下に敷いた紙や書初めなどの紙類は集会所へ届ける。
@@ -5519,34 +5519,34 @@
 　この行事は、作り物の形状については、十字型の滝谷地区、高い塔型の川井地区のほか、三角錐の桑原地区、小屋型の宮下地区など多様であるが、近隣の山より神木を切り出し、正月飾りなどをつけて立て、夜に燃やすという次第は共通する。また、子どもが会場づくりをし、正月飾りなどを集めるほか、大人の男性が神木を切り出し、老人がオンペイを製作し、厄年の男性がミカン撒きやサイノカミへの点火などを担当することが多い。
 　なお、桧原地区では、サイノカミの1ヵ月後に、燃え残った神木を利用して子どものサイノカミと称する小型のサイノカミを製作して燃やしている。
 　東北日本の日本海側にサイノカミの名称で伝承される小正月の火祭りの典型例の一つといえ、子どもや厄年の男性が行事に深く関わり、厄落としや年占の要素が濃厚にみられるという点でも特色があり、我が国の小正月行事を知る上で重要である。""" ; 
-    crm:P170 [
-    crm:P164 "毎年１月15日前後" ; 
-    crm:P3 "現1月開催"
-    ];
-    crm:P67 &lt;http://www.mishima-kankou.net/20180112/&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/253/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit253 ;
-        crm:P81 "" ; 
-        crm:P167 _:place253
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年１月15日前後" ; 
+    crm:P3_has_note "現1月開催"
+    ];
+    crm:P67_refers_to &lt;http://www.mishima-kankou.net/20180112/&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/253/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit253 ;
+        crm:P81_ongoing_throughout "" ; 
+        crm:P167_at _:place253
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit253
-    crm:P67 &lt;&gt; ;
-    crm:P4 "";
-    crm:P51 "".
+    crm:P67_refers_to &lt;&gt; ;
+    crm:P4_has_time-span "";
+    crm:P51_has_former_or_current_owner "".
 _:place253
     rdfs:label "";
-    crm:P67 &lt;&gt;.
+    crm:P67_refers_to &lt;&gt;.
 &lt;&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;http://www.mishima-kankou.net/20180112/&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/253/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "2008-03-13" ;
-    crm:P67 "426" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "2008-03-13" ;
+    crm:P67_refers_to "426" .</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="409.6">
@@ -5569,7 +5569,7 @@
         <v>193</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>335</v>
@@ -5613,10 +5613,10 @@
       <c r="X29" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:264
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "阿月の神明祭"@ja ;
     rdfs:label "あつきのしんめいまつり"@ja-hrkt ;
-    crm:P3 """　阿月の神明祭は、山口県柳井市大字阿月で2月11日に行われる行事で、本来は小正月に行われていた災厄除けや病気除け、豊作などを祈願する火祭りである。
+    crm:P3_has_note """　阿月の神明祭は、山口県柳井市大字阿月で2月11日に行われる行事で、本来は小正月に行われていた災厄除けや病気除け、豊作などを祈願する火祭りである。
 　阿月は、山口県東部の柳井市にあり瀬戸内海に面している。近世には毛利氏の家臣浦氏の領地で、天保13（1842）年頃成立したといわれる『防長風土注進案』には、浦氏が阿月に移封された正保元（1644）年に神明祭を行ったと記されている。
   また、『浦慈之助日記』の慶応4（1869）年1月15日には「例年ノ通、神明祭礼の事」と記されており近世末期には神明祭が行われていたことが確認できる。
 　行事は、地区内を東西2地区に分け、それぞれにシンメイと呼ばれる2体の大きな柱をたてて行われる。
@@ -5632,34 +5632,34 @@
 　我が国には、高い柱状の作り物を立てて火を点けて焼くサイノカミとかドンドン焼きなどと称される小正月の行事が各地で行われてきた。この行事もその一つで、現在2月11日に行われているが、かつては1月15日に行われていた。この火で餅を焼いて食べると災厄にあわないとか、灰は田畑の虫除けになるなどといった伝承は、各地に伝わる同種の行事と共通している。
 　また、東西2本のシンメイを立てて東西対抗で行われオコシタテの早さを競ったという伝承もあり、東西対抗の要素もみられた。さらにこの行事が地区の若者の若連からの脱退の儀礼が行われる場ともなっているという特色もある。
 　これまで同種の行事では東北日本や中国地方日本海側の行事が注目され指定されてきたが、本件は中国地方瀬戸内海側における行事として注目されるものである。""" ; 
-    crm:P170 [
-    crm:P164 "毎年２月11日" ; 
-    crm:P3 "現2月開催"
-    ];
-    crm:P67 &lt;http://www.yanaicci.or.jp/yanai/event/sinmei-f.html&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/264/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit264 ;
-        crm:P81 "正保元年(1644年)" ; 
-        crm:P167 _:place264
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年２月11日" ; 
+    crm:P3_has_note "現2月開催"
+    ];
+    crm:P67_refers_to &lt;http://www.yanaicci.or.jp/yanai/event/sinmei-f.html&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/264/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit264 ;
+        crm:P81_ongoing_throughout "正保元年(1644年)" ; 
+        crm:P167_at _:place264
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit264
-    crm:P67 &lt;https://www.city-yanai.jp/soshiki/39/atsukishimmei.html&gt; ;
-    crm:P4 "2019-02-11";
-    crm:P51 "山口県柳井市".
+    crm:P67_refers_to &lt;https://www.city-yanai.jp/soshiki/39/atsukishimmei.html&gt; ;
+    crm:P4_has_time-span "2019-02-11";
+    crm:P51_has_former_or_current_owner "山口県柳井市".
 _:place264
     rdfs:label "山口県柳井市阿月";
-    crm:P67 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100&gt;.
+    crm:P67_refers_to &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100&gt;.
 &lt;https://www.city-yanai.jp/soshiki/39/atsukishimmei.html&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;http://www.yanaicci.or.jp/yanai/event/sinmei-f.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/264/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "2009-03-11" ;
-    crm:P67 "437" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "2009-03-11" ;
+    crm:P67_refers_to "437" .</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="409.6">
@@ -5682,7 +5682,7 @@
         <v>196</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H30" t="s">
         <v>244</v>
@@ -5726,10 +5726,10 @@
       <c r="X30" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:266
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "邑町のサイノカミ"@ja ;
     rdfs:label "むらまちのさいのかみ"@ja-hrkt ;
-    crm:P3 """  邑町のサイノカミは、富山県東部に位置する下新川郡入善町上野の邑町地区で行われている、厄払いや無病息災、五穀豊穣、家内安全を祈願する小正月の火祭りの行事である。
+    crm:P3_has_note """  邑町のサイノカミは、富山県東部に位置する下新川郡入善町上野の邑町地区で行われている、厄払いや無病息災、五穀豊穣、家内安全を祈願する小正月の火祭りの行事である。
   平成12年までは1月15日に行われていたが、現在は1月15日が日曜日にあたる場合は15日に、それ以外の場合は1月15日の直前の日曜日に行われている。
 　この行事の起源については諸説あり、江戸時代にコレラが流行した際、邑町地区を流れる町川に上流から木製の人形が流れ着いたので同じものを毎年作って燃やすようになった、あるいは上流の地区で疫病除けとして町川に流した人形が邑町地区に流れ着いたので同じものを毎年作って燃やすようになったなどといわれている。それによりコレラの流行は収まり、以来、周辺でコレラがたびたび流行しても邑町地区だけはその難を逃れてきたといわれている。
 　この行事は、7歳から12歳までの男の子たちが中心となって執り行う。当日早朝、子どもたちが地区内にある邑町公民館に参集してから、地区内の家々を一軒一軒訪問して正月飾りなどを集めてまわる。このとき先頭に立つのは、オヤカタ（親方）と呼ばれる最年長の子どもで、デクあるいはデクノボー、デクサマなどと呼ばれる男女一対の人形を手に持ち、他の子どもたちはオヤカタの後に続く。
@@ -5745,34 +5745,34 @@
 　やがて火が下火になってくると、サイノカミの唄を止めて、燃え尽きた作り物の中を探り、デクの燃え具合を確認する。このとき、デクが燃え残っていると、作り物の燃え残りや新しい藁などを一箇所に集めて再びデクを燃やす。デクが完全に灰になったことを確認すると行事は終了となる。
 　この行事は、年頭にあたって大火を焚いて災厄を払う小正月の火祭りの行事の典型例の一つである。また、男女一対の人形が地区内をめぐり、最後に地区の境で正月飾りなどとともに完全に灰になるまで燃やされることで災厄が払われるとされ、それを年齢階梯的な子ども集団が中心となって執り行っている点で地域的特色も豊かな行事である。
 　この行事のように人形を正月飾りとともに燃やす行事は、サイノカミ、ドウロクジンなどと呼ばれ、中部地方を中心とした地域に濃密にみられることが知られている。いっぽうで富山県を含む北陸地方では、竹を円錐状に組んで正月飾りを燃やして無病息災や家内安全を祈願するサギチョウと呼ばれる行事が濃密にみられ、人形を正月飾りとともに燃やすサイノカミと呼ばれる行事は、本件が現在唯一の伝承例となっている。""" ; 
-    crm:P170 [
-    crm:P164 "毎年1月15日が日曜日にあたる場合は15日、それ以外の場合は1月15日の直前の日曜日" ; 
-    crm:P3 "現1月開催"
-    ];
-    crm:P67 &lt;https://www.town.nyuzen.toyama.jp/bunka/kyoiku/bunka/bunkazai/mukei/sainokami.html&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/266/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit266 ;
-        crm:P81 "江戸時代" ; 
-        crm:P167 _:place266
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年1月15日が日曜日にあたる場合は15日、それ以外の場合は1月15日の直前の日曜日" ; 
+    crm:P3_has_note "現1月開催"
+    ];
+    crm:P67_refers_to &lt;https://www.town.nyuzen.toyama.jp/bunka/kyoiku/bunka/bunkazai/mukei/sainokami.html&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/266/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit266 ;
+        crm:P81_ongoing_throughout "江戸時代" ; 
+        crm:P167_at _:place266
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit266
-    crm:P67 &lt;https://ja.wikipedia.org/wiki/塞の神まつり&gt; ;
-    crm:P4 "2019-03-12";
-    crm:P51 "なびお ".
+    crm:P67_refers_to &lt;https://ja.wikipedia.org/wiki/塞の神まつり&gt; ;
+    crm:P4_has_time-span "2019-03-12";
+    crm:P51_has_former_or_current_owner "なびお ".
 _:place266
     rdfs:label "富山県下新川郡入善町上野邑町";
-    crm:P67 &lt;http://data.e-stat.go.jp/lod/sac/C16342-20141201&gt;.
+    crm:P67_refers_to &lt;http://data.e-stat.go.jp/lod/sac/C16342-20141201&gt;.
 &lt;https://ja.wikipedia.org/wiki/塞の神まつり&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;https://www.town.nyuzen.toyama.jp/bunka/kyoiku/bunka/bunkazai/mukei/sainokami.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/266/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "2010-03-12" ;
-    crm:P67 "438" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "2010-03-12" ;
+    crm:P67_refers_to "438" .</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="409.6">
@@ -5795,7 +5795,7 @@
         <v>199</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>245</v>
@@ -5824,10 +5824,10 @@
       <c r="X31" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:269
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "三戸のオショロ流し"@ja ;
     rdfs:label "みとのおしょろながし"@ja-hrkt ;
-    crm:P3 """　三戸のオショロ流しは、神奈川県三浦市初声町三戸に伝承される盆の精霊送りの行事で、毎年８月16日早朝に、華やかに飾り付けられたオショロブネ（精霊船）と呼ばれる大きな藁船を海岸で作り、子どもたちが沖まで泳ぎながら船を曳いて行き、先祖の霊を海の彼方に送るものである。
+    crm:P3_has_note """　三戸のオショロ流しは、神奈川県三浦市初声町三戸に伝承される盆の精霊送りの行事で、毎年８月16日早朝に、華やかに飾り付けられたオショロブネ（精霊船）と呼ばれる大きな藁船を海岸で作り、子どもたちが沖まで泳ぎながら船を曳いて行き、先祖の霊を海の彼方に送るものである。
 　三浦市初声町は、三浦半島の南西部に位置し、畑作を中心とする農業と漁業を生業としてきた地域である。オショロ流しが伝承される三戸地区は、相模湾に面した集落で、海岸にそって北から神田、北、上、谷戸の４つの地区がある。自治会組織のうえでは、上と谷戸が１つの単位となって谷戸上として活動しており、オショロ流しは、この３つの地区ごとに藁船を製作して行われる。
 　三戸では、盆は月遅れで行われ、８月13日から16日の期間である。オショロ流しは、13日に各家が盆棚を設えて、オショロサマと呼ばれる一対の円筒形の飾り物を供物とともに供え、迎えた先祖の霊を16日早朝、三戸海岸から集団で送り出すもので、セイトッコと呼ばれる子ども組によって伝えられてきた。現在は、３地区の区長と三戸全体を統括する大区長を中心に保存会が組織され、大人の主導のもと、セイトッコを中心に行事が伝承されている。
 　セイトッコは、小学校１年生から中学校３年生までの男子で構成される年齢集団で、地区ごとに組織されている。三戸は、コワカイシュウ、シュクロウ、セワニンなどと呼ばれる年齢階梯の制度が続けられてきた地域で、セイトッコはこれらの年齢集団のもっとも下に位置づけられる。７年に１度、元服式と呼ばれる儀礼が地区で行われ、これを済ますと次のコワカイシュウに仲間入りするが、それまではセイトッコとしてこの行事に参加する。
@@ -5841,34 +5841,34 @@
 　なお、オショロブネを流し終えると、谷戸上では、大将がヤドの神棚に祀られているオミシメサマを風呂に入れる。オミシメサマは、着物を着た小さな木像で、セイトッコが祀る神であり、子どもの守り神とも伝えられている。かつては、大将がオミシメサマを風呂に入れた後、無病息災を祈ってセイトッコが順番に風呂に入ったが、現在は、風呂場でオミシメサマの体を拭くだけになっている。その後、セイトッコはヤドや集会所に集まり、共同飲食をしてから解散となる。このオミシメサマは、オンベ焼きと呼ばれる正月行事が終了すると、次のヤドをつとめる家に御幣とともに引き渡される。
 　盆は、正月とともに、日本の年中行事を考える上で重要な節目にあたり、先祖の霊を迎え、送る行事が各地に伝承されている。そうした中で、この行事は、先祖の霊を船に託して送る、船流しの形態をとる盆行事の典型例と考えられるもので、大きな精霊船を用いた集団的な精霊送りの行事としても注目される事例である。
 　また、セイトッコと呼ばれる年齢集団によって行事が伝承されてきたことは地域的な特色であり、少子化が進むなかで、年齢階梯的な役割分担や年番制をとるヤドの慣行など伝統的な要素をよく残していて、我が国の年中行事や民間信仰を理解する上で重要である。""" ; 
-    crm:P170 [
-    crm:P164 "毎年８月16日" ; 
-    crm:P3 "現8月開催"
-    ];
-    crm:P67 &lt;http://www.city.miura.kanagawa.jp/shakai/mukeiminzoku/mitonooshouronagasi01.html&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/269/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit269 ;
-        crm:P81 "" ; 
-        crm:P167 _:place269
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年８月16日" ; 
+    crm:P3_has_note "現8月開催"
+    ];
+    crm:P67_refers_to &lt;http://www.city.miura.kanagawa.jp/shakai/mukeiminzoku/mitonooshouronagasi01.html&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/269/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit269 ;
+        crm:P81_ongoing_throughout "" ; 
+        crm:P167_at _:place269
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit269
-    crm:P67 &lt;&gt; ;
-    crm:P4 "";
-    crm:P51 "".
+    crm:P67_refers_to &lt;&gt; ;
+    crm:P4_has_time-span "";
+    crm:P51_has_former_or_current_owner "".
 _:place269
     rdfs:label "";
-    crm:P67 &lt;&gt;.
+    crm:P67_refers_to &lt;&gt;.
 &lt;&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;http://www.city.miura.kanagawa.jp/shakai/mukeiminzoku/mitonooshouronagasi01.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/269/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "2011-03-09" ;
-    crm:P67 "455" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "2011-03-09" ;
+    crm:P67_refers_to "455" .</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="409.6">
@@ -5891,7 +5891,7 @@
         <v>202</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>246</v>
@@ -5935,10 +5935,10 @@
       <c r="X32" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:277
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "江包・大西の御綱"@ja ;
     rdfs:label "えつつみ・おおにしのおつな"@ja-hrkt ;
-    crm:P3 """　江包・大西の御綱は、奈良県中部の奈良盆地東南に位置する奈良県桜井市の江包地区と大西地区に伝承される習俗である。年頭に当たって五穀豊穣と子孫繁栄を祈願する行事であり、集落に降りかかる災厄を消除することを目的に行われる行事の一つで、2月11日に両区の合同で行われる。
+    crm:P3_has_note """　江包・大西の御綱は、奈良県中部の奈良盆地東南に位置する奈良県桜井市の江包地区と大西地区に伝承される習俗である。年頭に当たって五穀豊穣と子孫繁栄を祈願する行事であり、集落に降りかかる災厄を消除することを目的に行われる行事の一つで、2月11日に両区の合同で行われる。
 　両区は初瀬川をはさんで北と南に向かい合っている。江包区が男綱、大西区が女綱をつくって両区の境付近にある素盞嗚神社に持ち寄って両綱を合体させて吊す行事で、五穀豊穣と子孫繁栄の行事であるといわれている。
 　この行事の起源については、昔、大出水があって神様が上流から流れてきたときに、大西は稲田姫、江包は素盞嗚尊を救い上げて祀り、この二神が年に1度正月に結婚すると伝承されている。この伝承があるため、江包と大西は昔から縁組みをしないといわれている。
 　この行事はもとは旧暦1月10日に行われてきたが、近年は2月11日に行うようになっている。
@@ -5951,34 +5951,34 @@
 　七回半の使いを受けると江包では相撲を終わり、男綱をかついで素盞嗚神社に向かう。神社に男綱が着くと舟形部分を広げて待っていた女綱と合体させる入り船の儀式が行われる。男女の綱がしっかりと合体すると、両綱を鳥居近くの榎の木につるし上げる。両方の縄につけられている尾は、両方とも長く伸ばしてしばりつけて両方の綱が落ちないようにする。大西の女綱の尾は初瀬川に架かる橋の欄干を渡り、対岸にある榎の大木にしばりつけられる。
 　これがすむと、江包、大西の双方が手打ちをし、その後大西はナコウドの喜田氏と村役だけ、江包は全員が残って素盞嗚神社社殿で式を行う。式が終了すると、お下がりとして神饌のヒネリゴクにしてある洗米をもらって帰る。現在、江包ではこの洗米を雑煮に炊き込んでいるが、以前は苗代を作るときに、この洗米を水口に播くものであったと伝承されている。
 　我が国の年中行事には、年頭に当たってその年の豊作や安泰を祈願して行われる行事が数多くみられる。本件も年の初めに当たって行われる、一年間の豊穣を祈願し、集落に降りかかる災厄を消除することを目的とした行事である。近畿地方に分布する綱掛け行事の典型例の１つであり、我が国における年頭に当たって行われる行事の特色や地域的分布を考える上で重要である。""" ; 
-    crm:P170 [
-    crm:P164 "毎年2月11日" ; 
-    crm:P3 "現2月開催"
-    ];
-    crm:P67 &lt;http://www.sakurai-maibun.nara.jp/yorimichi/yorimiti6.html&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/277/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit277 ;
-        crm:P81 "大同4年（809年）" ; 
-        crm:P167 _:place277
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年2月11日" ; 
+    crm:P3_has_note "現2月開催"
+    ];
+    crm:P67_refers_to &lt;http://www.sakurai-maibun.nara.jp/yorimichi/yorimiti6.html&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/277/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit277 ;
+        crm:P81_ongoing_throughout "大同4年（809年）" ; 
+        crm:P167_at _:place277
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit277
-    crm:P67 &lt;https://ja.wikipedia.org/wiki/江包・大西の御綱&gt; ;
-    crm:P4 "2019-02-09";
-    crm:P51 "8-hachiro".
+    crm:P67_refers_to &lt;https://ja.wikipedia.org/wiki/江包・大西の御綱&gt; ;
+    crm:P4_has_time-span "2019-02-09";
+    crm:P51_has_former_or_current_owner "8-hachiro".
 _:place277
     rdfs:label "奈良県桜井市江包、大西";
-    crm:P67 &lt;http://data.e-stat.go.jp/lod/sac/C29206-19700401&gt;.
+    crm:P67_refers_to &lt;http://data.e-stat.go.jp/lod/sac/C29206-19700401&gt;.
 &lt;https://ja.wikipedia.org/wiki/江包・大西の御綱&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;http://www.sakurai-maibun.nara.jp/yorimichi/yorimiti6.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/277/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "2012-03-08" ;
-    crm:P67 "462" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "2012-03-08" ;
+    crm:P67_refers_to "462" .</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="409.6">
@@ -6001,7 +6001,7 @@
         <v>205</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>247</v>
@@ -6027,10 +6027,10 @@
       <c r="X33" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:278
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "地福のトイトイ"@ja ;
     rdfs:label "じふくのトイトイ"@ja-hrkt ;
-    crm:P3 """　地福のトイトイは、子どもたちが集落の家々をワラウマ（藁馬）をもって一軒ずつまわって供物と交換し、家内安全や無病息災、五穀豊穣などを祈願する小正月の訪問者の行事で、山口県の北部、中国山地の西端に位置する旧阿武郡阿東町の地福地区に伝承されてきたものである。
+    crm:P3_has_note """　地福のトイトイは、子どもたちが集落の家々をワラウマ（藁馬）をもって一軒ずつまわって供物と交換し、家内安全や無病息災、五穀豊穣などを祈願する小正月の訪問者の行事で、山口県の北部、中国山地の西端に位置する旧阿武郡阿東町の地福地区に伝承されてきたものである。
 　この行事の起源については、地元にも伝承がなく定かではない。ただ、天保13（1842）年頃に長州藩が編纂したといわれる『風土注進案』には、例えば、「切畑村」の項に「同十五日宵とひと申、膳又は折敷等へ銭差又は藁ニて馬船等を拵へ松竹を添持来り、障子の内に入置候得ハ其膳え代りに餅を置候、取に来り候時水を懸候て戯候事」という記述がみられるように、この種の行事が1月15日頃に行われる行事として「とひ」「とへい」「とへとへ」などの名称でいくつか記述されており、少なくとも江戸時代には山口県内でこの種の小正月行事が行われていたことがわかる。
 　地福地区は、中国山地の西端に位置する標高300ｍほどの高原地帯に位置する。古くから稲作が盛んであり、現在でも山口県内有数の稲作地帯の一つとなっている。気候は、夏は涼しく冬は寒さの厳しい高原性の気候で、行事の実施される1月には積雪が多いときは50㎝近くに達することもある。
 　この行事は、現在、地福地区の市、岡、用路、山田、桜乃里、葉ツ久などのいくつかの集落で、集落をいくつかに分けて、あるいは集落を単位として、小学１年生から中学３年生までの男女がいっしょに行事を行っている。ただし、厳しい禁忌や年齢階梯的な役割などはなく、不幸のあった家の子どもも参加できるほか、幼稚園の子どもが参加することもある。かつては、各集落の子どもたちが気のあった友達どうしで誘い合って行事を行っており、子どもに混じって20歳前後の若者が参加することもあった。
@@ -6043,34 +6043,34 @@
 　ワラウマをもらった家では、このワラウマが福を運び込むものとされていることから、神棚、床の間、玄関などに1年間供えておく。この際には、家に福が舞い込むようにということで、馬の頭を家の内側に向けて供えておく場合が多い。なお、前年より1年間供えられていたワラウマは、翌1月15日に行われているドンド焼きで焼かれる。
 　なお、地福のトイトイは、昭和40年代の一時期、各家に渡すのがワラウマではなく、ウマの絵や「馬」という漢字を書いた紙になるなど大きく変容したが、その後、地区の公民館などが中心となってワラウマの製作を子どもたちに伝承し、子ども会、さらには保存会を中心とした行事としてトイトイを今日まで伝承してきている。
 　本件は、年頭にあたって訪問者が福や穀物の豊穣を授けるという行事の１つである。山口県を含む中国地方ではこの種の行事がトイトイ、トロヘイ、トヘトヘなどの名称で広く伝承されていたことが知られており、本件は、中国地方に伝承されてきた小正月の訪問者の行事の典型例の１つであり、我が国の小正月の訪問者の行事の特色や変遷を考える上で重要なものである。また、中国地方では、この種の行事のほとんどが、昭和30～40年代に中断している。そうしたなかで山口県内でも、中断せず今日まで伝承されているのは本件のみであり、類例の少ない貴重な事例でもある。""" ; 
-    crm:P170 [
-    crm:P164 "毎年１月14日" ; 
-    crm:P3 "現1月開催"
-    ];
-    crm:P67 &lt;https://www.city.yamaguchi.lg.jp/site/movie/19833.html&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/278/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit278 ;
-        crm:P81 "" ; 
-        crm:P167 _:place278
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年１月14日" ; 
+    crm:P3_has_note "現1月開催"
+    ];
+    crm:P67_refers_to &lt;https://www.city.yamaguchi.lg.jp/site/movie/19833.html&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/278/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit278 ;
+        crm:P81_ongoing_throughout "" ; 
+        crm:P167_at _:place278
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit278
-    crm:P67 &lt;&gt; ;
-    crm:P4 "";
-    crm:P51 "".
+    crm:P67_refers_to &lt;&gt; ;
+    crm:P4_has_time-span "";
+    crm:P51_has_former_or_current_owner "".
 _:place278
     rdfs:label "";
-    crm:P67 &lt;&gt;.
+    crm:P67_refers_to &lt;&gt;.
 &lt;&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;https://www.city.yamaguchi.lg.jp/site/movie/19833.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/278/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "2012-03-08" ;
-    crm:P67 "464" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "2012-03-08" ;
+    crm:P67_refers_to "464" .</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="409.6">
@@ -6090,10 +6090,10 @@
         <v>208</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>292</v>
@@ -6119,10 +6119,10 @@
       <c r="X34" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:298
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "悪石島のボゼ"@ja ;
     rdfs:label "あくせきじまのぼぜ"@ja-hrkt ;
-    crm:P3 """悪石島はトカラ列島のほぼ中央に位置するが、ここに来訪神に関する行事が伝えられている。この神は、ボゼと呼ばれ、異様な容姿をもち、畏(かしこ)くも怖ろしいものとされており、盆の最終日となる旧暦七月十六日の夕刻に現れ、人びとの邪気を追い祓う。
+    crm:P3_has_note """悪石島はトカラ列島のほぼ中央に位置するが、ここに来訪神に関する行事が伝えられている。この神は、ボゼと呼ばれ、異様な容姿をもち、畏(かしこ)くも怖ろしいものとされており、盆の最終日となる旧暦七月十六日の夕刻に現れ、人びとの邪気を追い祓う。
 　トカラ列島は、薩南諸島に属する島嶼群で、それらほぼ全島群をもって行政区分としての十島村を構成している。このうち、悪石島は面積約7・49㎢、周囲を約12・64㎞とし、現人口は約70人、世帯数は約40世帯である。およそ断崖絶壁に囲まれ、平坦な土地は少なく、大半は琉球竹で覆われれている。島の伝統的な生業は焼畑と漁業であったが、戦後、昭和27年の本土復帰、続く昭和28年の離島振興法などを契機に、島内の道路整備や港湾施設の改良が進められ、現金収入が進展してくると、従前の農漁業は衰退していった。今日では、肉牛を中心とする畜産業や通船作業が主な収入源となっている。
 　当地の集落は、島の西南にある港近くの浜集落と南部にある上集落の2つがあるが、ボゼが登場するのは後者である。上集落は、トンチと呼ぶ島の開祖の地を中心に家並みが展開する。集落西方には、単にテラあるいはテラ跡と称する広場があって、この奥手にムラの墓地がある。また、墓地のさらに西裏にはスバタケ、シバタテと呼ぶ海を臨む場所があり、ここはかつて出漁時に柴を立て、安全確認の標場としたところだという。一方、トンチの北東には公民館があり、古くは釈迦堂があったと伝え、やはり広場が設けられている。これらトンチ、テラ・墓地、シバタテ、公民館（釈迦堂）広場といった諸所が、島の盆行事が行われる主要な空間となっている。
 　悪石島のボゼは、旧暦の7月7日から16日にわたって行われる盆行事の最終日に現れる。盆行事の概略としては、7日を墓参りの日とし、家によっては笹飾りを屋敷の入り口に立てておく。夕方、所定の時間には公民館広場とシバタテにて浴衣姿の男たちによる盆踊りがある。盆踊りは、この日のほかにも同様にして9日・11日・13日と行われるが、かつては毎晩であった。さらに、14日・15日・16日にも盆踊りは続くが、これらとは場のあり方が異なっている。こうして13日を迎えると、早朝より墓掃除があり、日中、各家では遺影や位牌を仏壇から出して床の間に飾り、迎え盆の準備にあたる。この日の夕方にある盆踊りの前後には、提灯を持って墓参し、先祖の霊を迎えに行く。
@@ -6130,34 +6130,34 @@
 　15日は、朝から前日に引き続き面の仕立てで、昼前までに骨組みに紙を貼って乾燥させておく。昼過ぎには近親宅を廻って線香をあげたのち、前日とは逆順に公民館側よりテラに向かって水祭りをする。そして、男たちが出揃ったところでテラにて盆踊りを行うが、この場合に限って、最後は踊りながら墓を通り抜けるということをする。次に、公民館に移って再び盆踊りがあり、終わって一旦解散とし、夜にはトンチに集合、今度は小二才・大二才と呼ぶ二組に分かれ、それぞれで家廻りの盆踊りがはじめられる。最初と最後の家は決まっており、そこでは共に踊るため、男たち全員が当家の庭先で行い、終わると酒肴の接待がある。頃合いを見計らって、小二才、大二才の二手となるが、先々で接待を受けるため、次第に酔いも回って夜半となる。なお、二才とは若衆のことであり、小二才は若年層、大二才は壮年層としていたが、昨今では高齢化が進み、50歳前後が目安ともいうが、極めて不分明である。また、接待を終えた家では提灯を持って墓参し、先祖の霊を送りに行く。
 　16日は、同じく朝から面に取り掛かり、昼前までには塗りあげて完成させる。彩色には、アカシュといって赤土を水で溶いたものを使って地色とし、墨で縞模様を描いていく。また、枝を伐ってボゼマラと称する男根を模した1mほどの杖を3本作り、アカシュを塗っておく。この日は水祭りはないが、前日と同様、夕方前にはテラで盆踊りがあり、終わると人びとは公民館に移動し、暫時休憩したのち再び踊りとなる。この間、テラでは選ばれた心身健全な若者3名が面を被り、体にはビロウの葉を巻き付け、手足にはシュロの皮やツグの葉を当てがうなどしてボゼに扮していく。ただし、この有様は絶対に見てはならないとされており、テラへの立ち入りも厳禁となる。こうして広場での踊りがひと段落すると、不意に太鼓が叩かれはじめ「東西東西、ボゼを出すぞ、遠からん者は音に聞け、近くの者は寄って目にも見ろ」との口上で、ボゼが呼び出される。
 　ボゼは、呼び太鼓の音に導かれ、盆踊りで人びとが集まる広場に現れる。ボゼは、ボゼマラの先端に付けた赤い泥を擦り付けようと、観衆を追い回すことから、あたりは笑いと叫びで騒然となっていく。この泥を付けられると、悪魔祓いの利益があるとされ、特に女性は子宝に恵まれるなどという。騒ぎがしばらく続いたのち、太鼓の音がゆったりとしたリズムに変わると、ボゼは体を揺するようにして踊りはじめ、再度急変の調子で再び暴れだし、やがてその場を去っていく。こうして、邪気が祓われ、清まった人びとの安堵と笑顔が満ちるなか、最後に盆踊りがもうひと踊りされ、以後は余興と称して夜が更けるまで歌って踊り、皆して飲食に興じる。""" ; 
-    crm:P170 [
-    crm:P164 "毎年旧暦７月１６日" ; 
-    crm:P3 "現8月開催"
-    ];
-    crm:P67 &lt;https://www.pref.kagoshima.jp/ak01/chiiki/kagoshima/takarabako/traditional/akusekijimanoboze.html&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/298/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit298 ;
-        crm:P81 "" ; 
-        crm:P167 _:place298
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年旧暦７月１６日" ; 
+    crm:P3_has_note "現8月開催"
+    ];
+    crm:P67_refers_to &lt;https://www.pref.kagoshima.jp/ak01/chiiki/kagoshima/takarabako/traditional/akusekijimanoboze.html&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/298/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit298 ;
+        crm:P81_ongoing_throughout "" ; 
+        crm:P167_at _:place298
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit298
-    crm:P67 &lt;&gt; ;
-    crm:P4 "";
-    crm:P51 "".
+    crm:P67_refers_to &lt;&gt; ;
+    crm:P4_has_time-span "";
+    crm:P51_has_former_or_current_owner "".
 _:place298
     rdfs:label "";
-    crm:P67 &lt;&gt;.
+    crm:P67_refers_to &lt;&gt;.
 &lt;&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;https://www.pref.kagoshima.jp/ak01/chiiki/kagoshima/takarabako/traditional/akusekijimanoboze.html&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/298/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "2017-03-03" ;
-    crm:P67 "494" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "2017-03-03" ;
+    crm:P67_refers_to "494" .</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="409.6">
@@ -6180,7 +6180,7 @@
         <v>210</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>248</v>
@@ -6221,44 +6221,44 @@
       <c r="X35" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifcp:299
-    rdf:type crm:E1 ;
+    rdf:type crm:E1_CRM_Entity ;
     rdfs:label "薩摩硫黄島のメンドン"@ja ;
     rdfs:label "さつまいおうじまのめんどん"@ja-hrkt ;
-    crm:P3 """硫黄島は、種子島・屋久島地方のうちで、薩摩半島南端から南南西およそ40㎞に位置するが、ここに来訪神に関する行事が伝えられている。この神は、メンドンと呼ばれ、奇怪な容姿を有し、畏くも怖ろしいものとされており、八朔の行事日となる旧暦の8月1日・2日に現れ、人びとの邪気を追い祓う。
+    crm:P3_has_note """硫黄島は、種子島・屋久島地方のうちで、薩摩半島南端から南南西およそ40㎞に位置するが、ここに来訪神に関する行事が伝えられている。この神は、メンドンと呼ばれ、奇怪な容姿を有し、畏くも怖ろしいものとされており、八朔の行事日となる旧暦の8月1日・2日に現れ、人びとの邪気を追い祓う。
 　硫黄島は、薩摩硫黄島とも呼ばれ、竹島・黒島とともに三島村をなす。集落は1箇所のみで、現人口は約120人、世帯数は約60世帯である。面積は約11・65㎢、周囲を約19・1㎞とし、島全体が火山島であり、主峰の硫黄岳は常時噴煙を上げている。港内では鉄分を含んだ温泉が湧出し、大気との反応で赤く変色しており、島の周辺海域でも硫黄成分による黄色い変色が多々みられる。かつて、硫黄岳では硫黄や珪石の採掘が盛んに行われ、藩政期には重要な貿易品であったが、昭和39年に硫黄採鉱を閉坑、その後しばらく珪石は採掘されていたが、現在ではすべて閉山となっている。主な生業としては、肉牛を中心とする畜産業のほか、島の大半を占める竹林資源を利用したタケノコ生産、広大な椿林を活用して作る椿油と関連の製品加工などがある。また、島の周囲は好漁場で、イセエビ漁などが盛んである。
 　硫黄島のメンドンは、旧暦の8月1日・2日と2日間にわたって行われる八朔行事に現れ、何やら「恐ろしいもの」とされてきた。事前準備としては面などの仕立てがある。面は、テゴと呼ぶ農作業用の背負籠を本体とし、竹ヒゴを組み込み紙を貼って作るが、これは一四歳になる子が行い、被るものとされており、祖父や父親などに手伝ってもらって1、2ヶ月ほどかけて完成させる。仕上げは、墨を塗って黒の下地とし、そこへ赤で耳・眉は渦巻き模様に、その他には格子模様を入れていく。赤の塗料は、昨今では市販の絵の具を用いることが多いが、以前は赤錆や赤レンガを砕いて作ったという。こうして出来た面は、8月1日の朝、チグサの葉を添えて鎮守の熊野神社に奉納される。なかでも、当日最初に登場するメンは、一番メンといって、14歳のうち最も早く生まれた子が扮することになっており、この面頭にのみ旗が付されている。当地では、行事の担い手の中心となる若者たちのことを二才ともいい、かつては小二才（15～24歳）、二才（25～34歳）、二才頭（35歳）と年齢を基軸とした階梯的な社会集団としていたが、昭和40年代以降の人口減により、今日では一括総称している。つまり、面の作成やメンに扮するのが14歳というのは、これが若者入りを意味する成年戒の1つともなっている。
 　八朔行事の初日となる8月1日、夕方前の所定の時刻になると、浜辺で潮垢離をとった若者たちが三々五々、庄屋跡あるいは庄屋の庭と称する空地に集まり、太鼓踊りの支度に取りかかる。踊りは現在、若者たち10名ほどによる踊り手と、鉦叩きなどと称する踊りを熟知した年配者一名によって構成されている。踊り手たちは、頃合いを見計らって、庄屋跡で鉦叩きの周りを輪になって廻りながら踊りはじめ、その流れで神社前の宮の馬場と呼ぶ広場へと繰り込んでいく。移動の際は、鉦叩きを先頭に一列に連なり、踊らずに鉦・太鼓の音と掛け声だけで進む。これをミッチキ（道行き）という。そしてこの間、神社拝殿脇では「メンに入る」といって、メンドンに扮する準備があるが、この有様は決して見てはならないとされている。頭にはメンを被り、身には持ち寄った蓑を付け、手袋をはめ、手にはスッベと呼ぶ木の枝葉を携える。踊り手たち一行が宮の馬場に到着すると、そのまま鉦叩きを中心に輪を作り、再度踊りはじめる。ちょうど夕日が差し掛かる頃である。
 　しばらく踊っていると、突如、メンドンが一体、神社の参道奥から走り込んできて、踊り手の周囲を三周し、特に何もせず再び駆け戻っていく。このメンドンを一番メンという。これが終わると、次第に次々と何体ものメンドンたちが参道奥から走ってきては、踊りの邪魔をしたり、飲食に興じる観客たちの中に分け入るなど、悪戯をはじめ、あたりは笑いと叫びで騒然となっていく。メンドンは人びとを枝葉でしきりに叩くが、叩かれると魔が祓われてよいという。声を掛けたり逆らうことは許されないため、強さのあまり逃げ惑う者もいる。特に、女性は格好の的とされ、よく追い回される。
 　一番メン以外にも、面隠しといって、四角い紙に天下御免と記し、子供たちが思い思いに描いた面があるが、これは小さな子が被るものであり、メンは多数あって、数は決まっていない。また、メンドンも14歳の子のみならず、踊りに出なかった若者や大人が入ることもあって、一様ではない。こうして、踊りは一時間ほどあって暫時休憩に入るが、この間もメンドンらは神社を出たり入ったりしながら、せわしなく駆け廻り続けている。その後、踊り手たちは締めの踊りを納めて再び庄屋跡へとミッチキをして終了、あとはそれぞれ太鼓を叩きながら家路へと向かう。ただし、メンドンは3日未明まで自由に徘徊してよいことになっており、昨今では翌2日の夕方頃までが専らであるが、かつては深夜であっても人家の中に入り込むなどして大暴れした。女の子のいる家では、娘を押し入れに隠すなどしたともいう。
 　翌2日は、叩き出しといって、島廻りの太鼓踊りがある。踊り手たちは庄屋跡に集まり、前日と同様にして宮の馬場へと移って踊りを奉納する。暫時休憩ののち、夕暮れを待って所定の道順に従って集落内から外周道へとミッチキしていく。この際もメンドンはうろついており、隊列に付いたり離れたりしている。外周道では所定の場所三箇所にて、海岸から海に向かって島中の悪いものを叩き出し、追い祓うということをする。こうして、最後は神社に戻って締めの踊りをし、前日と同様にして終了とし、あとは花開きと称する直会となって、行事は終了する。""" ; 
-    crm:P170 [
-    crm:P164 "毎年旧暦8月1日・2日" ; 
-    crm:P3 "現8月開催"
-    ];
-    crm:P67 &lt;http://mishimamura.com/ech/5560/&gt; ;
-    crm:P141 &lt;https://w3id.org/ifcp/299/register&gt; ; 
-    crm:P94 [
-        crm:P31 _:edit299 ;
-        crm:P81 "慶長三年" ; 
-        crm:P167 _:place299
-    ];
-    crm:P2 cate:p5 ;
-    crm:P2 cate:practice .
+    crm:P170_defines_time [
+    crm:P164_during "毎年旧暦8月1日・2日" ; 
+    crm:P3_has_note "現8月開催"
+    ];
+    crm:P67_refers_to &lt;http://mishimamura.com/ech/5560/&gt; ;
+    crm:P141_assigned &lt;https://w3id.org/ifcp/299/register&gt; ; 
+    crm:P94_has_created [
+        crm:P31_has_modified _:edit299 ;
+        crm:P81_ongoing_throughout "慶長三年" ; 
+        crm:P167_at _:place299
+    ];
+    crm:P2_has_type cate:p5 ;
+    crm:P2_has_type cate:practice .
 _:edit299
-    crm:P67 &lt;http://mishimamura.com/ech/5560/&gt; ;
-    crm:P4 "";
-    crm:P51 "鹿児島県三島村".
+    crm:P67_refers_to &lt;http://mishimamura.com/ech/5560/&gt; ;
+    crm:P4_has_time-span "";
+    crm:P51_has_former_or_current_owner "鹿児島県三島村".
 _:place299
     rdfs:label "鹿児島県三島村硫黄島";
-    crm:P67 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S134210040&gt;.
+    crm:P67_refers_to &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S134210040&gt;.
 &lt;http://mishimamura.com/ech/5560/&gt;
-    rdf:type crm:E42 .
+    rdf:type crm:E42_Identifier .
 &lt;http://mishimamura.com/ech/5560/&gt;
-    rdf:type crm:E42 .   
+    rdf:type crm:E42_Identifier .   
 &lt;https://w3id.org/ifcp/299/register&gt;
-    rdf:type crm:E5 ;
-    crm:P4 "2017-03-03" ;
-    crm:P67 "493" .</v>
+    rdf:type crm:E5_Event ;
+    crm:P4_has_time-span "2017-03-03" ;
+    crm:P67_refers_to "493" .</v>
       </c>
     </row>
     <row r="36" spans="1:24">

--- a/list_p5_added.xlsx
+++ b/list_p5_added.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Dropbox/My Mac (dhcp5-128.slis.tsukuba.ac.jp)/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2B78D0-10D0-E14B-8A79-E655DC1B4127}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD753F4-13F3-C74D-93AF-B59379974369}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2862,7 +2862,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y35" sqref="Y35"/>
+      <selection pane="bottomLeft" activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3020,6 +3020,7 @@
     crm:P67_refers_to &lt;"&amp;H2&amp;"&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/"&amp;A2&amp;"/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit"&amp;A2&amp;" ;
         crm:P81_ongoing_throughout """&amp;S2&amp;""" ; 
         crm:P167_at _:place"&amp;A2&amp;"
@@ -3056,6 +3057,7 @@
     crm:P67_refers_to &lt;http://www.pref.kagoshima.jp/ab10/kyoiku-bunka/bunka/museum/shichoson/satumasendai/doshidon.html&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/49/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit49 ;
         crm:P81_ongoing_throughout "江戸時代" ; 
         crm:P167_at _:place49
@@ -3153,6 +3155,7 @@
     crm:P67_refers_to &lt;"&amp;H3&amp;"&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/"&amp;A3&amp;"/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit"&amp;A3&amp;" ;
         crm:P81_ongoing_throughout """&amp;S3&amp;""" ; 
         crm:P167_at _:place"&amp;A3&amp;"
@@ -3187,6 +3190,7 @@
     crm:P67_refers_to &lt;https://www.namahage-oga.akita.jp&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/51/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit51 ;
         crm:P81_ongoing_throughout "文政5年（1822年）" ; 
         crm:P167_at _:place51
@@ -3270,6 +3274,7 @@
     crm:P67_refers_to &lt;https://www.hot-ishikawa.jp/event/4517&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/67/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit67 ;
         crm:P81_ongoing_throughout "" ; 
         crm:P167_at _:place67
@@ -3355,6 +3360,7 @@
     crm:P67_refers_to &lt;https://www.city.minamikyushu.lg.jp/bunkazai-kanri/bunka/shinko/bunkazai/chiranchiiki/minamisatsuma.html&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/109/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit109 ;
         crm:P81_ongoing_throughout "" ; 
         crm:P167_at _:place109
@@ -3458,6 +3464,7 @@
     crm:P67_refers_to &lt;https://www.town.misato.akita.jp/kamakura/2574.html&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/110/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit110 ;
         crm:P81_ongoing_throughout "延暦21年（802年）" ; 
         crm:P167_at _:place110
@@ -3558,6 +3565,7 @@
     crm:P67_refers_to &lt;https://www.town.tatsugo.lg.jp/edu/event-bunka/rekishi-bunka/arasetsu.html&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/124/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit124 ;
         crm:P81_ongoing_throughout "那覇世（13～17世紀）" ; 
         crm:P167_at _:place124
@@ -3643,6 +3651,7 @@
     crm:P67_refers_to &lt;http://www.town.saitama-misato.lg.jp/admini/towninfo/ino108.html&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/131/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit131 ;
         crm:P81_ongoing_throughout "" ; 
         crm:P167_at _:place131
@@ -3729,6 +3738,7 @@
     crm:P67_refers_to &lt;https://goto.nagasaki-tabinet.com/event/51078/&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/135/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit135 ;
         crm:P81_ongoing_throughout "" ; 
         crm:P167_at _:place135
@@ -3815,6 +3825,7 @@
     crm:P67_refers_to &lt;http://www.itoigawa-base.com/viewspot/culture_02_01.html&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/138/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit138 ;
         crm:P81_ongoing_throughout "" ; 
         crm:P167_at _:place138
@@ -3901,6 +3912,7 @@
     crm:P67_refers_to &lt;https://toba-archive.jp/content/detail.php?no=3991&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/140/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit140 ;
         crm:P81_ongoing_throughout "" ; 
         crm:P167_at _:place140
@@ -3998,6 +4010,7 @@
     crm:P67_refers_to &lt;http://www.sea.icn-tv.ne.jp/~sosym/&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/145/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit145 ;
         crm:P81_ongoing_throughout "享保19年(1734)" ; 
         crm:P167_at _:place145
@@ -4088,6 +4101,7 @@
     crm:P67_refers_to &lt;https://nozawakanko.jp/record/dosojin/&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/156/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit156 ;
         crm:P81_ongoing_throughout "" ; 
         crm:P167_at _:place156
@@ -4176,6 +4190,7 @@
     crm:P67_refers_to &lt;https://www.tabirai.net/sightseeing/column/0003469.aspx&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/158/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit158 ;
         crm:P81_ongoing_throughout "" ; 
         crm:P167_at _:place158
@@ -4285,6 +4300,7 @@
     crm:P67_refers_to &lt;https://tamataregu.or.jp/oniyo&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/162/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit162 ;
         crm:P81_ongoing_throughout "368年（仁徳天皇56年）" ; 
         crm:P167_at _:place162
@@ -4393,6 +4409,7 @@
     crm:P67_refers_to &lt;https://www.city.gojo.lg.jp/kankou/dentou/4032.html&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/167/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit167 ;
         crm:P81_ongoing_throughout "室町時代" ; 
         crm:P167_at _:place167
@@ -4482,6 +4499,7 @@
     crm:P67_refers_to &lt;http://www.town.oiso.kanagawa.jp/isotabi/matsuri_event/matsuri/sagichou.html&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/179/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit179 ;
         crm:P81_ongoing_throughout "" ; 
         crm:P167_at _:place179
@@ -4572,6 +4590,7 @@
     crm:P67_refers_to &lt;https://common3.pref.akita.lg.jp/genkimura/village/detail.html?cid=24&amp;vid=4&amp;id=1130&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/188/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit188 ;
         crm:P81_ongoing_throughout "" ; 
         crm:P167_at _:place188
@@ -4665,6 +4684,7 @@
     crm:P67_refers_to &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/195/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit195 ;
         crm:P81_ongoing_throughout "" ; 
         crm:P167_at _:place195
@@ -4756,6 +4776,7 @@
     crm:P67_refers_to &lt;https://www.city.tome.miyagi.jp/syogaigakusyu/shisejoho/bunkazai/raihousin.html&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/204/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit204 ;
         crm:P81_ongoing_throughout "" ; 
         crm:P167_at _:place204
@@ -4844,6 +4865,7 @@
     crm:P67_refers_to &lt;https://saga-otakara.jp/search/detail.php?id=5346&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/218/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit218 ;
         crm:P81_ongoing_throughout "" ; 
         crm:P167_at _:place218
@@ -4935,6 +4957,7 @@
     crm:P67_refers_to &lt;https://ofunato.jp/Summary/info/81&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/221/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit221 ;
         crm:P81_ongoing_throughout "" ; 
         crm:P167_at _:place221
@@ -5046,6 +5069,7 @@
     crm:P67_refers_to &lt;http://www.katch.ne.jp/~toba-shinmeisha/himatsuri/index.html&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/228/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit228 ;
         crm:P81_ongoing_throughout "平安時代" ; 
         crm:P167_at _:place228
@@ -5137,6 +5161,7 @@
     crm:P67_refers_to &lt;https://www.all-iwami.com/spot/detail_1187.html&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/236/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit236 ;
         crm:P81_ongoing_throughout "" ; 
         crm:P167_at _:place236
@@ -5225,6 +5250,7 @@
     crm:P67_refers_to &lt;https://www.nihon-kankou.or.jp/miyagi/042145/detail/04566be2220112899&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/240/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit240 ;
         crm:P81_ongoing_throughout "" ; 
         crm:P167_at _:place240
@@ -5334,6 +5360,7 @@
     crm:P67_refers_to &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/245/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit245 ;
         crm:P81_ongoing_throughout "室町末期頃" ; 
         crm:P167_at _:place245
@@ -5429,6 +5456,7 @@
     crm:P67_refers_to &lt;http://db.pref.tottori.jp/bunkazainavi.nsf/bunkazai_web_view/ED924928115C630F4925796F0007FF1C?OpenDocument&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/250/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit250 ;
         crm:P81_ongoing_throughout "" ; 
         crm:P167_at _:place250
@@ -5526,6 +5554,7 @@
     crm:P67_refers_to &lt;http://www.mishima-kankou.net/20180112/&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/253/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit253 ;
         crm:P81_ongoing_throughout "" ; 
         crm:P167_at _:place253
@@ -5639,6 +5668,7 @@
     crm:P67_refers_to &lt;http://www.yanaicci.or.jp/yanai/event/sinmei-f.html&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/264/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit264 ;
         crm:P81_ongoing_throughout "正保元年(1644年)" ; 
         crm:P167_at _:place264
@@ -5752,6 +5782,7 @@
     crm:P67_refers_to &lt;https://www.town.nyuzen.toyama.jp/bunka/kyoiku/bunka/bunkazai/mukei/sainokami.html&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/266/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit266 ;
         crm:P81_ongoing_throughout "江戸時代" ; 
         crm:P167_at _:place266
@@ -5848,6 +5879,7 @@
     crm:P67_refers_to &lt;http://www.city.miura.kanagawa.jp/shakai/mukeiminzoku/mitonooshouronagasi01.html&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/269/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit269 ;
         crm:P81_ongoing_throughout "" ; 
         crm:P167_at _:place269
@@ -5958,6 +5990,7 @@
     crm:P67_refers_to &lt;http://www.sakurai-maibun.nara.jp/yorimichi/yorimiti6.html&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/277/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit277 ;
         crm:P81_ongoing_throughout "大同4年（809年）" ; 
         crm:P167_at _:place277
@@ -6050,6 +6083,7 @@
     crm:P67_refers_to &lt;https://www.city.yamaguchi.lg.jp/site/movie/19833.html&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/278/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit278 ;
         crm:P81_ongoing_throughout "" ; 
         crm:P167_at _:place278
@@ -6137,6 +6171,7 @@
     crm:P67_refers_to &lt;https://www.pref.kagoshima.jp/ak01/chiiki/kagoshima/takarabako/traditional/akusekijimanoboze.html&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/298/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit298 ;
         crm:P81_ongoing_throughout "" ; 
         crm:P167_at _:place298
@@ -6238,6 +6273,7 @@
     crm:P67_refers_to &lt;http://mishimamura.com/ech/5560/&gt; ;
     crm:P141_assigned &lt;https://w3id.org/ifcp/299/register&gt; ; 
     crm:P94_has_created [
+        rdf:type crm:E5_Event ;
         crm:P31_has_modified _:edit299 ;
         crm:P81_ongoing_throughout "慶長三年" ; 
         crm:P167_at _:place299
